--- a/CMSC495_ProjectPlan.xlsx
+++ b/CMSC495_ProjectPlan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Git/CMSC495/cmsc495_final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Git/cmsc495_final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3C9A43-2B1B-944B-9756-2718792A4194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A8D288-2AEF-B245-9591-BAA776EE031C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13780" yWindow="500" windowWidth="37420" windowHeight="25940" xr2:uid="{A3040AE0-0367-2B43-ADDE-84CCD12855DC}"/>
   </bookViews>
@@ -1153,72 +1153,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1242,6 +1176,72 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1637,48 +1637,48 @@
       <c r="D3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="98" t="s">
+      <c r="M3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="96" t="s">
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
-      <c r="X3" s="96"/>
-      <c r="Y3" s="97" t="s">
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="97"/>
-      <c r="AA3" s="97"/>
-      <c r="AB3" s="97"/>
-      <c r="AC3" s="97"/>
-      <c r="AD3" s="97"/>
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="75"/>
+      <c r="AC3" s="75"/>
+      <c r="AD3" s="75"/>
     </row>
     <row r="4" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="90"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="99" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="100"/>
-      <c r="H4" s="101" t="s">
+      <c r="G4" s="78"/>
+      <c r="H4" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="102"/>
-      <c r="J4" s="103" t="s">
+      <c r="I4" s="80"/>
+      <c r="J4" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="104"/>
+      <c r="K4" s="82"/>
       <c r="M4" s="12" t="str">
         <f>TEXT(M5,"aaa")</f>
         <v>Tue</v>
@@ -1973,13 +1973,13 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="94" t="s">
+      <c r="D6" s="88" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="31" t="s">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="37">
-        <f t="shared" ref="N6:AQ16" si="2">IF($K6=N$5,3,IF(OR(AND($H6&lt;=N$5,N$5&lt;=$I6),$H6=N$5),2,IF(AND($F6&lt;=N$5,N$5&lt;=$G6),1,0)))</f>
+        <f t="shared" ref="N6:AQ6" si="2">IF($K6=N$5,3,IF(OR(AND($H6&lt;=N$5,N$5&lt;=$I6),$H6=N$5),2,IF(AND($F6&lt;=N$5,N$5&lt;=$G6),1,0)))</f>
         <v>0</v>
       </c>
       <c r="O6" s="37">
@@ -2130,9 +2130,9 @@
       </c>
     </row>
     <row r="7" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="85"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="95"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="89"/>
       <c r="E7" s="31" t="s">
         <v>13</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>44636</v>
       </c>
       <c r="M7" s="39">
-        <f t="shared" ref="M7:AB38" si="3">IF($K7=M$5,3,IF(OR(AND($H7&lt;=M$5,M$5&lt;=$I7),$H7=M$5),2,IF(AND($F7&lt;=M$5,M$5&lt;=$G7),1,0)))</f>
+        <f t="shared" ref="M7:AB22" si="3">IF($K7=M$5,3,IF(OR(AND($H7&lt;=M$5,M$5&lt;=$I7),$H7=M$5),2,IF(AND($F7&lt;=M$5,M$5&lt;=$G7),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N7" s="40">
@@ -2217,7 +2217,7 @@
         <v>3</v>
       </c>
       <c r="AC7" s="40">
-        <f t="shared" ref="AC7:AQ70" si="4">IF($K7=AC$5,3,IF(OR(AND($H7&lt;=AC$5,AC$5&lt;=$I7),$H7=AC$5),2,IF(AND($F7&lt;=AC$5,AC$5&lt;=$G7),1,0)))</f>
+        <f t="shared" ref="AC7:AQ21" si="4">IF($K7=AC$5,3,IF(OR(AND($H7&lt;=AC$5,AC$5&lt;=$I7),$H7=AC$5),2,IF(AND($F7&lt;=AC$5,AC$5&lt;=$G7),1,0)))</f>
         <v>1</v>
       </c>
       <c r="AD7" s="40">
@@ -2281,9 +2281,9 @@
       </c>
     </row>
     <row r="8" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="85"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="95"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="89"/>
       <c r="E8" s="31" t="s">
         <v>15</v>
       </c>
@@ -2429,10 +2429,10 @@
       </c>
     </row>
     <row r="9" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="95" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="71" t="s">
@@ -2581,8 +2581,8 @@
       </c>
     </row>
     <row r="10" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="81"/>
-      <c r="C10" s="84"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="96"/>
       <c r="D10" s="72" t="s">
         <v>62</v>
       </c>
@@ -2733,8 +2733,8 @@
       </c>
     </row>
     <row r="11" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="81"/>
-      <c r="C11" s="84"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="96"/>
       <c r="D11" s="72" t="s">
         <v>62</v>
       </c>
@@ -2879,8 +2879,8 @@
       </c>
     </row>
     <row r="12" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="81"/>
-      <c r="C12" s="84"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="96"/>
       <c r="D12" s="73" t="s">
         <v>70</v>
       </c>
@@ -2893,7 +2893,9 @@
       <c r="G12" s="33">
         <v>44645</v>
       </c>
-      <c r="H12" s="32"/>
+      <c r="H12" s="32">
+        <v>44643</v>
+      </c>
       <c r="I12" s="33"/>
       <c r="J12" s="34" t="s">
         <v>13</v>
@@ -2989,7 +2991,7 @@
       </c>
       <c r="AI12" s="40">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ12" s="40">
         <f t="shared" si="4"/>
@@ -3025,8 +3027,8 @@
       </c>
     </row>
     <row r="13" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="81"/>
-      <c r="C13" s="84"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="96"/>
       <c r="D13" s="74" t="s">
         <v>58</v>
       </c>
@@ -3167,9 +3169,9 @@
       </c>
     </row>
     <row r="14" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="81"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="87" t="s">
+      <c r="B14" s="93"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="98" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="31" t="s">
@@ -3315,9 +3317,9 @@
       </c>
     </row>
     <row r="15" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="81"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="88"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="99"/>
       <c r="E15" s="31" t="s">
         <v>13</v>
       </c>
@@ -3463,9 +3465,9 @@
       </c>
     </row>
     <row r="16" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="82"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="89"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="100"/>
       <c r="E16" s="31" t="s">
         <v>15</v>
       </c>
@@ -3611,10 +3613,10 @@
       </c>
     </row>
     <row r="17" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="85"/>
+      <c r="C17" s="87"/>
       <c r="D17" s="66" t="s">
         <v>80</v>
       </c>
@@ -3753,8 +3755,8 @@
       </c>
     </row>
     <row r="18" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="44" t="s">
         <v>54</v>
       </c>
@@ -3893,8 +3895,8 @@
       </c>
     </row>
     <row r="19" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
       <c r="D19" s="44" t="s">
         <v>55</v>
       </c>
@@ -4033,8 +4035,8 @@
       </c>
     </row>
     <row r="20" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
       <c r="D20" s="44" t="s">
         <v>79</v>
       </c>
@@ -4173,8 +4175,8 @@
       </c>
     </row>
     <row r="21" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="87"/>
       <c r="D21" s="67" t="s">
         <v>63</v>
       </c>
@@ -4313,8 +4315,8 @@
       </c>
     </row>
     <row r="22" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="45" t="s">
         <v>71</v>
       </c>
@@ -4392,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="AB22" s="40">
-        <f t="shared" ref="AB22:AQ73" si="5">IF($K22=AB$5,3,IF(OR(AND($H22&lt;=AB$5,AB$5&lt;=$I22),$H22=AB$5),2,IF(AND($F22&lt;=AB$5,AB$5&lt;=$G22),1,0)))</f>
+        <f t="shared" ref="AB22:AQ37" si="5">IF($K22=AB$5,3,IF(OR(AND($H22&lt;=AB$5,AB$5&lt;=$I22),$H22=AB$5),2,IF(AND($F22&lt;=AB$5,AB$5&lt;=$G22),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AC22" s="40">
@@ -4457,8 +4459,8 @@
       </c>
     </row>
     <row r="23" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
       <c r="D23" s="67" t="s">
         <v>58</v>
       </c>
@@ -4474,7 +4476,7 @@
       <c r="J23" s="34"/>
       <c r="K23" s="35"/>
       <c r="M23" s="39">
-        <f t="shared" ref="M23:AB54" si="6">IF($K23=M$5,3,IF(OR(AND($H23&lt;=M$5,M$5&lt;=$I23),$H23=M$5),2,IF(AND($F23&lt;=M$5,M$5&lt;=$G23),1,0)))</f>
+        <f t="shared" ref="M23:AB38" si="6">IF($K23=M$5,3,IF(OR(AND($H23&lt;=M$5,M$5&lt;=$I23),$H23=M$5),2,IF(AND($F23&lt;=M$5,M$5&lt;=$G23),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N23" s="40">
@@ -4599,8 +4601,8 @@
       </c>
     </row>
     <row r="24" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
       <c r="D24" s="67" t="s">
         <v>77</v>
       </c>
@@ -4743,8 +4745,8 @@
       </c>
     </row>
     <row r="25" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="86"/>
-      <c r="C25" s="85"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="87"/>
       <c r="D25" s="46" t="s">
         <v>17</v>
       </c>
@@ -4888,7 +4890,7 @@
     </row>
     <row r="26" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="61"/>
-      <c r="C26" s="85"/>
+      <c r="C26" s="87"/>
       <c r="D26" s="43" t="s">
         <v>64</v>
       </c>
@@ -5027,10 +5029,10 @@
       </c>
     </row>
     <row r="27" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="85"/>
+      <c r="C27" s="87"/>
       <c r="D27" s="44" t="s">
         <v>38</v>
       </c>
@@ -5169,8 +5171,8 @@
       </c>
     </row>
     <row r="28" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="87"/>
       <c r="D28" s="44" t="s">
         <v>68</v>
       </c>
@@ -5309,8 +5311,8 @@
       </c>
     </row>
     <row r="29" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
       <c r="D29" s="44" t="s">
         <v>39</v>
       </c>
@@ -5449,8 +5451,8 @@
       </c>
     </row>
     <row r="30" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="87"/>
       <c r="D30" s="44" t="s">
         <v>40</v>
       </c>
@@ -5589,8 +5591,8 @@
       </c>
     </row>
     <row r="31" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
       <c r="D31" s="44" t="s">
         <v>65</v>
       </c>
@@ -5727,8 +5729,8 @@
       </c>
     </row>
     <row r="32" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="87"/>
       <c r="D32" s="44" t="s">
         <v>69</v>
       </c>
@@ -5867,8 +5869,8 @@
       </c>
     </row>
     <row r="33" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
       <c r="D33" s="45" t="s">
         <v>72</v>
       </c>
@@ -6011,8 +6013,8 @@
       </c>
     </row>
     <row r="34" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
       <c r="D34" s="67" t="s">
         <v>58</v>
       </c>
@@ -6153,8 +6155,8 @@
       </c>
     </row>
     <row r="35" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="87"/>
       <c r="D35" s="44" t="s">
         <v>41</v>
       </c>
@@ -6297,8 +6299,8 @@
       </c>
     </row>
     <row r="36" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="86"/>
-      <c r="C36" s="86"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="97"/>
       <c r="D36" s="45" t="s">
         <v>18</v>
       </c>
@@ -6441,10 +6443,10 @@
       </c>
     </row>
     <row r="37" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="75" t="s">
+      <c r="B37" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="79" t="s">
+      <c r="C37" s="104" t="s">
         <v>32</v>
       </c>
       <c r="D37" s="43" t="s">
@@ -6585,8 +6587,8 @@
       </c>
     </row>
     <row r="38" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="76"/>
-      <c r="C38" s="79"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="104"/>
       <c r="D38" s="66" t="s">
         <v>42</v>
       </c>
@@ -6660,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="AB38" s="40">
-        <f t="shared" ref="AB38:AQ73" si="7">IF($K38=AB$5,3,IF(OR(AND($H38&lt;=AB$5,AB$5&lt;=$I38),$H38=AB$5),2,IF(AND($F38&lt;=AB$5,AB$5&lt;=$G38),1,0)))</f>
+        <f t="shared" ref="AB38:AQ53" si="7">IF($K38=AB$5,3,IF(OR(AND($H38&lt;=AB$5,AB$5&lt;=$I38),$H38=AB$5),2,IF(AND($F38&lt;=AB$5,AB$5&lt;=$G38),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AC38" s="40">
@@ -6725,8 +6727,8 @@
       </c>
     </row>
     <row r="39" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="76"/>
-      <c r="C39" s="79"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="104"/>
       <c r="D39" s="66" t="s">
         <v>67</v>
       </c>
@@ -6738,7 +6740,7 @@
       <c r="J39" s="34"/>
       <c r="K39" s="35"/>
       <c r="M39" s="39">
-        <f t="shared" ref="M39:AB73" si="8">IF($K39=M$5,3,IF(OR(AND($H39&lt;=M$5,M$5&lt;=$I39),$H39=M$5),2,IF(AND($F39&lt;=M$5,M$5&lt;=$G39),1,0)))</f>
+        <f t="shared" ref="M39:AB54" si="8">IF($K39=M$5,3,IF(OR(AND($H39&lt;=M$5,M$5&lt;=$I39),$H39=M$5),2,IF(AND($F39&lt;=M$5,M$5&lt;=$G39),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N39" s="40">
@@ -6863,8 +6865,8 @@
       </c>
     </row>
     <row r="40" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="76"/>
-      <c r="C40" s="79"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="104"/>
       <c r="D40" s="44" t="s">
         <v>46</v>
       </c>
@@ -7003,8 +7005,8 @@
       </c>
     </row>
     <row r="41" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="76"/>
-      <c r="C41" s="79"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="104"/>
       <c r="D41" s="45" t="s">
         <v>73</v>
       </c>
@@ -7147,8 +7149,8 @@
       </c>
     </row>
     <row r="42" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="76"/>
-      <c r="C42" s="79"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="104"/>
       <c r="D42" s="67" t="s">
         <v>58</v>
       </c>
@@ -7289,8 +7291,8 @@
       </c>
     </row>
     <row r="43" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="76"/>
-      <c r="C43" s="79"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="104"/>
       <c r="D43" s="47" t="s">
         <v>19</v>
       </c>
@@ -7433,8 +7435,8 @@
       </c>
     </row>
     <row r="44" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="76"/>
-      <c r="C44" s="79"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="104"/>
       <c r="D44" s="47" t="s">
         <v>48</v>
       </c>
@@ -7577,8 +7579,8 @@
       </c>
     </row>
     <row r="45" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="76"/>
-      <c r="C45" s="79"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="104"/>
       <c r="D45" s="45" t="s">
         <v>48</v>
       </c>
@@ -7721,8 +7723,8 @@
       </c>
     </row>
     <row r="46" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="77"/>
-      <c r="C46" s="79"/>
+      <c r="B46" s="103"/>
+      <c r="C46" s="104"/>
       <c r="D46" s="65" t="s">
         <v>50</v>
       </c>
@@ -7863,10 +7865,10 @@
       </c>
     </row>
     <row r="47" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="75" t="s">
+      <c r="B47" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="79"/>
+      <c r="C47" s="104"/>
       <c r="D47" s="66" t="s">
         <v>39</v>
       </c>
@@ -8005,8 +8007,8 @@
       </c>
     </row>
     <row r="48" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="76"/>
-      <c r="C48" s="79"/>
+      <c r="B48" s="102"/>
+      <c r="C48" s="104"/>
       <c r="D48" s="44" t="s">
         <v>40</v>
       </c>
@@ -8145,8 +8147,8 @@
       </c>
     </row>
     <row r="49" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="76"/>
-      <c r="C49" s="79"/>
+      <c r="B49" s="102"/>
+      <c r="C49" s="104"/>
       <c r="D49" s="44" t="s">
         <v>47</v>
       </c>
@@ -8285,8 +8287,8 @@
       </c>
     </row>
     <row r="50" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="76"/>
-      <c r="C50" s="79"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="104"/>
       <c r="D50" s="44" t="s">
         <v>49</v>
       </c>
@@ -8423,8 +8425,8 @@
       </c>
     </row>
     <row r="51" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="76"/>
-      <c r="C51" s="79"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="104"/>
       <c r="D51" s="45" t="s">
         <v>74</v>
       </c>
@@ -8567,8 +8569,8 @@
       </c>
     </row>
     <row r="52" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="76"/>
-      <c r="C52" s="79"/>
+      <c r="B52" s="102"/>
+      <c r="C52" s="104"/>
       <c r="D52" s="67" t="s">
         <v>58</v>
       </c>
@@ -8709,8 +8711,8 @@
       </c>
     </row>
     <row r="53" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="76"/>
-      <c r="C53" s="79"/>
+      <c r="B53" s="102"/>
+      <c r="C53" s="104"/>
       <c r="D53" s="47" t="s">
         <v>20</v>
       </c>
@@ -8849,8 +8851,8 @@
       </c>
     </row>
     <row r="54" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="76"/>
-      <c r="C54" s="79"/>
+      <c r="B54" s="102"/>
+      <c r="C54" s="104"/>
       <c r="D54" s="47" t="s">
         <v>44</v>
       </c>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="AB54" s="40">
-        <f t="shared" ref="AB54:AQ73" si="9">IF($K54=AB$5,3,IF(OR(AND($H54&lt;=AB$5,AB$5&lt;=$I54),$H54=AB$5),2,IF(AND($F54&lt;=AB$5,AB$5&lt;=$G54),1,0)))</f>
+        <f t="shared" ref="AB54:AQ69" si="9">IF($K54=AB$5,3,IF(OR(AND($H54&lt;=AB$5,AB$5&lt;=$I54),$H54=AB$5),2,IF(AND($F54&lt;=AB$5,AB$5&lt;=$G54),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AC54" s="40">
@@ -8989,8 +8991,8 @@
       </c>
     </row>
     <row r="55" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="77"/>
-      <c r="C55" s="79"/>
+      <c r="B55" s="103"/>
+      <c r="C55" s="104"/>
       <c r="D55" s="46" t="s">
         <v>44</v>
       </c>
@@ -9008,7 +9010,7 @@
       <c r="J55" s="34"/>
       <c r="K55" s="35"/>
       <c r="M55" s="39">
-        <f t="shared" ref="M55:AB73" si="10">IF($K55=M$5,3,IF(OR(AND($H55&lt;=M$5,M$5&lt;=$I55),$H55=M$5),2,IF(AND($F55&lt;=M$5,M$5&lt;=$G55),1,0)))</f>
+        <f t="shared" ref="M55:AB70" si="10">IF($K55=M$5,3,IF(OR(AND($H55&lt;=M$5,M$5&lt;=$I55),$H55=M$5),2,IF(AND($F55&lt;=M$5,M$5&lt;=$G55),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N55" s="40">
@@ -9133,10 +9135,10 @@
       </c>
     </row>
     <row r="56" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="75" t="s">
+      <c r="B56" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="C56" s="78" t="s">
+      <c r="C56" s="90" t="s">
         <v>33</v>
       </c>
       <c r="D56" s="43" t="s">
@@ -9277,8 +9279,8 @@
       </c>
     </row>
     <row r="57" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="76"/>
-      <c r="C57" s="78"/>
+      <c r="B57" s="102"/>
+      <c r="C57" s="90"/>
       <c r="D57" s="50" t="s">
         <v>59</v>
       </c>
@@ -9415,8 +9417,8 @@
       </c>
     </row>
     <row r="58" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="76"/>
-      <c r="C58" s="78"/>
+      <c r="B58" s="102"/>
+      <c r="C58" s="90"/>
       <c r="D58" s="51" t="s">
         <v>60</v>
       </c>
@@ -9553,8 +9555,8 @@
       </c>
     </row>
     <row r="59" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="76"/>
-      <c r="C59" s="78"/>
+      <c r="B59" s="102"/>
+      <c r="C59" s="90"/>
       <c r="D59" s="30" t="s">
         <v>43</v>
       </c>
@@ -9691,8 +9693,8 @@
       </c>
     </row>
     <row r="60" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="76"/>
-      <c r="C60" s="78"/>
+      <c r="B60" s="102"/>
+      <c r="C60" s="90"/>
       <c r="D60" s="44" t="s">
         <v>50</v>
       </c>
@@ -9829,8 +9831,8 @@
       </c>
     </row>
     <row r="61" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="76"/>
-      <c r="C61" s="78"/>
+      <c r="B61" s="102"/>
+      <c r="C61" s="90"/>
       <c r="D61" s="44" t="s">
         <v>61</v>
       </c>
@@ -9967,8 +9969,8 @@
       </c>
     </row>
     <row r="62" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="76"/>
-      <c r="C62" s="78"/>
+      <c r="B62" s="102"/>
+      <c r="C62" s="90"/>
       <c r="D62" s="45" t="s">
         <v>75</v>
       </c>
@@ -10111,8 +10113,8 @@
       </c>
     </row>
     <row r="63" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="76"/>
-      <c r="C63" s="78"/>
+      <c r="B63" s="102"/>
+      <c r="C63" s="90"/>
       <c r="D63" s="67" t="s">
         <v>58</v>
       </c>
@@ -10253,8 +10255,8 @@
       </c>
     </row>
     <row r="64" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="76"/>
-      <c r="C64" s="78"/>
+      <c r="B64" s="102"/>
+      <c r="C64" s="90"/>
       <c r="D64" s="47" t="s">
         <v>21</v>
       </c>
@@ -10393,8 +10395,8 @@
       </c>
     </row>
     <row r="65" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="76"/>
-      <c r="C65" s="78"/>
+      <c r="B65" s="102"/>
+      <c r="C65" s="90"/>
       <c r="D65" s="52" t="s">
         <v>45</v>
       </c>
@@ -10533,8 +10535,8 @@
       </c>
     </row>
     <row r="66" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="76"/>
-      <c r="C66" s="78"/>
+      <c r="B66" s="102"/>
+      <c r="C66" s="90"/>
       <c r="D66" s="53" t="s">
         <v>45</v>
       </c>
@@ -10677,10 +10679,10 @@
       </c>
     </row>
     <row r="67" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="75" t="s">
+      <c r="B67" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="78" t="s">
+      <c r="C67" s="90" t="s">
         <v>34</v>
       </c>
       <c r="D67" s="50" t="s">
@@ -10819,8 +10821,8 @@
       </c>
     </row>
     <row r="68" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="76"/>
-      <c r="C68" s="78"/>
+      <c r="B68" s="102"/>
+      <c r="C68" s="90"/>
       <c r="D68" s="30" t="s">
         <v>34</v>
       </c>
@@ -10958,8 +10960,8 @@
       </c>
     </row>
     <row r="69" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="76"/>
-      <c r="C69" s="78"/>
+      <c r="B69" s="102"/>
+      <c r="C69" s="90"/>
       <c r="D69" s="30" t="s">
         <v>34</v>
       </c>
@@ -11098,8 +11100,8 @@
       </c>
     </row>
     <row r="70" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="76"/>
-      <c r="C70" s="78"/>
+      <c r="B70" s="102"/>
+      <c r="C70" s="90"/>
       <c r="D70" s="30" t="s">
         <v>34</v>
       </c>
@@ -11238,8 +11240,8 @@
       </c>
     </row>
     <row r="71" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="76"/>
-      <c r="C71" s="78"/>
+      <c r="B71" s="102"/>
+      <c r="C71" s="90"/>
       <c r="D71" s="69" t="s">
         <v>76</v>
       </c>
@@ -11380,8 +11382,8 @@
       </c>
     </row>
     <row r="72" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="76"/>
-      <c r="C72" s="78"/>
+      <c r="B72" s="102"/>
+      <c r="C72" s="90"/>
       <c r="D72" s="30" t="s">
         <v>58</v>
       </c>
@@ -11522,8 +11524,8 @@
       </c>
     </row>
     <row r="73" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="77"/>
-      <c r="C73" s="78"/>
+      <c r="B73" s="103"/>
+      <c r="C73" s="90"/>
       <c r="D73" s="54" t="s">
         <v>57</v>
       </c>
@@ -11666,21 +11668,6 @@
   </sheetData>
   <autoFilter ref="D5:E73" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}"/>
   <mergeCells count="22">
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="C9:C36"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="B17:B25"/>
-    <mergeCell ref="B27:B36"/>
     <mergeCell ref="B67:B73"/>
     <mergeCell ref="C67:C73"/>
     <mergeCell ref="B37:B46"/>
@@ -11688,6 +11675,21 @@
     <mergeCell ref="B47:B55"/>
     <mergeCell ref="B56:B66"/>
     <mergeCell ref="C56:C66"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="C9:C36"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="B27:B36"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="M6:AQ73">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">

--- a/CMSC495_ProjectPlan.xlsx
+++ b/CMSC495_ProjectPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Git/cmsc495_final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A8D288-2AEF-B245-9591-BAA776EE031C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F814E1F-1272-B441-BC2A-532BB8CA80A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13780" yWindow="500" windowWidth="37420" windowHeight="25940" xr2:uid="{A3040AE0-0367-2B43-ADDE-84CCD12855DC}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="81">
   <si>
     <t>Year</t>
   </si>
@@ -1153,6 +1153,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1176,72 +1242,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1637,48 +1637,48 @@
       <c r="D3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="76" t="s">
+      <c r="M3" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="91" t="s">
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="75" t="s">
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="96"/>
+      <c r="Y3" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
     </row>
     <row r="4" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="83"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="77" t="s">
+      <c r="B4" s="90"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="79" t="s">
+      <c r="G4" s="100"/>
+      <c r="H4" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="80"/>
-      <c r="J4" s="81" t="s">
+      <c r="I4" s="102"/>
+      <c r="J4" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="82"/>
+      <c r="K4" s="104"/>
       <c r="M4" s="12" t="str">
         <f>TEXT(M5,"aaa")</f>
         <v>Tue</v>
@@ -1973,13 +1973,13 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="94" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="31" t="s">
@@ -2130,9 +2130,9 @@
       </c>
     </row>
     <row r="7" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="87"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="89"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="95"/>
       <c r="E7" s="31" t="s">
         <v>13</v>
       </c>
@@ -2281,9 +2281,9 @@
       </c>
     </row>
     <row r="8" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="87"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="89"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="31" t="s">
         <v>15</v>
       </c>
@@ -2429,10 +2429,10 @@
       </c>
     </row>
     <row r="9" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="83" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="71" t="s">
@@ -2445,16 +2445,20 @@
         <v>44642</v>
       </c>
       <c r="G9" s="33">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="H9" s="32">
         <v>44642</v>
       </c>
-      <c r="I9" s="33"/>
+      <c r="I9" s="33">
+        <v>44643</v>
+      </c>
       <c r="J9" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="35"/>
+      <c r="K9" s="35">
+        <v>44643</v>
+      </c>
       <c r="M9" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2545,11 +2549,11 @@
       </c>
       <c r="AI9" s="40">
         <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AJ9" s="40">
+        <f t="shared" si="4"/>
         <v>1</v>
-      </c>
-      <c r="AJ9" s="40">
-        <f t="shared" si="4"/>
-        <v>0</v>
       </c>
       <c r="AK9" s="40">
         <f t="shared" si="4"/>
@@ -2581,8 +2585,8 @@
       </c>
     </row>
     <row r="10" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="93"/>
-      <c r="C10" s="96"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="84"/>
       <c r="D10" s="72" t="s">
         <v>62</v>
       </c>
@@ -2593,7 +2597,7 @@
         <v>44642</v>
       </c>
       <c r="G10" s="33">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="H10" s="32">
         <v>44642</v>
@@ -2701,7 +2705,7 @@
       </c>
       <c r="AJ10" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10" s="40">
         <f t="shared" si="4"/>
@@ -2733,8 +2737,8 @@
       </c>
     </row>
     <row r="11" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="93"/>
-      <c r="C11" s="96"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="72" t="s">
         <v>62</v>
       </c>
@@ -2745,14 +2749,20 @@
         <v>44642</v>
       </c>
       <c r="G11" s="33">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="H11" s="32">
         <v>44642</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="35"/>
+      <c r="I11" s="33">
+        <v>44643</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="35">
+        <v>44643</v>
+      </c>
       <c r="M11" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2843,11 +2853,11 @@
       </c>
       <c r="AI11" s="40">
         <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AJ11" s="40">
+        <f t="shared" si="4"/>
         <v>1</v>
-      </c>
-      <c r="AJ11" s="40">
-        <f t="shared" si="4"/>
-        <v>0</v>
       </c>
       <c r="AK11" s="40">
         <f t="shared" si="4"/>
@@ -2879,8 +2889,8 @@
       </c>
     </row>
     <row r="12" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="93"/>
-      <c r="C12" s="96"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="84"/>
       <c r="D12" s="73" t="s">
         <v>70</v>
       </c>
@@ -2896,11 +2906,15 @@
       <c r="H12" s="32">
         <v>44643</v>
       </c>
-      <c r="I12" s="33"/>
+      <c r="I12" s="33">
+        <v>44643</v>
+      </c>
       <c r="J12" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="35"/>
+      <c r="K12" s="35">
+        <v>44643</v>
+      </c>
       <c r="M12" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2991,7 +3005,7 @@
       </c>
       <c r="AI12" s="40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ12" s="40">
         <f t="shared" si="4"/>
@@ -3027,8 +3041,8 @@
       </c>
     </row>
     <row r="13" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="93"/>
-      <c r="C13" s="96"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="74" t="s">
         <v>58</v>
       </c>
@@ -3169,9 +3183,9 @@
       </c>
     </row>
     <row r="14" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="93"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="98" t="s">
+      <c r="B14" s="81"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="87" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="31" t="s">
@@ -3317,9 +3331,9 @@
       </c>
     </row>
     <row r="15" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="93"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="99"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="88"/>
       <c r="E15" s="31" t="s">
         <v>13</v>
       </c>
@@ -3465,9 +3479,9 @@
       </c>
     </row>
     <row r="16" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="94"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="100"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="89"/>
       <c r="E16" s="31" t="s">
         <v>15</v>
       </c>
@@ -3613,10 +3627,10 @@
       </c>
     </row>
     <row r="17" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="87"/>
+      <c r="C17" s="85"/>
       <c r="D17" s="66" t="s">
         <v>80</v>
       </c>
@@ -3755,8 +3769,8 @@
       </c>
     </row>
     <row r="18" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
       <c r="D18" s="44" t="s">
         <v>54</v>
       </c>
@@ -3765,9 +3779,13 @@
       </c>
       <c r="F18" s="32"/>
       <c r="G18" s="35"/>
-      <c r="H18" s="32"/>
+      <c r="H18" s="32">
+        <v>44643</v>
+      </c>
       <c r="I18" s="35"/>
-      <c r="J18" s="34"/>
+      <c r="J18" s="34" t="s">
+        <v>15</v>
+      </c>
       <c r="K18" s="35"/>
       <c r="M18" s="39">
         <f t="shared" si="3"/>
@@ -3859,7 +3877,7 @@
       </c>
       <c r="AI18" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ18" s="40">
         <f t="shared" si="4"/>
@@ -3895,8 +3913,8 @@
       </c>
     </row>
     <row r="19" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
       <c r="D19" s="44" t="s">
         <v>55</v>
       </c>
@@ -3905,9 +3923,13 @@
       </c>
       <c r="F19" s="32"/>
       <c r="G19" s="35"/>
-      <c r="H19" s="32"/>
+      <c r="H19" s="32">
+        <v>44643</v>
+      </c>
       <c r="I19" s="35"/>
-      <c r="J19" s="34"/>
+      <c r="J19" s="34" t="s">
+        <v>14</v>
+      </c>
       <c r="K19" s="35"/>
       <c r="M19" s="39">
         <f t="shared" si="3"/>
@@ -3999,7 +4021,7 @@
       </c>
       <c r="AI19" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ19" s="40">
         <f t="shared" si="4"/>
@@ -4035,8 +4057,8 @@
       </c>
     </row>
     <row r="20" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
       <c r="D20" s="44" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4197,8 @@
       </c>
     </row>
     <row r="21" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="87"/>
-      <c r="C21" s="87"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
       <c r="D21" s="67" t="s">
         <v>63</v>
       </c>
@@ -4315,8 +4337,8 @@
       </c>
     </row>
     <row r="22" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
       <c r="D22" s="45" t="s">
         <v>71</v>
       </c>
@@ -4459,8 +4481,8 @@
       </c>
     </row>
     <row r="23" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
       <c r="D23" s="67" t="s">
         <v>58</v>
       </c>
@@ -4601,8 +4623,8 @@
       </c>
     </row>
     <row r="24" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
       <c r="D24" s="67" t="s">
         <v>77</v>
       </c>
@@ -4745,8 +4767,8 @@
       </c>
     </row>
     <row r="25" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="97"/>
-      <c r="C25" s="87"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="85"/>
       <c r="D25" s="46" t="s">
         <v>17</v>
       </c>
@@ -4890,7 +4912,7 @@
     </row>
     <row r="26" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="61"/>
-      <c r="C26" s="87"/>
+      <c r="C26" s="85"/>
       <c r="D26" s="43" t="s">
         <v>64</v>
       </c>
@@ -5029,10 +5051,10 @@
       </c>
     </row>
     <row r="27" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="87"/>
+      <c r="C27" s="85"/>
       <c r="D27" s="44" t="s">
         <v>38</v>
       </c>
@@ -5171,8 +5193,8 @@
       </c>
     </row>
     <row r="28" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="87"/>
-      <c r="C28" s="87"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="85"/>
       <c r="D28" s="44" t="s">
         <v>68</v>
       </c>
@@ -5311,8 +5333,8 @@
       </c>
     </row>
     <row r="29" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="87"/>
-      <c r="C29" s="87"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="85"/>
       <c r="D29" s="44" t="s">
         <v>39</v>
       </c>
@@ -5451,8 +5473,8 @@
       </c>
     </row>
     <row r="30" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="87"/>
-      <c r="C30" s="87"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="85"/>
       <c r="D30" s="44" t="s">
         <v>40</v>
       </c>
@@ -5591,8 +5613,8 @@
       </c>
     </row>
     <row r="31" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="85"/>
       <c r="D31" s="44" t="s">
         <v>65</v>
       </c>
@@ -5729,8 +5751,8 @@
       </c>
     </row>
     <row r="32" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="87"/>
-      <c r="C32" s="87"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
       <c r="D32" s="44" t="s">
         <v>69</v>
       </c>
@@ -5869,8 +5891,8 @@
       </c>
     </row>
     <row r="33" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="85"/>
       <c r="D33" s="45" t="s">
         <v>72</v>
       </c>
@@ -6013,8 +6035,8 @@
       </c>
     </row>
     <row r="34" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="85"/>
       <c r="D34" s="67" t="s">
         <v>58</v>
       </c>
@@ -6155,8 +6177,8 @@
       </c>
     </row>
     <row r="35" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="87"/>
-      <c r="C35" s="87"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
       <c r="D35" s="44" t="s">
         <v>41</v>
       </c>
@@ -6299,8 +6321,8 @@
       </c>
     </row>
     <row r="36" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="97"/>
-      <c r="C36" s="97"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="86"/>
       <c r="D36" s="45" t="s">
         <v>18</v>
       </c>
@@ -6443,10 +6465,10 @@
       </c>
     </row>
     <row r="37" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="101" t="s">
+      <c r="B37" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="104" t="s">
+      <c r="C37" s="79" t="s">
         <v>32</v>
       </c>
       <c r="D37" s="43" t="s">
@@ -6587,8 +6609,8 @@
       </c>
     </row>
     <row r="38" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="102"/>
-      <c r="C38" s="104"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="79"/>
       <c r="D38" s="66" t="s">
         <v>42</v>
       </c>
@@ -6727,8 +6749,8 @@
       </c>
     </row>
     <row r="39" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="102"/>
-      <c r="C39" s="104"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="79"/>
       <c r="D39" s="66" t="s">
         <v>67</v>
       </c>
@@ -6865,8 +6887,8 @@
       </c>
     </row>
     <row r="40" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="102"/>
-      <c r="C40" s="104"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="79"/>
       <c r="D40" s="44" t="s">
         <v>46</v>
       </c>
@@ -7005,8 +7027,8 @@
       </c>
     </row>
     <row r="41" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="102"/>
-      <c r="C41" s="104"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="79"/>
       <c r="D41" s="45" t="s">
         <v>73</v>
       </c>
@@ -7149,8 +7171,8 @@
       </c>
     </row>
     <row r="42" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="102"/>
-      <c r="C42" s="104"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="79"/>
       <c r="D42" s="67" t="s">
         <v>58</v>
       </c>
@@ -7291,8 +7313,8 @@
       </c>
     </row>
     <row r="43" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="102"/>
-      <c r="C43" s="104"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="79"/>
       <c r="D43" s="47" t="s">
         <v>19</v>
       </c>
@@ -7435,8 +7457,8 @@
       </c>
     </row>
     <row r="44" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="102"/>
-      <c r="C44" s="104"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="79"/>
       <c r="D44" s="47" t="s">
         <v>48</v>
       </c>
@@ -7579,8 +7601,8 @@
       </c>
     </row>
     <row r="45" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="102"/>
-      <c r="C45" s="104"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="79"/>
       <c r="D45" s="45" t="s">
         <v>48</v>
       </c>
@@ -7723,8 +7745,8 @@
       </c>
     </row>
     <row r="46" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="103"/>
-      <c r="C46" s="104"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="79"/>
       <c r="D46" s="65" t="s">
         <v>50</v>
       </c>
@@ -7865,10 +7887,10 @@
       </c>
     </row>
     <row r="47" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="101" t="s">
+      <c r="B47" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="104"/>
+      <c r="C47" s="79"/>
       <c r="D47" s="66" t="s">
         <v>39</v>
       </c>
@@ -8007,8 +8029,8 @@
       </c>
     </row>
     <row r="48" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="102"/>
-      <c r="C48" s="104"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="79"/>
       <c r="D48" s="44" t="s">
         <v>40</v>
       </c>
@@ -8147,8 +8169,8 @@
       </c>
     </row>
     <row r="49" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="102"/>
-      <c r="C49" s="104"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="79"/>
       <c r="D49" s="44" t="s">
         <v>47</v>
       </c>
@@ -8287,8 +8309,8 @@
       </c>
     </row>
     <row r="50" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="102"/>
-      <c r="C50" s="104"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="79"/>
       <c r="D50" s="44" t="s">
         <v>49</v>
       </c>
@@ -8425,8 +8447,8 @@
       </c>
     </row>
     <row r="51" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="102"/>
-      <c r="C51" s="104"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="79"/>
       <c r="D51" s="45" t="s">
         <v>74</v>
       </c>
@@ -8569,8 +8591,8 @@
       </c>
     </row>
     <row r="52" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="102"/>
-      <c r="C52" s="104"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="79"/>
       <c r="D52" s="67" t="s">
         <v>58</v>
       </c>
@@ -8711,8 +8733,8 @@
       </c>
     </row>
     <row r="53" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="102"/>
-      <c r="C53" s="104"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="79"/>
       <c r="D53" s="47" t="s">
         <v>20</v>
       </c>
@@ -8851,8 +8873,8 @@
       </c>
     </row>
     <row r="54" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="102"/>
-      <c r="C54" s="104"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="79"/>
       <c r="D54" s="47" t="s">
         <v>44</v>
       </c>
@@ -8991,8 +9013,8 @@
       </c>
     </row>
     <row r="55" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="103"/>
-      <c r="C55" s="104"/>
+      <c r="B55" s="77"/>
+      <c r="C55" s="79"/>
       <c r="D55" s="46" t="s">
         <v>44</v>
       </c>
@@ -9135,10 +9157,10 @@
       </c>
     </row>
     <row r="56" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="101" t="s">
+      <c r="B56" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C56" s="90" t="s">
+      <c r="C56" s="78" t="s">
         <v>33</v>
       </c>
       <c r="D56" s="43" t="s">
@@ -9279,8 +9301,8 @@
       </c>
     </row>
     <row r="57" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="102"/>
-      <c r="C57" s="90"/>
+      <c r="B57" s="76"/>
+      <c r="C57" s="78"/>
       <c r="D57" s="50" t="s">
         <v>59</v>
       </c>
@@ -9417,8 +9439,8 @@
       </c>
     </row>
     <row r="58" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="102"/>
-      <c r="C58" s="90"/>
+      <c r="B58" s="76"/>
+      <c r="C58" s="78"/>
       <c r="D58" s="51" t="s">
         <v>60</v>
       </c>
@@ -9555,8 +9577,8 @@
       </c>
     </row>
     <row r="59" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="102"/>
-      <c r="C59" s="90"/>
+      <c r="B59" s="76"/>
+      <c r="C59" s="78"/>
       <c r="D59" s="30" t="s">
         <v>43</v>
       </c>
@@ -9693,8 +9715,8 @@
       </c>
     </row>
     <row r="60" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="102"/>
-      <c r="C60" s="90"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="78"/>
       <c r="D60" s="44" t="s">
         <v>50</v>
       </c>
@@ -9831,8 +9853,8 @@
       </c>
     </row>
     <row r="61" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="102"/>
-      <c r="C61" s="90"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="78"/>
       <c r="D61" s="44" t="s">
         <v>61</v>
       </c>
@@ -9969,8 +9991,8 @@
       </c>
     </row>
     <row r="62" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="102"/>
-      <c r="C62" s="90"/>
+      <c r="B62" s="76"/>
+      <c r="C62" s="78"/>
       <c r="D62" s="45" t="s">
         <v>75</v>
       </c>
@@ -10113,8 +10135,8 @@
       </c>
     </row>
     <row r="63" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="102"/>
-      <c r="C63" s="90"/>
+      <c r="B63" s="76"/>
+      <c r="C63" s="78"/>
       <c r="D63" s="67" t="s">
         <v>58</v>
       </c>
@@ -10255,8 +10277,8 @@
       </c>
     </row>
     <row r="64" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="102"/>
-      <c r="C64" s="90"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="78"/>
       <c r="D64" s="47" t="s">
         <v>21</v>
       </c>
@@ -10395,8 +10417,8 @@
       </c>
     </row>
     <row r="65" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="102"/>
-      <c r="C65" s="90"/>
+      <c r="B65" s="76"/>
+      <c r="C65" s="78"/>
       <c r="D65" s="52" t="s">
         <v>45</v>
       </c>
@@ -10535,8 +10557,8 @@
       </c>
     </row>
     <row r="66" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="102"/>
-      <c r="C66" s="90"/>
+      <c r="B66" s="76"/>
+      <c r="C66" s="78"/>
       <c r="D66" s="53" t="s">
         <v>45</v>
       </c>
@@ -10679,10 +10701,10 @@
       </c>
     </row>
     <row r="67" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="101" t="s">
+      <c r="B67" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="90" t="s">
+      <c r="C67" s="78" t="s">
         <v>34</v>
       </c>
       <c r="D67" s="50" t="s">
@@ -10821,8 +10843,8 @@
       </c>
     </row>
     <row r="68" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="102"/>
-      <c r="C68" s="90"/>
+      <c r="B68" s="76"/>
+      <c r="C68" s="78"/>
       <c r="D68" s="30" t="s">
         <v>34</v>
       </c>
@@ -10960,8 +10982,8 @@
       </c>
     </row>
     <row r="69" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="102"/>
-      <c r="C69" s="90"/>
+      <c r="B69" s="76"/>
+      <c r="C69" s="78"/>
       <c r="D69" s="30" t="s">
         <v>34</v>
       </c>
@@ -11100,8 +11122,8 @@
       </c>
     </row>
     <row r="70" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="102"/>
-      <c r="C70" s="90"/>
+      <c r="B70" s="76"/>
+      <c r="C70" s="78"/>
       <c r="D70" s="30" t="s">
         <v>34</v>
       </c>
@@ -11240,8 +11262,8 @@
       </c>
     </row>
     <row r="71" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="102"/>
-      <c r="C71" s="90"/>
+      <c r="B71" s="76"/>
+      <c r="C71" s="78"/>
       <c r="D71" s="69" t="s">
         <v>76</v>
       </c>
@@ -11382,8 +11404,8 @@
       </c>
     </row>
     <row r="72" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="102"/>
-      <c r="C72" s="90"/>
+      <c r="B72" s="76"/>
+      <c r="C72" s="78"/>
       <c r="D72" s="30" t="s">
         <v>58</v>
       </c>
@@ -11524,8 +11546,8 @@
       </c>
     </row>
     <row r="73" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="103"/>
-      <c r="C73" s="90"/>
+      <c r="B73" s="77"/>
+      <c r="C73" s="78"/>
       <c r="D73" s="54" t="s">
         <v>57</v>
       </c>
@@ -11668,6 +11690,21 @@
   </sheetData>
   <autoFilter ref="D5:E73" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}"/>
   <mergeCells count="22">
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="C9:C36"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="B27:B36"/>
     <mergeCell ref="B67:B73"/>
     <mergeCell ref="C67:C73"/>
     <mergeCell ref="B37:B46"/>
@@ -11675,21 +11712,6 @@
     <mergeCell ref="B47:B55"/>
     <mergeCell ref="B56:B66"/>
     <mergeCell ref="C56:C66"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="C9:C36"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="B17:B25"/>
-    <mergeCell ref="B27:B36"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="M6:AQ73">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">

--- a/CMSC495_ProjectPlan.xlsx
+++ b/CMSC495_ProjectPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Git/cmsc495_final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F814E1F-1272-B441-BC2A-532BB8CA80A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF45C355-0BF8-824C-A3E1-AF0BE4F97EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13780" yWindow="500" windowWidth="37420" windowHeight="25940" xr2:uid="{A3040AE0-0367-2B43-ADDE-84CCD12855DC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Project_Plan" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Project_Plan!$D$5:$E$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Project_Plan!$D$5:$E$74</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="82">
   <si>
     <t>Year</t>
   </si>
@@ -299,10 +299,13 @@
     <t>※Group Discussion will be every Monday morning at 7:00 CET / 15:00 JST.</t>
   </si>
   <si>
-    <t>File I/O Test Plan</t>
+    <t>GUI Test Plan</t>
   </si>
   <si>
-    <t>GUI Test Plan</t>
+    <t>Reset/Delete Test Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File I/O (Open/Save Image) </t>
   </si>
 </sst>
 </file>
@@ -1153,72 +1156,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1242,6 +1179,72 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1579,7 +1582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}">
-  <dimension ref="A1:AV73"/>
+  <dimension ref="A1:AV74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -1587,7 +1590,8 @@
   <cols>
     <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="20.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.83203125" style="1" customWidth="1"/>
     <col min="6" max="9" width="13.83203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="16.83203125" style="1" customWidth="1"/>
@@ -1637,48 +1641,48 @@
       <c r="D3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="98" t="s">
+      <c r="M3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="96" t="s">
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
-      <c r="X3" s="96"/>
-      <c r="Y3" s="97" t="s">
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="97"/>
-      <c r="AA3" s="97"/>
-      <c r="AB3" s="97"/>
-      <c r="AC3" s="97"/>
-      <c r="AD3" s="97"/>
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="75"/>
+      <c r="AC3" s="75"/>
+      <c r="AD3" s="75"/>
     </row>
     <row r="4" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="90"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="99" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="100"/>
-      <c r="H4" s="101" t="s">
+      <c r="G4" s="78"/>
+      <c r="H4" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="102"/>
-      <c r="J4" s="103" t="s">
+      <c r="I4" s="80"/>
+      <c r="J4" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="104"/>
+      <c r="K4" s="82"/>
       <c r="M4" s="12" t="str">
         <f>TEXT(M5,"aaa")</f>
         <v>Tue</v>
@@ -1973,13 +1977,13 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="94" t="s">
+      <c r="D6" s="88" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="31" t="s">
@@ -2006,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="37">
-        <f t="shared" ref="N6:AQ6" si="2">IF($K6=N$5,3,IF(OR(AND($H6&lt;=N$5,N$5&lt;=$I6),$H6=N$5),2,IF(AND($F6&lt;=N$5,N$5&lt;=$G6),1,0)))</f>
+        <f t="shared" ref="N6:AQ14" si="2">IF($K6=N$5,3,IF(OR(AND($H6&lt;=N$5,N$5&lt;=$I6),$H6=N$5),2,IF(AND($F6&lt;=N$5,N$5&lt;=$G6),1,0)))</f>
         <v>0</v>
       </c>
       <c r="O6" s="37">
@@ -2130,9 +2134,9 @@
       </c>
     </row>
     <row r="7" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="85"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="95"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="89"/>
       <c r="E7" s="31" t="s">
         <v>13</v>
       </c>
@@ -2153,127 +2157,127 @@
         <v>44636</v>
       </c>
       <c r="M7" s="39">
-        <f t="shared" ref="M7:AB22" si="3">IF($K7=M$5,3,IF(OR(AND($H7&lt;=M$5,M$5&lt;=$I7),$H7=M$5),2,IF(AND($F7&lt;=M$5,M$5&lt;=$G7),1,0)))</f>
+        <f t="shared" ref="M7:AB38" si="3">IF($K7=M$5,3,IF(OR(AND($H7&lt;=M$5,M$5&lt;=$I7),$H7=M$5),2,IF(AND($F7&lt;=M$5,M$5&lt;=$G7),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N7" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O7" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P7" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q7" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R7" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S7" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T7" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U7" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V7" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W7" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X7" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y7" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z7" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA7" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AB7" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AC7" s="40">
-        <f t="shared" ref="AC7:AQ21" si="4">IF($K7=AC$5,3,IF(OR(AND($H7&lt;=AC$5,AC$5&lt;=$I7),$H7=AC$5),2,IF(AND($F7&lt;=AC$5,AC$5&lt;=$G7),1,0)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD7" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE7" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF7" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AG7" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AH7" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AI7" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AJ7" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK7" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL7" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM7" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AN7" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AO7" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AP7" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AQ7" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AS7" s="42" t="s">
@@ -2281,9 +2285,9 @@
       </c>
     </row>
     <row r="8" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="85"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="95"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="89"/>
       <c r="E8" s="31" t="s">
         <v>15</v>
       </c>
@@ -2308,131 +2312,131 @@
         <v>0</v>
       </c>
       <c r="N8" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O8" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P8" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q8" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R8" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S8" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T8" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U8" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V8" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W8" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X8" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y8" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z8" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA8" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AB8" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AC8" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD8" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE8" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF8" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AG8" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AH8" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AI8" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AJ8" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK8" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL8" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM8" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AN8" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AO8" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AP8" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AQ8" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="95" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="71" t="s">
@@ -2464,129 +2468,129 @@
         <v>0</v>
       </c>
       <c r="N9" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O9" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P9" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q9" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R9" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S9" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T9" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U9" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V9" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W9" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X9" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y9" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z9" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA9" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB9" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC9" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD9" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE9" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF9" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG9" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH9" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AI9" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AJ9" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AK9" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL9" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM9" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AN9" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AO9" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AP9" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AQ9" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="81"/>
-      <c r="C10" s="84"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="96"/>
       <c r="D10" s="72" t="s">
         <v>62</v>
       </c>
@@ -2616,129 +2620,129 @@
         <v>0</v>
       </c>
       <c r="N10" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O10" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P10" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q10" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R10" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S10" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T10" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U10" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V10" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W10" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X10" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y10" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z10" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA10" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB10" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC10" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD10" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE10" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF10" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG10" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH10" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AI10" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AJ10" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AK10" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL10" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM10" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AN10" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AO10" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AP10" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AQ10" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="81"/>
-      <c r="C11" s="84"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="96"/>
       <c r="D11" s="72" t="s">
         <v>62</v>
       </c>
@@ -2768,129 +2772,129 @@
         <v>0</v>
       </c>
       <c r="N11" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O11" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P11" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q11" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R11" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S11" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T11" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U11" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V11" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W11" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X11" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y11" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z11" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA11" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB11" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC11" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD11" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE11" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF11" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG11" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH11" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AI11" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AJ11" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AK11" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL11" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM11" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AN11" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AO11" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AP11" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AQ11" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="81"/>
-      <c r="C12" s="84"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="96"/>
       <c r="D12" s="73" t="s">
         <v>70</v>
       </c>
@@ -2920,129 +2924,129 @@
         <v>0</v>
       </c>
       <c r="N12" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O12" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P12" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q12" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R12" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S12" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T12" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U12" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V12" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W12" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X12" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y12" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z12" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA12" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB12" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC12" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD12" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE12" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF12" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG12" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH12" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI12" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AJ12" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AK12" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AL12" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM12" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AN12" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AO12" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AP12" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AQ12" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="81"/>
-      <c r="C13" s="84"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="96"/>
       <c r="D13" s="74" t="s">
         <v>58</v>
       </c>
@@ -3062,130 +3066,130 @@
         <v>0</v>
       </c>
       <c r="N13" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O13" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P13" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q13" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R13" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S13" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T13" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U13" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V13" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W13" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X13" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y13" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z13" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA13" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB13" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC13" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD13" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE13" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF13" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG13" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH13" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI13" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AJ13" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK13" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL13" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM13" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AN13" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AO13" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AP13" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AQ13" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="81"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="87" t="s">
+      <c r="B14" s="93"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="98" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="31" t="s">
@@ -3210,67 +3214,67 @@
         <v>0</v>
       </c>
       <c r="N14" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O14" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P14" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q14" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R14" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S14" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T14" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U14" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V14" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W14" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X14" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y14" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z14" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA14" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB14" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC14" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="AC14:AQ74" si="4">IF($K14=AC$5,3,IF(OR(AND($H14&lt;=AC$5,AC$5&lt;=$I14),$H14=AC$5),2,IF(AND($F14&lt;=AC$5,AC$5&lt;=$G14),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AD14" s="40">
@@ -3331,9 +3335,9 @@
       </c>
     </row>
     <row r="15" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="81"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="88"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="99"/>
       <c r="E15" s="31" t="s">
         <v>13</v>
       </c>
@@ -3479,9 +3483,9 @@
       </c>
     </row>
     <row r="16" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="82"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="89"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="100"/>
       <c r="E16" s="31" t="s">
         <v>15</v>
       </c>
@@ -3627,18 +3631,22 @@
       </c>
     </row>
     <row r="17" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="85"/>
+      <c r="C17" s="87"/>
       <c r="D17" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E17" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="35"/>
+      <c r="F17" s="32">
+        <v>44650</v>
+      </c>
+      <c r="G17" s="35">
+        <v>44652</v>
+      </c>
       <c r="H17" s="32"/>
       <c r="I17" s="35"/>
       <c r="J17" s="34"/>
@@ -3761,31 +3769,29 @@
       </c>
       <c r="AP17" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ17" s="41">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="32">
-        <v>44643</v>
-      </c>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32">
+        <v>44650</v>
+      </c>
+      <c r="G18" s="35">
+        <v>44652</v>
+      </c>
+      <c r="H18" s="32"/>
       <c r="I18" s="35"/>
-      <c r="J18" s="34" t="s">
-        <v>15</v>
-      </c>
+      <c r="J18" s="34"/>
       <c r="K18" s="35"/>
       <c r="M18" s="39">
         <f t="shared" si="3"/>
@@ -3877,7 +3883,7 @@
       </c>
       <c r="AI18" s="40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="40">
         <f t="shared" si="4"/>
@@ -3905,32 +3911,40 @@
       </c>
       <c r="AP18" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ18" s="41">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
       <c r="D19" s="44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="35"/>
+      <c r="F19" s="32">
+        <v>44650</v>
+      </c>
+      <c r="G19" s="35">
+        <v>44652</v>
+      </c>
       <c r="H19" s="32">
         <v>44643</v>
       </c>
-      <c r="I19" s="35"/>
+      <c r="I19" s="35">
+        <v>44644</v>
+      </c>
       <c r="J19" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="35"/>
+        <v>15</v>
+      </c>
+      <c r="K19" s="35">
+        <v>44645</v>
+      </c>
       <c r="M19" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4025,11 +4039,11 @@
       </c>
       <c r="AJ19" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK19" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL19" s="40">
         <f t="shared" si="4"/>
@@ -4049,28 +4063,40 @@
       </c>
       <c r="AP19" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ19" s="41">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
       <c r="D20" s="44" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="35"/>
+        <v>13</v>
+      </c>
+      <c r="F20" s="32">
+        <v>44650</v>
+      </c>
+      <c r="G20" s="35">
+        <v>44652</v>
+      </c>
+      <c r="H20" s="32">
+        <v>44643</v>
+      </c>
+      <c r="I20" s="35">
+        <v>44644</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="35">
+        <v>44645</v>
+      </c>
       <c r="M20" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4161,15 +4187,15 @@
       </c>
       <c r="AI20" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ20" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK20" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL20" s="40">
         <f t="shared" si="4"/>
@@ -4189,24 +4215,28 @@
       </c>
       <c r="AP20" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ20" s="41">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="67" t="s">
-        <v>63</v>
+      <c r="B21" s="87"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="44" t="s">
+        <v>81</v>
       </c>
       <c r="E21" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="35"/>
+      <c r="F21" s="32">
+        <v>44650</v>
+      </c>
+      <c r="G21" s="35">
+        <v>44652</v>
+      </c>
       <c r="H21" s="32"/>
       <c r="I21" s="35"/>
       <c r="J21" s="34"/>
@@ -4329,18 +4359,18 @@
       </c>
       <c r="AP21" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ21" s="41">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="45" t="s">
-        <v>71</v>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="67" t="s">
+        <v>63</v>
       </c>
       <c r="E22" s="31" t="s">
         <v>14</v>
@@ -4416,223 +4446,223 @@
         <v>0</v>
       </c>
       <c r="AB22" s="40">
-        <f t="shared" ref="AB22:AQ37" si="5">IF($K22=AB$5,3,IF(OR(AND($H22&lt;=AB$5,AB$5&lt;=$I22),$H22=AB$5),2,IF(AND($F22&lt;=AB$5,AB$5&lt;=$G22),1,0)))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC22" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD22" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE22" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF22" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG22" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH22" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI22" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AJ22" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AK22" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AL22" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM22" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN22" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AO22" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP22" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AQ22" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="31"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>14</v>
+      </c>
       <c r="F23" s="32">
-        <v>44655</v>
+        <v>44650</v>
       </c>
       <c r="G23" s="35">
-        <v>44655</v>
+        <v>44652</v>
       </c>
       <c r="H23" s="32"/>
       <c r="I23" s="35"/>
       <c r="J23" s="34"/>
       <c r="K23" s="35"/>
       <c r="M23" s="39">
-        <f t="shared" ref="M23:AB38" si="6">IF($K23=M$5,3,IF(OR(AND($H23&lt;=M$5,M$5&lt;=$I23),$H23=M$5),2,IF(AND($F23&lt;=M$5,M$5&lt;=$G23),1,0)))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N23" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O23" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P23" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q23" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R23" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S23" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T23" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U23" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V23" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W23" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X23" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y23" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z23" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA23" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB23" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC23" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD23" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE23" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF23" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG23" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH23" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI23" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AJ23" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AK23" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AL23" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM23" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN23" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AO23" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP23" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AQ23" s="41">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
       <c r="D24" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>15</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E24" s="31"/>
       <c r="F24" s="32">
-        <v>44650</v>
+        <v>44655</v>
       </c>
       <c r="G24" s="35">
         <v>44655</v>
@@ -4642,135 +4672,135 @@
       <c r="J24" s="34"/>
       <c r="K24" s="35"/>
       <c r="M24" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N24" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O24" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P24" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q24" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R24" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S24" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T24" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U24" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V24" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W24" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X24" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y24" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z24" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA24" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB24" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC24" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD24" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE24" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF24" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG24" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH24" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI24" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AJ24" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AK24" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AL24" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM24" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN24" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AO24" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP24" s="40">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="AQ24" s="41">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="86"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="46" t="s">
-        <v>17</v>
+    <row r="25" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="67" t="s">
+        <v>77</v>
       </c>
       <c r="E25" s="31" t="s">
         <v>15</v>
@@ -4779,287 +4809,289 @@
         <v>44650</v>
       </c>
       <c r="G25" s="35">
-        <v>44656</v>
+        <v>44655</v>
       </c>
       <c r="H25" s="32"/>
       <c r="I25" s="35"/>
       <c r="J25" s="34"/>
       <c r="K25" s="35"/>
       <c r="M25" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N25" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O25" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P25" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q25" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R25" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S25" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T25" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U25" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V25" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W25" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X25" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y25" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z25" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA25" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB25" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC25" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD25" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE25" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF25" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG25" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH25" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI25" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AJ25" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AK25" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AL25" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM25" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN25" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AO25" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP25" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AQ25" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="61"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="43" t="s">
-        <v>64</v>
+    <row r="26" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="97"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="35"/>
+        <v>15</v>
+      </c>
+      <c r="F26" s="32">
+        <v>44650</v>
+      </c>
+      <c r="G26" s="35">
+        <v>44656</v>
+      </c>
       <c r="H26" s="32"/>
       <c r="I26" s="35"/>
       <c r="J26" s="34"/>
       <c r="K26" s="35"/>
       <c r="M26" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N26" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O26" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P26" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q26" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R26" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S26" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T26" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U26" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V26" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W26" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X26" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y26" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z26" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA26" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB26" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC26" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD26" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE26" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF26" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG26" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH26" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI26" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AJ26" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AK26" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AL26" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM26" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN26" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AO26" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP26" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AQ26" s="41">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="85"/>
-      <c r="D27" s="44" t="s">
-        <v>38</v>
+      <c r="B27" s="61"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="43" t="s">
+        <v>64</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F27" s="32"/>
       <c r="G27" s="35"/>
@@ -5068,138 +5100,140 @@
       <c r="J27" s="34"/>
       <c r="K27" s="35"/>
       <c r="M27" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N27" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O27" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P27" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q27" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R27" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S27" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T27" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U27" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V27" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W27" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X27" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y27" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z27" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA27" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB27" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC27" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD27" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE27" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF27" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG27" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH27" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI27" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AJ27" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AK27" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AL27" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM27" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN27" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AO27" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP27" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AQ27" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
+      <c r="B28" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="87"/>
       <c r="D28" s="44" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F28" s="32"/>
       <c r="G28" s="35"/>
@@ -5208,138 +5242,138 @@
       <c r="J28" s="34"/>
       <c r="K28" s="35"/>
       <c r="M28" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N28" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O28" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P28" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q28" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R28" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S28" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T28" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U28" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V28" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W28" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X28" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y28" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z28" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA28" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB28" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC28" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD28" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE28" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF28" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG28" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH28" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI28" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AJ28" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AK28" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AL28" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM28" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN28" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AO28" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP28" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AQ28" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
       <c r="D29" s="44" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F29" s="32"/>
       <c r="G29" s="35"/>
@@ -5348,135 +5382,135 @@
       <c r="J29" s="34"/>
       <c r="K29" s="35"/>
       <c r="M29" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N29" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O29" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P29" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q29" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R29" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S29" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T29" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U29" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V29" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W29" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X29" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y29" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z29" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA29" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB29" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC29" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD29" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE29" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF29" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG29" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH29" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI29" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AJ29" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AK29" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AL29" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM29" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN29" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AO29" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP29" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AQ29" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="87"/>
       <c r="D30" s="44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E30" s="31" t="s">
         <v>13</v>
@@ -5488,67 +5522,67 @@
       <c r="J30" s="34"/>
       <c r="K30" s="35"/>
       <c r="M30" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N30" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O30" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P30" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q30" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R30" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S30" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T30" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="T30:AI74" si="5">IF($K30=T$5,3,IF(OR(AND($H30&lt;=T$5,T$5&lt;=$I30),$H30=T$5),2,IF(AND($F30&lt;=T$5,T$5&lt;=$G30),1,0)))</f>
         <v>0</v>
       </c>
       <c r="U30" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V30" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W30" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X30" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y30" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z30" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA30" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB30" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC30" s="40">
@@ -5580,45 +5614,47 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AK30" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AL30" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM30" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN30" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AO30" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP30" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AQ30" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
       <c r="D31" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="31"/>
+        <v>40</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>13</v>
+      </c>
       <c r="F31" s="32"/>
       <c r="G31" s="35"/>
       <c r="H31" s="32"/>
@@ -5626,7 +5662,7 @@
       <c r="J31" s="34"/>
       <c r="K31" s="35"/>
       <c r="M31" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="M31:AB74" si="6">IF($K31=M$5,3,IF(OR(AND($H31&lt;=M$5,M$5&lt;=$I31),$H31=M$5),2,IF(AND($F31&lt;=M$5,M$5&lt;=$G31),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N31" s="40">
@@ -5718,47 +5754,45 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AK31" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AL31" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM31" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN31" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AO31" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP31" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AQ31" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="N31:AQ74" si="7">IF($K31=AQ$5,3,IF(OR(AND($H31&lt;=AQ$5,AQ$5&lt;=$I31),$H31=AQ$5),2,IF(AND($F31&lt;=AQ$5,AQ$5&lt;=$G31),1,0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="87"/>
       <c r="D32" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>14</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E32" s="31"/>
       <c r="F32" s="32"/>
       <c r="G32" s="35"/>
       <c r="H32" s="32"/>
@@ -5770,141 +5804,137 @@
         <v>0</v>
       </c>
       <c r="N32" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O32" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P32" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q32" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R32" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S32" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T32" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U32" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V32" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W32" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X32" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y32" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z32" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA32" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB32" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC32" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD32" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE32" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF32" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG32" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH32" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI32" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ32" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK32" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL32" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM32" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN32" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO32" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AP32" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ32" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="45" t="s">
-        <v>72</v>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="44" t="s">
+        <v>69</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="32">
-        <v>44657</v>
-      </c>
-      <c r="G33" s="68">
-        <v>44659</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F33" s="32"/>
+      <c r="G33" s="35"/>
       <c r="H33" s="32"/>
       <c r="I33" s="35"/>
       <c r="J33" s="34"/>
@@ -5914,138 +5944,140 @@
         <v>0</v>
       </c>
       <c r="N33" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O33" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P33" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q33" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R33" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S33" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T33" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U33" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V33" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W33" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X33" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y33" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z33" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA33" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB33" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC33" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD33" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE33" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF33" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG33" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH33" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI33" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ33" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK33" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL33" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM33" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN33" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO33" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AP33" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ33" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="31"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>13</v>
+      </c>
       <c r="F34" s="32">
-        <v>44662</v>
-      </c>
-      <c r="G34" s="33">
-        <v>44662</v>
+        <v>44657</v>
+      </c>
+      <c r="G34" s="68">
+        <v>44659</v>
       </c>
       <c r="H34" s="32"/>
       <c r="I34" s="35"/>
@@ -6056,139 +6088,137 @@
         <v>0</v>
       </c>
       <c r="N34" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O34" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P34" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q34" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R34" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S34" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T34" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U34" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V34" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W34" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X34" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y34" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z34" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA34" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB34" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC34" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD34" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE34" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF34" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG34" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH34" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI34" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ34" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK34" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL34" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM34" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN34" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO34" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AP34" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ34" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="31" t="s">
-        <v>13</v>
-      </c>
+      <c r="B35" s="87"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="31"/>
       <c r="F35" s="32">
-        <v>44657</v>
-      </c>
-      <c r="G35" s="35">
+        <v>44662</v>
+      </c>
+      <c r="G35" s="33">
         <v>44662</v>
       </c>
       <c r="H35" s="32"/>
@@ -6200,131 +6230,131 @@
         <v>0</v>
       </c>
       <c r="N35" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O35" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P35" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q35" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R35" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S35" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T35" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U35" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V35" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W35" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X35" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y35" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z35" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA35" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB35" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC35" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD35" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE35" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF35" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG35" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH35" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI35" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ35" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK35" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL35" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM35" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN35" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO35" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AP35" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ35" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="86"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="45" t="s">
-        <v>18</v>
+    <row r="36" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="87"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="44" t="s">
+        <v>41</v>
       </c>
       <c r="E36" s="31" t="s">
         <v>13</v>
@@ -6333,7 +6363,7 @@
         <v>44657</v>
       </c>
       <c r="G36" s="35">
-        <v>44663</v>
+        <v>44662</v>
       </c>
       <c r="H36" s="32"/>
       <c r="I36" s="35"/>
@@ -6344,141 +6374,141 @@
         <v>0</v>
       </c>
       <c r="N36" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O36" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P36" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q36" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R36" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S36" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T36" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U36" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V36" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W36" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X36" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y36" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z36" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA36" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB36" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC36" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD36" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE36" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF36" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG36" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH36" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI36" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ36" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK36" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL36" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM36" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN36" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO36" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AP36" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ36" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="79" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="43" t="s">
-        <v>66</v>
+      <c r="B37" s="97"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="45" t="s">
+        <v>18</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="32"/>
-      <c r="G37" s="35"/>
+        <v>13</v>
+      </c>
+      <c r="F37" s="32">
+        <v>44657</v>
+      </c>
+      <c r="G37" s="35">
+        <v>44663</v>
+      </c>
       <c r="H37" s="32"/>
       <c r="I37" s="35"/>
       <c r="J37" s="34"/>
@@ -6488,134 +6518,138 @@
         <v>0</v>
       </c>
       <c r="N37" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O37" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P37" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q37" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R37" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S37" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T37" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U37" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V37" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W37" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X37" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y37" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z37" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA37" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB37" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC37" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD37" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE37" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF37" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG37" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH37" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI37" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ37" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK37" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL37" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM37" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN37" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO37" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AP37" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ37" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="76"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="66" t="s">
-        <v>42</v>
+      <c r="B38" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="104" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="43" t="s">
+        <v>66</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="35"/>
@@ -6628,63 +6662,63 @@
         <v>0</v>
       </c>
       <c r="N38" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O38" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P38" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q38" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R38" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S38" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T38" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U38" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V38" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W38" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X38" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y38" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z38" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA38" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB38" s="40">
-        <f t="shared" ref="AB38:AQ53" si="7">IF($K38=AB$5,3,IF(OR(AND($H38&lt;=AB$5,AB$5&lt;=$I38),$H38=AB$5),2,IF(AND($F38&lt;=AB$5,AB$5&lt;=$G38),1,0)))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC38" s="40">
@@ -6749,12 +6783,14 @@
       </c>
     </row>
     <row r="39" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="76"/>
-      <c r="C39" s="79"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="104"/>
       <c r="D39" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="31"/>
+        <v>42</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>14</v>
+      </c>
       <c r="F39" s="32"/>
       <c r="G39" s="35"/>
       <c r="H39" s="32"/>
@@ -6762,67 +6798,67 @@
       <c r="J39" s="34"/>
       <c r="K39" s="35"/>
       <c r="M39" s="39">
-        <f t="shared" ref="M39:AB54" si="8">IF($K39=M$5,3,IF(OR(AND($H39&lt;=M$5,M$5&lt;=$I39),$H39=M$5),2,IF(AND($F39&lt;=M$5,M$5&lt;=$G39),1,0)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N39" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O39" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P39" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q39" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R39" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S39" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T39" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U39" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V39" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W39" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X39" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y39" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z39" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA39" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB39" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC39" s="40">
@@ -6887,583 +6923,577 @@
       </c>
     </row>
     <row r="40" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="76"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="31" t="s">
-        <v>14</v>
-      </c>
+      <c r="B40" s="102"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="31"/>
       <c r="F40" s="32"/>
       <c r="G40" s="35"/>
       <c r="H40" s="32"/>
-      <c r="I40" s="70"/>
+      <c r="I40" s="35"/>
       <c r="J40" s="34"/>
       <c r="K40" s="35"/>
       <c r="M40" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N40" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O40" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P40" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q40" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R40" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S40" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T40" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U40" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V40" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W40" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X40" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y40" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z40" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA40" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB40" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="AB40:AQ74" si="8">IF($K40=AB$5,3,IF(OR(AND($H40&lt;=AB$5,AB$5&lt;=$I40),$H40=AB$5),2,IF(AND($F40&lt;=AB$5,AB$5&lt;=$G40),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AC40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AQ40" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="76"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="45" t="s">
-        <v>73</v>
+      <c r="B41" s="102"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="44" t="s">
+        <v>46</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="32">
-        <v>44664</v>
-      </c>
-      <c r="G41" s="35">
-        <v>44666</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F41" s="32"/>
+      <c r="G41" s="35"/>
       <c r="H41" s="32"/>
-      <c r="I41" s="35"/>
+      <c r="I41" s="70"/>
       <c r="J41" s="34"/>
       <c r="K41" s="35"/>
       <c r="M41" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N41" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O41" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P41" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q41" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R41" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S41" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T41" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U41" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V41" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W41" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X41" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y41" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z41" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA41" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB41" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC41" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD41" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE41" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF41" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG41" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH41" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI41" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ41" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK41" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL41" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM41" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN41" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO41" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP41" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AQ41" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="76"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" s="31"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>15</v>
+      </c>
       <c r="F42" s="32">
-        <v>44669</v>
+        <v>44664</v>
       </c>
       <c r="G42" s="35">
-        <v>44669</v>
+        <v>44666</v>
       </c>
       <c r="H42" s="32"/>
       <c r="I42" s="35"/>
       <c r="J42" s="34"/>
       <c r="K42" s="35"/>
       <c r="M42" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N42" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O42" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P42" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q42" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R42" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S42" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T42" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U42" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V42" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W42" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X42" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y42" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z42" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA42" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB42" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC42" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD42" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE42" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF42" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG42" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH42" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI42" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ42" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK42" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL42" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM42" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN42" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO42" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP42" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AQ42" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="76"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="31" t="s">
-        <v>14</v>
-      </c>
+      <c r="B43" s="102"/>
+      <c r="C43" s="104"/>
+      <c r="D43" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="31"/>
       <c r="F43" s="32">
-        <v>44664</v>
+        <v>44669</v>
       </c>
       <c r="G43" s="35">
-        <v>44670</v>
+        <v>44669</v>
       </c>
       <c r="H43" s="32"/>
       <c r="I43" s="35"/>
       <c r="J43" s="34"/>
       <c r="K43" s="35"/>
       <c r="M43" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N43" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O43" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P43" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q43" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R43" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S43" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T43" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U43" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V43" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W43" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X43" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y43" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z43" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA43" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB43" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC43" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD43" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE43" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF43" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG43" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH43" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI43" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ43" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK43" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL43" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM43" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN43" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO43" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP43" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AQ43" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="76"/>
-      <c r="C44" s="79"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="104"/>
       <c r="D44" s="47" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F44" s="32">
         <v>44664</v>
@@ -7476,138 +7506,138 @@
       <c r="J44" s="34"/>
       <c r="K44" s="35"/>
       <c r="M44" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N44" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O44" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P44" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q44" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R44" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S44" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T44" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U44" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V44" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W44" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X44" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y44" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z44" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA44" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB44" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC44" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD44" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE44" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF44" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG44" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH44" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI44" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ44" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK44" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL44" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM44" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN44" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO44" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP44" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AQ44" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="76"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="45" t="s">
+      <c r="B45" s="102"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="47" t="s">
         <v>48</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F45" s="32">
         <v>44664</v>
@@ -7620,137 +7650,139 @@
       <c r="J45" s="34"/>
       <c r="K45" s="35"/>
       <c r="M45" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N45" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O45" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P45" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q45" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R45" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S45" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T45" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U45" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V45" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W45" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X45" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y45" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z45" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA45" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB45" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC45" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD45" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE45" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF45" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG45" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH45" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI45" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ45" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK45" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL45" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM45" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN45" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO45" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP45" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AQ45" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="77"/>
-      <c r="C46" s="79"/>
-      <c r="D46" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="E46" s="31"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="104"/>
+      <c r="D46" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>13</v>
+      </c>
       <c r="F46" s="32">
         <v>44664</v>
       </c>
@@ -7762,420 +7794,422 @@
       <c r="J46" s="34"/>
       <c r="K46" s="35"/>
       <c r="M46" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N46" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O46" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P46" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q46" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R46" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S46" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T46" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U46" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V46" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W46" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X46" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y46" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z46" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA46" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB46" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC46" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD46" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE46" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF46" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG46" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH46" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI46" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ46" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK46" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL46" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM46" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN46" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO46" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP46" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AQ46" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="79"/>
-      <c r="D47" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="E47" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="32"/>
-      <c r="G47" s="70"/>
+      <c r="B47" s="103"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="31"/>
+      <c r="F47" s="32">
+        <v>44664</v>
+      </c>
+      <c r="G47" s="35">
+        <v>44670</v>
+      </c>
       <c r="H47" s="32"/>
       <c r="I47" s="35"/>
       <c r="J47" s="34"/>
       <c r="K47" s="35"/>
       <c r="M47" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N47" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O47" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P47" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q47" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R47" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S47" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T47" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U47" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V47" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W47" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X47" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y47" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z47" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA47" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB47" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC47" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD47" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE47" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF47" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG47" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH47" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI47" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ47" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK47" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL47" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM47" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN47" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO47" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP47" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AQ47" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="76"/>
-      <c r="C48" s="79"/>
-      <c r="D48" s="44" t="s">
-        <v>40</v>
+      <c r="B48" s="101" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="104"/>
+      <c r="D48" s="66" t="s">
+        <v>39</v>
       </c>
       <c r="E48" s="31" t="s">
         <v>13</v>
       </c>
       <c r="F48" s="32"/>
-      <c r="G48" s="35"/>
+      <c r="G48" s="70"/>
       <c r="H48" s="32"/>
       <c r="I48" s="35"/>
       <c r="J48" s="34"/>
       <c r="K48" s="35"/>
       <c r="M48" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N48" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O48" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P48" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q48" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R48" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S48" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T48" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U48" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V48" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W48" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X48" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y48" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z48" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA48" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB48" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC48" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD48" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE48" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF48" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG48" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH48" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI48" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ48" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK48" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL48" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM48" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN48" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO48" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP48" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AQ48" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="76"/>
-      <c r="C49" s="79"/>
+      <c r="B49" s="102"/>
+      <c r="C49" s="104"/>
       <c r="D49" s="44" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F49" s="32"/>
       <c r="G49" s="35"/>
@@ -8184,137 +8218,139 @@
       <c r="J49" s="34"/>
       <c r="K49" s="35"/>
       <c r="M49" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N49" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O49" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P49" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q49" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R49" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S49" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T49" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U49" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V49" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W49" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X49" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y49" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z49" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA49" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB49" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC49" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD49" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE49" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF49" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG49" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH49" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI49" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ49" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK49" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL49" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM49" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN49" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO49" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP49" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AQ49" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="76"/>
-      <c r="C50" s="79"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="104"/>
       <c r="D50" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="E50" s="31"/>
+        <v>47</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>14</v>
+      </c>
       <c r="F50" s="32"/>
       <c r="G50" s="35"/>
       <c r="H50" s="32"/>
@@ -8322,564 +8358,562 @@
       <c r="J50" s="34"/>
       <c r="K50" s="35"/>
       <c r="M50" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N50" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O50" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P50" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q50" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R50" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S50" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T50" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U50" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V50" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W50" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X50" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y50" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z50" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA50" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB50" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC50" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD50" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE50" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF50" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG50" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH50" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI50" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ50" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK50" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL50" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM50" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN50" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO50" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP50" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AQ50" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="76"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="E51" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="32">
-        <v>44671</v>
-      </c>
-      <c r="G51" s="35">
-        <v>44673</v>
-      </c>
+      <c r="B51" s="102"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" s="31"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="35"/>
       <c r="H51" s="32"/>
       <c r="I51" s="35"/>
       <c r="J51" s="34"/>
       <c r="K51" s="35"/>
       <c r="M51" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N51" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O51" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P51" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q51" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R51" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S51" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T51" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U51" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V51" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W51" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X51" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y51" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z51" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA51" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB51" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC51" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD51" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE51" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF51" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG51" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH51" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI51" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ51" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK51" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL51" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM51" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN51" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO51" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP51" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AQ51" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="76"/>
-      <c r="C52" s="79"/>
-      <c r="D52" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="E52" s="31"/>
+      <c r="B52" s="102"/>
+      <c r="C52" s="104"/>
+      <c r="D52" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>14</v>
+      </c>
       <c r="F52" s="32">
-        <v>44676</v>
+        <v>44671</v>
       </c>
       <c r="G52" s="35">
-        <v>44676</v>
+        <v>44673</v>
       </c>
       <c r="H52" s="32"/>
       <c r="I52" s="35"/>
       <c r="J52" s="34"/>
       <c r="K52" s="35"/>
       <c r="M52" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N52" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O52" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P52" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q52" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R52" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S52" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T52" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U52" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V52" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W52" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X52" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y52" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z52" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA52" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB52" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC52" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD52" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE52" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF52" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG52" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH52" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI52" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ52" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK52" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL52" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM52" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN52" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO52" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP52" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AQ52" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="76"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53" s="32"/>
-      <c r="G53" s="35"/>
+      <c r="B53" s="102"/>
+      <c r="C53" s="104"/>
+      <c r="D53" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="31"/>
+      <c r="F53" s="32">
+        <v>44676</v>
+      </c>
+      <c r="G53" s="35">
+        <v>44676</v>
+      </c>
       <c r="H53" s="32"/>
       <c r="I53" s="35"/>
       <c r="J53" s="34"/>
       <c r="K53" s="35"/>
       <c r="M53" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N53" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O53" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P53" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q53" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R53" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S53" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T53" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U53" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V53" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W53" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X53" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y53" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z53" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA53" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB53" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC53" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD53" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE53" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF53" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG53" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH53" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI53" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ53" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK53" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL53" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM53" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN53" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO53" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP53" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AQ53" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="76"/>
-      <c r="C54" s="79"/>
+      <c r="B54" s="102"/>
+      <c r="C54" s="104"/>
       <c r="D54" s="47" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F54" s="32"/>
       <c r="G54" s="35"/>
@@ -8888,211 +8922,207 @@
       <c r="J54" s="34"/>
       <c r="K54" s="35"/>
       <c r="M54" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB54" s="40">
-        <f t="shared" ref="AB54:AQ69" si="9">IF($K54=AB$5,3,IF(OR(AND($H54&lt;=AB$5,AB$5&lt;=$I54),$H54=AB$5),2,IF(AND($F54&lt;=AB$5,AB$5&lt;=$G54),1,0)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC54" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD54" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE54" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF54" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG54" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH54" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI54" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ54" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK54" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL54" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM54" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN54" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO54" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP54" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AQ54" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="77"/>
-      <c r="C55" s="79"/>
-      <c r="D55" s="46" t="s">
+      <c r="B55" s="102"/>
+      <c r="C55" s="104"/>
+      <c r="D55" s="47" t="s">
         <v>44</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="32">
-        <v>44671</v>
-      </c>
-      <c r="G55" s="70">
-        <v>44677</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F55" s="32"/>
+      <c r="G55" s="35"/>
       <c r="H55" s="32"/>
       <c r="I55" s="35"/>
       <c r="J55" s="34"/>
       <c r="K55" s="35"/>
       <c r="M55" s="39">
-        <f t="shared" ref="M55:AB70" si="10">IF($K55=M$5,3,IF(OR(AND($H55&lt;=M$5,M$5&lt;=$I55),$H55=M$5),2,IF(AND($F55&lt;=M$5,M$5&lt;=$G55),1,0)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N55" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O55" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P55" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q55" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R55" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S55" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="S55:AH74" si="9">IF($K55=S$5,3,IF(OR(AND($H55&lt;=S$5,S$5&lt;=$I55),$H55=S$5),2,IF(AND($F55&lt;=S$5,S$5&lt;=$G55),1,0)))</f>
         <v>0</v>
       </c>
       <c r="T55" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U55" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V55" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W55" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X55" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y55" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z55" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA55" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AB55" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC55" s="40">
@@ -9120,63 +9150,63 @@
         <v>0</v>
       </c>
       <c r="AI55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AQ55" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="C56" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="D56" s="43" t="s">
-        <v>53</v>
+      <c r="B56" s="103"/>
+      <c r="C56" s="104"/>
+      <c r="D56" s="46" t="s">
+        <v>44</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="32"/>
-      <c r="G56" s="35"/>
+        <v>13</v>
+      </c>
+      <c r="F56" s="32">
+        <v>44671</v>
+      </c>
+      <c r="G56" s="70">
+        <v>44677</v>
+      </c>
       <c r="H56" s="32"/>
       <c r="I56" s="35"/>
       <c r="J56" s="34"/>
       <c r="K56" s="35"/>
       <c r="M56" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="M56:AB74" si="10">IF($K56=M$5,3,IF(OR(AND($H56&lt;=M$5,M$5&lt;=$I56),$H56=M$5),2,IF(AND($F56&lt;=M$5,M$5&lt;=$G56),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N56" s="40">
@@ -9264,49 +9294,55 @@
         <v>0</v>
       </c>
       <c r="AI56" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ56" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK56" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL56" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM56" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN56" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO56" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP56" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AQ56" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="76"/>
-      <c r="C57" s="78"/>
-      <c r="D57" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="E57" s="31"/>
+      <c r="B57" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E57" s="31" t="s">
+        <v>15</v>
+      </c>
       <c r="F57" s="32"/>
       <c r="G57" s="35"/>
       <c r="H57" s="32"/>
@@ -9402,47 +9438,47 @@
         <v>0</v>
       </c>
       <c r="AI57" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ57" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK57" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL57" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM57" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN57" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO57" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP57" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AQ57" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="76"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="51" t="s">
-        <v>60</v>
+      <c r="B58" s="102"/>
+      <c r="C58" s="90"/>
+      <c r="D58" s="50" t="s">
+        <v>59</v>
       </c>
       <c r="E58" s="31"/>
       <c r="F58" s="32"/>
@@ -9540,47 +9576,47 @@
         <v>0</v>
       </c>
       <c r="AI58" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ58" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK58" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="AK58:AQ74" si="11">IF($K58=AK$5,3,IF(OR(AND($H58&lt;=AK$5,AK$5&lt;=$I58),$H58=AK$5),2,IF(AND($F58&lt;=AK$5,AK$5&lt;=$G58),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AL58" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AM58" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN58" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AO58" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AP58" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AQ58" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="76"/>
-      <c r="C59" s="78"/>
-      <c r="D59" s="30" t="s">
-        <v>43</v>
+    <row r="59" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="102"/>
+      <c r="C59" s="90"/>
+      <c r="D59" s="51" t="s">
+        <v>60</v>
       </c>
       <c r="E59" s="31"/>
       <c r="F59" s="32"/>
@@ -9678,47 +9714,47 @@
         <v>0</v>
       </c>
       <c r="AI59" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="AI59:AQ74" si="12">IF($K59=AI$5,3,IF(OR(AND($H59&lt;=AI$5,AI$5&lt;=$I59),$H59=AI$5),2,IF(AND($F59&lt;=AI$5,AI$5&lt;=$G59),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AJ59" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK59" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL59" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM59" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN59" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO59" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP59" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ59" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="76"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="44" t="s">
-        <v>50</v>
+      <c r="B60" s="102"/>
+      <c r="C60" s="90"/>
+      <c r="D60" s="30" t="s">
+        <v>43</v>
       </c>
       <c r="E60" s="31"/>
       <c r="F60" s="32"/>
@@ -9816,47 +9852,47 @@
         <v>0</v>
       </c>
       <c r="AI60" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AJ60" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK60" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL60" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM60" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN60" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO60" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP60" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ60" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="76"/>
-      <c r="C61" s="78"/>
+      <c r="B61" s="102"/>
+      <c r="C61" s="90"/>
       <c r="D61" s="44" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E61" s="31"/>
       <c r="F61" s="32"/>
@@ -9954,57 +9990,51 @@
         <v>0</v>
       </c>
       <c r="AI61" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AJ61" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK61" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL61" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM61" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN61" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO61" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP61" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ61" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="76"/>
-      <c r="C62" s="78"/>
-      <c r="D62" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="E62" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="32">
-        <v>44678</v>
-      </c>
-      <c r="G62" s="35">
-        <v>44680</v>
-      </c>
+      <c r="B62" s="102"/>
+      <c r="C62" s="90"/>
+      <c r="D62" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" s="31"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="35"/>
       <c r="H62" s="32"/>
       <c r="I62" s="35"/>
       <c r="J62" s="34"/>
@@ -10098,54 +10128,56 @@
         <v>0</v>
       </c>
       <c r="AI62" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AJ62" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK62" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL62" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM62" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN62" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO62" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP62" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ62" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="76"/>
-      <c r="C63" s="78"/>
-      <c r="D63" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="E63" s="31"/>
+      <c r="B63" s="102"/>
+      <c r="C63" s="90"/>
+      <c r="D63" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="E63" s="31" t="s">
+        <v>13</v>
+      </c>
       <c r="F63" s="32">
-        <v>44683</v>
+        <v>44678</v>
       </c>
       <c r="G63" s="35">
-        <v>44683</v>
+        <v>44680</v>
       </c>
       <c r="H63" s="32"/>
       <c r="I63" s="35"/>
@@ -10240,53 +10272,55 @@
         <v>0</v>
       </c>
       <c r="AI63" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AJ63" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK63" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL63" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM63" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN63" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO63" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP63" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ63" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="76"/>
-      <c r="C64" s="78"/>
-      <c r="D64" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="E64" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="32"/>
-      <c r="G64" s="35"/>
+      <c r="B64" s="102"/>
+      <c r="C64" s="90"/>
+      <c r="D64" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="E64" s="31"/>
+      <c r="F64" s="32">
+        <v>44683</v>
+      </c>
+      <c r="G64" s="35">
+        <v>44683</v>
+      </c>
       <c r="H64" s="32"/>
       <c r="I64" s="35"/>
       <c r="J64" s="34"/>
@@ -10380,50 +10414,50 @@
         <v>0</v>
       </c>
       <c r="AI64" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AJ64" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK64" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL64" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM64" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN64" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO64" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP64" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ64" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="76"/>
-      <c r="C65" s="78"/>
-      <c r="D65" s="52" t="s">
-        <v>45</v>
+      <c r="B65" s="102"/>
+      <c r="C65" s="90"/>
+      <c r="D65" s="47" t="s">
+        <v>21</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F65" s="32"/>
       <c r="G65" s="35"/>
@@ -10520,57 +10554,53 @@
         <v>0</v>
       </c>
       <c r="AI65" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AJ65" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK65" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL65" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM65" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN65" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO65" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP65" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ65" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="76"/>
-      <c r="C66" s="78"/>
-      <c r="D66" s="53" t="s">
+      <c r="B66" s="102"/>
+      <c r="C66" s="90"/>
+      <c r="D66" s="52" t="s">
         <v>45</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F66" s="48">
-        <v>44678</v>
-      </c>
-      <c r="G66" s="49">
-        <v>44684</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F66" s="32"/>
+      <c r="G66" s="35"/>
       <c r="H66" s="32"/>
       <c r="I66" s="35"/>
       <c r="J66" s="34"/>
@@ -10664,55 +10694,57 @@
         <v>0</v>
       </c>
       <c r="AI66" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AJ66" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK66" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL66" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM66" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN66" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO66" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP66" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ66" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="C67" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="D67" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="E67" s="31"/>
-      <c r="F67" s="48"/>
-      <c r="G67" s="49"/>
+      <c r="B67" s="102"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="48">
+        <v>44678</v>
+      </c>
+      <c r="G67" s="49">
+        <v>44684</v>
+      </c>
       <c r="H67" s="32"/>
       <c r="I67" s="35"/>
       <c r="J67" s="34"/>
@@ -10806,52 +10838,55 @@
         <v>0</v>
       </c>
       <c r="AI67" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AJ67" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK67" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL67" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM67" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN67" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO67" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP67" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ67" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="76"/>
-      <c r="C68" s="78"/>
-      <c r="D68" s="30" t="s">
+      <c r="B68" s="101" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="E68" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="32"/>
+      <c r="D68" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E68" s="31"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="49"/>
       <c r="H68" s="32"/>
       <c r="I68" s="35"/>
       <c r="J68" s="34"/>
@@ -10945,53 +10980,52 @@
         <v>0</v>
       </c>
       <c r="AI68" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AJ68" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK68" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL68" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM68" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN68" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO68" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP68" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ68" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="76"/>
-      <c r="C69" s="78"/>
+      <c r="B69" s="102"/>
+      <c r="C69" s="90"/>
       <c r="D69" s="30" t="s">
         <v>34</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F69" s="32"/>
-      <c r="G69" s="35"/>
       <c r="H69" s="32"/>
       <c r="I69" s="35"/>
       <c r="J69" s="34"/>
@@ -11085,50 +11119,50 @@
         <v>0</v>
       </c>
       <c r="AI69" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AJ69" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK69" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL69" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM69" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN69" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO69" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP69" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ69" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="76"/>
-      <c r="C70" s="78"/>
+      <c r="B70" s="102"/>
+      <c r="C70" s="90"/>
       <c r="D70" s="30" t="s">
         <v>34</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F70" s="32"/>
       <c r="G70" s="35"/>
@@ -11197,223 +11231,221 @@
         <v>0</v>
       </c>
       <c r="AB70" s="40">
-        <f t="shared" ref="AB70:AQ73" si="11">IF($K70=AB$5,3,IF(OR(AND($H70&lt;=AB$5,AB$5&lt;=$I70),$H70=AB$5),2,IF(AND($F70&lt;=AB$5,AB$5&lt;=$G70),1,0)))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC70" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD70" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE70" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AF70" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG70" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH70" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI70" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AJ70" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK70" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL70" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM70" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN70" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO70" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP70" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ70" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="76"/>
-      <c r="C71" s="78"/>
-      <c r="D71" s="69" t="s">
-        <v>76</v>
-      </c>
-      <c r="E71" s="31"/>
-      <c r="F71" s="32">
-        <v>44685</v>
-      </c>
-      <c r="G71" s="35">
-        <v>44687</v>
-      </c>
+      <c r="B71" s="102"/>
+      <c r="C71" s="90"/>
+      <c r="D71" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E71" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" s="32"/>
+      <c r="G71" s="35"/>
       <c r="H71" s="32"/>
       <c r="I71" s="35"/>
       <c r="J71" s="34"/>
       <c r="K71" s="35"/>
       <c r="M71" s="39">
-        <f t="shared" ref="M71:AB73" si="12">IF($K71=M$5,3,IF(OR(AND($H71&lt;=M$5,M$5&lt;=$I71),$H71=M$5),2,IF(AND($F71&lt;=M$5,M$5&lt;=$G71),1,0)))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N71" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O71" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P71" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q71" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R71" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S71" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T71" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U71" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V71" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W71" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X71" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y71" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z71" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA71" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB71" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="AB71:AQ74" si="13">IF($K71=AB$5,3,IF(OR(AND($H71&lt;=AB$5,AB$5&lt;=$I71),$H71=AB$5),2,IF(AND($F71&lt;=AB$5,AB$5&lt;=$G71),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AC71" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD71" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE71" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AF71" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AG71" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AH71" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AI71" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AJ71" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AK71" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AL71" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM71" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AN71" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AO71" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AP71" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AQ71" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="76"/>
-      <c r="C72" s="78"/>
-      <c r="D72" s="30" t="s">
-        <v>58</v>
+      <c r="B72" s="102"/>
+      <c r="C72" s="90"/>
+      <c r="D72" s="69" t="s">
+        <v>76</v>
       </c>
       <c r="E72" s="31"/>
-      <c r="F72" s="63">
-        <v>44687</v>
-      </c>
-      <c r="G72" s="64">
+      <c r="F72" s="32">
+        <v>44685</v>
+      </c>
+      <c r="G72" s="35">
         <v>44687</v>
       </c>
       <c r="H72" s="32"/>
@@ -11421,299 +11453,441 @@
       <c r="J72" s="34"/>
       <c r="K72" s="35"/>
       <c r="M72" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="M72:AB74" si="14">IF($K72=M$5,3,IF(OR(AND($H72&lt;=M$5,M$5&lt;=$I72),$H72=M$5),2,IF(AND($F72&lt;=M$5,M$5&lt;=$G72),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N72" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O72" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P72" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q72" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R72" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S72" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T72" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U72" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V72" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W72" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X72" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y72" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Z72" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AA72" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AB72" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AC72" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD72" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE72" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AF72" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AG72" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AH72" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AI72" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AJ72" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AK72" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AL72" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM72" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AN72" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AO72" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AP72" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AQ72" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="77"/>
-      <c r="C73" s="78"/>
-      <c r="D73" s="54" t="s">
+      <c r="B73" s="102"/>
+      <c r="C73" s="90"/>
+      <c r="D73" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E73" s="31"/>
+      <c r="F73" s="63">
+        <v>44687</v>
+      </c>
+      <c r="G73" s="64">
+        <v>44687</v>
+      </c>
+      <c r="H73" s="32"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="35"/>
+      <c r="M73" s="39">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N73" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O73" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P73" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q73" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R73" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S73" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T73" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U73" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V73" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W73" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X73" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y73" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Z73" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AA73" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB73" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AC73" s="40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD73" s="40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE73" s="40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AF73" s="40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG73" s="40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AH73" s="40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AI73" s="40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AJ73" s="40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AK73" s="40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AL73" s="40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM73" s="40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AN73" s="40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AO73" s="40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AP73" s="40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AQ73" s="41">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="103"/>
+      <c r="C74" s="90"/>
+      <c r="D74" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="E73" s="55"/>
-      <c r="F73" s="56">
+      <c r="E74" s="55"/>
+      <c r="F74" s="56">
         <v>44685</v>
       </c>
-      <c r="G73" s="57">
+      <c r="G74" s="57">
         <v>44691</v>
       </c>
-      <c r="H73" s="58"/>
-      <c r="I73" s="59"/>
-      <c r="J73" s="60"/>
-      <c r="K73" s="59"/>
-      <c r="M73" s="39">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N73" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O73" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P73" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Q73" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="R73" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S73" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="T73" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="U73" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="V73" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W73" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X73" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y73" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z73" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AA73" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AB73" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC73" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD73" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE73" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AF73" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AG73" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AH73" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI73" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AJ73" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AK73" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL73" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AM73" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AN73" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AO73" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AP73" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AQ73" s="41">
-        <f t="shared" si="11"/>
+      <c r="H74" s="58"/>
+      <c r="I74" s="59"/>
+      <c r="J74" s="60"/>
+      <c r="K74" s="59"/>
+      <c r="M74" s="39">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N74" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O74" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P74" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q74" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R74" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S74" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T74" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U74" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V74" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W74" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X74" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y74" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Z74" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AA74" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB74" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AC74" s="40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD74" s="40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE74" s="40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AF74" s="40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG74" s="40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AH74" s="40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AI74" s="40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AJ74" s="40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AK74" s="40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AL74" s="40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AM74" s="40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AN74" s="40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AO74" s="40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AP74" s="40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AQ74" s="41">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D5:E73" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}"/>
+  <autoFilter ref="D5:E74" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}"/>
   <mergeCells count="22">
+    <mergeCell ref="B68:B74"/>
+    <mergeCell ref="C68:C74"/>
+    <mergeCell ref="B38:B47"/>
+    <mergeCell ref="C38:C56"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="B57:B67"/>
+    <mergeCell ref="C57:C67"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="C9:C37"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="B17:B26"/>
+    <mergeCell ref="B28:B37"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="S3:X3"/>
     <mergeCell ref="Y3:AD3"/>
     <mergeCell ref="M3:R3"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="C9:C36"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="B17:B25"/>
-    <mergeCell ref="B27:B36"/>
-    <mergeCell ref="B67:B73"/>
-    <mergeCell ref="C67:C73"/>
-    <mergeCell ref="B37:B46"/>
-    <mergeCell ref="C37:C55"/>
-    <mergeCell ref="B47:B55"/>
-    <mergeCell ref="B56:B66"/>
-    <mergeCell ref="C56:C66"/>
   </mergeCells>
-  <conditionalFormatting sqref="M6:AQ73">
+  <conditionalFormatting sqref="M6:AQ74">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>3</formula>
     </cfRule>
@@ -11725,7 +11899,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E73 J6:J73" xr:uid="{7799F778-AC45-524F-B3DE-E4EA92284CF2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E74 J6:J74" xr:uid="{7799F778-AC45-524F-B3DE-E4EA92284CF2}">
       <formula1>$AS$5:$AS$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/CMSC495_ProjectPlan.xlsx
+++ b/CMSC495_ProjectPlan.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Git/cmsc495_final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF45C355-0BF8-824C-A3E1-AF0BE4F97EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500AD942-7EE2-8442-9A4D-DE078BD3DAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13780" yWindow="500" windowWidth="37420" windowHeight="25940" xr2:uid="{A3040AE0-0367-2B43-ADDE-84CCD12855DC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26280" xr2:uid="{A3040AE0-0367-2B43-ADDE-84CCD12855DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Project_Plan" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Project_Plan!$D$5:$E$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Project_Plan!$D$5:$E$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="83">
   <si>
     <t>Year</t>
   </si>
@@ -307,6 +307,9 @@
   <si>
     <t xml:space="preserve">File I/O (Open/Save Image) </t>
   </si>
+  <si>
+    <t>Reset/Delete the Image</t>
+  </si>
 </sst>
 </file>
 
@@ -419,7 +422,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -1023,6 +1026,86 @@
       <right style="medium">
         <color rgb="FFFF0000"/>
       </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
       <top style="thin">
         <color theme="1"/>
       </top>
@@ -1036,17 +1119,32 @@
       <right style="medium">
         <color rgb="FFFF0000"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1144,17 +1242,35 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1210,10 +1326,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1225,14 +1338,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1582,7 +1701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}">
-  <dimension ref="A1:AV74"/>
+  <dimension ref="A1:AV76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -1641,48 +1760,48 @@
       <c r="D3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="76" t="s">
+      <c r="M3" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="91" t="s">
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="75" t="s">
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="81"/>
     </row>
     <row r="4" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="83"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="77" t="s">
+      <c r="B4" s="89"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="79" t="s">
+      <c r="G4" s="84"/>
+      <c r="H4" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="80"/>
-      <c r="J4" s="81" t="s">
+      <c r="I4" s="86"/>
+      <c r="J4" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="82"/>
+      <c r="K4" s="88"/>
       <c r="M4" s="12" t="str">
         <f>TEXT(M5,"aaa")</f>
         <v>Tue</v>
@@ -1977,13 +2096,13 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="94" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="31" t="s">
@@ -2010,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="37">
-        <f t="shared" ref="N6:AQ14" si="2">IF($K6=N$5,3,IF(OR(AND($H6&lt;=N$5,N$5&lt;=$I6),$H6=N$5),2,IF(AND($F6&lt;=N$5,N$5&lt;=$G6),1,0)))</f>
+        <f t="shared" ref="N6:AQ6" si="2">IF($K6=N$5,3,IF(OR(AND($H6&lt;=N$5,N$5&lt;=$I6),$H6=N$5),2,IF(AND($F6&lt;=N$5,N$5&lt;=$G6),1,0)))</f>
         <v>0</v>
       </c>
       <c r="O6" s="37">
@@ -2134,9 +2253,9 @@
       </c>
     </row>
     <row r="7" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="87"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="89"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="95"/>
       <c r="E7" s="31" t="s">
         <v>13</v>
       </c>
@@ -2157,127 +2276,127 @@
         <v>44636</v>
       </c>
       <c r="M7" s="39">
-        <f t="shared" ref="M7:AB38" si="3">IF($K7=M$5,3,IF(OR(AND($H7&lt;=M$5,M$5&lt;=$I7),$H7=M$5),2,IF(AND($F7&lt;=M$5,M$5&lt;=$G7),1,0)))</f>
+        <f t="shared" ref="M7:AB22" si="3">IF($K7=M$5,3,IF(OR(AND($H7&lt;=M$5,M$5&lt;=$I7),$H7=M$5),2,IF(AND($F7&lt;=M$5,M$5&lt;=$G7),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N7" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O7" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P7" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q7" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R7" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S7" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T7" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U7" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V7" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W7" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X7" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y7" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z7" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA7" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AB7" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC7" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AC7:AQ21" si="4">IF($K7=AC$5,3,IF(OR(AND($H7&lt;=AC$5,AC$5&lt;=$I7),$H7=AC$5),2,IF(AND($F7&lt;=AC$5,AC$5&lt;=$G7),1,0)))</f>
         <v>1</v>
       </c>
       <c r="AD7" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AE7" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF7" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AG7" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AH7" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AI7" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AJ7" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AK7" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AL7" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM7" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN7" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AO7" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP7" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AQ7" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AS7" s="42" t="s">
@@ -2285,9 +2404,9 @@
       </c>
     </row>
     <row r="8" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="87"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="89"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="31" t="s">
         <v>15</v>
       </c>
@@ -2312,131 +2431,131 @@
         <v>0</v>
       </c>
       <c r="N8" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O8" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P8" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q8" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R8" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S8" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T8" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U8" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V8" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W8" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X8" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y8" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z8" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA8" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AB8" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AC8" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AD8" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AE8" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF8" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AG8" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AH8" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AI8" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AJ8" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AK8" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AL8" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM8" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN8" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AO8" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP8" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AQ8" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="100" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="71" t="s">
@@ -2468,129 +2587,129 @@
         <v>0</v>
       </c>
       <c r="N9" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O9" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P9" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q9" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R9" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S9" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T9" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U9" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V9" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W9" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X9" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y9" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z9" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA9" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB9" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC9" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD9" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE9" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF9" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG9" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH9" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AI9" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AJ9" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AK9" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AL9" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM9" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN9" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AO9" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP9" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AQ9" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="93"/>
-      <c r="C10" s="96"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="101"/>
       <c r="D10" s="72" t="s">
         <v>62</v>
       </c>
@@ -2620,129 +2739,129 @@
         <v>0</v>
       </c>
       <c r="N10" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O10" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P10" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q10" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R10" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S10" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T10" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U10" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V10" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W10" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X10" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y10" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z10" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA10" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB10" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC10" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD10" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE10" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF10" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG10" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH10" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AI10" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AJ10" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AK10" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AL10" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM10" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN10" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AO10" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP10" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AQ10" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="93"/>
-      <c r="C11" s="96"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="101"/>
       <c r="D11" s="72" t="s">
         <v>62</v>
       </c>
@@ -2772,129 +2891,129 @@
         <v>0</v>
       </c>
       <c r="N11" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O11" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P11" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q11" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R11" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S11" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T11" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U11" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V11" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W11" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X11" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y11" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z11" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA11" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB11" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC11" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD11" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE11" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF11" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG11" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH11" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AI11" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AJ11" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AK11" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AL11" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM11" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN11" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AO11" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP11" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AQ11" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="93"/>
-      <c r="C12" s="96"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="101"/>
       <c r="D12" s="73" t="s">
         <v>70</v>
       </c>
@@ -2924,129 +3043,129 @@
         <v>0</v>
       </c>
       <c r="N12" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O12" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P12" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q12" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R12" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S12" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T12" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U12" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V12" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W12" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X12" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y12" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z12" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA12" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB12" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC12" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD12" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE12" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF12" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG12" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH12" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI12" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="AJ12" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AK12" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AL12" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM12" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN12" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AO12" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP12" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AQ12" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="93"/>
-      <c r="C13" s="96"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="101"/>
       <c r="D13" s="74" t="s">
         <v>58</v>
       </c>
@@ -3057,8 +3176,12 @@
       <c r="G13" s="33">
         <v>44648</v>
       </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="33"/>
+      <c r="H13" s="32">
+        <v>44648</v>
+      </c>
+      <c r="I13" s="33">
+        <v>44648</v>
+      </c>
       <c r="J13" s="34"/>
       <c r="K13" s="35"/>
       <c r="M13" s="39">
@@ -3066,130 +3189,130 @@
         <v>0</v>
       </c>
       <c r="N13" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O13" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P13" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q13" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R13" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S13" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T13" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U13" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V13" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W13" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X13" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y13" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z13" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA13" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB13" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC13" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD13" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE13" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF13" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG13" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH13" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI13" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AJ13" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AK13" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AL13" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM13" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN13" s="40">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="AO13" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP13" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AQ13" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="93"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="98" t="s">
+      <c r="B14" s="99"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="103" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="31" t="s">
@@ -3214,67 +3337,67 @@
         <v>0</v>
       </c>
       <c r="N14" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O14" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P14" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q14" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R14" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S14" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T14" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U14" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V14" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W14" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X14" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y14" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z14" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA14" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB14" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC14" s="40">
-        <f t="shared" ref="AC14:AQ74" si="4">IF($K14=AC$5,3,IF(OR(AND($H14&lt;=AC$5,AC$5&lt;=$I14),$H14=AC$5),2,IF(AND($F14&lt;=AC$5,AC$5&lt;=$G14),1,0)))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD14" s="40">
@@ -3335,9 +3458,9 @@
       </c>
     </row>
     <row r="15" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="93"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="99"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="104"/>
       <c r="E15" s="31" t="s">
         <v>13</v>
       </c>
@@ -3350,7 +3473,9 @@
       <c r="H15" s="32">
         <v>44639</v>
       </c>
-      <c r="I15" s="35"/>
+      <c r="I15" s="35">
+        <v>44645</v>
+      </c>
       <c r="J15" s="34" t="s">
         <v>13</v>
       </c>
@@ -3439,23 +3564,23 @@
       </c>
       <c r="AG15" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH15" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI15" s="40">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ15" s="40">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK15" s="40">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL15" s="40">
         <f t="shared" si="4"/>
@@ -3483,9 +3608,9 @@
       </c>
     </row>
     <row r="16" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="94"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="100"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="104"/>
       <c r="E16" s="31" t="s">
         <v>15</v>
       </c>
@@ -3498,7 +3623,9 @@
       <c r="H16" s="32">
         <v>44639</v>
       </c>
-      <c r="I16" s="35"/>
+      <c r="I16" s="35">
+        <v>44645</v>
+      </c>
       <c r="J16" s="34" t="s">
         <v>13</v>
       </c>
@@ -3583,7 +3710,7 @@
       </c>
       <c r="AF16" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG16" s="40">
         <f t="shared" si="4"/>
@@ -3591,19 +3718,19 @@
       </c>
       <c r="AH16" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI16" s="40">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ16" s="40">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK16" s="40">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL16" s="40">
         <f t="shared" si="4"/>
@@ -3631,11 +3758,11 @@
       </c>
     </row>
     <row r="17" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="87"/>
-      <c r="D17" s="66" t="s">
+      <c r="C17" s="101"/>
+      <c r="D17" s="75" t="s">
         <v>79</v>
       </c>
       <c r="E17" s="31" t="s">
@@ -3647,7 +3774,9 @@
       <c r="G17" s="35">
         <v>44652</v>
       </c>
-      <c r="H17" s="32"/>
+      <c r="H17" s="32">
+        <v>44648</v>
+      </c>
       <c r="I17" s="35"/>
       <c r="J17" s="34"/>
       <c r="K17" s="35"/>
@@ -3761,7 +3890,7 @@
       </c>
       <c r="AN17" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO17" s="40">
         <f t="shared" si="4"/>
@@ -3777,9 +3906,9 @@
       </c>
     </row>
     <row r="18" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="66" t="s">
+      <c r="B18" s="106"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="76" t="s">
         <v>80</v>
       </c>
       <c r="E18" s="31"/>
@@ -3919,9 +4048,9 @@
       </c>
     </row>
     <row r="19" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="44" t="s">
+      <c r="B19" s="106"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="77" t="s">
         <v>54</v>
       </c>
       <c r="E19" s="31" t="s">
@@ -4071,9 +4200,9 @@
       </c>
     </row>
     <row r="20" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="44" t="s">
+      <c r="B20" s="106"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="77" t="s">
         <v>55</v>
       </c>
       <c r="E20" s="31" t="s">
@@ -4223,9 +4352,9 @@
       </c>
     </row>
     <row r="21" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="87"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="44" t="s">
+      <c r="B21" s="106"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="77" t="s">
         <v>81</v>
       </c>
       <c r="E21" s="31" t="s">
@@ -4237,7 +4366,9 @@
       <c r="G21" s="35">
         <v>44652</v>
       </c>
-      <c r="H21" s="32"/>
+      <c r="H21" s="32">
+        <v>44644</v>
+      </c>
       <c r="I21" s="35"/>
       <c r="J21" s="34"/>
       <c r="K21" s="35"/>
@@ -4335,7 +4466,7 @@
       </c>
       <c r="AJ21" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK21" s="40">
         <f t="shared" si="4"/>
@@ -4367,9 +4498,9 @@
       </c>
     </row>
     <row r="22" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="67" t="s">
+      <c r="B22" s="106"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="78" t="s">
         <v>63</v>
       </c>
       <c r="E22" s="31" t="s">
@@ -4381,7 +4512,9 @@
       <c r="G22" s="35">
         <v>44652</v>
       </c>
-      <c r="H22" s="32"/>
+      <c r="H22" s="32">
+        <v>44644</v>
+      </c>
       <c r="I22" s="35"/>
       <c r="J22" s="34"/>
       <c r="K22" s="35"/>
@@ -4446,74 +4579,74 @@
         <v>0</v>
       </c>
       <c r="AB22" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="AB22:AQ37" si="5">IF($K22=AB$5,3,IF(OR(AND($H22&lt;=AB$5,AB$5&lt;=$I22),$H22=AB$5),2,IF(AND($F22&lt;=AB$5,AB$5&lt;=$G22),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AC22" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD22" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE22" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF22" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG22" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH22" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI22" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ22" s="40">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="AK22" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL22" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AM22" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN22" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO22" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AP22" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AQ22" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="45" t="s">
+      <c r="B23" s="106"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="79" t="s">
         <v>71</v>
       </c>
       <c r="E23" s="31" t="s">
@@ -4530,134 +4663,134 @@
       <c r="J23" s="34"/>
       <c r="K23" s="35"/>
       <c r="M23" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="M23:AB38" si="6">IF($K23=M$5,3,IF(OR(AND($H23&lt;=M$5,M$5&lt;=$I23),$H23=M$5),2,IF(AND($F23&lt;=M$5,M$5&lt;=$G23),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N23" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O23" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P23" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q23" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R23" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S23" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T23" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U23" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V23" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W23" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X23" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y23" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z23" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA23" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB23" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC23" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD23" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE23" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF23" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG23" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH23" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI23" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ23" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK23" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL23" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AM23" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN23" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO23" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AP23" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AQ23" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="67" t="s">
+      <c r="B24" s="106"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="78" t="s">
         <v>58</v>
       </c>
       <c r="E24" s="31"/>
@@ -4672,134 +4805,134 @@
       <c r="J24" s="34"/>
       <c r="K24" s="35"/>
       <c r="M24" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N24" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O24" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P24" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q24" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R24" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S24" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T24" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U24" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V24" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W24" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X24" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y24" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z24" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA24" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB24" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC24" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD24" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE24" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF24" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG24" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH24" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI24" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ24" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK24" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL24" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AM24" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN24" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO24" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AP24" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AQ24" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="87"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="67" t="s">
+      <c r="B25" s="106"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="78" t="s">
         <v>77</v>
       </c>
       <c r="E25" s="31" t="s">
@@ -4816,134 +4949,134 @@
       <c r="J25" s="34"/>
       <c r="K25" s="35"/>
       <c r="M25" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N25" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O25" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P25" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q25" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R25" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S25" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T25" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U25" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V25" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W25" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X25" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y25" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z25" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA25" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB25" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC25" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD25" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE25" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF25" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG25" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH25" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI25" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ25" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK25" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL25" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AM25" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN25" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO25" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AP25" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AQ25" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="97"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="46" t="s">
+      <c r="B26" s="107"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="80" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="31" t="s">
@@ -4960,134 +5093,134 @@
       <c r="J26" s="34"/>
       <c r="K26" s="35"/>
       <c r="M26" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N26" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O26" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P26" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q26" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R26" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S26" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T26" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U26" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V26" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W26" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X26" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y26" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z26" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA26" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB26" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC26" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD26" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE26" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF26" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG26" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH26" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI26" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ26" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK26" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL26" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AM26" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN26" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO26" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AP26" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AQ26" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="61"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="43" t="s">
+      <c r="C27" s="93"/>
+      <c r="D27" s="66" t="s">
         <v>64</v>
       </c>
       <c r="E27" s="31" t="s">
@@ -5100,135 +5233,135 @@
       <c r="J27" s="34"/>
       <c r="K27" s="35"/>
       <c r="M27" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N27" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O27" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P27" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q27" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R27" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S27" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T27" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U27" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V27" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W27" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X27" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y27" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z27" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA27" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB27" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC27" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD27" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE27" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF27" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG27" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH27" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI27" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ27" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK27" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL27" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AM27" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN27" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO27" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AP27" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AQ27" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="87" t="s">
+      <c r="B28" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="87"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="44" t="s">
         <v>38</v>
       </c>
@@ -5242,133 +5375,133 @@
       <c r="J28" s="34"/>
       <c r="K28" s="35"/>
       <c r="M28" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N28" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O28" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P28" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q28" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R28" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S28" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T28" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U28" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V28" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W28" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X28" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y28" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z28" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA28" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB28" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC28" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD28" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE28" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF28" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG28" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH28" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI28" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ28" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK28" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL28" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AM28" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN28" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO28" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AP28" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AQ28" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="87"/>
-      <c r="C29" s="87"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
       <c r="D29" s="44" t="s">
         <v>68</v>
       </c>
@@ -5382,133 +5515,133 @@
       <c r="J29" s="34"/>
       <c r="K29" s="35"/>
       <c r="M29" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N29" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O29" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P29" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q29" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R29" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S29" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T29" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U29" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V29" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W29" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X29" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y29" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z29" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA29" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB29" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC29" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD29" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE29" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF29" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG29" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH29" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI29" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ29" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK29" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL29" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AM29" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN29" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO29" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AP29" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AQ29" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="87"/>
-      <c r="C30" s="87"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
       <c r="D30" s="44" t="s">
         <v>39</v>
       </c>
@@ -5522,67 +5655,67 @@
       <c r="J30" s="34"/>
       <c r="K30" s="35"/>
       <c r="M30" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N30" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O30" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P30" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q30" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R30" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S30" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T30" s="40">
-        <f t="shared" ref="T30:AI74" si="5">IF($K30=T$5,3,IF(OR(AND($H30&lt;=T$5,T$5&lt;=$I30),$H30=T$5),2,IF(AND($F30&lt;=T$5,T$5&lt;=$G30),1,0)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U30" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V30" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W30" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X30" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y30" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z30" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA30" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB30" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC30" s="40">
@@ -5614,41 +5747,41 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK30" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL30" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AM30" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN30" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO30" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AP30" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AQ30" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
       <c r="D31" s="44" t="s">
         <v>40</v>
       </c>
@@ -5662,7 +5795,7 @@
       <c r="J31" s="34"/>
       <c r="K31" s="35"/>
       <c r="M31" s="39">
-        <f t="shared" ref="M31:AB74" si="6">IF($K31=M$5,3,IF(OR(AND($H31&lt;=M$5,M$5&lt;=$I31),$H31=M$5),2,IF(AND($F31&lt;=M$5,M$5&lt;=$G31),1,0)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N31" s="40">
@@ -5754,41 +5887,41 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK31" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL31" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AM31" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN31" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO31" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AP31" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AQ31" s="41">
-        <f t="shared" ref="N31:AQ74" si="7">IF($K31=AQ$5,3,IF(OR(AND($H31&lt;=AQ$5,AQ$5&lt;=$I31),$H31=AQ$5),2,IF(AND($F31&lt;=AQ$5,AQ$5&lt;=$G31),1,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="87"/>
-      <c r="C32" s="87"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
       <c r="D32" s="44" t="s">
         <v>65</v>
       </c>
@@ -5804,129 +5937,129 @@
         <v>0</v>
       </c>
       <c r="N32" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O32" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P32" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q32" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R32" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S32" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T32" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U32" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V32" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W32" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X32" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y32" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z32" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA32" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB32" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC32" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD32" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE32" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF32" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG32" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH32" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI32" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ32" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK32" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL32" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AM32" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN32" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO32" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AP32" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AQ32" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
       <c r="D33" s="44" t="s">
         <v>69</v>
       </c>
@@ -5944,129 +6077,129 @@
         <v>0</v>
       </c>
       <c r="N33" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O33" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P33" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q33" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R33" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S33" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T33" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U33" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V33" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W33" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X33" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y33" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z33" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA33" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB33" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC33" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD33" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE33" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF33" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG33" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH33" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI33" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ33" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK33" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL33" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AM33" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN33" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO33" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AP33" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AQ33" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
       <c r="D34" s="45" t="s">
         <v>72</v>
       </c>
@@ -6088,129 +6221,129 @@
         <v>0</v>
       </c>
       <c r="N34" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O34" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P34" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q34" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R34" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S34" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T34" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U34" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V34" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W34" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X34" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y34" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z34" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA34" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB34" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC34" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD34" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE34" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF34" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG34" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH34" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI34" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ34" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK34" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL34" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AM34" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN34" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO34" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AP34" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AQ34" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="87"/>
-      <c r="C35" s="87"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
       <c r="D35" s="67" t="s">
         <v>58</v>
       </c>
@@ -6230,129 +6363,129 @@
         <v>0</v>
       </c>
       <c r="N35" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O35" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P35" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q35" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R35" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S35" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T35" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U35" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V35" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W35" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X35" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y35" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z35" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA35" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB35" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC35" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD35" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE35" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF35" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG35" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH35" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI35" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ35" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK35" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL35" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AM35" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN35" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO35" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AP35" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AQ35" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="87"/>
-      <c r="C36" s="87"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
       <c r="D36" s="44" t="s">
         <v>41</v>
       </c>
@@ -6374,129 +6507,129 @@
         <v>0</v>
       </c>
       <c r="N36" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O36" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P36" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q36" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R36" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S36" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T36" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U36" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V36" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W36" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X36" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y36" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z36" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA36" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB36" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC36" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD36" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE36" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF36" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG36" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH36" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI36" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ36" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK36" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL36" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AM36" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN36" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO36" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AP36" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AQ36" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="97"/>
-      <c r="C37" s="97"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="102"/>
       <c r="D37" s="45" t="s">
         <v>18</v>
       </c>
@@ -6518,131 +6651,131 @@
         <v>0</v>
       </c>
       <c r="N37" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O37" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P37" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q37" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R37" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S37" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T37" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U37" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V37" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W37" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X37" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y37" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z37" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA37" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB37" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC37" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD37" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE37" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF37" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG37" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH37" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI37" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ37" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK37" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL37" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AM37" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN37" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO37" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AP37" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AQ37" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="101" t="s">
+      <c r="B38" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="104" t="s">
+      <c r="C38" s="111" t="s">
         <v>32</v>
       </c>
       <c r="D38" s="43" t="s">
@@ -6662,63 +6795,63 @@
         <v>0</v>
       </c>
       <c r="N38" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O38" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P38" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q38" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R38" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S38" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T38" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U38" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V38" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W38" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X38" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y38" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z38" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA38" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB38" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="AB38:AQ53" si="7">IF($K38=AB$5,3,IF(OR(AND($H38&lt;=AB$5,AB$5&lt;=$I38),$H38=AB$5),2,IF(AND($F38&lt;=AB$5,AB$5&lt;=$G38),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AC38" s="40">
@@ -6783,8 +6916,8 @@
       </c>
     </row>
     <row r="39" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="102"/>
-      <c r="C39" s="104"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="111"/>
       <c r="D39" s="66" t="s">
         <v>42</v>
       </c>
@@ -6798,67 +6931,67 @@
       <c r="J39" s="34"/>
       <c r="K39" s="35"/>
       <c r="M39" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="M39:AB54" si="8">IF($K39=M$5,3,IF(OR(AND($H39&lt;=M$5,M$5&lt;=$I39),$H39=M$5),2,IF(AND($F39&lt;=M$5,M$5&lt;=$G39),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N39" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O39" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P39" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q39" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R39" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S39" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T39" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U39" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V39" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W39" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X39" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y39" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z39" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA39" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB39" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC39" s="40">
@@ -6923,8 +7056,8 @@
       </c>
     </row>
     <row r="40" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="102"/>
-      <c r="C40" s="104"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="111"/>
       <c r="D40" s="66" t="s">
         <v>67</v>
       </c>
@@ -6936,133 +7069,133 @@
       <c r="J40" s="34"/>
       <c r="K40" s="35"/>
       <c r="M40" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB40" s="40">
-        <f t="shared" ref="AB40:AQ74" si="8">IF($K40=AB$5,3,IF(OR(AND($H40&lt;=AB$5,AB$5&lt;=$I40),$H40=AB$5),2,IF(AND($F40&lt;=AB$5,AB$5&lt;=$G40),1,0)))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC40" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD40" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE40" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF40" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG40" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH40" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI40" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ40" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK40" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL40" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM40" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN40" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO40" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AP40" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ40" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="102"/>
-      <c r="C41" s="104"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="111"/>
       <c r="D41" s="44" t="s">
         <v>46</v>
       </c>
@@ -7076,133 +7209,133 @@
       <c r="J41" s="34"/>
       <c r="K41" s="35"/>
       <c r="M41" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N41" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O41" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P41" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q41" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R41" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S41" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T41" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U41" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V41" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W41" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X41" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y41" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z41" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA41" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB41" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC41" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD41" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE41" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF41" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG41" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH41" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI41" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ41" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK41" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL41" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM41" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN41" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO41" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AP41" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ41" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="102"/>
-      <c r="C42" s="104"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="111"/>
       <c r="D42" s="45" t="s">
         <v>73</v>
       </c>
@@ -7220,133 +7353,133 @@
       <c r="J42" s="34"/>
       <c r="K42" s="35"/>
       <c r="M42" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N42" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O42" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P42" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q42" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R42" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S42" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T42" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U42" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V42" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W42" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X42" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y42" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z42" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA42" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB42" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC42" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD42" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE42" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF42" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG42" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH42" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI42" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ42" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK42" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL42" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM42" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN42" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO42" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AP42" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ42" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="102"/>
-      <c r="C43" s="104"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="111"/>
       <c r="D43" s="67" t="s">
         <v>58</v>
       </c>
@@ -7362,133 +7495,133 @@
       <c r="J43" s="34"/>
       <c r="K43" s="35"/>
       <c r="M43" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N43" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O43" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P43" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q43" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R43" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S43" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T43" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U43" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V43" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W43" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X43" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y43" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z43" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA43" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB43" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC43" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD43" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE43" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF43" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG43" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH43" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI43" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ43" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK43" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL43" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM43" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN43" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO43" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AP43" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ43" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="102"/>
-      <c r="C44" s="104"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="111"/>
       <c r="D44" s="47" t="s">
         <v>19</v>
       </c>
@@ -7506,133 +7639,133 @@
       <c r="J44" s="34"/>
       <c r="K44" s="35"/>
       <c r="M44" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N44" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O44" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P44" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q44" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R44" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S44" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T44" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U44" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V44" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W44" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X44" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y44" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z44" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA44" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB44" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC44" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD44" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE44" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF44" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG44" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH44" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI44" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ44" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK44" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL44" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM44" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN44" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO44" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AP44" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ44" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="102"/>
-      <c r="C45" s="104"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="111"/>
       <c r="D45" s="47" t="s">
         <v>48</v>
       </c>
@@ -7650,133 +7783,133 @@
       <c r="J45" s="34"/>
       <c r="K45" s="35"/>
       <c r="M45" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N45" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O45" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P45" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q45" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R45" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S45" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T45" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U45" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V45" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W45" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X45" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y45" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z45" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA45" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB45" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC45" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD45" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE45" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF45" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG45" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH45" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI45" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ45" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK45" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL45" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM45" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN45" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO45" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AP45" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ45" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="102"/>
-      <c r="C46" s="104"/>
+      <c r="B46" s="109"/>
+      <c r="C46" s="111"/>
       <c r="D46" s="45" t="s">
         <v>48</v>
       </c>
@@ -7794,133 +7927,133 @@
       <c r="J46" s="34"/>
       <c r="K46" s="35"/>
       <c r="M46" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N46" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O46" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P46" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q46" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R46" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S46" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T46" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U46" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V46" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W46" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X46" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y46" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z46" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA46" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB46" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC46" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD46" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE46" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF46" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG46" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH46" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI46" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ46" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK46" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL46" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM46" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN46" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO46" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AP46" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ46" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="103"/>
-      <c r="C47" s="104"/>
+      <c r="B47" s="110"/>
+      <c r="C47" s="111"/>
       <c r="D47" s="65" t="s">
         <v>50</v>
       </c>
@@ -7936,135 +8069,135 @@
       <c r="J47" s="34"/>
       <c r="K47" s="35"/>
       <c r="M47" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N47" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O47" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P47" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q47" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R47" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S47" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T47" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U47" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V47" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W47" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X47" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y47" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z47" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA47" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB47" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC47" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD47" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE47" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF47" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG47" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH47" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI47" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ47" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK47" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL47" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM47" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN47" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO47" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AP47" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ47" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="101" t="s">
+      <c r="B48" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="104"/>
+      <c r="C48" s="111"/>
       <c r="D48" s="66" t="s">
         <v>39</v>
       </c>
@@ -8078,133 +8211,133 @@
       <c r="J48" s="34"/>
       <c r="K48" s="35"/>
       <c r="M48" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N48" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O48" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P48" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q48" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R48" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S48" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T48" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U48" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V48" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W48" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X48" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y48" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z48" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA48" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB48" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC48" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD48" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE48" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF48" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG48" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH48" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI48" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ48" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK48" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL48" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM48" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN48" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO48" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AP48" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ48" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="102"/>
-      <c r="C49" s="104"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="111"/>
       <c r="D49" s="44" t="s">
         <v>40</v>
       </c>
@@ -8218,139 +8351,137 @@
       <c r="J49" s="34"/>
       <c r="K49" s="35"/>
       <c r="M49" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N49" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O49" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P49" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q49" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R49" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S49" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T49" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U49" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V49" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W49" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X49" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y49" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z49" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA49" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB49" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC49" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD49" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE49" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF49" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG49" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH49" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI49" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ49" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK49" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL49" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM49" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN49" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO49" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AP49" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ49" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="102"/>
-      <c r="C50" s="104"/>
+      <c r="B50" s="109"/>
+      <c r="C50" s="111"/>
       <c r="D50" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="E50" s="31" t="s">
-        <v>14</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E50" s="31"/>
       <c r="F50" s="32"/>
       <c r="G50" s="35"/>
       <c r="H50" s="32"/>
@@ -8358,137 +8489,139 @@
       <c r="J50" s="34"/>
       <c r="K50" s="35"/>
       <c r="M50" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N50" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O50" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P50" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q50" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R50" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S50" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T50" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U50" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V50" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W50" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X50" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y50" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z50" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA50" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB50" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC50" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD50" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE50" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF50" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG50" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH50" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI50" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ50" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK50" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL50" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM50" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN50" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO50" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AP50" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ50" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="102"/>
-      <c r="C51" s="104"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="111"/>
       <c r="D51" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="E51" s="31"/>
+        <v>47</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>14</v>
+      </c>
       <c r="F51" s="32"/>
       <c r="G51" s="35"/>
       <c r="H51" s="32"/>
@@ -8496,564 +8629,562 @@
       <c r="J51" s="34"/>
       <c r="K51" s="35"/>
       <c r="M51" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N51" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O51" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P51" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q51" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R51" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S51" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T51" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U51" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V51" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W51" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X51" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y51" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z51" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA51" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB51" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC51" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD51" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE51" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF51" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG51" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH51" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI51" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ51" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK51" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL51" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM51" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN51" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO51" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AP51" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ51" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="102"/>
-      <c r="C52" s="104"/>
-      <c r="D52" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="E52" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="32">
-        <v>44671</v>
-      </c>
-      <c r="G52" s="35">
-        <v>44673</v>
-      </c>
+      <c r="B52" s="109"/>
+      <c r="C52" s="111"/>
+      <c r="D52" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="31"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="35"/>
       <c r="H52" s="32"/>
       <c r="I52" s="35"/>
       <c r="J52" s="34"/>
       <c r="K52" s="35"/>
       <c r="M52" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N52" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O52" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P52" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q52" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R52" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S52" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T52" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U52" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V52" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W52" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X52" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y52" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z52" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA52" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB52" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC52" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD52" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE52" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF52" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG52" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH52" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI52" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ52" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK52" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL52" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM52" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN52" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO52" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AP52" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ52" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="102"/>
-      <c r="C53" s="104"/>
-      <c r="D53" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="E53" s="31"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="111"/>
+      <c r="D53" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>14</v>
+      </c>
       <c r="F53" s="32">
-        <v>44676</v>
+        <v>44671</v>
       </c>
       <c r="G53" s="35">
-        <v>44676</v>
+        <v>44673</v>
       </c>
       <c r="H53" s="32"/>
       <c r="I53" s="35"/>
       <c r="J53" s="34"/>
       <c r="K53" s="35"/>
       <c r="M53" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N53" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O53" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P53" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q53" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R53" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S53" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T53" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U53" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V53" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W53" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X53" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y53" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z53" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA53" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB53" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC53" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD53" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE53" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF53" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG53" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH53" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI53" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ53" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK53" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL53" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM53" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN53" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO53" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AP53" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ53" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="102"/>
-      <c r="C54" s="104"/>
-      <c r="D54" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="E54" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="32"/>
-      <c r="G54" s="35"/>
+      <c r="B54" s="109"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="31"/>
+      <c r="F54" s="32">
+        <v>44676</v>
+      </c>
+      <c r="G54" s="35">
+        <v>44676</v>
+      </c>
       <c r="H54" s="32"/>
       <c r="I54" s="35"/>
       <c r="J54" s="34"/>
       <c r="K54" s="35"/>
       <c r="M54" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N54" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O54" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P54" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q54" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R54" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S54" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T54" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U54" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V54" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W54" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X54" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y54" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z54" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA54" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB54" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="AB54:AQ69" si="9">IF($K54=AB$5,3,IF(OR(AND($H54&lt;=AB$5,AB$5&lt;=$I54),$H54=AB$5),2,IF(AND($F54&lt;=AB$5,AB$5&lt;=$G54),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AC54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AF54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AJ54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AN54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AO54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AP54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AQ54" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="102"/>
-      <c r="C55" s="104"/>
+      <c r="B55" s="109"/>
+      <c r="C55" s="111"/>
       <c r="D55" s="47" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F55" s="32"/>
       <c r="G55" s="35"/>
@@ -9062,67 +9193,67 @@
       <c r="J55" s="34"/>
       <c r="K55" s="35"/>
       <c r="M55" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="M55:AB70" si="10">IF($K55=M$5,3,IF(OR(AND($H55&lt;=M$5,M$5&lt;=$I55),$H55=M$5),2,IF(AND($F55&lt;=M$5,M$5&lt;=$G55),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N55" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O55" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P55" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q55" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R55" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S55" s="40">
-        <f t="shared" ref="S55:AH74" si="9">IF($K55=S$5,3,IF(OR(AND($H55&lt;=S$5,S$5&lt;=$I55),$H55=S$5),2,IF(AND($F55&lt;=S$5,S$5&lt;=$G55),1,0)))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC55" s="40">
@@ -9150,63 +9281,59 @@
         <v>0</v>
       </c>
       <c r="AI55" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AJ55" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK55" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL55" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM55" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AN55" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AO55" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AP55" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AQ55" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="103"/>
-      <c r="C56" s="104"/>
-      <c r="D56" s="46" t="s">
+      <c r="B56" s="109"/>
+      <c r="C56" s="111"/>
+      <c r="D56" s="47" t="s">
         <v>44</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="32">
-        <v>44671</v>
-      </c>
-      <c r="G56" s="70">
-        <v>44677</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F56" s="32"/>
+      <c r="G56" s="35"/>
       <c r="H56" s="32"/>
       <c r="I56" s="35"/>
       <c r="J56" s="34"/>
       <c r="K56" s="35"/>
       <c r="M56" s="39">
-        <f t="shared" ref="M56:AB74" si="10">IF($K56=M$5,3,IF(OR(AND($H56&lt;=M$5,M$5&lt;=$I56),$H56=M$5),2,IF(AND($F56&lt;=M$5,M$5&lt;=$G56),1,0)))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N56" s="40">
@@ -9294,57 +9421,57 @@
         <v>0</v>
       </c>
       <c r="AI56" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AJ56" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK56" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL56" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM56" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AN56" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AO56" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AP56" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AQ56" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="101" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="90" t="s">
-        <v>33</v>
-      </c>
-      <c r="D57" s="43" t="s">
-        <v>53</v>
+      <c r="B57" s="110"/>
+      <c r="C57" s="111"/>
+      <c r="D57" s="46" t="s">
+        <v>44</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="32"/>
-      <c r="G57" s="35"/>
+        <v>13</v>
+      </c>
+      <c r="F57" s="32">
+        <v>44671</v>
+      </c>
+      <c r="G57" s="70">
+        <v>44677</v>
+      </c>
       <c r="H57" s="32"/>
       <c r="I57" s="35"/>
       <c r="J57" s="34"/>
@@ -9438,49 +9565,55 @@
         <v>0</v>
       </c>
       <c r="AI57" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AJ57" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK57" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL57" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM57" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AN57" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AO57" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AP57" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AQ57" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="102"/>
-      <c r="C58" s="90"/>
-      <c r="D58" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="E58" s="31"/>
+      <c r="B58" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58" s="31" t="s">
+        <v>15</v>
+      </c>
       <c r="F58" s="32"/>
       <c r="G58" s="35"/>
       <c r="H58" s="32"/>
@@ -9576,47 +9709,47 @@
         <v>0</v>
       </c>
       <c r="AI58" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AJ58" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK58" s="40">
-        <f t="shared" ref="AK58:AQ74" si="11">IF($K58=AK$5,3,IF(OR(AND($H58&lt;=AK$5,AK$5&lt;=$I58),$H58=AK$5),2,IF(AND($F58&lt;=AK$5,AK$5&lt;=$G58),1,0)))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL58" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM58" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AN58" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AO58" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AP58" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AQ58" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="102"/>
-      <c r="C59" s="90"/>
-      <c r="D59" s="51" t="s">
-        <v>60</v>
+      <c r="B59" s="109"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="43" t="s">
+        <v>80</v>
       </c>
       <c r="E59" s="31"/>
       <c r="F59" s="32"/>
@@ -9714,47 +9847,47 @@
         <v>0</v>
       </c>
       <c r="AI59" s="40">
-        <f t="shared" ref="AI59:AQ74" si="12">IF($K59=AI$5,3,IF(OR(AND($H59&lt;=AI$5,AI$5&lt;=$I59),$H59=AI$5),2,IF(AND($F59&lt;=AI$5,AI$5&lt;=$G59),1,0)))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AJ59" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK59" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL59" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM59" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AN59" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AO59" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AP59" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AQ59" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="102"/>
-      <c r="C60" s="90"/>
-      <c r="D60" s="30" t="s">
-        <v>43</v>
+    <row r="60" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="109"/>
+      <c r="C60" s="96"/>
+      <c r="D60" s="50" t="s">
+        <v>59</v>
       </c>
       <c r="E60" s="31"/>
       <c r="F60" s="32"/>
@@ -9852,47 +9985,47 @@
         <v>0</v>
       </c>
       <c r="AI60" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AJ60" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK60" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL60" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM60" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AN60" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AO60" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AP60" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AQ60" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="102"/>
-      <c r="C61" s="90"/>
-      <c r="D61" s="44" t="s">
-        <v>50</v>
+    <row r="61" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="109"/>
+      <c r="C61" s="96"/>
+      <c r="D61" s="51" t="s">
+        <v>60</v>
       </c>
       <c r="E61" s="31"/>
       <c r="F61" s="32"/>
@@ -9990,47 +10123,47 @@
         <v>0</v>
       </c>
       <c r="AI61" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AJ61" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK61" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL61" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM61" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AN61" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AO61" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AP61" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AQ61" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="102"/>
-      <c r="C62" s="90"/>
-      <c r="D62" s="44" t="s">
-        <v>61</v>
+      <c r="B62" s="109"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="30" t="s">
+        <v>43</v>
       </c>
       <c r="E62" s="31"/>
       <c r="F62" s="32"/>
@@ -10128,57 +10261,51 @@
         <v>0</v>
       </c>
       <c r="AI62" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AJ62" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK62" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL62" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM62" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AN62" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AO62" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AP62" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AQ62" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="102"/>
-      <c r="C63" s="90"/>
-      <c r="D63" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="E63" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="32">
-        <v>44678</v>
-      </c>
-      <c r="G63" s="35">
-        <v>44680</v>
-      </c>
+      <c r="B63" s="109"/>
+      <c r="C63" s="96"/>
+      <c r="D63" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="E63" s="31"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="35"/>
       <c r="H63" s="32"/>
       <c r="I63" s="35"/>
       <c r="J63" s="34"/>
@@ -10272,55 +10399,51 @@
         <v>0</v>
       </c>
       <c r="AI63" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AJ63" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK63" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL63" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM63" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AN63" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AO63" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AP63" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AQ63" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="102"/>
-      <c r="C64" s="90"/>
-      <c r="D64" s="67" t="s">
-        <v>58</v>
+      <c r="B64" s="109"/>
+      <c r="C64" s="96"/>
+      <c r="D64" s="44" t="s">
+        <v>61</v>
       </c>
       <c r="E64" s="31"/>
-      <c r="F64" s="32">
-        <v>44683</v>
-      </c>
-      <c r="G64" s="35">
-        <v>44683</v>
-      </c>
+      <c r="F64" s="32"/>
+      <c r="G64" s="35"/>
       <c r="H64" s="32"/>
       <c r="I64" s="35"/>
       <c r="J64" s="34"/>
@@ -10414,53 +10537,57 @@
         <v>0</v>
       </c>
       <c r="AI64" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AJ64" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK64" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL64" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM64" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AN64" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AO64" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AP64" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AQ64" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="102"/>
-      <c r="C65" s="90"/>
-      <c r="D65" s="47" t="s">
-        <v>21</v>
+      <c r="B65" s="109"/>
+      <c r="C65" s="96"/>
+      <c r="D65" s="45" t="s">
+        <v>75</v>
       </c>
       <c r="E65" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="32"/>
-      <c r="G65" s="35"/>
+      <c r="F65" s="32">
+        <v>44678</v>
+      </c>
+      <c r="G65" s="35">
+        <v>44680</v>
+      </c>
       <c r="H65" s="32"/>
       <c r="I65" s="35"/>
       <c r="J65" s="34"/>
@@ -10554,53 +10681,55 @@
         <v>0</v>
       </c>
       <c r="AI65" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AJ65" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK65" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL65" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM65" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AN65" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AO65" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AP65" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AQ65" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="102"/>
-      <c r="C66" s="90"/>
-      <c r="D66" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="E66" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="32"/>
-      <c r="G66" s="35"/>
+      <c r="B66" s="109"/>
+      <c r="C66" s="96"/>
+      <c r="D66" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="E66" s="31"/>
+      <c r="F66" s="32">
+        <v>44683</v>
+      </c>
+      <c r="G66" s="35">
+        <v>44683</v>
+      </c>
       <c r="H66" s="32"/>
       <c r="I66" s="35"/>
       <c r="J66" s="34"/>
@@ -10694,57 +10823,53 @@
         <v>0</v>
       </c>
       <c r="AI66" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AJ66" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK66" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL66" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM66" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AN66" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AO66" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AP66" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AQ66" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="102"/>
-      <c r="C67" s="90"/>
-      <c r="D67" s="53" t="s">
-        <v>45</v>
+      <c r="B67" s="109"/>
+      <c r="C67" s="96"/>
+      <c r="D67" s="47" t="s">
+        <v>21</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" s="48">
-        <v>44678</v>
-      </c>
-      <c r="G67" s="49">
-        <v>44684</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F67" s="32"/>
+      <c r="G67" s="35"/>
       <c r="H67" s="32"/>
       <c r="I67" s="35"/>
       <c r="J67" s="34"/>
@@ -10838,55 +10963,53 @@
         <v>0</v>
       </c>
       <c r="AI67" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AJ67" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK67" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL67" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM67" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AN67" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AO67" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AP67" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AQ67" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="101" t="s">
-        <v>28</v>
-      </c>
-      <c r="C68" s="90" t="s">
-        <v>34</v>
-      </c>
-      <c r="D68" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="E68" s="31"/>
-      <c r="F68" s="48"/>
-      <c r="G68" s="49"/>
+      <c r="B68" s="109"/>
+      <c r="C68" s="96"/>
+      <c r="D68" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E68" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="32"/>
+      <c r="G68" s="35"/>
       <c r="H68" s="32"/>
       <c r="I68" s="35"/>
       <c r="J68" s="34"/>
@@ -10980,52 +11103,57 @@
         <v>0</v>
       </c>
       <c r="AI68" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AJ68" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK68" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL68" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM68" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AN68" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AO68" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AP68" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AQ68" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="102"/>
-      <c r="C69" s="90"/>
-      <c r="D69" s="30" t="s">
-        <v>34</v>
+      <c r="B69" s="109"/>
+      <c r="C69" s="96"/>
+      <c r="D69" s="53" t="s">
+        <v>45</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="32"/>
+        <v>15</v>
+      </c>
+      <c r="F69" s="48">
+        <v>44678</v>
+      </c>
+      <c r="G69" s="49">
+        <v>44684</v>
+      </c>
       <c r="H69" s="32"/>
       <c r="I69" s="35"/>
       <c r="J69" s="34"/>
@@ -11119,53 +11247,55 @@
         <v>0</v>
       </c>
       <c r="AI69" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AJ69" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AK69" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL69" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM69" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AN69" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AO69" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AP69" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AQ69" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="102"/>
-      <c r="C70" s="90"/>
-      <c r="D70" s="30" t="s">
+      <c r="B70" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="E70" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" s="32"/>
-      <c r="G70" s="35"/>
+      <c r="D70" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70" s="31"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="49"/>
       <c r="H70" s="32"/>
       <c r="I70" s="35"/>
       <c r="J70" s="34"/>
@@ -11231,646 +11361,925 @@
         <v>0</v>
       </c>
       <c r="AB70" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="AB70:AQ76" si="11">IF($K70=AB$5,3,IF(OR(AND($H70&lt;=AB$5,AB$5&lt;=$I70),$H70=AB$5),2,IF(AND($F70&lt;=AB$5,AB$5&lt;=$G70),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AC70" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD70" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE70" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF70" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG70" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AH70" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AI70" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ70" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK70" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AL70" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AM70" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN70" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AO70" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AP70" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AQ70" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="102"/>
-      <c r="C71" s="90"/>
+      <c r="B71" s="109"/>
+      <c r="C71" s="96"/>
       <c r="D71" s="30" t="s">
         <v>34</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F71" s="32"/>
-      <c r="G71" s="35"/>
       <c r="H71" s="32"/>
       <c r="I71" s="35"/>
       <c r="J71" s="34"/>
       <c r="K71" s="35"/>
       <c r="M71" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="M71:AB76" si="12">IF($K71=M$5,3,IF(OR(AND($H71&lt;=M$5,M$5&lt;=$I71),$H71=M$5),2,IF(AND($F71&lt;=M$5,M$5&lt;=$G71),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB71" s="40">
-        <f t="shared" ref="AB71:AQ74" si="13">IF($K71=AB$5,3,IF(OR(AND($H71&lt;=AB$5,AB$5&lt;=$I71),$H71=AB$5),2,IF(AND($F71&lt;=AB$5,AB$5&lt;=$G71),1,0)))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AC71" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD71" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE71" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF71" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG71" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AH71" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AI71" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ71" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK71" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AL71" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AM71" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN71" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AO71" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AP71" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AQ71" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="102"/>
-      <c r="C72" s="90"/>
-      <c r="D72" s="69" t="s">
-        <v>76</v>
-      </c>
-      <c r="E72" s="31"/>
-      <c r="F72" s="32">
-        <v>44685</v>
-      </c>
-      <c r="G72" s="35">
-        <v>44687</v>
-      </c>
+      <c r="B72" s="109"/>
+      <c r="C72" s="96"/>
+      <c r="D72" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E72" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="32"/>
+      <c r="G72" s="35"/>
       <c r="H72" s="32"/>
       <c r="I72" s="35"/>
       <c r="J72" s="34"/>
       <c r="K72" s="35"/>
       <c r="M72" s="39">
-        <f t="shared" ref="M72:AB74" si="14">IF($K72=M$5,3,IF(OR(AND($H72&lt;=M$5,M$5&lt;=$I72),$H72=M$5),2,IF(AND($F72&lt;=M$5,M$5&lt;=$G72),1,0)))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N72" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O72" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P72" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q72" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R72" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S72" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T72" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U72" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V72" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W72" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X72" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y72" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z72" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA72" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB72" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AC72" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD72" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE72" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF72" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG72" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AH72" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AI72" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ72" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK72" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AL72" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AM72" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN72" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AO72" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AP72" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AQ72" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="102"/>
-      <c r="C73" s="90"/>
+      <c r="B73" s="109"/>
+      <c r="C73" s="96"/>
       <c r="D73" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="E73" s="31"/>
-      <c r="F73" s="63">
-        <v>44687</v>
-      </c>
-      <c r="G73" s="64">
-        <v>44687</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E73" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" s="32"/>
+      <c r="G73" s="35"/>
       <c r="H73" s="32"/>
       <c r="I73" s="35"/>
       <c r="J73" s="34"/>
       <c r="K73" s="35"/>
       <c r="M73" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N73" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O73" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P73" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q73" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R73" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S73" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T73" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U73" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V73" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W73" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X73" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y73" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z73" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA73" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB73" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AC73" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD73" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE73" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF73" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG73" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AH73" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AI73" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ73" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK73" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AL73" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AM73" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN73" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AO73" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AP73" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AQ73" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="103"/>
-      <c r="C74" s="90"/>
-      <c r="D74" s="54" t="s">
+      <c r="B74" s="109"/>
+      <c r="C74" s="96"/>
+      <c r="D74" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="E74" s="31"/>
+      <c r="F74" s="32">
+        <v>44685</v>
+      </c>
+      <c r="G74" s="35">
+        <v>44687</v>
+      </c>
+      <c r="H74" s="32"/>
+      <c r="I74" s="35"/>
+      <c r="J74" s="34"/>
+      <c r="K74" s="35"/>
+      <c r="M74" s="39">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N74" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O74" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P74" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q74" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R74" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S74" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T74" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U74" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V74" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W74" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="X74" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y74" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z74" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA74" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB74" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AC74" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD74" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AE74" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF74" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG74" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AH74" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI74" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AJ74" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK74" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AL74" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AM74" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AN74" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AO74" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AP74" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AQ74" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="109"/>
+      <c r="C75" s="96"/>
+      <c r="D75" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E75" s="31"/>
+      <c r="F75" s="63">
+        <v>44687</v>
+      </c>
+      <c r="G75" s="64">
+        <v>44687</v>
+      </c>
+      <c r="H75" s="32"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="34"/>
+      <c r="K75" s="35"/>
+      <c r="M75" s="39">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N75" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O75" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P75" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q75" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R75" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S75" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T75" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U75" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V75" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W75" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="X75" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y75" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z75" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA75" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB75" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AC75" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD75" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AE75" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF75" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG75" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AH75" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI75" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AJ75" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK75" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AL75" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AM75" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AN75" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AO75" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AP75" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AQ75" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="110"/>
+      <c r="C76" s="96"/>
+      <c r="D76" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="E74" s="55"/>
-      <c r="F74" s="56">
+      <c r="E76" s="55"/>
+      <c r="F76" s="56">
         <v>44685</v>
       </c>
-      <c r="G74" s="57">
+      <c r="G76" s="57">
         <v>44691</v>
       </c>
-      <c r="H74" s="58"/>
-      <c r="I74" s="59"/>
-      <c r="J74" s="60"/>
-      <c r="K74" s="59"/>
-      <c r="M74" s="39">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="N74" s="40">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O74" s="40">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P74" s="40">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q74" s="40">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R74" s="40">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="S74" s="40">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T74" s="40">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U74" s="40">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="V74" s="40">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="W74" s="40">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="X74" s="40">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Y74" s="40">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Z74" s="40">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AA74" s="40">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB74" s="40">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AC74" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD74" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AE74" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF74" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG74" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AH74" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AI74" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ74" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK74" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AL74" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AM74" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AN74" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AO74" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AP74" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AQ74" s="41">
-        <f t="shared" si="13"/>
+      <c r="H76" s="58"/>
+      <c r="I76" s="59"/>
+      <c r="J76" s="60"/>
+      <c r="K76" s="59"/>
+      <c r="M76" s="39">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N76" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O76" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P76" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R76" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S76" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T76" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U76" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V76" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W76" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="X76" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y76" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z76" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA76" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB76" s="40">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AC76" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD76" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AE76" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF76" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG76" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AH76" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI76" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AJ76" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK76" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AL76" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AM76" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AN76" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AO76" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AP76" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AQ76" s="41">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D5:E74" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}"/>
+  <autoFilter ref="D5:E76" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}"/>
   <mergeCells count="22">
-    <mergeCell ref="B68:B74"/>
-    <mergeCell ref="C68:C74"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="C70:C76"/>
     <mergeCell ref="B38:B47"/>
-    <mergeCell ref="C38:C56"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="B57:B67"/>
-    <mergeCell ref="C57:C67"/>
+    <mergeCell ref="C38:C57"/>
+    <mergeCell ref="B48:B57"/>
+    <mergeCell ref="B58:B69"/>
+    <mergeCell ref="C58:C69"/>
     <mergeCell ref="B9:B16"/>
     <mergeCell ref="C9:C37"/>
     <mergeCell ref="D14:D16"/>
@@ -11887,7 +12296,7 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
   </mergeCells>
-  <conditionalFormatting sqref="M6:AQ74">
+  <conditionalFormatting sqref="M6:AQ76">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>3</formula>
     </cfRule>
@@ -11899,7 +12308,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E74 J6:J74" xr:uid="{7799F778-AC45-524F-B3DE-E4EA92284CF2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E76 J6:J76" xr:uid="{7799F778-AC45-524F-B3DE-E4EA92284CF2}">
       <formula1>$AS$5:$AS$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/CMSC495_ProjectPlan.xlsx
+++ b/CMSC495_ProjectPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Git/cmsc495_final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500AD942-7EE2-8442-9A4D-DE078BD3DAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9253DDE7-AED7-9A42-8EF1-5E19C33AF131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26280" xr2:uid="{A3040AE0-0367-2B43-ADDE-84CCD12855DC}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="83">
   <si>
     <t>Year</t>
   </si>
@@ -1272,6 +1272,75 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1295,75 +1364,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1760,48 +1760,48 @@
       <c r="D3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="82" t="s">
+      <c r="M3" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="97" t="s">
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="97"/>
-      <c r="U3" s="97"/>
-      <c r="V3" s="97"/>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="81" t="s">
+      <c r="T3" s="103"/>
+      <c r="U3" s="103"/>
+      <c r="V3" s="103"/>
+      <c r="W3" s="103"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="81"/>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="81"/>
+      <c r="Z3" s="104"/>
+      <c r="AA3" s="104"/>
+      <c r="AB3" s="104"/>
+      <c r="AC3" s="104"/>
+      <c r="AD3" s="104"/>
     </row>
     <row r="4" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="89"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="83" t="s">
+      <c r="B4" s="97"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="84"/>
-      <c r="H4" s="85" t="s">
+      <c r="G4" s="107"/>
+      <c r="H4" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="86"/>
-      <c r="J4" s="87" t="s">
+      <c r="I4" s="109"/>
+      <c r="J4" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="88"/>
+      <c r="K4" s="111"/>
       <c r="M4" s="12" t="str">
         <f>TEXT(M5,"aaa")</f>
         <v>Tue</v>
@@ -2096,13 +2096,13 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="94" t="s">
+      <c r="D6" s="101" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="31" t="s">
@@ -2253,9 +2253,9 @@
       </c>
     </row>
     <row r="7" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="93"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="95"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="102"/>
       <c r="E7" s="31" t="s">
         <v>13</v>
       </c>
@@ -2404,9 +2404,9 @@
       </c>
     </row>
     <row r="8" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="93"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="95"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="102"/>
       <c r="E8" s="31" t="s">
         <v>15</v>
       </c>
@@ -2552,10 +2552,10 @@
       </c>
     </row>
     <row r="9" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="88" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="71" t="s">
@@ -2708,8 +2708,8 @@
       </c>
     </row>
     <row r="10" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="99"/>
-      <c r="C10" s="101"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="89"/>
       <c r="D10" s="72" t="s">
         <v>62</v>
       </c>
@@ -2860,8 +2860,8 @@
       </c>
     </row>
     <row r="11" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="99"/>
-      <c r="C11" s="101"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="89"/>
       <c r="D11" s="72" t="s">
         <v>62</v>
       </c>
@@ -3012,8 +3012,8 @@
       </c>
     </row>
     <row r="12" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="99"/>
-      <c r="C12" s="101"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="89"/>
       <c r="D12" s="73" t="s">
         <v>70</v>
       </c>
@@ -3164,8 +3164,8 @@
       </c>
     </row>
     <row r="13" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="99"/>
-      <c r="C13" s="101"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="89"/>
       <c r="D13" s="74" t="s">
         <v>58</v>
       </c>
@@ -3182,8 +3182,12 @@
       <c r="I13" s="33">
         <v>44648</v>
       </c>
-      <c r="J13" s="34"/>
-      <c r="K13" s="35"/>
+      <c r="J13" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="35">
+        <v>44648</v>
+      </c>
       <c r="M13" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3294,7 +3298,7 @@
       </c>
       <c r="AN13" s="40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO13" s="40">
         <f t="shared" si="4"/>
@@ -3310,9 +3314,9 @@
       </c>
     </row>
     <row r="14" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="99"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="103" t="s">
+      <c r="B14" s="87"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="92" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="31" t="s">
@@ -3458,9 +3462,9 @@
       </c>
     </row>
     <row r="15" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="99"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="104"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="93"/>
       <c r="E15" s="31" t="s">
         <v>13</v>
       </c>
@@ -3608,9 +3612,9 @@
       </c>
     </row>
     <row r="16" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="99"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="104"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="93"/>
       <c r="E16" s="31" t="s">
         <v>15</v>
       </c>
@@ -3758,10 +3762,10 @@
       </c>
     </row>
     <row r="17" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="105" t="s">
+      <c r="B17" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="101"/>
+      <c r="C17" s="89"/>
       <c r="D17" s="75" t="s">
         <v>79</v>
       </c>
@@ -3906,19 +3910,23 @@
       </c>
     </row>
     <row r="18" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="106"/>
-      <c r="C18" s="101"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="89"/>
       <c r="D18" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="31"/>
+      <c r="E18" s="31" t="s">
+        <v>15</v>
+      </c>
       <c r="F18" s="32">
         <v>44650</v>
       </c>
       <c r="G18" s="35">
         <v>44652</v>
       </c>
-      <c r="H18" s="32"/>
+      <c r="H18" s="32">
+        <v>44648</v>
+      </c>
       <c r="I18" s="35"/>
       <c r="J18" s="34"/>
       <c r="K18" s="35"/>
@@ -4032,7 +4040,7 @@
       </c>
       <c r="AN18" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO18" s="40">
         <f t="shared" si="4"/>
@@ -4048,8 +4056,8 @@
       </c>
     </row>
     <row r="19" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="106"/>
-      <c r="C19" s="101"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="89"/>
       <c r="D19" s="77" t="s">
         <v>54</v>
       </c>
@@ -4200,8 +4208,8 @@
       </c>
     </row>
     <row r="20" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="106"/>
-      <c r="C20" s="101"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="89"/>
       <c r="D20" s="77" t="s">
         <v>55</v>
       </c>
@@ -4352,8 +4360,8 @@
       </c>
     </row>
     <row r="21" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="106"/>
-      <c r="C21" s="101"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="89"/>
       <c r="D21" s="77" t="s">
         <v>81</v>
       </c>
@@ -4498,8 +4506,8 @@
       </c>
     </row>
     <row r="22" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="106"/>
-      <c r="C22" s="101"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="89"/>
       <c r="D22" s="78" t="s">
         <v>63</v>
       </c>
@@ -4644,8 +4652,8 @@
       </c>
     </row>
     <row r="23" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="106"/>
-      <c r="C23" s="101"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="89"/>
       <c r="D23" s="79" t="s">
         <v>71</v>
       </c>
@@ -4788,8 +4796,8 @@
       </c>
     </row>
     <row r="24" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="106"/>
-      <c r="C24" s="101"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="89"/>
       <c r="D24" s="78" t="s">
         <v>58</v>
       </c>
@@ -4930,8 +4938,8 @@
       </c>
     </row>
     <row r="25" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="106"/>
-      <c r="C25" s="101"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="89"/>
       <c r="D25" s="78" t="s">
         <v>77</v>
       </c>
@@ -5074,8 +5082,8 @@
       </c>
     </row>
     <row r="26" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="107"/>
-      <c r="C26" s="101"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="89"/>
       <c r="D26" s="80" t="s">
         <v>17</v>
       </c>
@@ -5219,7 +5227,7 @@
     </row>
     <row r="27" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="61"/>
-      <c r="C27" s="93"/>
+      <c r="C27" s="90"/>
       <c r="D27" s="66" t="s">
         <v>64</v>
       </c>
@@ -5358,10 +5366,10 @@
       </c>
     </row>
     <row r="28" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="93"/>
+      <c r="C28" s="90"/>
       <c r="D28" s="44" t="s">
         <v>38</v>
       </c>
@@ -5500,8 +5508,8 @@
       </c>
     </row>
     <row r="29" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="93"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
       <c r="D29" s="44" t="s">
         <v>68</v>
       </c>
@@ -5640,8 +5648,8 @@
       </c>
     </row>
     <row r="30" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="93"/>
-      <c r="C30" s="93"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
       <c r="D30" s="44" t="s">
         <v>39</v>
       </c>
@@ -5780,8 +5788,8 @@
       </c>
     </row>
     <row r="31" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
       <c r="D31" s="44" t="s">
         <v>40</v>
       </c>
@@ -5920,8 +5928,8 @@
       </c>
     </row>
     <row r="32" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="93"/>
-      <c r="C32" s="93"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
       <c r="D32" s="44" t="s">
         <v>65</v>
       </c>
@@ -6058,8 +6066,8 @@
       </c>
     </row>
     <row r="33" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="93"/>
-      <c r="C33" s="93"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
       <c r="D33" s="44" t="s">
         <v>69</v>
       </c>
@@ -6198,8 +6206,8 @@
       </c>
     </row>
     <row r="34" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="93"/>
-      <c r="C34" s="93"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
       <c r="D34" s="45" t="s">
         <v>72</v>
       </c>
@@ -6342,8 +6350,8 @@
       </c>
     </row>
     <row r="35" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="93"/>
-      <c r="C35" s="93"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="90"/>
       <c r="D35" s="67" t="s">
         <v>58</v>
       </c>
@@ -6484,8 +6492,8 @@
       </c>
     </row>
     <row r="36" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="93"/>
-      <c r="C36" s="93"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="90"/>
       <c r="D36" s="44" t="s">
         <v>41</v>
       </c>
@@ -6628,8 +6636,8 @@
       </c>
     </row>
     <row r="37" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="102"/>
-      <c r="C37" s="102"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
       <c r="D37" s="45" t="s">
         <v>18</v>
       </c>
@@ -6772,10 +6780,10 @@
       </c>
     </row>
     <row r="38" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="108" t="s">
+      <c r="B38" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="111" t="s">
+      <c r="C38" s="85" t="s">
         <v>32</v>
       </c>
       <c r="D38" s="43" t="s">
@@ -6916,8 +6924,8 @@
       </c>
     </row>
     <row r="39" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="109"/>
-      <c r="C39" s="111"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="85"/>
       <c r="D39" s="66" t="s">
         <v>42</v>
       </c>
@@ -7056,8 +7064,8 @@
       </c>
     </row>
     <row r="40" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="109"/>
-      <c r="C40" s="111"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="85"/>
       <c r="D40" s="66" t="s">
         <v>67</v>
       </c>
@@ -7194,8 +7202,8 @@
       </c>
     </row>
     <row r="41" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="109"/>
-      <c r="C41" s="111"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="85"/>
       <c r="D41" s="44" t="s">
         <v>46</v>
       </c>
@@ -7334,8 +7342,8 @@
       </c>
     </row>
     <row r="42" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="109"/>
-      <c r="C42" s="111"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="85"/>
       <c r="D42" s="45" t="s">
         <v>73</v>
       </c>
@@ -7478,8 +7486,8 @@
       </c>
     </row>
     <row r="43" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="109"/>
-      <c r="C43" s="111"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="85"/>
       <c r="D43" s="67" t="s">
         <v>58</v>
       </c>
@@ -7620,8 +7628,8 @@
       </c>
     </row>
     <row r="44" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="109"/>
-      <c r="C44" s="111"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="85"/>
       <c r="D44" s="47" t="s">
         <v>19</v>
       </c>
@@ -7764,8 +7772,8 @@
       </c>
     </row>
     <row r="45" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="109"/>
-      <c r="C45" s="111"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="85"/>
       <c r="D45" s="47" t="s">
         <v>48</v>
       </c>
@@ -7908,8 +7916,8 @@
       </c>
     </row>
     <row r="46" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="109"/>
-      <c r="C46" s="111"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="85"/>
       <c r="D46" s="45" t="s">
         <v>48</v>
       </c>
@@ -8052,8 +8060,8 @@
       </c>
     </row>
     <row r="47" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="110"/>
-      <c r="C47" s="111"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="85"/>
       <c r="D47" s="65" t="s">
         <v>50</v>
       </c>
@@ -8194,10 +8202,10 @@
       </c>
     </row>
     <row r="48" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="108" t="s">
+      <c r="B48" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="111"/>
+      <c r="C48" s="85"/>
       <c r="D48" s="66" t="s">
         <v>39</v>
       </c>
@@ -8336,8 +8344,8 @@
       </c>
     </row>
     <row r="49" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="109"/>
-      <c r="C49" s="111"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="85"/>
       <c r="D49" s="44" t="s">
         <v>40</v>
       </c>
@@ -8476,8 +8484,8 @@
       </c>
     </row>
     <row r="50" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="109"/>
-      <c r="C50" s="111"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="85"/>
       <c r="D50" s="44" t="s">
         <v>82</v>
       </c>
@@ -8614,8 +8622,8 @@
       </c>
     </row>
     <row r="51" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="109"/>
-      <c r="C51" s="111"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="85"/>
       <c r="D51" s="44" t="s">
         <v>47</v>
       </c>
@@ -8754,8 +8762,8 @@
       </c>
     </row>
     <row r="52" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="109"/>
-      <c r="C52" s="111"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="85"/>
       <c r="D52" s="44" t="s">
         <v>49</v>
       </c>
@@ -8892,8 +8900,8 @@
       </c>
     </row>
     <row r="53" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="109"/>
-      <c r="C53" s="111"/>
+      <c r="B53" s="82"/>
+      <c r="C53" s="85"/>
       <c r="D53" s="45" t="s">
         <v>74</v>
       </c>
@@ -9036,8 +9044,8 @@
       </c>
     </row>
     <row r="54" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="109"/>
-      <c r="C54" s="111"/>
+      <c r="B54" s="82"/>
+      <c r="C54" s="85"/>
       <c r="D54" s="67" t="s">
         <v>58</v>
       </c>
@@ -9178,8 +9186,8 @@
       </c>
     </row>
     <row r="55" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="109"/>
-      <c r="C55" s="111"/>
+      <c r="B55" s="82"/>
+      <c r="C55" s="85"/>
       <c r="D55" s="47" t="s">
         <v>20</v>
       </c>
@@ -9318,8 +9326,8 @@
       </c>
     </row>
     <row r="56" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="109"/>
-      <c r="C56" s="111"/>
+      <c r="B56" s="82"/>
+      <c r="C56" s="85"/>
       <c r="D56" s="47" t="s">
         <v>44</v>
       </c>
@@ -9458,8 +9466,8 @@
       </c>
     </row>
     <row r="57" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="110"/>
-      <c r="C57" s="111"/>
+      <c r="B57" s="83"/>
+      <c r="C57" s="85"/>
       <c r="D57" s="46" t="s">
         <v>44</v>
       </c>
@@ -9602,10 +9610,10 @@
       </c>
     </row>
     <row r="58" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="108" t="s">
+      <c r="B58" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="96" t="s">
+      <c r="C58" s="84" t="s">
         <v>33</v>
       </c>
       <c r="D58" s="43" t="s">
@@ -9746,8 +9754,8 @@
       </c>
     </row>
     <row r="59" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="109"/>
-      <c r="C59" s="96"/>
+      <c r="B59" s="82"/>
+      <c r="C59" s="84"/>
       <c r="D59" s="43" t="s">
         <v>80</v>
       </c>
@@ -9884,8 +9892,8 @@
       </c>
     </row>
     <row r="60" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="109"/>
-      <c r="C60" s="96"/>
+      <c r="B60" s="82"/>
+      <c r="C60" s="84"/>
       <c r="D60" s="50" t="s">
         <v>59</v>
       </c>
@@ -10022,8 +10030,8 @@
       </c>
     </row>
     <row r="61" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="109"/>
-      <c r="C61" s="96"/>
+      <c r="B61" s="82"/>
+      <c r="C61" s="84"/>
       <c r="D61" s="51" t="s">
         <v>60</v>
       </c>
@@ -10160,8 +10168,8 @@
       </c>
     </row>
     <row r="62" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="109"/>
-      <c r="C62" s="96"/>
+      <c r="B62" s="82"/>
+      <c r="C62" s="84"/>
       <c r="D62" s="30" t="s">
         <v>43</v>
       </c>
@@ -10298,8 +10306,8 @@
       </c>
     </row>
     <row r="63" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="109"/>
-      <c r="C63" s="96"/>
+      <c r="B63" s="82"/>
+      <c r="C63" s="84"/>
       <c r="D63" s="44" t="s">
         <v>50</v>
       </c>
@@ -10436,8 +10444,8 @@
       </c>
     </row>
     <row r="64" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="109"/>
-      <c r="C64" s="96"/>
+      <c r="B64" s="82"/>
+      <c r="C64" s="84"/>
       <c r="D64" s="44" t="s">
         <v>61</v>
       </c>
@@ -10574,8 +10582,8 @@
       </c>
     </row>
     <row r="65" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="109"/>
-      <c r="C65" s="96"/>
+      <c r="B65" s="82"/>
+      <c r="C65" s="84"/>
       <c r="D65" s="45" t="s">
         <v>75</v>
       </c>
@@ -10718,8 +10726,8 @@
       </c>
     </row>
     <row r="66" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="109"/>
-      <c r="C66" s="96"/>
+      <c r="B66" s="82"/>
+      <c r="C66" s="84"/>
       <c r="D66" s="67" t="s">
         <v>58</v>
       </c>
@@ -10860,8 +10868,8 @@
       </c>
     </row>
     <row r="67" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="109"/>
-      <c r="C67" s="96"/>
+      <c r="B67" s="82"/>
+      <c r="C67" s="84"/>
       <c r="D67" s="47" t="s">
         <v>21</v>
       </c>
@@ -11000,8 +11008,8 @@
       </c>
     </row>
     <row r="68" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="109"/>
-      <c r="C68" s="96"/>
+      <c r="B68" s="82"/>
+      <c r="C68" s="84"/>
       <c r="D68" s="52" t="s">
         <v>45</v>
       </c>
@@ -11140,8 +11148,8 @@
       </c>
     </row>
     <row r="69" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="109"/>
-      <c r="C69" s="96"/>
+      <c r="B69" s="82"/>
+      <c r="C69" s="84"/>
       <c r="D69" s="53" t="s">
         <v>45</v>
       </c>
@@ -11284,10 +11292,10 @@
       </c>
     </row>
     <row r="70" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="108" t="s">
+      <c r="B70" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="C70" s="96" t="s">
+      <c r="C70" s="84" t="s">
         <v>34</v>
       </c>
       <c r="D70" s="50" t="s">
@@ -11426,8 +11434,8 @@
       </c>
     </row>
     <row r="71" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="109"/>
-      <c r="C71" s="96"/>
+      <c r="B71" s="82"/>
+      <c r="C71" s="84"/>
       <c r="D71" s="30" t="s">
         <v>34</v>
       </c>
@@ -11565,8 +11573,8 @@
       </c>
     </row>
     <row r="72" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="109"/>
-      <c r="C72" s="96"/>
+      <c r="B72" s="82"/>
+      <c r="C72" s="84"/>
       <c r="D72" s="30" t="s">
         <v>34</v>
       </c>
@@ -11705,8 +11713,8 @@
       </c>
     </row>
     <row r="73" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="109"/>
-      <c r="C73" s="96"/>
+      <c r="B73" s="82"/>
+      <c r="C73" s="84"/>
       <c r="D73" s="30" t="s">
         <v>34</v>
       </c>
@@ -11845,8 +11853,8 @@
       </c>
     </row>
     <row r="74" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="109"/>
-      <c r="C74" s="96"/>
+      <c r="B74" s="82"/>
+      <c r="C74" s="84"/>
       <c r="D74" s="69" t="s">
         <v>76</v>
       </c>
@@ -11987,8 +11995,8 @@
       </c>
     </row>
     <row r="75" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="109"/>
-      <c r="C75" s="96"/>
+      <c r="B75" s="82"/>
+      <c r="C75" s="84"/>
       <c r="D75" s="30" t="s">
         <v>58</v>
       </c>
@@ -12129,8 +12137,8 @@
       </c>
     </row>
     <row r="76" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="110"/>
-      <c r="C76" s="96"/>
+      <c r="B76" s="83"/>
+      <c r="C76" s="84"/>
       <c r="D76" s="54" t="s">
         <v>57</v>
       </c>
@@ -12273,6 +12281,21 @@
   </sheetData>
   <autoFilter ref="D5:E76" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}"/>
   <mergeCells count="22">
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="C9:C37"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="B17:B26"/>
+    <mergeCell ref="B28:B37"/>
     <mergeCell ref="B70:B76"/>
     <mergeCell ref="C70:C76"/>
     <mergeCell ref="B38:B47"/>
@@ -12280,21 +12303,6 @@
     <mergeCell ref="B48:B57"/>
     <mergeCell ref="B58:B69"/>
     <mergeCell ref="C58:C69"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="C9:C37"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="B17:B26"/>
-    <mergeCell ref="B28:B37"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="M6:AQ76">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">

--- a/CMSC495_ProjectPlan.xlsx
+++ b/CMSC495_ProjectPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Git/cmsc495_final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9253DDE7-AED7-9A42-8EF1-5E19C33AF131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BEC134-DC23-614A-A3BF-F056A2FAE88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26280" xr2:uid="{A3040AE0-0367-2B43-ADDE-84CCD12855DC}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="83">
   <si>
     <t>Year</t>
   </si>
@@ -1272,75 +1272,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1364,6 +1295,75 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1760,48 +1760,48 @@
       <c r="D3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="105" t="s">
+      <c r="M3" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="103" t="s">
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="103"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="104" t="s">
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="104"/>
-      <c r="AA3" s="104"/>
-      <c r="AB3" s="104"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="104"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="81"/>
     </row>
     <row r="4" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="97"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="106" t="s">
+      <c r="B4" s="89"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="107"/>
-      <c r="H4" s="108" t="s">
+      <c r="G4" s="84"/>
+      <c r="H4" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="109"/>
-      <c r="J4" s="110" t="s">
+      <c r="I4" s="86"/>
+      <c r="J4" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="111"/>
+      <c r="K4" s="88"/>
       <c r="M4" s="12" t="str">
         <f>TEXT(M5,"aaa")</f>
         <v>Tue</v>
@@ -2096,13 +2096,13 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="101" t="s">
+      <c r="D6" s="94" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="31" t="s">
@@ -2253,9 +2253,9 @@
       </c>
     </row>
     <row r="7" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="90"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="102"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="95"/>
       <c r="E7" s="31" t="s">
         <v>13</v>
       </c>
@@ -2404,9 +2404,9 @@
       </c>
     </row>
     <row r="8" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="90"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="102"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="31" t="s">
         <v>15</v>
       </c>
@@ -2552,10 +2552,10 @@
       </c>
     </row>
     <row r="9" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="100" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="71" t="s">
@@ -2708,8 +2708,8 @@
       </c>
     </row>
     <row r="10" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="87"/>
-      <c r="C10" s="89"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="101"/>
       <c r="D10" s="72" t="s">
         <v>62</v>
       </c>
@@ -2860,8 +2860,8 @@
       </c>
     </row>
     <row r="11" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="87"/>
-      <c r="C11" s="89"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="101"/>
       <c r="D11" s="72" t="s">
         <v>62</v>
       </c>
@@ -3012,8 +3012,8 @@
       </c>
     </row>
     <row r="12" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="87"/>
-      <c r="C12" s="89"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="101"/>
       <c r="D12" s="73" t="s">
         <v>70</v>
       </c>
@@ -3164,8 +3164,8 @@
       </c>
     </row>
     <row r="13" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="87"/>
-      <c r="C13" s="89"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="101"/>
       <c r="D13" s="74" t="s">
         <v>58</v>
       </c>
@@ -3314,9 +3314,9 @@
       </c>
     </row>
     <row r="14" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="87"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="92" t="s">
+      <c r="B14" s="99"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="103" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="31" t="s">
@@ -3462,9 +3462,9 @@
       </c>
     </row>
     <row r="15" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="87"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="93"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="104"/>
       <c r="E15" s="31" t="s">
         <v>13</v>
       </c>
@@ -3612,9 +3612,9 @@
       </c>
     </row>
     <row r="16" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="87"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="93"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="104"/>
       <c r="E16" s="31" t="s">
         <v>15</v>
       </c>
@@ -3762,10 +3762,10 @@
       </c>
     </row>
     <row r="17" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="89"/>
+      <c r="C17" s="101"/>
       <c r="D17" s="75" t="s">
         <v>79</v>
       </c>
@@ -3910,8 +3910,8 @@
       </c>
     </row>
     <row r="18" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="95"/>
-      <c r="C18" s="89"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="101"/>
       <c r="D18" s="76" t="s">
         <v>80</v>
       </c>
@@ -3928,7 +3928,9 @@
         <v>44648</v>
       </c>
       <c r="I18" s="35"/>
-      <c r="J18" s="34"/>
+      <c r="J18" s="34" t="s">
+        <v>14</v>
+      </c>
       <c r="K18" s="35"/>
       <c r="M18" s="39">
         <f t="shared" si="3"/>
@@ -4056,8 +4058,8 @@
       </c>
     </row>
     <row r="19" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="95"/>
-      <c r="C19" s="89"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="101"/>
       <c r="D19" s="77" t="s">
         <v>54</v>
       </c>
@@ -4208,8 +4210,8 @@
       </c>
     </row>
     <row r="20" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="95"/>
-      <c r="C20" s="89"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="101"/>
       <c r="D20" s="77" t="s">
         <v>55</v>
       </c>
@@ -4360,8 +4362,8 @@
       </c>
     </row>
     <row r="21" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="95"/>
-      <c r="C21" s="89"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="101"/>
       <c r="D21" s="77" t="s">
         <v>81</v>
       </c>
@@ -4378,7 +4380,9 @@
         <v>44644</v>
       </c>
       <c r="I21" s="35"/>
-      <c r="J21" s="34"/>
+      <c r="J21" s="34" t="s">
+        <v>13</v>
+      </c>
       <c r="K21" s="35"/>
       <c r="M21" s="39">
         <f t="shared" si="3"/>
@@ -4506,8 +4510,8 @@
       </c>
     </row>
     <row r="22" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="95"/>
-      <c r="C22" s="89"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="101"/>
       <c r="D22" s="78" t="s">
         <v>63</v>
       </c>
@@ -4524,7 +4528,9 @@
         <v>44644</v>
       </c>
       <c r="I22" s="35"/>
-      <c r="J22" s="34"/>
+      <c r="J22" s="34" t="s">
+        <v>13</v>
+      </c>
       <c r="K22" s="35"/>
       <c r="M22" s="39">
         <f t="shared" si="3"/>
@@ -4652,8 +4658,8 @@
       </c>
     </row>
     <row r="23" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="95"/>
-      <c r="C23" s="89"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="101"/>
       <c r="D23" s="79" t="s">
         <v>71</v>
       </c>
@@ -4796,8 +4802,8 @@
       </c>
     </row>
     <row r="24" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="95"/>
-      <c r="C24" s="89"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="101"/>
       <c r="D24" s="78" t="s">
         <v>58</v>
       </c>
@@ -4938,8 +4944,8 @@
       </c>
     </row>
     <row r="25" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="95"/>
-      <c r="C25" s="89"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="101"/>
       <c r="D25" s="78" t="s">
         <v>77</v>
       </c>
@@ -5082,8 +5088,8 @@
       </c>
     </row>
     <row r="26" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="96"/>
-      <c r="C26" s="89"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="101"/>
       <c r="D26" s="80" t="s">
         <v>17</v>
       </c>
@@ -5227,7 +5233,7 @@
     </row>
     <row r="27" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="61"/>
-      <c r="C27" s="90"/>
+      <c r="C27" s="93"/>
       <c r="D27" s="66" t="s">
         <v>64</v>
       </c>
@@ -5366,10 +5372,10 @@
       </c>
     </row>
     <row r="28" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="90"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="44" t="s">
         <v>38</v>
       </c>
@@ -5508,8 +5514,8 @@
       </c>
     </row>
     <row r="29" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
       <c r="D29" s="44" t="s">
         <v>68</v>
       </c>
@@ -5648,8 +5654,8 @@
       </c>
     </row>
     <row r="30" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
       <c r="D30" s="44" t="s">
         <v>39</v>
       </c>
@@ -5788,8 +5794,8 @@
       </c>
     </row>
     <row r="31" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
       <c r="D31" s="44" t="s">
         <v>40</v>
       </c>
@@ -5928,8 +5934,8 @@
       </c>
     </row>
     <row r="32" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
       <c r="D32" s="44" t="s">
         <v>65</v>
       </c>
@@ -6066,8 +6072,8 @@
       </c>
     </row>
     <row r="33" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="90"/>
-      <c r="C33" s="90"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
       <c r="D33" s="44" t="s">
         <v>69</v>
       </c>
@@ -6206,8 +6212,8 @@
       </c>
     </row>
     <row r="34" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
       <c r="D34" s="45" t="s">
         <v>72</v>
       </c>
@@ -6350,8 +6356,8 @@
       </c>
     </row>
     <row r="35" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="90"/>
-      <c r="C35" s="90"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
       <c r="D35" s="67" t="s">
         <v>58</v>
       </c>
@@ -6492,8 +6498,8 @@
       </c>
     </row>
     <row r="36" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="90"/>
-      <c r="C36" s="90"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
       <c r="D36" s="44" t="s">
         <v>41</v>
       </c>
@@ -6636,8 +6642,8 @@
       </c>
     </row>
     <row r="37" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="102"/>
       <c r="D37" s="45" t="s">
         <v>18</v>
       </c>
@@ -6780,10 +6786,10 @@
       </c>
     </row>
     <row r="38" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="81" t="s">
+      <c r="B38" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="85" t="s">
+      <c r="C38" s="111" t="s">
         <v>32</v>
       </c>
       <c r="D38" s="43" t="s">
@@ -6924,8 +6930,8 @@
       </c>
     </row>
     <row r="39" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="82"/>
-      <c r="C39" s="85"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="111"/>
       <c r="D39" s="66" t="s">
         <v>42</v>
       </c>
@@ -7064,8 +7070,8 @@
       </c>
     </row>
     <row r="40" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="82"/>
-      <c r="C40" s="85"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="111"/>
       <c r="D40" s="66" t="s">
         <v>67</v>
       </c>
@@ -7202,8 +7208,8 @@
       </c>
     </row>
     <row r="41" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="82"/>
-      <c r="C41" s="85"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="111"/>
       <c r="D41" s="44" t="s">
         <v>46</v>
       </c>
@@ -7342,8 +7348,8 @@
       </c>
     </row>
     <row r="42" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="82"/>
-      <c r="C42" s="85"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="111"/>
       <c r="D42" s="45" t="s">
         <v>73</v>
       </c>
@@ -7486,8 +7492,8 @@
       </c>
     </row>
     <row r="43" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="82"/>
-      <c r="C43" s="85"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="111"/>
       <c r="D43" s="67" t="s">
         <v>58</v>
       </c>
@@ -7628,8 +7634,8 @@
       </c>
     </row>
     <row r="44" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="82"/>
-      <c r="C44" s="85"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="111"/>
       <c r="D44" s="47" t="s">
         <v>19</v>
       </c>
@@ -7772,8 +7778,8 @@
       </c>
     </row>
     <row r="45" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="82"/>
-      <c r="C45" s="85"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="111"/>
       <c r="D45" s="47" t="s">
         <v>48</v>
       </c>
@@ -7916,8 +7922,8 @@
       </c>
     </row>
     <row r="46" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="82"/>
-      <c r="C46" s="85"/>
+      <c r="B46" s="109"/>
+      <c r="C46" s="111"/>
       <c r="D46" s="45" t="s">
         <v>48</v>
       </c>
@@ -8060,8 +8066,8 @@
       </c>
     </row>
     <row r="47" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="83"/>
-      <c r="C47" s="85"/>
+      <c r="B47" s="110"/>
+      <c r="C47" s="111"/>
       <c r="D47" s="65" t="s">
         <v>50</v>
       </c>
@@ -8202,10 +8208,10 @@
       </c>
     </row>
     <row r="48" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="81" t="s">
+      <c r="B48" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="85"/>
+      <c r="C48" s="111"/>
       <c r="D48" s="66" t="s">
         <v>39</v>
       </c>
@@ -8344,8 +8350,8 @@
       </c>
     </row>
     <row r="49" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="82"/>
-      <c r="C49" s="85"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="111"/>
       <c r="D49" s="44" t="s">
         <v>40</v>
       </c>
@@ -8484,8 +8490,8 @@
       </c>
     </row>
     <row r="50" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="82"/>
-      <c r="C50" s="85"/>
+      <c r="B50" s="109"/>
+      <c r="C50" s="111"/>
       <c r="D50" s="44" t="s">
         <v>82</v>
       </c>
@@ -8622,8 +8628,8 @@
       </c>
     </row>
     <row r="51" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="82"/>
-      <c r="C51" s="85"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="111"/>
       <c r="D51" s="44" t="s">
         <v>47</v>
       </c>
@@ -8762,8 +8768,8 @@
       </c>
     </row>
     <row r="52" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="82"/>
-      <c r="C52" s="85"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="111"/>
       <c r="D52" s="44" t="s">
         <v>49</v>
       </c>
@@ -8900,8 +8906,8 @@
       </c>
     </row>
     <row r="53" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="82"/>
-      <c r="C53" s="85"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="111"/>
       <c r="D53" s="45" t="s">
         <v>74</v>
       </c>
@@ -9044,8 +9050,8 @@
       </c>
     </row>
     <row r="54" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="82"/>
-      <c r="C54" s="85"/>
+      <c r="B54" s="109"/>
+      <c r="C54" s="111"/>
       <c r="D54" s="67" t="s">
         <v>58</v>
       </c>
@@ -9186,8 +9192,8 @@
       </c>
     </row>
     <row r="55" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="82"/>
-      <c r="C55" s="85"/>
+      <c r="B55" s="109"/>
+      <c r="C55" s="111"/>
       <c r="D55" s="47" t="s">
         <v>20</v>
       </c>
@@ -9326,8 +9332,8 @@
       </c>
     </row>
     <row r="56" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="82"/>
-      <c r="C56" s="85"/>
+      <c r="B56" s="109"/>
+      <c r="C56" s="111"/>
       <c r="D56" s="47" t="s">
         <v>44</v>
       </c>
@@ -9466,8 +9472,8 @@
       </c>
     </row>
     <row r="57" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="83"/>
-      <c r="C57" s="85"/>
+      <c r="B57" s="110"/>
+      <c r="C57" s="111"/>
       <c r="D57" s="46" t="s">
         <v>44</v>
       </c>
@@ -9610,10 +9616,10 @@
       </c>
     </row>
     <row r="58" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="81" t="s">
+      <c r="B58" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="84" t="s">
+      <c r="C58" s="96" t="s">
         <v>33</v>
       </c>
       <c r="D58" s="43" t="s">
@@ -9754,8 +9760,8 @@
       </c>
     </row>
     <row r="59" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="82"/>
-      <c r="C59" s="84"/>
+      <c r="B59" s="109"/>
+      <c r="C59" s="96"/>
       <c r="D59" s="43" t="s">
         <v>80</v>
       </c>
@@ -9892,8 +9898,8 @@
       </c>
     </row>
     <row r="60" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="82"/>
-      <c r="C60" s="84"/>
+      <c r="B60" s="109"/>
+      <c r="C60" s="96"/>
       <c r="D60" s="50" t="s">
         <v>59</v>
       </c>
@@ -10030,8 +10036,8 @@
       </c>
     </row>
     <row r="61" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="82"/>
-      <c r="C61" s="84"/>
+      <c r="B61" s="109"/>
+      <c r="C61" s="96"/>
       <c r="D61" s="51" t="s">
         <v>60</v>
       </c>
@@ -10168,8 +10174,8 @@
       </c>
     </row>
     <row r="62" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="82"/>
-      <c r="C62" s="84"/>
+      <c r="B62" s="109"/>
+      <c r="C62" s="96"/>
       <c r="D62" s="30" t="s">
         <v>43</v>
       </c>
@@ -10306,8 +10312,8 @@
       </c>
     </row>
     <row r="63" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="82"/>
-      <c r="C63" s="84"/>
+      <c r="B63" s="109"/>
+      <c r="C63" s="96"/>
       <c r="D63" s="44" t="s">
         <v>50</v>
       </c>
@@ -10444,8 +10450,8 @@
       </c>
     </row>
     <row r="64" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="82"/>
-      <c r="C64" s="84"/>
+      <c r="B64" s="109"/>
+      <c r="C64" s="96"/>
       <c r="D64" s="44" t="s">
         <v>61</v>
       </c>
@@ -10582,8 +10588,8 @@
       </c>
     </row>
     <row r="65" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="82"/>
-      <c r="C65" s="84"/>
+      <c r="B65" s="109"/>
+      <c r="C65" s="96"/>
       <c r="D65" s="45" t="s">
         <v>75</v>
       </c>
@@ -10726,8 +10732,8 @@
       </c>
     </row>
     <row r="66" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="82"/>
-      <c r="C66" s="84"/>
+      <c r="B66" s="109"/>
+      <c r="C66" s="96"/>
       <c r="D66" s="67" t="s">
         <v>58</v>
       </c>
@@ -10868,8 +10874,8 @@
       </c>
     </row>
     <row r="67" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="82"/>
-      <c r="C67" s="84"/>
+      <c r="B67" s="109"/>
+      <c r="C67" s="96"/>
       <c r="D67" s="47" t="s">
         <v>21</v>
       </c>
@@ -11008,8 +11014,8 @@
       </c>
     </row>
     <row r="68" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="82"/>
-      <c r="C68" s="84"/>
+      <c r="B68" s="109"/>
+      <c r="C68" s="96"/>
       <c r="D68" s="52" t="s">
         <v>45</v>
       </c>
@@ -11148,8 +11154,8 @@
       </c>
     </row>
     <row r="69" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="82"/>
-      <c r="C69" s="84"/>
+      <c r="B69" s="109"/>
+      <c r="C69" s="96"/>
       <c r="D69" s="53" t="s">
         <v>45</v>
       </c>
@@ -11292,10 +11298,10 @@
       </c>
     </row>
     <row r="70" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="81" t="s">
+      <c r="B70" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="C70" s="84" t="s">
+      <c r="C70" s="96" t="s">
         <v>34</v>
       </c>
       <c r="D70" s="50" t="s">
@@ -11434,8 +11440,8 @@
       </c>
     </row>
     <row r="71" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="82"/>
-      <c r="C71" s="84"/>
+      <c r="B71" s="109"/>
+      <c r="C71" s="96"/>
       <c r="D71" s="30" t="s">
         <v>34</v>
       </c>
@@ -11573,8 +11579,8 @@
       </c>
     </row>
     <row r="72" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="82"/>
-      <c r="C72" s="84"/>
+      <c r="B72" s="109"/>
+      <c r="C72" s="96"/>
       <c r="D72" s="30" t="s">
         <v>34</v>
       </c>
@@ -11713,8 +11719,8 @@
       </c>
     </row>
     <row r="73" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="82"/>
-      <c r="C73" s="84"/>
+      <c r="B73" s="109"/>
+      <c r="C73" s="96"/>
       <c r="D73" s="30" t="s">
         <v>34</v>
       </c>
@@ -11853,8 +11859,8 @@
       </c>
     </row>
     <row r="74" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="82"/>
-      <c r="C74" s="84"/>
+      <c r="B74" s="109"/>
+      <c r="C74" s="96"/>
       <c r="D74" s="69" t="s">
         <v>76</v>
       </c>
@@ -11995,8 +12001,8 @@
       </c>
     </row>
     <row r="75" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="82"/>
-      <c r="C75" s="84"/>
+      <c r="B75" s="109"/>
+      <c r="C75" s="96"/>
       <c r="D75" s="30" t="s">
         <v>58</v>
       </c>
@@ -12137,8 +12143,8 @@
       </c>
     </row>
     <row r="76" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="83"/>
-      <c r="C76" s="84"/>
+      <c r="B76" s="110"/>
+      <c r="C76" s="96"/>
       <c r="D76" s="54" t="s">
         <v>57</v>
       </c>
@@ -12281,21 +12287,6 @@
   </sheetData>
   <autoFilter ref="D5:E76" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}"/>
   <mergeCells count="22">
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="C9:C37"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="B17:B26"/>
-    <mergeCell ref="B28:B37"/>
     <mergeCell ref="B70:B76"/>
     <mergeCell ref="C70:C76"/>
     <mergeCell ref="B38:B47"/>
@@ -12303,6 +12294,21 @@
     <mergeCell ref="B48:B57"/>
     <mergeCell ref="B58:B69"/>
     <mergeCell ref="C58:C69"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="C9:C37"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="B17:B26"/>
+    <mergeCell ref="B28:B37"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="M6:AQ76">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">

--- a/CMSC495_ProjectPlan.xlsx
+++ b/CMSC495_ProjectPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Git/cmsc495_final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8044E1F3-3A72-4F4B-BF5F-7F52BF6C85CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF88E5D-2E24-7C46-A708-B8F576998A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26260" xr2:uid="{A3040AE0-0367-2B43-ADDE-84CCD12855DC}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="84">
   <si>
     <t>Year</t>
   </si>
@@ -166,9 +166,6 @@
     <t>Project Design Draft</t>
   </si>
   <si>
-    <t>File I/O</t>
-  </si>
-  <si>
     <t>Error handler Test</t>
   </si>
   <si>
@@ -263,9 +260,6 @@
     <t>GUI</t>
   </si>
   <si>
-    <t>Display &amp; Save Image</t>
-  </si>
-  <si>
     <t>File I/O Formats</t>
   </si>
   <si>
@@ -308,13 +302,16 @@
     <t xml:space="preserve">File I/O (Open/Save Image) </t>
   </si>
   <si>
-    <t>Reset/Delete the Image</t>
-  </si>
-  <si>
     <t>Reset Test Plan</t>
   </si>
   <si>
     <t>Integration Test Plan</t>
+  </si>
+  <si>
+    <t>File I/O (Open &amp; Save)</t>
+  </si>
+  <si>
+    <t>Reset the Image</t>
   </si>
 </sst>
 </file>
@@ -1278,75 +1275,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1370,6 +1298,75 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1730,7 +1727,7 @@
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B1" s="10"/>
       <c r="F1" s="2" t="s">
@@ -1764,50 +1761,50 @@
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="D3" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" s="105" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="103" t="s">
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="103"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="104" t="s">
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="104"/>
-      <c r="AA3" s="104"/>
-      <c r="AB3" s="104"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="104"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="81"/>
     </row>
     <row r="4" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="97"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="106" t="s">
+      <c r="B4" s="89"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="107"/>
-      <c r="H4" s="108" t="s">
+      <c r="G4" s="84"/>
+      <c r="H4" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="109"/>
-      <c r="J4" s="110" t="s">
+      <c r="I4" s="86"/>
+      <c r="J4" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="111"/>
+      <c r="K4" s="88"/>
       <c r="M4" s="12" t="str">
         <f>TEXT(M5,"aaa")</f>
         <v>Tue</v>
@@ -1936,10 +1933,10 @@
         <v>12</v>
       </c>
       <c r="AU4" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV4" s="17" t="s">
         <v>51</v>
-      </c>
-      <c r="AV4" s="17" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2102,13 +2099,13 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="101" t="s">
+      <c r="D6" s="94" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="31" t="s">
@@ -2135,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="37">
-        <f t="shared" ref="N6:AQ6" si="2">IF($K6=N$5,3,IF(OR(AND($H6&lt;=N$5,N$5&lt;=$I6),$H6=N$5),2,IF(AND($F6&lt;=N$5,N$5&lt;=$G6),1,0)))</f>
+        <f t="shared" ref="N6:AQ14" si="2">IF($K6=N$5,3,IF(OR(AND($H6&lt;=N$5,N$5&lt;=$I6),$H6=N$5),2,IF(AND($F6&lt;=N$5,N$5&lt;=$G6),1,0)))</f>
         <v>0</v>
       </c>
       <c r="O6" s="37">
@@ -2259,9 +2256,9 @@
       </c>
     </row>
     <row r="7" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="90"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="102"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="95"/>
       <c r="E7" s="31" t="s">
         <v>13</v>
       </c>
@@ -2282,127 +2279,127 @@
         <v>44636</v>
       </c>
       <c r="M7" s="39">
-        <f t="shared" ref="M7:AB23" si="3">IF($K7=M$5,3,IF(OR(AND($H7&lt;=M$5,M$5&lt;=$I7),$H7=M$5),2,IF(AND($F7&lt;=M$5,M$5&lt;=$G7),1,0)))</f>
+        <f t="shared" ref="M7:AB38" si="3">IF($K7=M$5,3,IF(OR(AND($H7&lt;=M$5,M$5&lt;=$I7),$H7=M$5),2,IF(AND($F7&lt;=M$5,M$5&lt;=$G7),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N7" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O7" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P7" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q7" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R7" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S7" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T7" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U7" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V7" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W7" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X7" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y7" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z7" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA7" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AB7" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AC7" s="40">
-        <f t="shared" ref="AC7:AQ22" si="4">IF($K7=AC$5,3,IF(OR(AND($H7&lt;=AC$5,AC$5&lt;=$I7),$H7=AC$5),2,IF(AND($F7&lt;=AC$5,AC$5&lt;=$G7),1,0)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD7" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE7" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF7" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AG7" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AH7" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AI7" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AJ7" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK7" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL7" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM7" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AN7" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AO7" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AP7" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AQ7" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AS7" s="42" t="s">
@@ -2410,9 +2407,9 @@
       </c>
     </row>
     <row r="8" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="90"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="102"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="31" t="s">
         <v>15</v>
       </c>
@@ -2437,135 +2434,135 @@
         <v>0</v>
       </c>
       <c r="N8" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O8" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P8" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q8" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R8" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S8" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T8" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U8" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V8" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W8" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X8" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y8" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z8" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA8" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AB8" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AC8" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AD8" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE8" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AF8" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AG8" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AH8" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AI8" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AJ8" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK8" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL8" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM8" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AN8" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AO8" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AP8" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AQ8" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="100" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>14</v>
@@ -2593,131 +2590,131 @@
         <v>0</v>
       </c>
       <c r="N9" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O9" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P9" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q9" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R9" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S9" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T9" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U9" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V9" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W9" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X9" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y9" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z9" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA9" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB9" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC9" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD9" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE9" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF9" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG9" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH9" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AI9" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AJ9" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AK9" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL9" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM9" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AN9" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AO9" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AP9" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AQ9" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="87"/>
-      <c r="C10" s="89"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="101"/>
       <c r="D10" s="72" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="31" t="s">
         <v>13</v>
@@ -2745,131 +2742,131 @@
         <v>0</v>
       </c>
       <c r="N10" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O10" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P10" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q10" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R10" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S10" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T10" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U10" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V10" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W10" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X10" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y10" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z10" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA10" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB10" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC10" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD10" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE10" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF10" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG10" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH10" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AI10" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AJ10" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AK10" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL10" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM10" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AN10" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AO10" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AP10" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AQ10" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="87"/>
-      <c r="C11" s="89"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="101"/>
       <c r="D11" s="72" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>15</v>
@@ -2897,131 +2894,131 @@
         <v>0</v>
       </c>
       <c r="N11" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O11" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P11" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q11" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R11" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S11" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T11" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U11" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V11" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W11" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X11" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y11" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z11" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA11" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB11" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC11" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD11" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE11" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF11" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG11" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH11" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AI11" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AJ11" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AK11" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL11" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM11" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AN11" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AO11" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AP11" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AQ11" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="87"/>
-      <c r="C12" s="89"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="101"/>
       <c r="D12" s="73" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>15</v>
@@ -3049,131 +3046,131 @@
         <v>0</v>
       </c>
       <c r="N12" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O12" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P12" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q12" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R12" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S12" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T12" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U12" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V12" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W12" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X12" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y12" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z12" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA12" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB12" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC12" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD12" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE12" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF12" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG12" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH12" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI12" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AJ12" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AK12" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AL12" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM12" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AN12" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AO12" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AP12" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AQ12" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="87"/>
-      <c r="C13" s="89"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="101"/>
       <c r="D13" s="74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="62"/>
       <c r="F13" s="32">
@@ -3199,130 +3196,130 @@
         <v>0</v>
       </c>
       <c r="N13" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O13" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P13" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q13" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R13" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S13" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T13" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U13" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V13" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W13" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X13" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y13" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z13" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA13" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB13" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC13" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD13" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE13" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF13" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG13" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH13" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI13" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AJ13" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AK13" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AL13" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM13" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AN13" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AO13" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AP13" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AQ13" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="87"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="92" t="s">
+      <c r="B14" s="99"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="103" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="31" t="s">
@@ -3347,67 +3344,67 @@
         <v>0</v>
       </c>
       <c r="N14" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O14" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P14" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q14" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R14" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S14" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T14" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U14" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V14" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W14" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X14" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y14" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z14" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA14" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB14" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC14" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="AC14:AQ77" si="4">IF($K14=AC$5,3,IF(OR(AND($H14&lt;=AC$5,AC$5&lt;=$I14),$H14=AC$5),2,IF(AND($F14&lt;=AC$5,AC$5&lt;=$G14),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AD14" s="40">
@@ -3468,9 +3465,9 @@
       </c>
     </row>
     <row r="15" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="87"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="93"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="104"/>
       <c r="E15" s="31" t="s">
         <v>13</v>
       </c>
@@ -3618,9 +3615,9 @@
       </c>
     </row>
     <row r="16" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="87"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="93"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="104"/>
       <c r="E16" s="31" t="s">
         <v>15</v>
       </c>
@@ -3768,12 +3765,12 @@
       </c>
     </row>
     <row r="17" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="89"/>
+      <c r="C17" s="101"/>
       <c r="D17" s="75" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E17" s="31" t="s">
         <v>15</v>
@@ -3918,10 +3915,10 @@
       </c>
     </row>
     <row r="18" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="95"/>
-      <c r="C18" s="89"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="101"/>
       <c r="D18" s="76" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E18" s="31" t="s">
         <v>15</v>
@@ -4068,10 +4065,10 @@
       </c>
     </row>
     <row r="19" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="95"/>
-      <c r="C19" s="89"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="101"/>
       <c r="D19" s="77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19" s="31" t="s">
         <v>13</v>
@@ -4220,10 +4217,10 @@
       </c>
     </row>
     <row r="20" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="95"/>
-      <c r="C20" s="89"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="101"/>
       <c r="D20" s="77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" s="31" t="s">
         <v>13</v>
@@ -4372,10 +4369,10 @@
       </c>
     </row>
     <row r="21" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="95"/>
-      <c r="C21" s="89"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="101"/>
       <c r="D21" s="77" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E21" s="31" t="s">
         <v>14</v>
@@ -4522,10 +4519,10 @@
       </c>
     </row>
     <row r="22" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="95"/>
-      <c r="C22" s="89"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="101"/>
       <c r="D22" s="78" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E22" s="31" t="s">
         <v>15</v>
@@ -4539,71 +4536,73 @@
       <c r="H22" s="32">
         <v>44649</v>
       </c>
-      <c r="I22" s="35"/>
+      <c r="I22" s="35">
+        <v>44649</v>
+      </c>
       <c r="J22" s="34"/>
       <c r="K22" s="35"/>
       <c r="M22" s="39">
-        <f t="shared" ref="M22:AB22" si="5">IF($K22=M$5,3,IF(OR(AND($H22&lt;=M$5,M$5&lt;=$I22),$H22=M$5),2,IF(AND($F22&lt;=M$5,M$5&lt;=$G22),1,0)))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N22" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O22" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P22" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q22" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R22" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S22" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T22" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U22" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V22" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W22" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X22" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y22" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z22" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA22" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB22" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC22" s="40">
@@ -4668,10 +4667,10 @@
       </c>
     </row>
     <row r="23" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="95"/>
-      <c r="C23" s="89"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="101"/>
       <c r="D23" s="78" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E23" s="31" t="s">
         <v>14</v>
@@ -4751,75 +4750,75 @@
         <v>0</v>
       </c>
       <c r="AB23" s="40">
-        <f t="shared" ref="AB23:AQ38" si="6">IF($K23=AB$5,3,IF(OR(AND($H23&lt;=AB$5,AB$5&lt;=$I23),$H23=AB$5),2,IF(AND($F23&lt;=AB$5,AB$5&lt;=$G23),1,0)))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC23" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD23" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE23" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF23" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG23" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH23" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI23" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AJ23" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AK23" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AL23" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM23" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN23" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AO23" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP23" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AQ23" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="95"/>
-      <c r="C24" s="89"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="101"/>
       <c r="D24" s="79" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E24" s="31" t="s">
         <v>14</v>
@@ -4835,135 +4834,135 @@
       <c r="J24" s="34"/>
       <c r="K24" s="35"/>
       <c r="M24" s="39">
-        <f t="shared" ref="M24:AB39" si="7">IF($K24=M$5,3,IF(OR(AND($H24&lt;=M$5,M$5&lt;=$I24),$H24=M$5),2,IF(AND($F24&lt;=M$5,M$5&lt;=$G24),1,0)))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N24" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O24" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P24" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q24" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R24" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S24" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T24" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U24" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V24" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W24" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X24" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y24" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z24" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA24" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB24" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC24" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD24" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE24" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF24" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG24" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH24" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI24" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AJ24" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AK24" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AL24" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM24" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN24" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AO24" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP24" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AQ24" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="95"/>
-      <c r="C25" s="89"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="101"/>
       <c r="D25" s="78" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" s="31"/>
       <c r="F25" s="32">
@@ -4977,135 +4976,135 @@
       <c r="J25" s="34"/>
       <c r="K25" s="35"/>
       <c r="M25" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N25" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O25" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P25" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q25" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R25" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S25" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T25" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U25" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V25" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W25" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X25" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y25" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z25" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA25" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB25" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC25" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD25" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE25" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF25" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG25" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH25" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI25" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AJ25" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AK25" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AL25" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM25" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN25" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AO25" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP25" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AQ25" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="95"/>
-      <c r="C26" s="89"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="101"/>
       <c r="D26" s="78" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E26" s="31" t="s">
         <v>15</v>
@@ -5121,133 +5120,133 @@
       <c r="J26" s="34"/>
       <c r="K26" s="35"/>
       <c r="M26" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N26" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O26" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P26" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q26" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R26" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S26" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T26" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U26" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V26" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W26" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X26" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y26" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z26" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA26" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB26" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC26" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD26" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE26" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF26" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG26" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH26" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI26" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AJ26" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AK26" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AL26" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM26" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN26" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AO26" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP26" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AQ26" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="96"/>
-      <c r="C27" s="89"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="101"/>
       <c r="D27" s="80" t="s">
         <v>17</v>
       </c>
@@ -5265,135 +5264,135 @@
       <c r="J27" s="34"/>
       <c r="K27" s="35"/>
       <c r="M27" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N27" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O27" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P27" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q27" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R27" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S27" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T27" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U27" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V27" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W27" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X27" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y27" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z27" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA27" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB27" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC27" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD27" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE27" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF27" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG27" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH27" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI27" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AJ27" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AK27" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AL27" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM27" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN27" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AO27" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP27" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AQ27" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="61"/>
-      <c r="C28" s="90"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E28" s="31" t="s">
         <v>13</v>
@@ -5405,135 +5404,135 @@
       <c r="J28" s="34"/>
       <c r="K28" s="35"/>
       <c r="M28" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N28" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O28" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P28" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q28" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R28" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S28" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T28" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U28" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V28" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W28" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X28" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y28" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z28" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA28" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB28" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC28" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD28" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE28" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF28" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG28" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH28" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI28" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AJ28" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AK28" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AL28" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM28" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN28" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AO28" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP28" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AQ28" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="90" t="s">
+      <c r="B29" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="90"/>
+      <c r="C29" s="93"/>
       <c r="D29" s="44" t="s">
         <v>38</v>
       </c>
@@ -5547,135 +5546,135 @@
       <c r="J29" s="34"/>
       <c r="K29" s="35"/>
       <c r="M29" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N29" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O29" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P29" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q29" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R29" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S29" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T29" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U29" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V29" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W29" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X29" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y29" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z29" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA29" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB29" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC29" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD29" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE29" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF29" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG29" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH29" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI29" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AJ29" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AK29" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AL29" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM29" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN29" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AO29" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP29" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AQ29" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
       <c r="D30" s="44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E30" s="31" t="s">
         <v>14</v>
@@ -5687,133 +5686,133 @@
       <c r="J30" s="34"/>
       <c r="K30" s="35"/>
       <c r="M30" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N30" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O30" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P30" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q30" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R30" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S30" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T30" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="T30:AI77" si="5">IF($K30=T$5,3,IF(OR(AND($H30&lt;=T$5,T$5&lt;=$I30),$H30=T$5),2,IF(AND($F30&lt;=T$5,T$5&lt;=$G30),1,0)))</f>
         <v>0</v>
       </c>
       <c r="U30" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V30" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W30" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X30" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y30" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z30" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA30" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB30" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC30" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD30" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE30" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF30" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG30" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH30" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI30" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ30" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AK30" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AL30" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM30" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN30" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AO30" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP30" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AQ30" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
       <c r="D31" s="44" t="s">
         <v>39</v>
       </c>
@@ -5827,133 +5826,133 @@
       <c r="J31" s="34"/>
       <c r="K31" s="35"/>
       <c r="M31" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="M31:AB77" si="6">IF($K31=M$5,3,IF(OR(AND($H31&lt;=M$5,M$5&lt;=$I31),$H31=M$5),2,IF(AND($F31&lt;=M$5,M$5&lt;=$G31),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N31" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O31" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P31" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q31" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R31" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S31" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T31" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U31" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V31" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W31" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X31" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y31" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z31" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA31" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB31" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC31" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD31" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE31" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF31" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG31" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH31" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI31" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ31" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AK31" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AL31" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AM31" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AN31" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AO31" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP31" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AQ31" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="N31:AQ77" si="7">IF($K31=AQ$5,3,IF(OR(AND($H31&lt;=AQ$5,AQ$5&lt;=$I31),$H31=AQ$5),2,IF(AND($F31&lt;=AQ$5,AQ$5&lt;=$G31),1,0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
       <c r="D32" s="44" t="s">
         <v>40</v>
       </c>
@@ -5967,7 +5966,7 @@
       <c r="J32" s="34"/>
       <c r="K32" s="35"/>
       <c r="M32" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N32" s="40">
@@ -6031,71 +6030,71 @@
         <v>0</v>
       </c>
       <c r="AC32" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD32" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE32" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF32" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG32" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH32" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI32" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ32" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK32" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL32" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM32" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN32" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO32" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AP32" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ32" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="90"/>
-      <c r="C33" s="90"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
       <c r="D33" s="44" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="E33" s="31"/>
       <c r="F33" s="32"/>
@@ -6105,7 +6104,7 @@
       <c r="J33" s="34"/>
       <c r="K33" s="35"/>
       <c r="M33" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N33" s="40">
@@ -6169,75 +6168,73 @@
         <v>0</v>
       </c>
       <c r="AC33" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD33" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE33" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF33" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG33" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH33" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI33" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ33" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK33" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL33" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM33" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN33" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO33" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AP33" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ33" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
       <c r="D34" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>14</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E34" s="31"/>
       <c r="F34" s="32"/>
       <c r="G34" s="35"/>
       <c r="H34" s="32"/>
@@ -6245,7 +6242,7 @@
       <c r="J34" s="34"/>
       <c r="K34" s="35"/>
       <c r="M34" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N34" s="40">
@@ -6309,87 +6306,83 @@
         <v>0</v>
       </c>
       <c r="AC34" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD34" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE34" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF34" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG34" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH34" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI34" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ34" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK34" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL34" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM34" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN34" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO34" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AP34" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ34" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="90"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="45" t="s">
-        <v>72</v>
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="44" t="s">
+        <v>67</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="32">
-        <v>44657</v>
-      </c>
-      <c r="G35" s="68">
-        <v>44659</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F35" s="32"/>
+      <c r="G35" s="35"/>
       <c r="H35" s="32"/>
       <c r="I35" s="35"/>
       <c r="J35" s="34"/>
       <c r="K35" s="35"/>
       <c r="M35" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N35" s="40">
@@ -6453,85 +6446,87 @@
         <v>0</v>
       </c>
       <c r="AC35" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD35" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE35" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF35" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG35" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH35" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI35" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ35" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK35" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL35" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM35" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN35" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO35" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AP35" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ35" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="90"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="31"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>13</v>
+      </c>
       <c r="F36" s="32">
-        <v>44662</v>
-      </c>
-      <c r="G36" s="33">
-        <v>44662</v>
+        <v>44657</v>
+      </c>
+      <c r="G36" s="68">
+        <v>44659</v>
       </c>
       <c r="H36" s="32"/>
       <c r="I36" s="35"/>
       <c r="J36" s="34"/>
       <c r="K36" s="35"/>
       <c r="M36" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N36" s="40">
@@ -6595,79 +6590,77 @@
         <v>0</v>
       </c>
       <c r="AC36" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD36" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE36" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF36" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG36" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH36" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI36" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ36" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK36" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL36" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM36" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN36" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO36" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AP36" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ36" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="90"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="31" t="s">
-        <v>13</v>
-      </c>
+      <c r="B37" s="93"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="31"/>
       <c r="F37" s="32">
-        <v>44657</v>
-      </c>
-      <c r="G37" s="35">
+        <v>44662</v>
+      </c>
+      <c r="G37" s="33">
         <v>44662</v>
       </c>
       <c r="H37" s="32"/>
@@ -6675,7 +6668,7 @@
       <c r="J37" s="34"/>
       <c r="K37" s="35"/>
       <c r="M37" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N37" s="40">
@@ -6739,71 +6732,71 @@
         <v>0</v>
       </c>
       <c r="AC37" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD37" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE37" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF37" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG37" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH37" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI37" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ37" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK37" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL37" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM37" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN37" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO37" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AP37" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ37" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="91"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="45" t="s">
-        <v>18</v>
+    <row r="38" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="93"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="44" t="s">
+        <v>41</v>
       </c>
       <c r="E38" s="31" t="s">
         <v>13</v>
@@ -6812,14 +6805,14 @@
         <v>44657</v>
       </c>
       <c r="G38" s="35">
-        <v>44663</v>
+        <v>44662</v>
       </c>
       <c r="H38" s="32"/>
       <c r="I38" s="35"/>
       <c r="J38" s="34"/>
       <c r="K38" s="35"/>
       <c r="M38" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N38" s="40">
@@ -6883,87 +6876,87 @@
         <v>0</v>
       </c>
       <c r="AC38" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD38" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE38" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF38" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG38" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH38" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI38" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ38" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK38" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL38" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM38" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN38" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO38" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AP38" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ38" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="81" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="43" t="s">
-        <v>66</v>
+      <c r="B39" s="102"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="45" t="s">
+        <v>18</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="32"/>
-      <c r="G39" s="35"/>
+        <v>13</v>
+      </c>
+      <c r="F39" s="32">
+        <v>44657</v>
+      </c>
+      <c r="G39" s="35">
+        <v>44663</v>
+      </c>
       <c r="H39" s="32"/>
       <c r="I39" s="35"/>
       <c r="J39" s="34"/>
       <c r="K39" s="35"/>
       <c r="M39" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N39" s="40">
@@ -7023,78 +7016,82 @@
         <v>0</v>
       </c>
       <c r="AB39" s="40">
-        <f t="shared" ref="AB39:AQ54" si="8">IF($K39=AB$5,3,IF(OR(AND($H39&lt;=AB$5,AB$5&lt;=$I39),$H39=AB$5),2,IF(AND($F39&lt;=AB$5,AB$5&lt;=$G39),1,0)))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC39" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD39" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE39" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF39" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG39" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH39" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI39" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ39" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK39" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL39" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM39" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN39" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AO39" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AP39" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ39" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="82"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="66" t="s">
-        <v>42</v>
+      <c r="B40" s="108" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="111" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="43" t="s">
+        <v>65</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F40" s="32"/>
       <c r="G40" s="35"/>
@@ -7103,67 +7100,67 @@
       <c r="J40" s="34"/>
       <c r="K40" s="35"/>
       <c r="M40" s="39">
-        <f t="shared" ref="M40:AB55" si="9">IF($K40=M$5,3,IF(OR(AND($H40&lt;=M$5,M$5&lt;=$I40),$H40=M$5),2,IF(AND($F40&lt;=M$5,M$5&lt;=$G40),1,0)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N40" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O40" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P40" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q40" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R40" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S40" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T40" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U40" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V40" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W40" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X40" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y40" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z40" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA40" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB40" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="AB40:AQ77" si="8">IF($K40=AB$5,3,IF(OR(AND($H40&lt;=AB$5,AB$5&lt;=$I40),$H40=AB$5),2,IF(AND($F40&lt;=AB$5,AB$5&lt;=$G40),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AC40" s="40">
@@ -7228,12 +7225,14 @@
       </c>
     </row>
     <row r="41" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="82"/>
-      <c r="C41" s="85"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="111"/>
       <c r="D41" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" s="31"/>
+        <v>82</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>14</v>
+      </c>
       <c r="F41" s="32"/>
       <c r="G41" s="35"/>
       <c r="H41" s="32"/>
@@ -7241,67 +7240,67 @@
       <c r="J41" s="34"/>
       <c r="K41" s="35"/>
       <c r="M41" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N41" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O41" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P41" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q41" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R41" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S41" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T41" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U41" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V41" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W41" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X41" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y41" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z41" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA41" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB41" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC41" s="40">
@@ -7366,10 +7365,10 @@
       </c>
     </row>
     <row r="42" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="82"/>
-      <c r="C42" s="85"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="111"/>
       <c r="D42" s="44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E42" s="31" t="s">
         <v>14</v>
@@ -7381,67 +7380,67 @@
       <c r="J42" s="34"/>
       <c r="K42" s="35"/>
       <c r="M42" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N42" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O42" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P42" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q42" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R42" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S42" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T42" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U42" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V42" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W42" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X42" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y42" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z42" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA42" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB42" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC42" s="40">
@@ -7506,10 +7505,10 @@
       </c>
     </row>
     <row r="43" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="82"/>
-      <c r="C43" s="85"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="111"/>
       <c r="D43" s="45" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E43" s="31" t="s">
         <v>15</v>
@@ -7525,67 +7524,67 @@
       <c r="J43" s="34"/>
       <c r="K43" s="35"/>
       <c r="M43" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N43" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O43" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P43" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q43" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R43" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S43" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T43" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U43" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V43" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W43" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X43" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y43" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z43" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA43" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB43" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC43" s="40">
@@ -7650,10 +7649,10 @@
       </c>
     </row>
     <row r="44" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="82"/>
-      <c r="C44" s="85"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="111"/>
       <c r="D44" s="67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E44" s="31"/>
       <c r="F44" s="32">
@@ -7667,67 +7666,67 @@
       <c r="J44" s="34"/>
       <c r="K44" s="35"/>
       <c r="M44" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N44" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O44" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P44" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q44" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R44" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S44" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T44" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U44" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V44" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W44" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X44" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y44" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z44" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA44" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB44" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC44" s="40">
@@ -7792,8 +7791,8 @@
       </c>
     </row>
     <row r="45" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="82"/>
-      <c r="C45" s="85"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="111"/>
       <c r="D45" s="47" t="s">
         <v>19</v>
       </c>
@@ -7811,67 +7810,67 @@
       <c r="J45" s="34"/>
       <c r="K45" s="35"/>
       <c r="M45" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N45" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O45" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P45" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q45" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R45" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S45" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T45" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U45" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V45" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W45" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X45" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y45" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z45" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA45" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB45" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC45" s="40">
@@ -7936,10 +7935,10 @@
       </c>
     </row>
     <row r="46" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="82"/>
-      <c r="C46" s="85"/>
+      <c r="B46" s="109"/>
+      <c r="C46" s="111"/>
       <c r="D46" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E46" s="31" t="s">
         <v>15</v>
@@ -7955,67 +7954,67 @@
       <c r="J46" s="34"/>
       <c r="K46" s="35"/>
       <c r="M46" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N46" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O46" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P46" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q46" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R46" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S46" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T46" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U46" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V46" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W46" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X46" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y46" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z46" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA46" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB46" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC46" s="40">
@@ -8080,10 +8079,10 @@
       </c>
     </row>
     <row r="47" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="82"/>
-      <c r="C47" s="85"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="111"/>
       <c r="D47" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E47" s="31" t="s">
         <v>13</v>
@@ -8099,67 +8098,67 @@
       <c r="J47" s="34"/>
       <c r="K47" s="35"/>
       <c r="M47" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N47" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O47" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P47" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q47" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R47" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S47" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T47" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U47" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V47" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W47" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X47" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y47" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z47" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA47" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB47" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC47" s="40">
@@ -8224,10 +8223,10 @@
       </c>
     </row>
     <row r="48" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="83"/>
-      <c r="C48" s="85"/>
+      <c r="B48" s="110"/>
+      <c r="C48" s="111"/>
       <c r="D48" s="65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E48" s="31"/>
       <c r="F48" s="32">
@@ -8241,67 +8240,67 @@
       <c r="J48" s="34"/>
       <c r="K48" s="35"/>
       <c r="M48" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N48" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O48" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P48" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q48" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R48" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S48" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T48" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U48" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V48" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W48" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X48" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y48" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z48" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA48" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB48" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC48" s="40">
@@ -8366,10 +8365,10 @@
       </c>
     </row>
     <row r="49" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="81" t="s">
+      <c r="B49" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="85"/>
+      <c r="C49" s="111"/>
       <c r="D49" s="66" t="s">
         <v>39</v>
       </c>
@@ -8383,67 +8382,67 @@
       <c r="J49" s="34"/>
       <c r="K49" s="35"/>
       <c r="M49" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N49" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O49" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P49" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q49" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R49" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S49" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T49" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U49" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V49" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W49" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X49" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y49" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z49" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA49" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB49" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC49" s="40">
@@ -8508,8 +8507,8 @@
       </c>
     </row>
     <row r="50" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="82"/>
-      <c r="C50" s="85"/>
+      <c r="B50" s="109"/>
+      <c r="C50" s="111"/>
       <c r="D50" s="44" t="s">
         <v>40</v>
       </c>
@@ -8523,67 +8522,67 @@
       <c r="J50" s="34"/>
       <c r="K50" s="35"/>
       <c r="M50" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N50" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O50" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P50" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q50" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R50" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S50" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T50" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U50" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V50" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W50" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X50" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y50" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z50" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA50" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB50" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC50" s="40">
@@ -8648,10 +8647,10 @@
       </c>
     </row>
     <row r="51" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="82"/>
-      <c r="C51" s="85"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="111"/>
       <c r="D51" s="44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E51" s="31"/>
       <c r="F51" s="32"/>
@@ -8661,67 +8660,67 @@
       <c r="J51" s="34"/>
       <c r="K51" s="35"/>
       <c r="M51" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N51" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O51" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P51" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q51" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R51" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S51" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T51" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U51" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V51" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W51" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X51" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y51" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z51" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA51" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB51" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC51" s="40">
@@ -8786,10 +8785,10 @@
       </c>
     </row>
     <row r="52" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="82"/>
-      <c r="C52" s="85"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="111"/>
       <c r="D52" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E52" s="31" t="s">
         <v>14</v>
@@ -8801,67 +8800,67 @@
       <c r="J52" s="34"/>
       <c r="K52" s="35"/>
       <c r="M52" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N52" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O52" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P52" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q52" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R52" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S52" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T52" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U52" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V52" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W52" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X52" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y52" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z52" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA52" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB52" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC52" s="40">
@@ -8926,10 +8925,10 @@
       </c>
     </row>
     <row r="53" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="82"/>
-      <c r="C53" s="85"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="111"/>
       <c r="D53" s="44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E53" s="31"/>
       <c r="F53" s="32"/>
@@ -8939,67 +8938,67 @@
       <c r="J53" s="34"/>
       <c r="K53" s="35"/>
       <c r="M53" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N53" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O53" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P53" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q53" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R53" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S53" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T53" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U53" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V53" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W53" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X53" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y53" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z53" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA53" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB53" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC53" s="40">
@@ -9064,10 +9063,10 @@
       </c>
     </row>
     <row r="54" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="82"/>
-      <c r="C54" s="85"/>
+      <c r="B54" s="109"/>
+      <c r="C54" s="111"/>
       <c r="D54" s="45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E54" s="31" t="s">
         <v>14</v>
@@ -9083,67 +9082,67 @@
       <c r="J54" s="34"/>
       <c r="K54" s="35"/>
       <c r="M54" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N54" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O54" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P54" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q54" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R54" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S54" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T54" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U54" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V54" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W54" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X54" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y54" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z54" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA54" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB54" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC54" s="40">
@@ -9208,10 +9207,10 @@
       </c>
     </row>
     <row r="55" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="82"/>
-      <c r="C55" s="85"/>
+      <c r="B55" s="109"/>
+      <c r="C55" s="111"/>
       <c r="D55" s="67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E55" s="31"/>
       <c r="F55" s="32">
@@ -9225,31 +9224,31 @@
       <c r="J55" s="34"/>
       <c r="K55" s="35"/>
       <c r="M55" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="S55:AH77" si="9">IF($K55=S$5,3,IF(OR(AND($H55&lt;=S$5,S$5&lt;=$I55),$H55=S$5),2,IF(AND($F55&lt;=S$5,S$5&lt;=$G55),1,0)))</f>
         <v>0</v>
       </c>
       <c r="T55" s="40">
@@ -9285,73 +9284,73 @@
         <v>0</v>
       </c>
       <c r="AB55" s="40">
-        <f t="shared" ref="AB55:AQ70" si="10">IF($K55=AB$5,3,IF(OR(AND($H55&lt;=AB$5,AB$5&lt;=$I55),$H55=AB$5),2,IF(AND($F55&lt;=AB$5,AB$5&lt;=$G55),1,0)))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC55" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD55" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE55" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AF55" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG55" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH55" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI55" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ55" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK55" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL55" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM55" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN55" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO55" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP55" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AQ55" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="82"/>
-      <c r="C56" s="85"/>
+      <c r="B56" s="109"/>
+      <c r="C56" s="111"/>
       <c r="D56" s="47" t="s">
         <v>20</v>
       </c>
@@ -9365,135 +9364,135 @@
       <c r="J56" s="34"/>
       <c r="K56" s="35"/>
       <c r="M56" s="39">
-        <f t="shared" ref="M56:AB71" si="11">IF($K56=M$5,3,IF(OR(AND($H56&lt;=M$5,M$5&lt;=$I56),$H56=M$5),2,IF(AND($F56&lt;=M$5,M$5&lt;=$G56),1,0)))</f>
+        <f t="shared" ref="M56:AB77" si="10">IF($K56=M$5,3,IF(OR(AND($H56&lt;=M$5,M$5&lt;=$I56),$H56=M$5),2,IF(AND($F56&lt;=M$5,M$5&lt;=$G56),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N56" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O56" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P56" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q56" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R56" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S56" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T56" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U56" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V56" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W56" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X56" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y56" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z56" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA56" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB56" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC56" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD56" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE56" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AF56" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG56" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH56" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI56" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ56" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK56" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL56" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM56" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN56" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO56" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP56" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AQ56" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="82"/>
-      <c r="C57" s="85"/>
+      <c r="B57" s="109"/>
+      <c r="C57" s="111"/>
       <c r="D57" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E57" s="31" t="s">
         <v>14</v>
@@ -9505,135 +9504,135 @@
       <c r="J57" s="34"/>
       <c r="K57" s="35"/>
       <c r="M57" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N57" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O57" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P57" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q57" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R57" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S57" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T57" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U57" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V57" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W57" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X57" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y57" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z57" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA57" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB57" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC57" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD57" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE57" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AF57" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG57" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH57" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI57" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ57" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK57" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL57" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM57" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN57" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO57" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP57" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AQ57" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="83"/>
-      <c r="C58" s="85"/>
+      <c r="B58" s="110"/>
+      <c r="C58" s="111"/>
       <c r="D58" s="46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E58" s="31" t="s">
         <v>13</v>
@@ -9649,139 +9648,139 @@
       <c r="J58" s="34"/>
       <c r="K58" s="35"/>
       <c r="M58" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S58" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T58" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U58" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V58" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W58" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X58" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y58" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z58" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA58" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB58" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC58" s="40">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD58" s="40">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE58" s="40">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF58" s="40">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG58" s="40">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH58" s="40">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AI58" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AJ58" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK58" s="40">
+        <f t="shared" ref="AK58:AQ77" si="11">IF($K58=AK$5,3,IF(OR(AND($H58&lt;=AK$5,AK$5&lt;=$I58),$H58=AK$5),2,IF(AND($F58&lt;=AK$5,AK$5&lt;=$G58),1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="AL58" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N58" s="40">
+      <c r="AM58" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O58" s="40">
+      <c r="AN58" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P58" s="40">
+      <c r="AO58" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q58" s="40">
+      <c r="AP58" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R58" s="40">
+      <c r="AQ58" s="41">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S58" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="T58" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U58" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V58" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="W58" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X58" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y58" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Z58" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA58" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB58" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AC58" s="40">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AD58" s="40">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AE58" s="40">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AF58" s="40">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AG58" s="40">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH58" s="40">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AI58" s="40">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AJ58" s="40">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AK58" s="40">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AL58" s="40">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AM58" s="40">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AN58" s="40">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AO58" s="40">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AP58" s="40">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AQ58" s="41">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="81" t="s">
+      <c r="B59" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="84" t="s">
+      <c r="C59" s="96" t="s">
         <v>33</v>
       </c>
       <c r="D59" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E59" s="31" t="s">
         <v>15</v>
@@ -9793,135 +9792,135 @@
       <c r="J59" s="34"/>
       <c r="K59" s="35"/>
       <c r="M59" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N59" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O59" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P59" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q59" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R59" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S59" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T59" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U59" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V59" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W59" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X59" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y59" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z59" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA59" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB59" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC59" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD59" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE59" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AF59" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG59" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH59" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI59" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="AI59:AQ77" si="12">IF($K59=AI$5,3,IF(OR(AND($H59&lt;=AI$5,AI$5&lt;=$I59),$H59=AI$5),2,IF(AND($F59&lt;=AI$5,AI$5&lt;=$G59),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AJ59" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK59" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL59" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM59" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN59" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO59" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP59" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ59" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="82"/>
-      <c r="C60" s="84"/>
+      <c r="B60" s="109"/>
+      <c r="C60" s="96"/>
       <c r="D60" s="43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E60" s="31"/>
       <c r="F60" s="32"/>
@@ -9931,135 +9930,135 @@
       <c r="J60" s="34"/>
       <c r="K60" s="35"/>
       <c r="M60" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N60" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O60" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P60" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q60" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R60" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S60" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T60" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U60" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V60" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W60" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X60" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y60" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z60" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA60" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB60" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC60" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD60" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE60" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AF60" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG60" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH60" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI60" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AJ60" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK60" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL60" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM60" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN60" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO60" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP60" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ60" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="82"/>
-      <c r="C61" s="84"/>
+      <c r="B61" s="109"/>
+      <c r="C61" s="96"/>
       <c r="D61" s="50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E61" s="31"/>
       <c r="F61" s="32"/>
@@ -10069,135 +10068,135 @@
       <c r="J61" s="34"/>
       <c r="K61" s="35"/>
       <c r="M61" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N61" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O61" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P61" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q61" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R61" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S61" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T61" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U61" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V61" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W61" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X61" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y61" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z61" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA61" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB61" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC61" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD61" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE61" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AF61" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG61" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH61" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI61" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AJ61" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK61" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL61" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM61" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN61" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO61" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP61" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ61" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="82"/>
-      <c r="C62" s="84"/>
+      <c r="B62" s="109"/>
+      <c r="C62" s="96"/>
       <c r="D62" s="51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E62" s="31"/>
       <c r="F62" s="32"/>
@@ -10207,135 +10206,135 @@
       <c r="J62" s="34"/>
       <c r="K62" s="35"/>
       <c r="M62" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N62" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O62" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P62" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q62" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R62" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S62" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T62" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U62" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V62" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W62" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X62" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y62" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z62" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA62" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB62" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC62" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD62" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE62" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AF62" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG62" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH62" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI62" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AJ62" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK62" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL62" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM62" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN62" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO62" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP62" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ62" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="82"/>
-      <c r="C63" s="84"/>
+      <c r="B63" s="109"/>
+      <c r="C63" s="96"/>
       <c r="D63" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E63" s="31"/>
       <c r="F63" s="32"/>
@@ -10345,135 +10344,135 @@
       <c r="J63" s="34"/>
       <c r="K63" s="35"/>
       <c r="M63" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N63" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O63" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P63" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q63" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R63" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S63" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T63" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U63" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V63" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W63" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X63" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y63" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z63" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA63" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB63" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC63" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD63" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE63" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AF63" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG63" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH63" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI63" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AJ63" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK63" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL63" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM63" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN63" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO63" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP63" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ63" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="82"/>
-      <c r="C64" s="84"/>
+      <c r="B64" s="109"/>
+      <c r="C64" s="96"/>
       <c r="D64" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E64" s="31"/>
       <c r="F64" s="32"/>
@@ -10483,135 +10482,135 @@
       <c r="J64" s="34"/>
       <c r="K64" s="35"/>
       <c r="M64" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N64" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O64" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P64" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q64" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R64" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S64" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T64" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U64" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V64" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W64" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X64" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y64" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z64" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA64" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB64" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC64" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD64" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE64" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AF64" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG64" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH64" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI64" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AJ64" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK64" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL64" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM64" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN64" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO64" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP64" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ64" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="82"/>
-      <c r="C65" s="84"/>
+      <c r="B65" s="109"/>
+      <c r="C65" s="96"/>
       <c r="D65" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E65" s="31"/>
       <c r="F65" s="32"/>
@@ -10621,135 +10620,135 @@
       <c r="J65" s="34"/>
       <c r="K65" s="35"/>
       <c r="M65" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N65" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O65" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P65" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q65" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R65" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S65" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T65" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U65" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V65" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W65" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X65" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y65" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z65" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA65" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB65" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC65" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD65" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE65" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AF65" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG65" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH65" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI65" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AJ65" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK65" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL65" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM65" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN65" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO65" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP65" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ65" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="82"/>
-      <c r="C66" s="84"/>
+      <c r="B66" s="109"/>
+      <c r="C66" s="96"/>
       <c r="D66" s="45" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E66" s="31" t="s">
         <v>13</v>
@@ -10765,135 +10764,135 @@
       <c r="J66" s="34"/>
       <c r="K66" s="35"/>
       <c r="M66" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N66" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O66" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P66" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q66" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R66" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S66" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T66" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U66" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V66" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W66" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X66" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y66" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z66" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA66" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB66" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC66" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD66" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE66" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AF66" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG66" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH66" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI66" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AJ66" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK66" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL66" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM66" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN66" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO66" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP66" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ66" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="82"/>
-      <c r="C67" s="84"/>
+      <c r="B67" s="109"/>
+      <c r="C67" s="96"/>
       <c r="D67" s="67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E67" s="31"/>
       <c r="F67" s="32">
@@ -10907,133 +10906,133 @@
       <c r="J67" s="34"/>
       <c r="K67" s="35"/>
       <c r="M67" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N67" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O67" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P67" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q67" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R67" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S67" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T67" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U67" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V67" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W67" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X67" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y67" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z67" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA67" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB67" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC67" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD67" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE67" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AF67" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG67" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH67" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI67" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AJ67" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK67" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL67" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM67" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN67" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO67" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP67" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ67" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="82"/>
-      <c r="C68" s="84"/>
+      <c r="B68" s="109"/>
+      <c r="C68" s="96"/>
       <c r="D68" s="47" t="s">
         <v>21</v>
       </c>
@@ -11047,135 +11046,135 @@
       <c r="J68" s="34"/>
       <c r="K68" s="35"/>
       <c r="M68" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N68" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O68" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P68" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q68" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R68" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S68" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T68" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U68" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V68" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W68" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X68" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y68" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z68" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA68" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB68" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC68" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD68" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE68" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AF68" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG68" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH68" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI68" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AJ68" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK68" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL68" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM68" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN68" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO68" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP68" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ68" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="82"/>
-      <c r="C69" s="84"/>
+      <c r="B69" s="109"/>
+      <c r="C69" s="96"/>
       <c r="D69" s="52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E69" s="31" t="s">
         <v>14</v>
@@ -11187,135 +11186,135 @@
       <c r="J69" s="34"/>
       <c r="K69" s="35"/>
       <c r="M69" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N69" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O69" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P69" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q69" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R69" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S69" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T69" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U69" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V69" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W69" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X69" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y69" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z69" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA69" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB69" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC69" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD69" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE69" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AF69" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG69" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH69" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI69" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AJ69" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK69" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL69" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM69" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN69" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO69" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP69" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ69" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="82"/>
-      <c r="C70" s="84"/>
+      <c r="B70" s="109"/>
+      <c r="C70" s="96"/>
       <c r="D70" s="53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E70" s="31" t="s">
         <v>15</v>
@@ -11331,139 +11330,139 @@
       <c r="J70" s="34"/>
       <c r="K70" s="35"/>
       <c r="M70" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N70" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O70" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P70" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q70" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R70" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S70" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T70" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U70" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V70" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W70" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X70" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y70" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z70" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA70" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB70" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC70" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD70" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE70" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AF70" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG70" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AH70" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI70" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AJ70" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK70" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL70" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM70" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN70" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO70" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP70" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ70" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="81" t="s">
+      <c r="B71" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="84" t="s">
+      <c r="C71" s="96" t="s">
         <v>34</v>
       </c>
       <c r="D71" s="50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E71" s="31"/>
       <c r="F71" s="48"/>
@@ -11473,133 +11472,133 @@
       <c r="J71" s="34"/>
       <c r="K71" s="35"/>
       <c r="M71" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N71" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O71" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P71" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q71" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R71" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S71" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T71" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U71" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V71" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W71" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X71" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y71" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z71" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA71" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB71" s="40">
-        <f t="shared" ref="AB71:AQ77" si="12">IF($K71=AB$5,3,IF(OR(AND($H71&lt;=AB$5,AB$5&lt;=$I71),$H71=AB$5),2,IF(AND($F71&lt;=AB$5,AB$5&lt;=$G71),1,0)))</f>
+        <f t="shared" ref="AB71:AQ77" si="13">IF($K71=AB$5,3,IF(OR(AND($H71&lt;=AB$5,AB$5&lt;=$I71),$H71=AB$5),2,IF(AND($F71&lt;=AB$5,AB$5&lt;=$G71),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AC71" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD71" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE71" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AF71" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AG71" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AH71" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AI71" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AJ71" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AK71" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AL71" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM71" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AN71" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AO71" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AP71" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AQ71" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="82"/>
-      <c r="C72" s="84"/>
+      <c r="B72" s="109"/>
+      <c r="C72" s="96"/>
       <c r="D72" s="30" t="s">
         <v>34</v>
       </c>
@@ -11612,133 +11611,133 @@
       <c r="J72" s="34"/>
       <c r="K72" s="35"/>
       <c r="M72" s="39">
-        <f t="shared" ref="M72:AB77" si="13">IF($K72=M$5,3,IF(OR(AND($H72&lt;=M$5,M$5&lt;=$I72),$H72=M$5),2,IF(AND($F72&lt;=M$5,M$5&lt;=$G72),1,0)))</f>
+        <f t="shared" ref="M72:AB77" si="14">IF($K72=M$5,3,IF(OR(AND($H72&lt;=M$5,M$5&lt;=$I72),$H72=M$5),2,IF(AND($F72&lt;=M$5,M$5&lt;=$G72),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N72" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O72" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P72" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q72" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R72" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S72" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T72" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U72" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V72" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W72" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X72" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y72" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Z72" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AA72" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB72" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AC72" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O72" s="40">
+      <c r="AD72" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="P72" s="40">
+      <c r="AE72" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q72" s="40">
+      <c r="AF72" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R72" s="40">
+      <c r="AG72" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S72" s="40">
+      <c r="AH72" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T72" s="40">
+      <c r="AI72" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="U72" s="40">
+      <c r="AJ72" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V72" s="40">
+      <c r="AK72" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W72" s="40">
+      <c r="AL72" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X72" s="40">
+      <c r="AM72" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Y72" s="40">
+      <c r="AN72" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z72" s="40">
+      <c r="AO72" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA72" s="40">
+      <c r="AP72" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AB72" s="40">
+      <c r="AQ72" s="41">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC72" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD72" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE72" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF72" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AG72" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AH72" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AI72" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ72" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AK72" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AL72" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AM72" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AN72" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AO72" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP72" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AQ72" s="41">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="82"/>
-      <c r="C73" s="84"/>
+      <c r="B73" s="109"/>
+      <c r="C73" s="96"/>
       <c r="D73" s="30" t="s">
         <v>34</v>
       </c>
@@ -11752,133 +11751,133 @@
       <c r="J73" s="34"/>
       <c r="K73" s="35"/>
       <c r="M73" s="39">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N73" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O73" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P73" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q73" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R73" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S73" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T73" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U73" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V73" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W73" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X73" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y73" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Z73" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AA73" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB73" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AC73" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N73" s="40">
+      <c r="AD73" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O73" s="40">
+      <c r="AE73" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="P73" s="40">
+      <c r="AF73" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q73" s="40">
+      <c r="AG73" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R73" s="40">
+      <c r="AH73" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S73" s="40">
+      <c r="AI73" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T73" s="40">
+      <c r="AJ73" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="U73" s="40">
+      <c r="AK73" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V73" s="40">
+      <c r="AL73" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W73" s="40">
+      <c r="AM73" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X73" s="40">
+      <c r="AN73" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Y73" s="40">
+      <c r="AO73" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z73" s="40">
+      <c r="AP73" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA73" s="40">
+      <c r="AQ73" s="41">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AB73" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC73" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD73" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE73" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF73" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AG73" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AH73" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AI73" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ73" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AK73" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AL73" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AM73" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AN73" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AO73" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP73" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AQ73" s="41">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="82"/>
-      <c r="C74" s="84"/>
+      <c r="B74" s="109"/>
+      <c r="C74" s="96"/>
       <c r="D74" s="30" t="s">
         <v>34</v>
       </c>
@@ -11892,135 +11891,135 @@
       <c r="J74" s="34"/>
       <c r="K74" s="35"/>
       <c r="M74" s="39">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N74" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O74" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P74" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q74" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R74" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S74" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T74" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U74" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V74" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W74" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X74" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y74" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Z74" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AA74" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB74" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AC74" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N74" s="40">
+      <c r="AD74" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O74" s="40">
+      <c r="AE74" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="P74" s="40">
+      <c r="AF74" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q74" s="40">
+      <c r="AG74" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R74" s="40">
+      <c r="AH74" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S74" s="40">
+      <c r="AI74" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T74" s="40">
+      <c r="AJ74" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="U74" s="40">
+      <c r="AK74" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V74" s="40">
+      <c r="AL74" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W74" s="40">
+      <c r="AM74" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X74" s="40">
+      <c r="AN74" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Y74" s="40">
+      <c r="AO74" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z74" s="40">
+      <c r="AP74" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA74" s="40">
+      <c r="AQ74" s="41">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AB74" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC74" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD74" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE74" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF74" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AG74" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AH74" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AI74" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ74" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AK74" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AL74" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AM74" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AN74" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AO74" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP74" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AQ74" s="41">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="82"/>
-      <c r="C75" s="84"/>
+      <c r="B75" s="109"/>
+      <c r="C75" s="96"/>
       <c r="D75" s="69" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E75" s="31"/>
       <c r="F75" s="32">
@@ -12034,135 +12033,135 @@
       <c r="J75" s="34"/>
       <c r="K75" s="35"/>
       <c r="M75" s="39">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N75" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O75" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P75" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q75" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R75" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S75" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T75" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U75" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V75" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W75" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X75" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y75" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Z75" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AA75" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB75" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AC75" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N75" s="40">
+      <c r="AD75" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O75" s="40">
+      <c r="AE75" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="P75" s="40">
+      <c r="AF75" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q75" s="40">
+      <c r="AG75" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R75" s="40">
+      <c r="AH75" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S75" s="40">
+      <c r="AI75" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T75" s="40">
+      <c r="AJ75" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="U75" s="40">
+      <c r="AK75" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V75" s="40">
+      <c r="AL75" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W75" s="40">
+      <c r="AM75" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X75" s="40">
+      <c r="AN75" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Y75" s="40">
+      <c r="AO75" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z75" s="40">
+      <c r="AP75" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA75" s="40">
+      <c r="AQ75" s="41">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AB75" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC75" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD75" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE75" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF75" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AG75" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AH75" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AI75" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ75" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AK75" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AL75" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AM75" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AN75" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AO75" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP75" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AQ75" s="41">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="82"/>
-      <c r="C76" s="84"/>
+      <c r="B76" s="109"/>
+      <c r="C76" s="96"/>
       <c r="D76" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E76" s="31"/>
       <c r="F76" s="63">
@@ -12176,135 +12175,135 @@
       <c r="J76" s="34"/>
       <c r="K76" s="35"/>
       <c r="M76" s="39">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N76" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O76" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P76" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R76" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S76" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T76" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U76" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V76" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W76" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X76" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y76" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Z76" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AA76" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB76" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AC76" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N76" s="40">
+      <c r="AD76" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O76" s="40">
+      <c r="AE76" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="P76" s="40">
+      <c r="AF76" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q76" s="40">
+      <c r="AG76" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R76" s="40">
+      <c r="AH76" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S76" s="40">
+      <c r="AI76" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T76" s="40">
+      <c r="AJ76" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="U76" s="40">
+      <c r="AK76" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V76" s="40">
+      <c r="AL76" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W76" s="40">
+      <c r="AM76" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X76" s="40">
+      <c r="AN76" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Y76" s="40">
+      <c r="AO76" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z76" s="40">
+      <c r="AP76" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA76" s="40">
+      <c r="AQ76" s="41">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AB76" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC76" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD76" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE76" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF76" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AG76" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AH76" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AI76" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ76" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AK76" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AL76" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AM76" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AN76" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AO76" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP76" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AQ76" s="41">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="83"/>
-      <c r="C77" s="84"/>
+      <c r="B77" s="110"/>
+      <c r="C77" s="96"/>
       <c r="D77" s="54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E77" s="55"/>
       <c r="F77" s="56">
@@ -12318,155 +12317,155 @@
       <c r="J77" s="60"/>
       <c r="K77" s="59"/>
       <c r="M77" s="39">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N77" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O77" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P77" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q77" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R77" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S77" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T77" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U77" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V77" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W77" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X77" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y77" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Z77" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AA77" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB77" s="40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AC77" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N77" s="40">
+      <c r="AD77" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O77" s="40">
+      <c r="AE77" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="P77" s="40">
+      <c r="AF77" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q77" s="40">
+      <c r="AG77" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R77" s="40">
+      <c r="AH77" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S77" s="40">
+      <c r="AI77" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T77" s="40">
+      <c r="AJ77" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="U77" s="40">
+      <c r="AK77" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V77" s="40">
+      <c r="AL77" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W77" s="40">
+      <c r="AM77" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X77" s="40">
+      <c r="AN77" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Y77" s="40">
+      <c r="AO77" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z77" s="40">
+      <c r="AP77" s="40">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA77" s="40">
+      <c r="AQ77" s="41">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AB77" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC77" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD77" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE77" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF77" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AG77" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AH77" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AI77" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ77" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AK77" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AL77" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AM77" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AN77" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AO77" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AP77" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AQ77" s="41">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="D5:E77" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}"/>
   <mergeCells count="22">
+    <mergeCell ref="B71:B77"/>
+    <mergeCell ref="C71:C77"/>
+    <mergeCell ref="B40:B48"/>
+    <mergeCell ref="C40:C58"/>
+    <mergeCell ref="B49:B58"/>
+    <mergeCell ref="B59:B70"/>
+    <mergeCell ref="C59:C70"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="C9:C39"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="B17:B27"/>
+    <mergeCell ref="B29:B39"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="S3:X3"/>
     <mergeCell ref="Y3:AD3"/>
     <mergeCell ref="M3:R3"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="C9:C38"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="B17:B27"/>
-    <mergeCell ref="B29:B38"/>
-    <mergeCell ref="B71:B77"/>
-    <mergeCell ref="C71:C77"/>
-    <mergeCell ref="B39:B48"/>
-    <mergeCell ref="C39:C58"/>
-    <mergeCell ref="B49:B58"/>
-    <mergeCell ref="B59:B70"/>
-    <mergeCell ref="C59:C70"/>
   </mergeCells>
   <conditionalFormatting sqref="M6:AQ77">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -12480,7 +12479,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E77 J6:J77" xr:uid="{7799F778-AC45-524F-B3DE-E4EA92284CF2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J77 E6:E77" xr:uid="{7799F778-AC45-524F-B3DE-E4EA92284CF2}">
       <formula1>$AS$5:$AS$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/CMSC495_ProjectPlan.xlsx
+++ b/CMSC495_ProjectPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Git/cmsc495_final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF88E5D-2E24-7C46-A708-B8F576998A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687CA53E-F677-F348-B308-C0B4CB651EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26260" xr2:uid="{A3040AE0-0367-2B43-ADDE-84CCD12855DC}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="84">
   <si>
     <t>Year</t>
   </si>
@@ -1275,6 +1275,75 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1298,75 +1367,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1763,48 +1763,48 @@
       <c r="D3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="82" t="s">
+      <c r="M3" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="97" t="s">
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="97"/>
-      <c r="U3" s="97"/>
-      <c r="V3" s="97"/>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="81" t="s">
+      <c r="T3" s="103"/>
+      <c r="U3" s="103"/>
+      <c r="V3" s="103"/>
+      <c r="W3" s="103"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="81"/>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="81"/>
+      <c r="Z3" s="104"/>
+      <c r="AA3" s="104"/>
+      <c r="AB3" s="104"/>
+      <c r="AC3" s="104"/>
+      <c r="AD3" s="104"/>
     </row>
     <row r="4" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="89"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="83" t="s">
+      <c r="B4" s="97"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="84"/>
-      <c r="H4" s="85" t="s">
+      <c r="G4" s="107"/>
+      <c r="H4" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="86"/>
-      <c r="J4" s="87" t="s">
+      <c r="I4" s="109"/>
+      <c r="J4" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="88"/>
+      <c r="K4" s="111"/>
       <c r="M4" s="12" t="str">
         <f>TEXT(M5,"aaa")</f>
         <v>Tue</v>
@@ -2099,13 +2099,13 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="94" t="s">
+      <c r="D6" s="101" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="31" t="s">
@@ -2256,9 +2256,9 @@
       </c>
     </row>
     <row r="7" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="93"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="95"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="102"/>
       <c r="E7" s="31" t="s">
         <v>13</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>44636</v>
       </c>
       <c r="M7" s="39">
-        <f t="shared" ref="M7:AB38" si="3">IF($K7=M$5,3,IF(OR(AND($H7&lt;=M$5,M$5&lt;=$I7),$H7=M$5),2,IF(AND($F7&lt;=M$5,M$5&lt;=$G7),1,0)))</f>
+        <f t="shared" ref="M7:AB30" si="3">IF($K7=M$5,3,IF(OR(AND($H7&lt;=M$5,M$5&lt;=$I7),$H7=M$5),2,IF(AND($F7&lt;=M$5,M$5&lt;=$G7),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N7" s="40">
@@ -2407,9 +2407,9 @@
       </c>
     </row>
     <row r="8" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="93"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="95"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="102"/>
       <c r="E8" s="31" t="s">
         <v>15</v>
       </c>
@@ -2555,10 +2555,10 @@
       </c>
     </row>
     <row r="9" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="88" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="71" t="s">
@@ -2711,8 +2711,8 @@
       </c>
     </row>
     <row r="10" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="99"/>
-      <c r="C10" s="101"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="89"/>
       <c r="D10" s="72" t="s">
         <v>61</v>
       </c>
@@ -2863,8 +2863,8 @@
       </c>
     </row>
     <row r="11" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="99"/>
-      <c r="C11" s="101"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="89"/>
       <c r="D11" s="72" t="s">
         <v>61</v>
       </c>
@@ -3015,8 +3015,8 @@
       </c>
     </row>
     <row r="12" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="99"/>
-      <c r="C12" s="101"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="89"/>
       <c r="D12" s="73" t="s">
         <v>68</v>
       </c>
@@ -3167,8 +3167,8 @@
       </c>
     </row>
     <row r="13" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="99"/>
-      <c r="C13" s="101"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="89"/>
       <c r="D13" s="74" t="s">
         <v>57</v>
       </c>
@@ -3317,9 +3317,9 @@
       </c>
     </row>
     <row r="14" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="99"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="103" t="s">
+      <c r="B14" s="87"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="92" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="31" t="s">
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="40">
-        <f t="shared" ref="AC14:AQ77" si="4">IF($K14=AC$5,3,IF(OR(AND($H14&lt;=AC$5,AC$5&lt;=$I14),$H14=AC$5),2,IF(AND($F14&lt;=AC$5,AC$5&lt;=$G14),1,0)))</f>
+        <f t="shared" ref="AC14:AQ31" si="4">IF($K14=AC$5,3,IF(OR(AND($H14&lt;=AC$5,AC$5&lt;=$I14),$H14=AC$5),2,IF(AND($F14&lt;=AC$5,AC$5&lt;=$G14),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AD14" s="40">
@@ -3465,9 +3465,9 @@
       </c>
     </row>
     <row r="15" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="99"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="104"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="93"/>
       <c r="E15" s="31" t="s">
         <v>13</v>
       </c>
@@ -3615,9 +3615,9 @@
       </c>
     </row>
     <row r="16" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="99"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="104"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="93"/>
       <c r="E16" s="31" t="s">
         <v>15</v>
       </c>
@@ -3765,10 +3765,10 @@
       </c>
     </row>
     <row r="17" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="105" t="s">
+      <c r="B17" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="101"/>
+      <c r="C17" s="89"/>
       <c r="D17" s="75" t="s">
         <v>77</v>
       </c>
@@ -3915,8 +3915,8 @@
       </c>
     </row>
     <row r="18" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="106"/>
-      <c r="C18" s="101"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="89"/>
       <c r="D18" s="76" t="s">
         <v>80</v>
       </c>
@@ -3938,7 +3938,9 @@
       <c r="J18" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="35"/>
+      <c r="K18" s="35">
+        <v>44650</v>
+      </c>
       <c r="M18" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4057,7 +4059,7 @@
       </c>
       <c r="AP18" s="40">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ18" s="41">
         <f t="shared" si="4"/>
@@ -4065,8 +4067,8 @@
       </c>
     </row>
     <row r="19" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="106"/>
-      <c r="C19" s="101"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="89"/>
       <c r="D19" s="77" t="s">
         <v>53</v>
       </c>
@@ -4217,8 +4219,8 @@
       </c>
     </row>
     <row r="20" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="106"/>
-      <c r="C20" s="101"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="89"/>
       <c r="D20" s="77" t="s">
         <v>54</v>
       </c>
@@ -4369,8 +4371,8 @@
       </c>
     </row>
     <row r="21" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="106"/>
-      <c r="C21" s="101"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="89"/>
       <c r="D21" s="77" t="s">
         <v>79</v>
       </c>
@@ -4392,7 +4394,9 @@
       <c r="J21" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="35"/>
+      <c r="K21" s="35">
+        <v>44651</v>
+      </c>
       <c r="M21" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4515,12 +4519,12 @@
       </c>
       <c r="AQ21" s="41">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="106"/>
-      <c r="C22" s="101"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="89"/>
       <c r="D22" s="78" t="s">
         <v>81</v>
       </c>
@@ -4667,8 +4671,8 @@
       </c>
     </row>
     <row r="23" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="106"/>
-      <c r="C23" s="101"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="89"/>
       <c r="D23" s="78" t="s">
         <v>62</v>
       </c>
@@ -4684,11 +4688,15 @@
       <c r="H23" s="32">
         <v>44644</v>
       </c>
-      <c r="I23" s="35"/>
+      <c r="I23" s="35">
+        <v>44651</v>
+      </c>
       <c r="J23" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="35"/>
+      <c r="K23" s="35">
+        <v>44651</v>
+      </c>
       <c r="M23" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4787,36 +4795,36 @@
       </c>
       <c r="AK23" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL23" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM23" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN23" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO23" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP23" s="40">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ23" s="41">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="106"/>
-      <c r="C24" s="101"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="89"/>
       <c r="D24" s="79" t="s">
         <v>69</v>
       </c>
@@ -4959,8 +4967,8 @@
       </c>
     </row>
     <row r="25" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="106"/>
-      <c r="C25" s="101"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="89"/>
       <c r="D25" s="78" t="s">
         <v>57</v>
       </c>
@@ -5101,8 +5109,8 @@
       </c>
     </row>
     <row r="26" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="106"/>
-      <c r="C26" s="101"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="89"/>
       <c r="D26" s="78" t="s">
         <v>75</v>
       </c>
@@ -5115,10 +5123,18 @@
       <c r="G26" s="35">
         <v>44655</v>
       </c>
-      <c r="H26" s="32"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="35"/>
+      <c r="H26" s="32">
+        <v>44651</v>
+      </c>
+      <c r="I26" s="35">
+        <v>44651</v>
+      </c>
+      <c r="J26" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="35">
+        <v>44651</v>
+      </c>
       <c r="M26" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5241,12 +5257,12 @@
       </c>
       <c r="AQ26" s="41">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="107"/>
-      <c r="C27" s="101"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="89"/>
       <c r="D27" s="80" t="s">
         <v>17</v>
       </c>
@@ -5259,10 +5275,18 @@
       <c r="G27" s="35">
         <v>44656</v>
       </c>
-      <c r="H27" s="32"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="35"/>
+      <c r="H27" s="32">
+        <v>44651</v>
+      </c>
+      <c r="I27" s="35">
+        <v>44651</v>
+      </c>
+      <c r="J27" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="35">
+        <v>44651</v>
+      </c>
       <c r="M27" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -5385,12 +5409,12 @@
       </c>
       <c r="AQ27" s="41">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="61"/>
-      <c r="C28" s="93"/>
+      <c r="C28" s="90"/>
       <c r="D28" s="66" t="s">
         <v>63</v>
       </c>
@@ -5529,10 +5553,10 @@
       </c>
     </row>
     <row r="29" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="93" t="s">
+      <c r="B29" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="93"/>
+      <c r="C29" s="90"/>
       <c r="D29" s="44" t="s">
         <v>38</v>
       </c>
@@ -5671,8 +5695,8 @@
       </c>
     </row>
     <row r="30" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="93"/>
-      <c r="C30" s="93"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
       <c r="D30" s="44" t="s">
         <v>66</v>
       </c>
@@ -5714,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="40">
-        <f t="shared" ref="T30:AI77" si="5">IF($K30=T$5,3,IF(OR(AND($H30&lt;=T$5,T$5&lt;=$I30),$H30=T$5),2,IF(AND($F30&lt;=T$5,T$5&lt;=$G30),1,0)))</f>
+        <f t="shared" ref="T30:AI31" si="5">IF($K30=T$5,3,IF(OR(AND($H30&lt;=T$5,T$5&lt;=$I30),$H30=T$5),2,IF(AND($F30&lt;=T$5,T$5&lt;=$G30),1,0)))</f>
         <v>0</v>
       </c>
       <c r="U30" s="40">
@@ -5811,8 +5835,8 @@
       </c>
     </row>
     <row r="31" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
       <c r="D31" s="44" t="s">
         <v>39</v>
       </c>
@@ -5826,7 +5850,7 @@
       <c r="J31" s="34"/>
       <c r="K31" s="35"/>
       <c r="M31" s="39">
-        <f t="shared" ref="M31:AB77" si="6">IF($K31=M$5,3,IF(OR(AND($H31&lt;=M$5,M$5&lt;=$I31),$H31=M$5),2,IF(AND($F31&lt;=M$5,M$5&lt;=$G31),1,0)))</f>
+        <f t="shared" ref="M31:AB55" si="6">IF($K31=M$5,3,IF(OR(AND($H31&lt;=M$5,M$5&lt;=$I31),$H31=M$5),2,IF(AND($F31&lt;=M$5,M$5&lt;=$G31),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N31" s="40">
@@ -5946,13 +5970,13 @@
         <v>0</v>
       </c>
       <c r="AQ31" s="41">
-        <f t="shared" ref="N31:AQ77" si="7">IF($K31=AQ$5,3,IF(OR(AND($H31&lt;=AQ$5,AQ$5&lt;=$I31),$H31=AQ$5),2,IF(AND($F31&lt;=AQ$5,AQ$5&lt;=$G31),1,0)))</f>
+        <f t="shared" ref="N31:AQ40" si="7">IF($K31=AQ$5,3,IF(OR(AND($H31&lt;=AQ$5,AQ$5&lt;=$I31),$H31=AQ$5),2,IF(AND($F31&lt;=AQ$5,AQ$5&lt;=$G31),1,0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="93"/>
-      <c r="C32" s="93"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
       <c r="D32" s="44" t="s">
         <v>40</v>
       </c>
@@ -6091,8 +6115,8 @@
       </c>
     </row>
     <row r="33" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="93"/>
-      <c r="C33" s="93"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
       <c r="D33" s="44" t="s">
         <v>83</v>
       </c>
@@ -6229,8 +6253,8 @@
       </c>
     </row>
     <row r="34" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="93"/>
-      <c r="C34" s="93"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
       <c r="D34" s="44" t="s">
         <v>64</v>
       </c>
@@ -6367,8 +6391,8 @@
       </c>
     </row>
     <row r="35" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="93"/>
-      <c r="C35" s="93"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="90"/>
       <c r="D35" s="44" t="s">
         <v>67</v>
       </c>
@@ -6507,8 +6531,8 @@
       </c>
     </row>
     <row r="36" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="93"/>
-      <c r="C36" s="93"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="90"/>
       <c r="D36" s="45" t="s">
         <v>70</v>
       </c>
@@ -6651,8 +6675,8 @@
       </c>
     </row>
     <row r="37" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="93"/>
-      <c r="C37" s="93"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="90"/>
       <c r="D37" s="67" t="s">
         <v>57</v>
       </c>
@@ -6793,8 +6817,8 @@
       </c>
     </row>
     <row r="38" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="93"/>
-      <c r="C38" s="93"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="90"/>
       <c r="D38" s="44" t="s">
         <v>41</v>
       </c>
@@ -6937,8 +6961,8 @@
       </c>
     </row>
     <row r="39" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="102"/>
-      <c r="C39" s="102"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
       <c r="D39" s="45" t="s">
         <v>18</v>
       </c>
@@ -7081,10 +7105,10 @@
       </c>
     </row>
     <row r="40" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="108" t="s">
+      <c r="B40" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="111" t="s">
+      <c r="C40" s="85" t="s">
         <v>32</v>
       </c>
       <c r="D40" s="43" t="s">
@@ -7160,7 +7184,7 @@
         <v>0</v>
       </c>
       <c r="AB40" s="40">
-        <f t="shared" ref="AB40:AQ77" si="8">IF($K40=AB$5,3,IF(OR(AND($H40&lt;=AB$5,AB$5&lt;=$I40),$H40=AB$5),2,IF(AND($F40&lt;=AB$5,AB$5&lt;=$G40),1,0)))</f>
+        <f t="shared" ref="AB40:AQ58" si="8">IF($K40=AB$5,3,IF(OR(AND($H40&lt;=AB$5,AB$5&lt;=$I40),$H40=AB$5),2,IF(AND($F40&lt;=AB$5,AB$5&lt;=$G40),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AC40" s="40">
@@ -7225,8 +7249,8 @@
       </c>
     </row>
     <row r="41" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="109"/>
-      <c r="C41" s="111"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="85"/>
       <c r="D41" s="66" t="s">
         <v>82</v>
       </c>
@@ -7365,8 +7389,8 @@
       </c>
     </row>
     <row r="42" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="109"/>
-      <c r="C42" s="111"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="85"/>
       <c r="D42" s="44" t="s">
         <v>45</v>
       </c>
@@ -7505,8 +7529,8 @@
       </c>
     </row>
     <row r="43" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="109"/>
-      <c r="C43" s="111"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="85"/>
       <c r="D43" s="45" t="s">
         <v>71</v>
       </c>
@@ -7649,8 +7673,8 @@
       </c>
     </row>
     <row r="44" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="109"/>
-      <c r="C44" s="111"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="85"/>
       <c r="D44" s="67" t="s">
         <v>57</v>
       </c>
@@ -7791,8 +7815,8 @@
       </c>
     </row>
     <row r="45" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="109"/>
-      <c r="C45" s="111"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="85"/>
       <c r="D45" s="47" t="s">
         <v>19</v>
       </c>
@@ -7935,8 +7959,8 @@
       </c>
     </row>
     <row r="46" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="109"/>
-      <c r="C46" s="111"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="85"/>
       <c r="D46" s="47" t="s">
         <v>47</v>
       </c>
@@ -8079,8 +8103,8 @@
       </c>
     </row>
     <row r="47" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="109"/>
-      <c r="C47" s="111"/>
+      <c r="B47" s="82"/>
+      <c r="C47" s="85"/>
       <c r="D47" s="45" t="s">
         <v>47</v>
       </c>
@@ -8223,8 +8247,8 @@
       </c>
     </row>
     <row r="48" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="110"/>
-      <c r="C48" s="111"/>
+      <c r="B48" s="83"/>
+      <c r="C48" s="85"/>
       <c r="D48" s="65" t="s">
         <v>49</v>
       </c>
@@ -8365,10 +8389,10 @@
       </c>
     </row>
     <row r="49" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="108" t="s">
+      <c r="B49" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="111"/>
+      <c r="C49" s="85"/>
       <c r="D49" s="66" t="s">
         <v>39</v>
       </c>
@@ -8507,8 +8531,8 @@
       </c>
     </row>
     <row r="50" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="109"/>
-      <c r="C50" s="111"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="85"/>
       <c r="D50" s="44" t="s">
         <v>40</v>
       </c>
@@ -8647,8 +8671,8 @@
       </c>
     </row>
     <row r="51" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="109"/>
-      <c r="C51" s="111"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="85"/>
       <c r="D51" s="44" t="s">
         <v>83</v>
       </c>
@@ -8785,8 +8809,8 @@
       </c>
     </row>
     <row r="52" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="109"/>
-      <c r="C52" s="111"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="85"/>
       <c r="D52" s="44" t="s">
         <v>46</v>
       </c>
@@ -8925,8 +8949,8 @@
       </c>
     </row>
     <row r="53" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="109"/>
-      <c r="C53" s="111"/>
+      <c r="B53" s="82"/>
+      <c r="C53" s="85"/>
       <c r="D53" s="44" t="s">
         <v>48</v>
       </c>
@@ -9063,8 +9087,8 @@
       </c>
     </row>
     <row r="54" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="109"/>
-      <c r="C54" s="111"/>
+      <c r="B54" s="82"/>
+      <c r="C54" s="85"/>
       <c r="D54" s="45" t="s">
         <v>72</v>
       </c>
@@ -9207,8 +9231,8 @@
       </c>
     </row>
     <row r="55" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="109"/>
-      <c r="C55" s="111"/>
+      <c r="B55" s="82"/>
+      <c r="C55" s="85"/>
       <c r="D55" s="67" t="s">
         <v>57</v>
       </c>
@@ -9248,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="S55" s="40">
-        <f t="shared" ref="S55:AH77" si="9">IF($K55=S$5,3,IF(OR(AND($H55&lt;=S$5,S$5&lt;=$I55),$H55=S$5),2,IF(AND($F55&lt;=S$5,S$5&lt;=$G55),1,0)))</f>
+        <f t="shared" ref="S55:AH70" si="9">IF($K55=S$5,3,IF(OR(AND($H55&lt;=S$5,S$5&lt;=$I55),$H55=S$5),2,IF(AND($F55&lt;=S$5,S$5&lt;=$G55),1,0)))</f>
         <v>0</v>
       </c>
       <c r="T55" s="40">
@@ -9349,8 +9373,8 @@
       </c>
     </row>
     <row r="56" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="109"/>
-      <c r="C56" s="111"/>
+      <c r="B56" s="82"/>
+      <c r="C56" s="85"/>
       <c r="D56" s="47" t="s">
         <v>20</v>
       </c>
@@ -9364,7 +9388,7 @@
       <c r="J56" s="34"/>
       <c r="K56" s="35"/>
       <c r="M56" s="39">
-        <f t="shared" ref="M56:AB77" si="10">IF($K56=M$5,3,IF(OR(AND($H56&lt;=M$5,M$5&lt;=$I56),$H56=M$5),2,IF(AND($F56&lt;=M$5,M$5&lt;=$G56),1,0)))</f>
+        <f t="shared" ref="M56:AB71" si="10">IF($K56=M$5,3,IF(OR(AND($H56&lt;=M$5,M$5&lt;=$I56),$H56=M$5),2,IF(AND($F56&lt;=M$5,M$5&lt;=$G56),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N56" s="40">
@@ -9489,8 +9513,8 @@
       </c>
     </row>
     <row r="57" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="109"/>
-      <c r="C57" s="111"/>
+      <c r="B57" s="82"/>
+      <c r="C57" s="85"/>
       <c r="D57" s="47" t="s">
         <v>43</v>
       </c>
@@ -9629,8 +9653,8 @@
       </c>
     </row>
     <row r="58" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="110"/>
-      <c r="C58" s="111"/>
+      <c r="B58" s="83"/>
+      <c r="C58" s="85"/>
       <c r="D58" s="46" t="s">
         <v>43</v>
       </c>
@@ -9744,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="40">
-        <f t="shared" ref="AK58:AQ77" si="11">IF($K58=AK$5,3,IF(OR(AND($H58&lt;=AK$5,AK$5&lt;=$I58),$H58=AK$5),2,IF(AND($F58&lt;=AK$5,AK$5&lt;=$G58),1,0)))</f>
+        <f t="shared" ref="AK58:AQ58" si="11">IF($K58=AK$5,3,IF(OR(AND($H58&lt;=AK$5,AK$5&lt;=$I58),$H58=AK$5),2,IF(AND($F58&lt;=AK$5,AK$5&lt;=$G58),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AL58" s="40">
@@ -9773,10 +9797,10 @@
       </c>
     </row>
     <row r="59" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="108" t="s">
+      <c r="B59" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="96" t="s">
+      <c r="C59" s="84" t="s">
         <v>33</v>
       </c>
       <c r="D59" s="43" t="s">
@@ -9880,7 +9904,7 @@
         <v>0</v>
       </c>
       <c r="AI59" s="40">
-        <f t="shared" ref="AI59:AQ77" si="12">IF($K59=AI$5,3,IF(OR(AND($H59&lt;=AI$5,AI$5&lt;=$I59),$H59=AI$5),2,IF(AND($F59&lt;=AI$5,AI$5&lt;=$G59),1,0)))</f>
+        <f t="shared" ref="AI59:AQ70" si="12">IF($K59=AI$5,3,IF(OR(AND($H59&lt;=AI$5,AI$5&lt;=$I59),$H59=AI$5),2,IF(AND($F59&lt;=AI$5,AI$5&lt;=$G59),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AJ59" s="40">
@@ -9917,8 +9941,8 @@
       </c>
     </row>
     <row r="60" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="109"/>
-      <c r="C60" s="96"/>
+      <c r="B60" s="82"/>
+      <c r="C60" s="84"/>
       <c r="D60" s="43" t="s">
         <v>78</v>
       </c>
@@ -10055,8 +10079,8 @@
       </c>
     </row>
     <row r="61" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="109"/>
-      <c r="C61" s="96"/>
+      <c r="B61" s="82"/>
+      <c r="C61" s="84"/>
       <c r="D61" s="50" t="s">
         <v>58</v>
       </c>
@@ -10193,8 +10217,8 @@
       </c>
     </row>
     <row r="62" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="109"/>
-      <c r="C62" s="96"/>
+      <c r="B62" s="82"/>
+      <c r="C62" s="84"/>
       <c r="D62" s="51" t="s">
         <v>59</v>
       </c>
@@ -10331,8 +10355,8 @@
       </c>
     </row>
     <row r="63" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="109"/>
-      <c r="C63" s="96"/>
+      <c r="B63" s="82"/>
+      <c r="C63" s="84"/>
       <c r="D63" s="30" t="s">
         <v>42</v>
       </c>
@@ -10469,8 +10493,8 @@
       </c>
     </row>
     <row r="64" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="109"/>
-      <c r="C64" s="96"/>
+      <c r="B64" s="82"/>
+      <c r="C64" s="84"/>
       <c r="D64" s="44" t="s">
         <v>49</v>
       </c>
@@ -10607,8 +10631,8 @@
       </c>
     </row>
     <row r="65" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="109"/>
-      <c r="C65" s="96"/>
+      <c r="B65" s="82"/>
+      <c r="C65" s="84"/>
       <c r="D65" s="44" t="s">
         <v>60</v>
       </c>
@@ -10745,8 +10769,8 @@
       </c>
     </row>
     <row r="66" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="109"/>
-      <c r="C66" s="96"/>
+      <c r="B66" s="82"/>
+      <c r="C66" s="84"/>
       <c r="D66" s="45" t="s">
         <v>73</v>
       </c>
@@ -10889,8 +10913,8 @@
       </c>
     </row>
     <row r="67" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="109"/>
-      <c r="C67" s="96"/>
+      <c r="B67" s="82"/>
+      <c r="C67" s="84"/>
       <c r="D67" s="67" t="s">
         <v>57</v>
       </c>
@@ -11031,8 +11055,8 @@
       </c>
     </row>
     <row r="68" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="109"/>
-      <c r="C68" s="96"/>
+      <c r="B68" s="82"/>
+      <c r="C68" s="84"/>
       <c r="D68" s="47" t="s">
         <v>21</v>
       </c>
@@ -11171,8 +11195,8 @@
       </c>
     </row>
     <row r="69" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="109"/>
-      <c r="C69" s="96"/>
+      <c r="B69" s="82"/>
+      <c r="C69" s="84"/>
       <c r="D69" s="52" t="s">
         <v>44</v>
       </c>
@@ -11311,8 +11335,8 @@
       </c>
     </row>
     <row r="70" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="109"/>
-      <c r="C70" s="96"/>
+      <c r="B70" s="82"/>
+      <c r="C70" s="84"/>
       <c r="D70" s="53" t="s">
         <v>44</v>
       </c>
@@ -11455,10 +11479,10 @@
       </c>
     </row>
     <row r="71" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="108" t="s">
+      <c r="B71" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="96" t="s">
+      <c r="C71" s="84" t="s">
         <v>34</v>
       </c>
       <c r="D71" s="50" t="s">
@@ -11597,8 +11621,8 @@
       </c>
     </row>
     <row r="72" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="109"/>
-      <c r="C72" s="96"/>
+      <c r="B72" s="82"/>
+      <c r="C72" s="84"/>
       <c r="D72" s="30" t="s">
         <v>34</v>
       </c>
@@ -11736,8 +11760,8 @@
       </c>
     </row>
     <row r="73" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="109"/>
-      <c r="C73" s="96"/>
+      <c r="B73" s="82"/>
+      <c r="C73" s="84"/>
       <c r="D73" s="30" t="s">
         <v>34</v>
       </c>
@@ -11876,8 +11900,8 @@
       </c>
     </row>
     <row r="74" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="109"/>
-      <c r="C74" s="96"/>
+      <c r="B74" s="82"/>
+      <c r="C74" s="84"/>
       <c r="D74" s="30" t="s">
         <v>34</v>
       </c>
@@ -12016,8 +12040,8 @@
       </c>
     </row>
     <row r="75" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="109"/>
-      <c r="C75" s="96"/>
+      <c r="B75" s="82"/>
+      <c r="C75" s="84"/>
       <c r="D75" s="69" t="s">
         <v>74</v>
       </c>
@@ -12158,8 +12182,8 @@
       </c>
     </row>
     <row r="76" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="109"/>
-      <c r="C76" s="96"/>
+      <c r="B76" s="82"/>
+      <c r="C76" s="84"/>
       <c r="D76" s="30" t="s">
         <v>57</v>
       </c>
@@ -12300,8 +12324,8 @@
       </c>
     </row>
     <row r="77" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="110"/>
-      <c r="C77" s="96"/>
+      <c r="B77" s="83"/>
+      <c r="C77" s="84"/>
       <c r="D77" s="54" t="s">
         <v>56</v>
       </c>
@@ -12444,6 +12468,21 @@
   </sheetData>
   <autoFilter ref="D5:E77" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}"/>
   <mergeCells count="22">
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="C9:C39"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="B17:B27"/>
+    <mergeCell ref="B29:B39"/>
     <mergeCell ref="B71:B77"/>
     <mergeCell ref="C71:C77"/>
     <mergeCell ref="B40:B48"/>
@@ -12451,21 +12490,6 @@
     <mergeCell ref="B49:B58"/>
     <mergeCell ref="B59:B70"/>
     <mergeCell ref="C59:C70"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="C9:C39"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="B17:B27"/>
-    <mergeCell ref="B29:B39"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="M6:AQ77">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">

--- a/CMSC495_ProjectPlan.xlsx
+++ b/CMSC495_ProjectPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Git/cmsc495_final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687CA53E-F677-F348-B308-C0B4CB651EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6DAA88-71E1-4841-835E-0AE4785A1E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26260" xr2:uid="{A3040AE0-0367-2B43-ADDE-84CCD12855DC}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="84">
   <si>
     <t>Year</t>
   </si>
@@ -1275,75 +1275,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1367,6 +1298,75 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1754,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1763,171 +1763,171 @@
       <c r="D3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="105" t="s">
+      <c r="M3" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="103" t="s">
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="103"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="104" t="s">
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="104"/>
-      <c r="AA3" s="104"/>
-      <c r="AB3" s="104"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="104"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="81"/>
     </row>
     <row r="4" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="97"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="106" t="s">
+      <c r="B4" s="89"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="107"/>
-      <c r="H4" s="108" t="s">
+      <c r="G4" s="84"/>
+      <c r="H4" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="109"/>
-      <c r="J4" s="110" t="s">
+      <c r="I4" s="86"/>
+      <c r="J4" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="111"/>
+      <c r="K4" s="88"/>
       <c r="M4" s="12" t="str">
         <f>TEXT(M5,"aaa")</f>
-        <v>Tue</v>
+        <v>Fri</v>
       </c>
       <c r="N4" s="13" t="str">
         <f t="shared" ref="N4:AQ4" si="0">TEXT(N5,"aaa")</f>
-        <v>Wed</v>
+        <v>Sat</v>
       </c>
       <c r="O4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Thu</v>
+        <v>Sun</v>
       </c>
       <c r="P4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Fri</v>
+        <v>Mon</v>
       </c>
       <c r="Q4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Sat</v>
+        <v>Tue</v>
       </c>
       <c r="R4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Sun</v>
+        <v>Wed</v>
       </c>
       <c r="S4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Mon</v>
+        <v>Thu</v>
       </c>
       <c r="T4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Tue</v>
+        <v>Fri</v>
       </c>
       <c r="U4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>Sat</v>
       </c>
       <c r="V4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Thu</v>
+        <v>Sun</v>
       </c>
       <c r="W4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Fri</v>
+        <v>Mon</v>
       </c>
       <c r="X4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Sat</v>
+        <v>Tue</v>
       </c>
       <c r="Y4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Sun</v>
+        <v>Wed</v>
       </c>
       <c r="Z4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Mon</v>
+        <v>Thu</v>
       </c>
       <c r="AA4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Tue</v>
+        <v>Fri</v>
       </c>
       <c r="AB4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>Sat</v>
       </c>
       <c r="AC4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Thu</v>
+        <v>Sun</v>
       </c>
       <c r="AD4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Fri</v>
+        <v>Mon</v>
       </c>
       <c r="AE4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Sat</v>
+        <v>Tue</v>
       </c>
       <c r="AF4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Sun</v>
+        <v>Wed</v>
       </c>
       <c r="AG4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Mon</v>
+        <v>Thu</v>
       </c>
       <c r="AH4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Tue</v>
+        <v>Fri</v>
       </c>
       <c r="AI4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>Sat</v>
       </c>
       <c r="AJ4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Thu</v>
+        <v>Sun</v>
       </c>
       <c r="AK4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Fri</v>
+        <v>Mon</v>
       </c>
       <c r="AL4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Sat</v>
+        <v>Tue</v>
       </c>
       <c r="AM4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Sun</v>
+        <v>Wed</v>
       </c>
       <c r="AN4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Mon</v>
+        <v>Thu</v>
       </c>
       <c r="AO4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Tue</v>
+        <v>Fri</v>
       </c>
       <c r="AP4" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>Wed</v>
+        <v>Sat</v>
       </c>
       <c r="AQ4" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>Thu</v>
+        <v>Sun</v>
       </c>
       <c r="AS4" s="15" t="s">
         <v>12</v>
@@ -1972,140 +1972,140 @@
       </c>
       <c r="M5" s="27">
         <f>DATE($G$2,$I$2,COLUMN()-12)</f>
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="N5" s="28">
         <f t="shared" ref="N5:AQ5" si="1">DATE($G$2,$I$2,COLUMN()-12)</f>
-        <v>44622</v>
+        <v>44653</v>
       </c>
       <c r="O5" s="28">
         <f t="shared" si="1"/>
-        <v>44623</v>
+        <v>44654</v>
       </c>
       <c r="P5" s="28">
         <f t="shared" si="1"/>
-        <v>44624</v>
+        <v>44655</v>
       </c>
       <c r="Q5" s="28">
         <f t="shared" si="1"/>
-        <v>44625</v>
+        <v>44656</v>
       </c>
       <c r="R5" s="28">
         <f t="shared" si="1"/>
-        <v>44626</v>
+        <v>44657</v>
       </c>
       <c r="S5" s="28">
         <f t="shared" si="1"/>
-        <v>44627</v>
+        <v>44658</v>
       </c>
       <c r="T5" s="28">
         <f t="shared" si="1"/>
-        <v>44628</v>
+        <v>44659</v>
       </c>
       <c r="U5" s="28">
         <f t="shared" si="1"/>
-        <v>44629</v>
+        <v>44660</v>
       </c>
       <c r="V5" s="28">
         <f t="shared" si="1"/>
-        <v>44630</v>
+        <v>44661</v>
       </c>
       <c r="W5" s="28">
         <f t="shared" si="1"/>
-        <v>44631</v>
+        <v>44662</v>
       </c>
       <c r="X5" s="28">
         <f t="shared" si="1"/>
-        <v>44632</v>
+        <v>44663</v>
       </c>
       <c r="Y5" s="28">
         <f t="shared" si="1"/>
-        <v>44633</v>
+        <v>44664</v>
       </c>
       <c r="Z5" s="28">
         <f t="shared" si="1"/>
-        <v>44634</v>
+        <v>44665</v>
       </c>
       <c r="AA5" s="28">
         <f t="shared" si="1"/>
-        <v>44635</v>
+        <v>44666</v>
       </c>
       <c r="AB5" s="28">
         <f t="shared" si="1"/>
-        <v>44636</v>
+        <v>44667</v>
       </c>
       <c r="AC5" s="28">
         <f t="shared" si="1"/>
-        <v>44637</v>
+        <v>44668</v>
       </c>
       <c r="AD5" s="28">
         <f t="shared" si="1"/>
-        <v>44638</v>
+        <v>44669</v>
       </c>
       <c r="AE5" s="28">
         <f t="shared" si="1"/>
-        <v>44639</v>
+        <v>44670</v>
       </c>
       <c r="AF5" s="28">
         <f t="shared" si="1"/>
-        <v>44640</v>
+        <v>44671</v>
       </c>
       <c r="AG5" s="28">
         <f t="shared" si="1"/>
-        <v>44641</v>
+        <v>44672</v>
       </c>
       <c r="AH5" s="28">
         <f t="shared" si="1"/>
-        <v>44642</v>
+        <v>44673</v>
       </c>
       <c r="AI5" s="28">
         <f t="shared" si="1"/>
-        <v>44643</v>
+        <v>44674</v>
       </c>
       <c r="AJ5" s="28">
         <f t="shared" si="1"/>
-        <v>44644</v>
+        <v>44675</v>
       </c>
       <c r="AK5" s="28">
         <f t="shared" si="1"/>
-        <v>44645</v>
+        <v>44676</v>
       </c>
       <c r="AL5" s="28">
         <f t="shared" si="1"/>
-        <v>44646</v>
+        <v>44677</v>
       </c>
       <c r="AM5" s="28">
         <f t="shared" si="1"/>
-        <v>44647</v>
+        <v>44678</v>
       </c>
       <c r="AN5" s="28">
         <f t="shared" si="1"/>
-        <v>44648</v>
+        <v>44679</v>
       </c>
       <c r="AO5" s="28">
         <f t="shared" si="1"/>
-        <v>44649</v>
+        <v>44680</v>
       </c>
       <c r="AP5" s="28">
         <f t="shared" si="1"/>
-        <v>44650</v>
+        <v>44681</v>
       </c>
       <c r="AQ5" s="29">
         <f t="shared" si="1"/>
-        <v>44651</v>
+        <v>44682</v>
       </c>
       <c r="AS5" s="30" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="101" t="s">
+      <c r="D6" s="94" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="31" t="s">
@@ -2185,35 +2185,35 @@
       </c>
       <c r="AA6" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="37">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="37">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="37">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="37">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="37">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6" s="37">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="37">
         <f t="shared" si="2"/>
@@ -2256,9 +2256,9 @@
       </c>
     </row>
     <row r="7" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="90"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="102"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="95"/>
       <c r="E7" s="31" t="s">
         <v>13</v>
       </c>
@@ -2336,35 +2336,35 @@
       </c>
       <c r="AA7" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="40">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="40">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="40">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="40">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="40">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="40">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="40">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7" s="40">
         <f t="shared" si="2"/>
@@ -2407,9 +2407,9 @@
       </c>
     </row>
     <row r="8" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="90"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="102"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="31" t="s">
         <v>15</v>
       </c>
@@ -2487,35 +2487,35 @@
       </c>
       <c r="AA8" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="40">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="40">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="40">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="40">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="40">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="40">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="40">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI8" s="40">
         <f t="shared" si="2"/>
@@ -2555,10 +2555,10 @@
       </c>
     </row>
     <row r="9" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="100" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="71" t="s">
@@ -2671,15 +2671,15 @@
       </c>
       <c r="AH9" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="40">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="40">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK9" s="40">
         <f t="shared" si="2"/>
@@ -2711,8 +2711,8 @@
       </c>
     </row>
     <row r="10" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="87"/>
-      <c r="C10" s="89"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="101"/>
       <c r="D10" s="72" t="s">
         <v>61</v>
       </c>
@@ -2823,15 +2823,15 @@
       </c>
       <c r="AH10" s="40">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI10" s="40">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="40">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="40">
         <f t="shared" si="2"/>
@@ -2863,8 +2863,8 @@
       </c>
     </row>
     <row r="11" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="87"/>
-      <c r="C11" s="89"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="101"/>
       <c r="D11" s="72" t="s">
         <v>61</v>
       </c>
@@ -2975,15 +2975,15 @@
       </c>
       <c r="AH11" s="40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI11" s="40">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="40">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="40">
         <f t="shared" si="2"/>
@@ -3015,8 +3015,8 @@
       </c>
     </row>
     <row r="12" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="87"/>
-      <c r="C12" s="89"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="101"/>
       <c r="D12" s="73" t="s">
         <v>68</v>
       </c>
@@ -3131,15 +3131,15 @@
       </c>
       <c r="AI12" s="40">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="40">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="40">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="40">
         <f t="shared" si="2"/>
@@ -3167,8 +3167,8 @@
       </c>
     </row>
     <row r="13" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="87"/>
-      <c r="C13" s="89"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="101"/>
       <c r="D13" s="74" t="s">
         <v>57</v>
       </c>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="AN13" s="40">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="40">
         <f t="shared" si="2"/>
@@ -3317,9 +3317,9 @@
       </c>
     </row>
     <row r="14" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="87"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="92" t="s">
+      <c r="B14" s="99"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="103" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="31" t="s">
@@ -3425,35 +3425,35 @@
       </c>
       <c r="AH14" s="40">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI14" s="40">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="40">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="40">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="40">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="40">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN14" s="40">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="40">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP14" s="40">
         <f t="shared" si="4"/>
@@ -3465,9 +3465,9 @@
       </c>
     </row>
     <row r="15" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="87"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="93"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="104"/>
       <c r="E15" s="31" t="s">
         <v>13</v>
       </c>
@@ -3563,47 +3563,47 @@
       </c>
       <c r="AE15" s="40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="40">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH15" s="40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI15" s="40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="40">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="40">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN15" s="40">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="40">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP15" s="40">
         <f t="shared" si="4"/>
@@ -3615,9 +3615,9 @@
       </c>
     </row>
     <row r="16" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="87"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="93"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="104"/>
       <c r="E16" s="31" t="s">
         <v>15</v>
       </c>
@@ -3713,47 +3713,47 @@
       </c>
       <c r="AE16" s="40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF16" s="40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="40">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH16" s="40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI16" s="40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL16" s="40">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="40">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN16" s="40">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="40">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP16" s="40">
         <f t="shared" si="4"/>
@@ -3765,10 +3765,10 @@
       </c>
     </row>
     <row r="17" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="89"/>
+      <c r="C17" s="101"/>
       <c r="D17" s="75" t="s">
         <v>77</v>
       </c>
@@ -3787,11 +3787,15 @@
       <c r="I17" s="35">
         <v>44649</v>
       </c>
-      <c r="J17" s="34"/>
-      <c r="K17" s="35"/>
+      <c r="J17" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="35">
+        <v>44651</v>
+      </c>
       <c r="M17" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="40">
         <f t="shared" si="3"/>
@@ -3899,24 +3903,24 @@
       </c>
       <c r="AN17" s="40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP17" s="40">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ17" s="41">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="95"/>
-      <c r="C18" s="89"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="101"/>
       <c r="D18" s="76" t="s">
         <v>80</v>
       </c>
@@ -3943,7 +3947,7 @@
       </c>
       <c r="M18" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="40">
         <f t="shared" si="3"/>
@@ -4051,24 +4055,24 @@
       </c>
       <c r="AN18" s="40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP18" s="40">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AQ18" s="41">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="95"/>
-      <c r="C19" s="89"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="101"/>
       <c r="D19" s="77" t="s">
         <v>53</v>
       </c>
@@ -4095,7 +4099,7 @@
       </c>
       <c r="M19" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="40">
         <f t="shared" si="3"/>
@@ -4183,15 +4187,15 @@
       </c>
       <c r="AI19" s="40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK19" s="40">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL19" s="40">
         <f t="shared" si="4"/>
@@ -4211,16 +4215,16 @@
       </c>
       <c r="AP19" s="40">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ19" s="41">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="95"/>
-      <c r="C20" s="89"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="101"/>
       <c r="D20" s="77" t="s">
         <v>54</v>
       </c>
@@ -4247,7 +4251,7 @@
       </c>
       <c r="M20" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="40">
         <f t="shared" si="3"/>
@@ -4335,15 +4339,15 @@
       </c>
       <c r="AI20" s="40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="40">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="40">
         <f t="shared" si="4"/>
@@ -4363,16 +4367,16 @@
       </c>
       <c r="AP20" s="40">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ20" s="41">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="95"/>
-      <c r="C21" s="89"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="101"/>
       <c r="D21" s="77" t="s">
         <v>79</v>
       </c>
@@ -4399,7 +4403,7 @@
       </c>
       <c r="M21" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="40">
         <f t="shared" si="3"/>
@@ -4491,40 +4495,40 @@
       </c>
       <c r="AJ21" s="40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK21" s="40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM21" s="40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN21" s="40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP21" s="40">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ21" s="41">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="95"/>
-      <c r="C22" s="89"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="101"/>
       <c r="D22" s="78" t="s">
         <v>81</v>
       </c>
@@ -4543,11 +4547,15 @@
       <c r="I22" s="35">
         <v>44649</v>
       </c>
-      <c r="J22" s="34"/>
-      <c r="K22" s="35"/>
+      <c r="J22" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="35">
+        <v>44651</v>
+      </c>
       <c r="M22" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="40">
         <f t="shared" si="3"/>
@@ -4659,20 +4667,20 @@
       </c>
       <c r="AO22" s="40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP22" s="40">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ22" s="41">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="95"/>
-      <c r="C23" s="89"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="101"/>
       <c r="D23" s="78" t="s">
         <v>62</v>
       </c>
@@ -4699,7 +4707,7 @@
       </c>
       <c r="M23" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="40">
         <f t="shared" si="3"/>
@@ -4791,40 +4799,40 @@
       </c>
       <c r="AJ23" s="40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK23" s="40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM23" s="40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN23" s="40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP23" s="40">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ23" s="41">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="95"/>
-      <c r="C24" s="89"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="101"/>
       <c r="D24" s="79" t="s">
         <v>69</v>
       </c>
@@ -4837,13 +4845,21 @@
       <c r="G24" s="35">
         <v>44652</v>
       </c>
-      <c r="H24" s="32"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="35"/>
+      <c r="H24" s="32">
+        <v>44652</v>
+      </c>
+      <c r="I24" s="35">
+        <v>44652</v>
+      </c>
+      <c r="J24" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="35">
+        <v>44652</v>
+      </c>
       <c r="M24" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N24" s="40">
         <f t="shared" si="3"/>
@@ -4959,16 +4975,16 @@
       </c>
       <c r="AP24" s="40">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ24" s="41">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="95"/>
-      <c r="C25" s="89"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="101"/>
       <c r="D25" s="78" t="s">
         <v>57</v>
       </c>
@@ -4997,7 +5013,7 @@
       </c>
       <c r="P25" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="40">
         <f t="shared" si="3"/>
@@ -5109,8 +5125,8 @@
       </c>
     </row>
     <row r="26" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="95"/>
-      <c r="C26" s="89"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="101"/>
       <c r="D26" s="78" t="s">
         <v>75</v>
       </c>
@@ -5137,19 +5153,19 @@
       </c>
       <c r="M26" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="40">
         <f t="shared" si="3"/>
@@ -5253,16 +5269,16 @@
       </c>
       <c r="AP26" s="40">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ26" s="41">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="96"/>
-      <c r="C27" s="89"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="101"/>
       <c r="D27" s="80" t="s">
         <v>17</v>
       </c>
@@ -5289,23 +5305,23 @@
       </c>
       <c r="M27" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="40">
         <f t="shared" si="3"/>
@@ -5405,16 +5421,16 @@
       </c>
       <c r="AP27" s="40">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ27" s="41">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="61"/>
-      <c r="C28" s="90"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="66" t="s">
         <v>63</v>
       </c>
@@ -5553,10 +5569,10 @@
       </c>
     </row>
     <row r="29" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="90" t="s">
+      <c r="B29" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="90"/>
+      <c r="C29" s="93"/>
       <c r="D29" s="44" t="s">
         <v>38</v>
       </c>
@@ -5695,8 +5711,8 @@
       </c>
     </row>
     <row r="30" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
       <c r="D30" s="44" t="s">
         <v>66</v>
       </c>
@@ -5835,8 +5851,8 @@
       </c>
     </row>
     <row r="31" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
       <c r="D31" s="44" t="s">
         <v>39</v>
       </c>
@@ -5975,8 +5991,8 @@
       </c>
     </row>
     <row r="32" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
       <c r="D32" s="44" t="s">
         <v>40</v>
       </c>
@@ -6115,8 +6131,8 @@
       </c>
     </row>
     <row r="33" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="90"/>
-      <c r="C33" s="90"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
       <c r="D33" s="44" t="s">
         <v>83</v>
       </c>
@@ -6253,8 +6269,8 @@
       </c>
     </row>
     <row r="34" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
       <c r="D34" s="44" t="s">
         <v>64</v>
       </c>
@@ -6391,8 +6407,8 @@
       </c>
     </row>
     <row r="35" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="90"/>
-      <c r="C35" s="90"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
       <c r="D35" s="44" t="s">
         <v>67</v>
       </c>
@@ -6531,8 +6547,8 @@
       </c>
     </row>
     <row r="36" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="90"/>
-      <c r="C36" s="90"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
       <c r="D36" s="45" t="s">
         <v>70</v>
       </c>
@@ -6571,15 +6587,15 @@
       </c>
       <c r="R36" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36" s="40">
         <f t="shared" si="7"/>
@@ -6675,8 +6691,8 @@
       </c>
     </row>
     <row r="37" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="90"/>
-      <c r="C37" s="90"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="93"/>
       <c r="D37" s="67" t="s">
         <v>57</v>
       </c>
@@ -6733,7 +6749,7 @@
       </c>
       <c r="W37" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37" s="40">
         <f t="shared" si="7"/>
@@ -6817,8 +6833,8 @@
       </c>
     </row>
     <row r="38" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="90"/>
-      <c r="C38" s="90"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="93"/>
       <c r="D38" s="44" t="s">
         <v>41</v>
       </c>
@@ -6857,27 +6873,27 @@
       </c>
       <c r="R38" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W38" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38" s="40">
         <f t="shared" si="7"/>
@@ -6961,8 +6977,8 @@
       </c>
     </row>
     <row r="39" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="91"/>
-      <c r="C39" s="91"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="102"/>
       <c r="D39" s="45" t="s">
         <v>18</v>
       </c>
@@ -7001,31 +7017,31 @@
       </c>
       <c r="R39" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S39" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W39" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y39" s="40">
         <f t="shared" si="7"/>
@@ -7105,10 +7121,10 @@
       </c>
     </row>
     <row r="40" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="81" t="s">
+      <c r="B40" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="85" t="s">
+      <c r="C40" s="111" t="s">
         <v>32</v>
       </c>
       <c r="D40" s="43" t="s">
@@ -7249,8 +7265,8 @@
       </c>
     </row>
     <row r="41" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="82"/>
-      <c r="C41" s="85"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="111"/>
       <c r="D41" s="66" t="s">
         <v>82</v>
       </c>
@@ -7389,8 +7405,8 @@
       </c>
     </row>
     <row r="42" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="82"/>
-      <c r="C42" s="85"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="111"/>
       <c r="D42" s="44" t="s">
         <v>45</v>
       </c>
@@ -7529,8 +7545,8 @@
       </c>
     </row>
     <row r="43" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="82"/>
-      <c r="C43" s="85"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="111"/>
       <c r="D43" s="45" t="s">
         <v>71</v>
       </c>
@@ -7597,15 +7613,15 @@
       </c>
       <c r="Y43" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z43" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA43" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB43" s="40">
         <f t="shared" si="6"/>
@@ -7673,8 +7689,8 @@
       </c>
     </row>
     <row r="44" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="82"/>
-      <c r="C44" s="85"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="111"/>
       <c r="D44" s="67" t="s">
         <v>57</v>
       </c>
@@ -7759,7 +7775,7 @@
       </c>
       <c r="AD44" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE44" s="40">
         <f t="shared" si="8"/>
@@ -7815,8 +7831,8 @@
       </c>
     </row>
     <row r="45" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="82"/>
-      <c r="C45" s="85"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="111"/>
       <c r="D45" s="47" t="s">
         <v>19</v>
       </c>
@@ -7883,31 +7899,31 @@
       </c>
       <c r="Y45" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z45" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA45" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB45" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC45" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD45" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE45" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF45" s="40">
         <f t="shared" si="8"/>
@@ -7959,8 +7975,8 @@
       </c>
     </row>
     <row r="46" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="82"/>
-      <c r="C46" s="85"/>
+      <c r="B46" s="109"/>
+      <c r="C46" s="111"/>
       <c r="D46" s="47" t="s">
         <v>47</v>
       </c>
@@ -8027,31 +8043,31 @@
       </c>
       <c r="Y46" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z46" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA46" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB46" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC46" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD46" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE46" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF46" s="40">
         <f t="shared" si="8"/>
@@ -8103,8 +8119,8 @@
       </c>
     </row>
     <row r="47" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="82"/>
-      <c r="C47" s="85"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="111"/>
       <c r="D47" s="45" t="s">
         <v>47</v>
       </c>
@@ -8171,31 +8187,31 @@
       </c>
       <c r="Y47" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z47" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA47" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB47" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC47" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD47" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE47" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF47" s="40">
         <f t="shared" si="8"/>
@@ -8247,8 +8263,8 @@
       </c>
     </row>
     <row r="48" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="83"/>
-      <c r="C48" s="85"/>
+      <c r="B48" s="110"/>
+      <c r="C48" s="111"/>
       <c r="D48" s="65" t="s">
         <v>49</v>
       </c>
@@ -8313,31 +8329,31 @@
       </c>
       <c r="Y48" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z48" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA48" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB48" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC48" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD48" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE48" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF48" s="40">
         <f t="shared" si="8"/>
@@ -8389,10 +8405,10 @@
       </c>
     </row>
     <row r="49" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="81" t="s">
+      <c r="B49" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="85"/>
+      <c r="C49" s="111"/>
       <c r="D49" s="66" t="s">
         <v>39</v>
       </c>
@@ -8531,8 +8547,8 @@
       </c>
     </row>
     <row r="50" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="82"/>
-      <c r="C50" s="85"/>
+      <c r="B50" s="109"/>
+      <c r="C50" s="111"/>
       <c r="D50" s="44" t="s">
         <v>40</v>
       </c>
@@ -8671,8 +8687,8 @@
       </c>
     </row>
     <row r="51" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="82"/>
-      <c r="C51" s="85"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="111"/>
       <c r="D51" s="44" t="s">
         <v>83</v>
       </c>
@@ -8809,8 +8825,8 @@
       </c>
     </row>
     <row r="52" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="82"/>
-      <c r="C52" s="85"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="111"/>
       <c r="D52" s="44" t="s">
         <v>46</v>
       </c>
@@ -8949,8 +8965,8 @@
       </c>
     </row>
     <row r="53" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="82"/>
-      <c r="C53" s="85"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="111"/>
       <c r="D53" s="44" t="s">
         <v>48</v>
       </c>
@@ -9087,8 +9103,8 @@
       </c>
     </row>
     <row r="54" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="82"/>
-      <c r="C54" s="85"/>
+      <c r="B54" s="109"/>
+      <c r="C54" s="111"/>
       <c r="D54" s="45" t="s">
         <v>72</v>
       </c>
@@ -9183,15 +9199,15 @@
       </c>
       <c r="AF54" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG54" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH54" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI54" s="40">
         <f t="shared" si="8"/>
@@ -9231,8 +9247,8 @@
       </c>
     </row>
     <row r="55" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="82"/>
-      <c r="C55" s="85"/>
+      <c r="B55" s="109"/>
+      <c r="C55" s="111"/>
       <c r="D55" s="67" t="s">
         <v>57</v>
       </c>
@@ -9345,7 +9361,7 @@
       </c>
       <c r="AK55" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL55" s="40">
         <f t="shared" si="8"/>
@@ -9373,8 +9389,8 @@
       </c>
     </row>
     <row r="56" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="82"/>
-      <c r="C56" s="85"/>
+      <c r="B56" s="109"/>
+      <c r="C56" s="111"/>
       <c r="D56" s="47" t="s">
         <v>20</v>
       </c>
@@ -9513,8 +9529,8 @@
       </c>
     </row>
     <row r="57" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="82"/>
-      <c r="C57" s="85"/>
+      <c r="B57" s="109"/>
+      <c r="C57" s="111"/>
       <c r="D57" s="47" t="s">
         <v>43</v>
       </c>
@@ -9653,8 +9669,8 @@
       </c>
     </row>
     <row r="58" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="83"/>
-      <c r="C58" s="85"/>
+      <c r="B58" s="110"/>
+      <c r="C58" s="111"/>
       <c r="D58" s="46" t="s">
         <v>43</v>
       </c>
@@ -9749,31 +9765,31 @@
       </c>
       <c r="AF58" s="40">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG58" s="40">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH58" s="40">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI58" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ58" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK58" s="40">
         <f t="shared" ref="AK58:AQ58" si="11">IF($K58=AK$5,3,IF(OR(AND($H58&lt;=AK$5,AK$5&lt;=$I58),$H58=AK$5),2,IF(AND($F58&lt;=AK$5,AK$5&lt;=$G58),1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL58" s="40">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM58" s="40">
         <f t="shared" si="11"/>
@@ -9797,10 +9813,10 @@
       </c>
     </row>
     <row r="59" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="81" t="s">
+      <c r="B59" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="84" t="s">
+      <c r="C59" s="96" t="s">
         <v>33</v>
       </c>
       <c r="D59" s="43" t="s">
@@ -9941,8 +9957,8 @@
       </c>
     </row>
     <row r="60" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="82"/>
-      <c r="C60" s="84"/>
+      <c r="B60" s="109"/>
+      <c r="C60" s="96"/>
       <c r="D60" s="43" t="s">
         <v>78</v>
       </c>
@@ -10079,8 +10095,8 @@
       </c>
     </row>
     <row r="61" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="82"/>
-      <c r="C61" s="84"/>
+      <c r="B61" s="109"/>
+      <c r="C61" s="96"/>
       <c r="D61" s="50" t="s">
         <v>58</v>
       </c>
@@ -10217,8 +10233,8 @@
       </c>
     </row>
     <row r="62" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="82"/>
-      <c r="C62" s="84"/>
+      <c r="B62" s="109"/>
+      <c r="C62" s="96"/>
       <c r="D62" s="51" t="s">
         <v>59</v>
       </c>
@@ -10355,8 +10371,8 @@
       </c>
     </row>
     <row r="63" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="82"/>
-      <c r="C63" s="84"/>
+      <c r="B63" s="109"/>
+      <c r="C63" s="96"/>
       <c r="D63" s="30" t="s">
         <v>42</v>
       </c>
@@ -10493,8 +10509,8 @@
       </c>
     </row>
     <row r="64" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="82"/>
-      <c r="C64" s="84"/>
+      <c r="B64" s="109"/>
+      <c r="C64" s="96"/>
       <c r="D64" s="44" t="s">
         <v>49</v>
       </c>
@@ -10631,8 +10647,8 @@
       </c>
     </row>
     <row r="65" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="82"/>
-      <c r="C65" s="84"/>
+      <c r="B65" s="109"/>
+      <c r="C65" s="96"/>
       <c r="D65" s="44" t="s">
         <v>60</v>
       </c>
@@ -10769,8 +10785,8 @@
       </c>
     </row>
     <row r="66" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="82"/>
-      <c r="C66" s="84"/>
+      <c r="B66" s="109"/>
+      <c r="C66" s="96"/>
       <c r="D66" s="45" t="s">
         <v>73</v>
       </c>
@@ -10893,15 +10909,15 @@
       </c>
       <c r="AM66" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN66" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO66" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP66" s="40">
         <f t="shared" si="12"/>
@@ -10913,8 +10929,8 @@
       </c>
     </row>
     <row r="67" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="82"/>
-      <c r="C67" s="84"/>
+      <c r="B67" s="109"/>
+      <c r="C67" s="96"/>
       <c r="D67" s="67" t="s">
         <v>57</v>
       </c>
@@ -11055,8 +11071,8 @@
       </c>
     </row>
     <row r="68" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="82"/>
-      <c r="C68" s="84"/>
+      <c r="B68" s="109"/>
+      <c r="C68" s="96"/>
       <c r="D68" s="47" t="s">
         <v>21</v>
       </c>
@@ -11195,8 +11211,8 @@
       </c>
     </row>
     <row r="69" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="82"/>
-      <c r="C69" s="84"/>
+      <c r="B69" s="109"/>
+      <c r="C69" s="96"/>
       <c r="D69" s="52" t="s">
         <v>44</v>
       </c>
@@ -11335,8 +11351,8 @@
       </c>
     </row>
     <row r="70" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="82"/>
-      <c r="C70" s="84"/>
+      <c r="B70" s="109"/>
+      <c r="C70" s="96"/>
       <c r="D70" s="53" t="s">
         <v>44</v>
       </c>
@@ -11459,30 +11475,30 @@
       </c>
       <c r="AM70" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN70" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO70" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP70" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ70" s="41">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="81" t="s">
+      <c r="B71" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="84" t="s">
+      <c r="C71" s="96" t="s">
         <v>34</v>
       </c>
       <c r="D71" s="50" t="s">
@@ -11621,8 +11637,8 @@
       </c>
     </row>
     <row r="72" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="82"/>
-      <c r="C72" s="84"/>
+      <c r="B72" s="109"/>
+      <c r="C72" s="96"/>
       <c r="D72" s="30" t="s">
         <v>34</v>
       </c>
@@ -11760,8 +11776,8 @@
       </c>
     </row>
     <row r="73" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="82"/>
-      <c r="C73" s="84"/>
+      <c r="B73" s="109"/>
+      <c r="C73" s="96"/>
       <c r="D73" s="30" t="s">
         <v>34</v>
       </c>
@@ -11900,8 +11916,8 @@
       </c>
     </row>
     <row r="74" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="82"/>
-      <c r="C74" s="84"/>
+      <c r="B74" s="109"/>
+      <c r="C74" s="96"/>
       <c r="D74" s="30" t="s">
         <v>34</v>
       </c>
@@ -12040,8 +12056,8 @@
       </c>
     </row>
     <row r="75" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="82"/>
-      <c r="C75" s="84"/>
+      <c r="B75" s="109"/>
+      <c r="C75" s="96"/>
       <c r="D75" s="69" t="s">
         <v>74</v>
       </c>
@@ -12182,8 +12198,8 @@
       </c>
     </row>
     <row r="76" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="82"/>
-      <c r="C76" s="84"/>
+      <c r="B76" s="109"/>
+      <c r="C76" s="96"/>
       <c r="D76" s="30" t="s">
         <v>57</v>
       </c>
@@ -12324,8 +12340,8 @@
       </c>
     </row>
     <row r="77" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="83"/>
-      <c r="C77" s="84"/>
+      <c r="B77" s="110"/>
+      <c r="C77" s="96"/>
       <c r="D77" s="54" t="s">
         <v>56</v>
       </c>
@@ -12468,21 +12484,6 @@
   </sheetData>
   <autoFilter ref="D5:E77" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}"/>
   <mergeCells count="22">
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="C9:C39"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="B17:B27"/>
-    <mergeCell ref="B29:B39"/>
     <mergeCell ref="B71:B77"/>
     <mergeCell ref="C71:C77"/>
     <mergeCell ref="B40:B48"/>
@@ -12490,6 +12491,21 @@
     <mergeCell ref="B49:B58"/>
     <mergeCell ref="B59:B70"/>
     <mergeCell ref="C59:C70"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="C9:C39"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="B17:B27"/>
+    <mergeCell ref="B29:B39"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="M6:AQ77">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">

--- a/CMSC495_ProjectPlan.xlsx
+++ b/CMSC495_ProjectPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Git/cmsc495_final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6DAA88-71E1-4841-835E-0AE4785A1E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A42643-FE7A-2649-91B4-11E393103FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26260" xr2:uid="{A3040AE0-0367-2B43-ADDE-84CCD12855DC}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="84">
   <si>
     <t>Year</t>
   </si>
@@ -1275,6 +1275,75 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1298,75 +1367,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1763,48 +1763,48 @@
       <c r="D3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="82" t="s">
+      <c r="M3" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="97" t="s">
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="97"/>
-      <c r="U3" s="97"/>
-      <c r="V3" s="97"/>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="81" t="s">
+      <c r="T3" s="103"/>
+      <c r="U3" s="103"/>
+      <c r="V3" s="103"/>
+      <c r="W3" s="103"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="81"/>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="81"/>
+      <c r="Z3" s="104"/>
+      <c r="AA3" s="104"/>
+      <c r="AB3" s="104"/>
+      <c r="AC3" s="104"/>
+      <c r="AD3" s="104"/>
     </row>
     <row r="4" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="89"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="83" t="s">
+      <c r="B4" s="97"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="84"/>
-      <c r="H4" s="85" t="s">
+      <c r="G4" s="107"/>
+      <c r="H4" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="86"/>
-      <c r="J4" s="87" t="s">
+      <c r="I4" s="109"/>
+      <c r="J4" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="88"/>
+      <c r="K4" s="111"/>
       <c r="M4" s="12" t="str">
         <f>TEXT(M5,"aaa")</f>
         <v>Fri</v>
@@ -2099,13 +2099,13 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="94" t="s">
+      <c r="D6" s="101" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="31" t="s">
@@ -2256,9 +2256,9 @@
       </c>
     </row>
     <row r="7" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="93"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="95"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="102"/>
       <c r="E7" s="31" t="s">
         <v>13</v>
       </c>
@@ -2407,9 +2407,9 @@
       </c>
     </row>
     <row r="8" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="93"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="95"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="102"/>
       <c r="E8" s="31" t="s">
         <v>15</v>
       </c>
@@ -2555,10 +2555,10 @@
       </c>
     </row>
     <row r="9" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="88" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="71" t="s">
@@ -2711,8 +2711,8 @@
       </c>
     </row>
     <row r="10" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="99"/>
-      <c r="C10" s="101"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="89"/>
       <c r="D10" s="72" t="s">
         <v>61</v>
       </c>
@@ -2863,8 +2863,8 @@
       </c>
     </row>
     <row r="11" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="99"/>
-      <c r="C11" s="101"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="89"/>
       <c r="D11" s="72" t="s">
         <v>61</v>
       </c>
@@ -3015,8 +3015,8 @@
       </c>
     </row>
     <row r="12" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="99"/>
-      <c r="C12" s="101"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="89"/>
       <c r="D12" s="73" t="s">
         <v>68</v>
       </c>
@@ -3167,8 +3167,8 @@
       </c>
     </row>
     <row r="13" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="99"/>
-      <c r="C13" s="101"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="89"/>
       <c r="D13" s="74" t="s">
         <v>57</v>
       </c>
@@ -3317,9 +3317,9 @@
       </c>
     </row>
     <row r="14" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="99"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="103" t="s">
+      <c r="B14" s="87"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="92" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="31" t="s">
@@ -3465,9 +3465,9 @@
       </c>
     </row>
     <row r="15" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="99"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="104"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="93"/>
       <c r="E15" s="31" t="s">
         <v>13</v>
       </c>
@@ -3615,9 +3615,9 @@
       </c>
     </row>
     <row r="16" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="99"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="104"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="93"/>
       <c r="E16" s="31" t="s">
         <v>15</v>
       </c>
@@ -3765,10 +3765,10 @@
       </c>
     </row>
     <row r="17" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="105" t="s">
+      <c r="B17" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="101"/>
+      <c r="C17" s="89"/>
       <c r="D17" s="75" t="s">
         <v>77</v>
       </c>
@@ -3919,8 +3919,8 @@
       </c>
     </row>
     <row r="18" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="106"/>
-      <c r="C18" s="101"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="89"/>
       <c r="D18" s="76" t="s">
         <v>80</v>
       </c>
@@ -4071,8 +4071,8 @@
       </c>
     </row>
     <row r="19" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="106"/>
-      <c r="C19" s="101"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="89"/>
       <c r="D19" s="77" t="s">
         <v>53</v>
       </c>
@@ -4223,8 +4223,8 @@
       </c>
     </row>
     <row r="20" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="106"/>
-      <c r="C20" s="101"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="89"/>
       <c r="D20" s="77" t="s">
         <v>54</v>
       </c>
@@ -4375,8 +4375,8 @@
       </c>
     </row>
     <row r="21" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="106"/>
-      <c r="C21" s="101"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="89"/>
       <c r="D21" s="77" t="s">
         <v>79</v>
       </c>
@@ -4527,8 +4527,8 @@
       </c>
     </row>
     <row r="22" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="106"/>
-      <c r="C22" s="101"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="89"/>
       <c r="D22" s="78" t="s">
         <v>81</v>
       </c>
@@ -4679,8 +4679,8 @@
       </c>
     </row>
     <row r="23" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="106"/>
-      <c r="C23" s="101"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="89"/>
       <c r="D23" s="78" t="s">
         <v>62</v>
       </c>
@@ -4831,8 +4831,8 @@
       </c>
     </row>
     <row r="24" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="106"/>
-      <c r="C24" s="101"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="89"/>
       <c r="D24" s="79" t="s">
         <v>69</v>
       </c>
@@ -4983,8 +4983,8 @@
       </c>
     </row>
     <row r="25" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="106"/>
-      <c r="C25" s="101"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="89"/>
       <c r="D25" s="78" t="s">
         <v>57</v>
       </c>
@@ -5125,8 +5125,8 @@
       </c>
     </row>
     <row r="26" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="106"/>
-      <c r="C26" s="101"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="89"/>
       <c r="D26" s="78" t="s">
         <v>75</v>
       </c>
@@ -5277,8 +5277,8 @@
       </c>
     </row>
     <row r="27" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="107"/>
-      <c r="C27" s="101"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="89"/>
       <c r="D27" s="80" t="s">
         <v>17</v>
       </c>
@@ -5430,15 +5430,19 @@
     </row>
     <row r="28" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="61"/>
-      <c r="C28" s="93"/>
+      <c r="C28" s="90"/>
       <c r="D28" s="66" t="s">
         <v>63</v>
       </c>
       <c r="E28" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="32"/>
-      <c r="G28" s="35"/>
+      <c r="F28" s="32">
+        <v>44657</v>
+      </c>
+      <c r="G28" s="35">
+        <v>44658</v>
+      </c>
       <c r="H28" s="32"/>
       <c r="I28" s="35"/>
       <c r="J28" s="34"/>
@@ -5465,11 +5469,11 @@
       </c>
       <c r="R28" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="40">
         <f t="shared" si="3"/>
@@ -5569,18 +5573,22 @@
       </c>
     </row>
     <row r="29" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="93" t="s">
+      <c r="B29" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="93"/>
+      <c r="C29" s="90"/>
       <c r="D29" s="44" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="32"/>
-      <c r="G29" s="35"/>
+      <c r="F29" s="32">
+        <v>44657</v>
+      </c>
+      <c r="G29" s="35">
+        <v>44658</v>
+      </c>
       <c r="H29" s="32"/>
       <c r="I29" s="35"/>
       <c r="J29" s="34"/>
@@ -5607,11 +5615,11 @@
       </c>
       <c r="R29" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" s="40">
         <f t="shared" si="3"/>
@@ -5711,16 +5719,20 @@
       </c>
     </row>
     <row r="30" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="93"/>
-      <c r="C30" s="93"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
       <c r="D30" s="44" t="s">
         <v>66</v>
       </c>
       <c r="E30" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="35"/>
+      <c r="F30" s="32">
+        <v>44657</v>
+      </c>
+      <c r="G30" s="35">
+        <v>44658</v>
+      </c>
       <c r="H30" s="32"/>
       <c r="I30" s="35"/>
       <c r="J30" s="34"/>
@@ -5747,11 +5759,11 @@
       </c>
       <c r="R30" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="40">
         <f t="shared" ref="T30:AI31" si="5">IF($K30=T$5,3,IF(OR(AND($H30&lt;=T$5,T$5&lt;=$I30),$H30=T$5),2,IF(AND($F30&lt;=T$5,T$5&lt;=$G30),1,0)))</f>
@@ -5851,16 +5863,20 @@
       </c>
     </row>
     <row r="31" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
       <c r="D31" s="44" t="s">
         <v>39</v>
       </c>
       <c r="E31" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="32"/>
-      <c r="G31" s="35"/>
+      <c r="F31" s="32">
+        <v>44657</v>
+      </c>
+      <c r="G31" s="35">
+        <v>44658</v>
+      </c>
       <c r="H31" s="32"/>
       <c r="I31" s="35"/>
       <c r="J31" s="34"/>
@@ -5887,11 +5903,11 @@
       </c>
       <c r="R31" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" s="40">
         <f t="shared" si="6"/>
@@ -5991,16 +6007,20 @@
       </c>
     </row>
     <row r="32" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="93"/>
-      <c r="C32" s="93"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
       <c r="D32" s="44" t="s">
         <v>40</v>
       </c>
       <c r="E32" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="32"/>
-      <c r="G32" s="35"/>
+      <c r="F32" s="32">
+        <v>44657</v>
+      </c>
+      <c r="G32" s="35">
+        <v>44658</v>
+      </c>
       <c r="H32" s="32"/>
       <c r="I32" s="35"/>
       <c r="J32" s="34"/>
@@ -6027,11 +6047,11 @@
       </c>
       <c r="R32" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S32" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" s="40">
         <f t="shared" si="7"/>
@@ -6131,14 +6151,20 @@
       </c>
     </row>
     <row r="33" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="93"/>
-      <c r="C33" s="93"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
       <c r="D33" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="35"/>
+      <c r="E33" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="32">
+        <v>44657</v>
+      </c>
+      <c r="G33" s="35">
+        <v>44658</v>
+      </c>
       <c r="H33" s="32"/>
       <c r="I33" s="35"/>
       <c r="J33" s="34"/>
@@ -6165,11 +6191,11 @@
       </c>
       <c r="R33" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" s="40">
         <f t="shared" si="7"/>
@@ -6269,8 +6295,8 @@
       </c>
     </row>
     <row r="34" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="93"/>
-      <c r="C34" s="93"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
       <c r="D34" s="44" t="s">
         <v>64</v>
       </c>
@@ -6407,8 +6433,8 @@
       </c>
     </row>
     <row r="35" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="93"/>
-      <c r="C35" s="93"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="90"/>
       <c r="D35" s="44" t="s">
         <v>67</v>
       </c>
@@ -6547,8 +6573,8 @@
       </c>
     </row>
     <row r="36" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="93"/>
-      <c r="C36" s="93"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="90"/>
       <c r="D36" s="45" t="s">
         <v>70</v>
       </c>
@@ -6691,8 +6717,8 @@
       </c>
     </row>
     <row r="37" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="93"/>
-      <c r="C37" s="93"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="90"/>
       <c r="D37" s="67" t="s">
         <v>57</v>
       </c>
@@ -6833,8 +6859,8 @@
       </c>
     </row>
     <row r="38" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="93"/>
-      <c r="C38" s="93"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="90"/>
       <c r="D38" s="44" t="s">
         <v>41</v>
       </c>
@@ -6977,8 +7003,8 @@
       </c>
     </row>
     <row r="39" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="102"/>
-      <c r="C39" s="102"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
       <c r="D39" s="45" t="s">
         <v>18</v>
       </c>
@@ -7121,10 +7147,10 @@
       </c>
     </row>
     <row r="40" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="108" t="s">
+      <c r="B40" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="111" t="s">
+      <c r="C40" s="85" t="s">
         <v>32</v>
       </c>
       <c r="D40" s="43" t="s">
@@ -7265,8 +7291,8 @@
       </c>
     </row>
     <row r="41" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="109"/>
-      <c r="C41" s="111"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="85"/>
       <c r="D41" s="66" t="s">
         <v>82</v>
       </c>
@@ -7405,8 +7431,8 @@
       </c>
     </row>
     <row r="42" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="109"/>
-      <c r="C42" s="111"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="85"/>
       <c r="D42" s="44" t="s">
         <v>45</v>
       </c>
@@ -7545,8 +7571,8 @@
       </c>
     </row>
     <row r="43" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="109"/>
-      <c r="C43" s="111"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="85"/>
       <c r="D43" s="45" t="s">
         <v>71</v>
       </c>
@@ -7689,8 +7715,8 @@
       </c>
     </row>
     <row r="44" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="109"/>
-      <c r="C44" s="111"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="85"/>
       <c r="D44" s="67" t="s">
         <v>57</v>
       </c>
@@ -7831,8 +7857,8 @@
       </c>
     </row>
     <row r="45" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="109"/>
-      <c r="C45" s="111"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="85"/>
       <c r="D45" s="47" t="s">
         <v>19</v>
       </c>
@@ -7975,8 +8001,8 @@
       </c>
     </row>
     <row r="46" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="109"/>
-      <c r="C46" s="111"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="85"/>
       <c r="D46" s="47" t="s">
         <v>47</v>
       </c>
@@ -8119,8 +8145,8 @@
       </c>
     </row>
     <row r="47" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="109"/>
-      <c r="C47" s="111"/>
+      <c r="B47" s="82"/>
+      <c r="C47" s="85"/>
       <c r="D47" s="45" t="s">
         <v>47</v>
       </c>
@@ -8263,8 +8289,8 @@
       </c>
     </row>
     <row r="48" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="110"/>
-      <c r="C48" s="111"/>
+      <c r="B48" s="83"/>
+      <c r="C48" s="85"/>
       <c r="D48" s="65" t="s">
         <v>49</v>
       </c>
@@ -8405,10 +8431,10 @@
       </c>
     </row>
     <row r="49" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="108" t="s">
+      <c r="B49" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="111"/>
+      <c r="C49" s="85"/>
       <c r="D49" s="66" t="s">
         <v>39</v>
       </c>
@@ -8547,8 +8573,8 @@
       </c>
     </row>
     <row r="50" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="109"/>
-      <c r="C50" s="111"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="85"/>
       <c r="D50" s="44" t="s">
         <v>40</v>
       </c>
@@ -8687,8 +8713,8 @@
       </c>
     </row>
     <row r="51" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="109"/>
-      <c r="C51" s="111"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="85"/>
       <c r="D51" s="44" t="s">
         <v>83</v>
       </c>
@@ -8825,8 +8851,8 @@
       </c>
     </row>
     <row r="52" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="109"/>
-      <c r="C52" s="111"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="85"/>
       <c r="D52" s="44" t="s">
         <v>46</v>
       </c>
@@ -8965,8 +8991,8 @@
       </c>
     </row>
     <row r="53" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="109"/>
-      <c r="C53" s="111"/>
+      <c r="B53" s="82"/>
+      <c r="C53" s="85"/>
       <c r="D53" s="44" t="s">
         <v>48</v>
       </c>
@@ -9103,8 +9129,8 @@
       </c>
     </row>
     <row r="54" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="109"/>
-      <c r="C54" s="111"/>
+      <c r="B54" s="82"/>
+      <c r="C54" s="85"/>
       <c r="D54" s="45" t="s">
         <v>72</v>
       </c>
@@ -9247,8 +9273,8 @@
       </c>
     </row>
     <row r="55" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="109"/>
-      <c r="C55" s="111"/>
+      <c r="B55" s="82"/>
+      <c r="C55" s="85"/>
       <c r="D55" s="67" t="s">
         <v>57</v>
       </c>
@@ -9389,8 +9415,8 @@
       </c>
     </row>
     <row r="56" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="109"/>
-      <c r="C56" s="111"/>
+      <c r="B56" s="82"/>
+      <c r="C56" s="85"/>
       <c r="D56" s="47" t="s">
         <v>20</v>
       </c>
@@ -9529,8 +9555,8 @@
       </c>
     </row>
     <row r="57" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="109"/>
-      <c r="C57" s="111"/>
+      <c r="B57" s="82"/>
+      <c r="C57" s="85"/>
       <c r="D57" s="47" t="s">
         <v>43</v>
       </c>
@@ -9669,8 +9695,8 @@
       </c>
     </row>
     <row r="58" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="110"/>
-      <c r="C58" s="111"/>
+      <c r="B58" s="83"/>
+      <c r="C58" s="85"/>
       <c r="D58" s="46" t="s">
         <v>43</v>
       </c>
@@ -9813,10 +9839,10 @@
       </c>
     </row>
     <row r="59" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="108" t="s">
+      <c r="B59" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="96" t="s">
+      <c r="C59" s="84" t="s">
         <v>33</v>
       </c>
       <c r="D59" s="43" t="s">
@@ -9957,8 +9983,8 @@
       </c>
     </row>
     <row r="60" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="109"/>
-      <c r="C60" s="96"/>
+      <c r="B60" s="82"/>
+      <c r="C60" s="84"/>
       <c r="D60" s="43" t="s">
         <v>78</v>
       </c>
@@ -10095,8 +10121,8 @@
       </c>
     </row>
     <row r="61" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="109"/>
-      <c r="C61" s="96"/>
+      <c r="B61" s="82"/>
+      <c r="C61" s="84"/>
       <c r="D61" s="50" t="s">
         <v>58</v>
       </c>
@@ -10233,8 +10259,8 @@
       </c>
     </row>
     <row r="62" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="109"/>
-      <c r="C62" s="96"/>
+      <c r="B62" s="82"/>
+      <c r="C62" s="84"/>
       <c r="D62" s="51" t="s">
         <v>59</v>
       </c>
@@ -10371,8 +10397,8 @@
       </c>
     </row>
     <row r="63" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="109"/>
-      <c r="C63" s="96"/>
+      <c r="B63" s="82"/>
+      <c r="C63" s="84"/>
       <c r="D63" s="30" t="s">
         <v>42</v>
       </c>
@@ -10509,8 +10535,8 @@
       </c>
     </row>
     <row r="64" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="109"/>
-      <c r="C64" s="96"/>
+      <c r="B64" s="82"/>
+      <c r="C64" s="84"/>
       <c r="D64" s="44" t="s">
         <v>49</v>
       </c>
@@ -10647,8 +10673,8 @@
       </c>
     </row>
     <row r="65" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="109"/>
-      <c r="C65" s="96"/>
+      <c r="B65" s="82"/>
+      <c r="C65" s="84"/>
       <c r="D65" s="44" t="s">
         <v>60</v>
       </c>
@@ -10785,8 +10811,8 @@
       </c>
     </row>
     <row r="66" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="109"/>
-      <c r="C66" s="96"/>
+      <c r="B66" s="82"/>
+      <c r="C66" s="84"/>
       <c r="D66" s="45" t="s">
         <v>73</v>
       </c>
@@ -10929,8 +10955,8 @@
       </c>
     </row>
     <row r="67" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="109"/>
-      <c r="C67" s="96"/>
+      <c r="B67" s="82"/>
+      <c r="C67" s="84"/>
       <c r="D67" s="67" t="s">
         <v>57</v>
       </c>
@@ -11071,8 +11097,8 @@
       </c>
     </row>
     <row r="68" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="109"/>
-      <c r="C68" s="96"/>
+      <c r="B68" s="82"/>
+      <c r="C68" s="84"/>
       <c r="D68" s="47" t="s">
         <v>21</v>
       </c>
@@ -11211,8 +11237,8 @@
       </c>
     </row>
     <row r="69" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="109"/>
-      <c r="C69" s="96"/>
+      <c r="B69" s="82"/>
+      <c r="C69" s="84"/>
       <c r="D69" s="52" t="s">
         <v>44</v>
       </c>
@@ -11351,8 +11377,8 @@
       </c>
     </row>
     <row r="70" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="109"/>
-      <c r="C70" s="96"/>
+      <c r="B70" s="82"/>
+      <c r="C70" s="84"/>
       <c r="D70" s="53" t="s">
         <v>44</v>
       </c>
@@ -11495,10 +11521,10 @@
       </c>
     </row>
     <row r="71" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="108" t="s">
+      <c r="B71" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="96" t="s">
+      <c r="C71" s="84" t="s">
         <v>34</v>
       </c>
       <c r="D71" s="50" t="s">
@@ -11637,8 +11663,8 @@
       </c>
     </row>
     <row r="72" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="109"/>
-      <c r="C72" s="96"/>
+      <c r="B72" s="82"/>
+      <c r="C72" s="84"/>
       <c r="D72" s="30" t="s">
         <v>34</v>
       </c>
@@ -11776,8 +11802,8 @@
       </c>
     </row>
     <row r="73" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="109"/>
-      <c r="C73" s="96"/>
+      <c r="B73" s="82"/>
+      <c r="C73" s="84"/>
       <c r="D73" s="30" t="s">
         <v>34</v>
       </c>
@@ -11916,8 +11942,8 @@
       </c>
     </row>
     <row r="74" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="109"/>
-      <c r="C74" s="96"/>
+      <c r="B74" s="82"/>
+      <c r="C74" s="84"/>
       <c r="D74" s="30" t="s">
         <v>34</v>
       </c>
@@ -12056,8 +12082,8 @@
       </c>
     </row>
     <row r="75" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="109"/>
-      <c r="C75" s="96"/>
+      <c r="B75" s="82"/>
+      <c r="C75" s="84"/>
       <c r="D75" s="69" t="s">
         <v>74</v>
       </c>
@@ -12198,8 +12224,8 @@
       </c>
     </row>
     <row r="76" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="109"/>
-      <c r="C76" s="96"/>
+      <c r="B76" s="82"/>
+      <c r="C76" s="84"/>
       <c r="D76" s="30" t="s">
         <v>57</v>
       </c>
@@ -12340,8 +12366,8 @@
       </c>
     </row>
     <row r="77" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="110"/>
-      <c r="C77" s="96"/>
+      <c r="B77" s="83"/>
+      <c r="C77" s="84"/>
       <c r="D77" s="54" t="s">
         <v>56</v>
       </c>
@@ -12484,6 +12510,21 @@
   </sheetData>
   <autoFilter ref="D5:E77" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}"/>
   <mergeCells count="22">
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="C9:C39"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="B17:B27"/>
+    <mergeCell ref="B29:B39"/>
     <mergeCell ref="B71:B77"/>
     <mergeCell ref="C71:C77"/>
     <mergeCell ref="B40:B48"/>
@@ -12491,21 +12532,6 @@
     <mergeCell ref="B49:B58"/>
     <mergeCell ref="B59:B70"/>
     <mergeCell ref="C59:C70"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="C9:C39"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="B17:B27"/>
-    <mergeCell ref="B29:B39"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="M6:AQ77">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">

--- a/CMSC495_ProjectPlan.xlsx
+++ b/CMSC495_ProjectPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Git/cmsc495_final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A42643-FE7A-2649-91B4-11E393103FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E456D2-B380-F143-BBDD-12E8C9594B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26260" xr2:uid="{A3040AE0-0367-2B43-ADDE-84CCD12855DC}"/>
   </bookViews>
@@ -425,7 +425,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -1122,24 +1122,33 @@
       <right style="medium">
         <color rgb="FFFF0000"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
       </left>
       <right style="medium">
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color rgb="FFFF0000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1147,7 +1156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1227,9 +1236,6 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1260,9 +1266,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1272,77 +1275,11 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1367,6 +1304,87 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1763,48 +1781,48 @@
       <c r="D3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="105" t="s">
+      <c r="M3" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="103" t="s">
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="103"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="104" t="s">
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="96"/>
+      <c r="Y3" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="104"/>
-      <c r="AA3" s="104"/>
-      <c r="AB3" s="104"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="104"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
     </row>
     <row r="4" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="97"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="106" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="107"/>
-      <c r="H4" s="108" t="s">
+      <c r="G4" s="83"/>
+      <c r="H4" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="109"/>
-      <c r="J4" s="110" t="s">
+      <c r="I4" s="85"/>
+      <c r="J4" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="111"/>
+      <c r="K4" s="87"/>
       <c r="M4" s="12" t="str">
         <f>TEXT(M5,"aaa")</f>
         <v>Fri</v>
@@ -2099,13 +2117,13 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="101" t="s">
+      <c r="D6" s="93" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="31" t="s">
@@ -2256,9 +2274,9 @@
       </c>
     </row>
     <row r="7" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="90"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="102"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="94"/>
       <c r="E7" s="31" t="s">
         <v>13</v>
       </c>
@@ -2407,9 +2425,9 @@
       </c>
     </row>
     <row r="8" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="90"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="102"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="94"/>
       <c r="E8" s="31" t="s">
         <v>15</v>
       </c>
@@ -2555,13 +2573,13 @@
       </c>
     </row>
     <row r="9" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="70" t="s">
         <v>61</v>
       </c>
       <c r="E9" s="31" t="s">
@@ -2711,9 +2729,9 @@
       </c>
     </row>
     <row r="10" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="87"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="72" t="s">
+      <c r="B10" s="98"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="71" t="s">
         <v>61</v>
       </c>
       <c r="E10" s="31" t="s">
@@ -2863,9 +2881,9 @@
       </c>
     </row>
     <row r="11" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="87"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="72" t="s">
+      <c r="B11" s="98"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="71" t="s">
         <v>61</v>
       </c>
       <c r="E11" s="31" t="s">
@@ -3015,9 +3033,9 @@
       </c>
     </row>
     <row r="12" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="87"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="73" t="s">
+      <c r="B12" s="98"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="72" t="s">
         <v>68</v>
       </c>
       <c r="E12" s="31" t="s">
@@ -3167,12 +3185,12 @@
       </c>
     </row>
     <row r="13" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="87"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="74" t="s">
+      <c r="B13" s="98"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="62"/>
+      <c r="E13" s="61"/>
       <c r="F13" s="32">
         <v>44648</v>
       </c>
@@ -3317,9 +3335,9 @@
       </c>
     </row>
     <row r="14" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="87"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="92" t="s">
+      <c r="B14" s="98"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="101" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="31" t="s">
@@ -3465,9 +3483,9 @@
       </c>
     </row>
     <row r="15" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="87"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="93"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="102"/>
       <c r="E15" s="31" t="s">
         <v>13</v>
       </c>
@@ -3615,9 +3633,9 @@
       </c>
     </row>
     <row r="16" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="87"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="93"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="31" t="s">
         <v>15</v>
       </c>
@@ -3765,11 +3783,11 @@
       </c>
     </row>
     <row r="17" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="89"/>
-      <c r="D17" s="75" t="s">
+      <c r="C17" s="100"/>
+      <c r="D17" s="109" t="s">
         <v>77</v>
       </c>
       <c r="E17" s="31" t="s">
@@ -3919,9 +3937,9 @@
       </c>
     </row>
     <row r="18" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="95"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="76" t="s">
+      <c r="B18" s="98"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="110" t="s">
         <v>80</v>
       </c>
       <c r="E18" s="31" t="s">
@@ -4071,9 +4089,9 @@
       </c>
     </row>
     <row r="19" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="95"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="77" t="s">
+      <c r="B19" s="98"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="111" t="s">
         <v>53</v>
       </c>
       <c r="E19" s="31" t="s">
@@ -4223,9 +4241,9 @@
       </c>
     </row>
     <row r="20" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="95"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="77" t="s">
+      <c r="B20" s="98"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="111" t="s">
         <v>54</v>
       </c>
       <c r="E20" s="31" t="s">
@@ -4375,9 +4393,9 @@
       </c>
     </row>
     <row r="21" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="95"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="77" t="s">
+      <c r="B21" s="98"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="111" t="s">
         <v>79</v>
       </c>
       <c r="E21" s="31" t="s">
@@ -4527,9 +4545,9 @@
       </c>
     </row>
     <row r="22" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="95"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="78" t="s">
+      <c r="B22" s="98"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="112" t="s">
         <v>81</v>
       </c>
       <c r="E22" s="31" t="s">
@@ -4679,9 +4697,9 @@
       </c>
     </row>
     <row r="23" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="95"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="78" t="s">
+      <c r="B23" s="98"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="112" t="s">
         <v>62</v>
       </c>
       <c r="E23" s="31" t="s">
@@ -4831,9 +4849,9 @@
       </c>
     </row>
     <row r="24" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="95"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="79" t="s">
+      <c r="B24" s="98"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="113" t="s">
         <v>69</v>
       </c>
       <c r="E24" s="31" t="s">
@@ -4983,9 +5001,9 @@
       </c>
     </row>
     <row r="25" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="95"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="78" t="s">
+      <c r="B25" s="98"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="112" t="s">
         <v>57</v>
       </c>
       <c r="E25" s="31"/>
@@ -5125,9 +5143,9 @@
       </c>
     </row>
     <row r="26" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="95"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="78" t="s">
+      <c r="B26" s="98"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="112" t="s">
         <v>75</v>
       </c>
       <c r="E26" s="31" t="s">
@@ -5277,9 +5295,9 @@
       </c>
     </row>
     <row r="27" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="96"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="80" t="s">
+      <c r="B27" s="98"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="113" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="31" t="s">
@@ -5429,9 +5447,9 @@
       </c>
     </row>
     <row r="28" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="61"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="66" t="s">
+      <c r="B28" s="79"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="74" t="s">
         <v>63</v>
       </c>
       <c r="E28" s="31" t="s">
@@ -5573,11 +5591,11 @@
       </c>
     </row>
     <row r="29" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="90" t="s">
+      <c r="B29" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="90"/>
-      <c r="D29" s="44" t="s">
+      <c r="C29" s="100"/>
+      <c r="D29" s="75" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="31" t="s">
@@ -5589,7 +5607,9 @@
       <c r="G29" s="35">
         <v>44658</v>
       </c>
-      <c r="H29" s="32"/>
+      <c r="H29" s="32">
+        <v>44656</v>
+      </c>
       <c r="I29" s="35"/>
       <c r="J29" s="34"/>
       <c r="K29" s="35"/>
@@ -5611,7 +5631,7 @@
       </c>
       <c r="Q29" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R29" s="40">
         <f t="shared" si="3"/>
@@ -5719,9 +5739,9 @@
       </c>
     </row>
     <row r="30" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="44" t="s">
+      <c r="B30" s="103"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="75" t="s">
         <v>66</v>
       </c>
       <c r="E30" s="31" t="s">
@@ -5733,7 +5753,9 @@
       <c r="G30" s="35">
         <v>44658</v>
       </c>
-      <c r="H30" s="32"/>
+      <c r="H30" s="32">
+        <v>44656</v>
+      </c>
       <c r="I30" s="35"/>
       <c r="J30" s="34"/>
       <c r="K30" s="35"/>
@@ -5755,7 +5777,7 @@
       </c>
       <c r="Q30" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R30" s="40">
         <f t="shared" si="3"/>
@@ -5863,9 +5885,9 @@
       </c>
     </row>
     <row r="31" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="44" t="s">
+      <c r="B31" s="103"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="75" t="s">
         <v>39</v>
       </c>
       <c r="E31" s="31" t="s">
@@ -5877,7 +5899,9 @@
       <c r="G31" s="35">
         <v>44658</v>
       </c>
-      <c r="H31" s="32"/>
+      <c r="H31" s="32">
+        <v>44656</v>
+      </c>
       <c r="I31" s="35"/>
       <c r="J31" s="34"/>
       <c r="K31" s="35"/>
@@ -5899,7 +5923,7 @@
       </c>
       <c r="Q31" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R31" s="40">
         <f t="shared" si="6"/>
@@ -6007,9 +6031,9 @@
       </c>
     </row>
     <row r="32" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="44" t="s">
+      <c r="B32" s="103"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="75" t="s">
         <v>40</v>
       </c>
       <c r="E32" s="31" t="s">
@@ -6021,7 +6045,9 @@
       <c r="G32" s="35">
         <v>44658</v>
       </c>
-      <c r="H32" s="32"/>
+      <c r="H32" s="32">
+        <v>44656</v>
+      </c>
       <c r="I32" s="35"/>
       <c r="J32" s="34"/>
       <c r="K32" s="35"/>
@@ -6043,7 +6069,7 @@
       </c>
       <c r="Q32" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R32" s="40">
         <f t="shared" si="7"/>
@@ -6151,9 +6177,9 @@
       </c>
     </row>
     <row r="33" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="90"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="44" t="s">
+      <c r="B33" s="103"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="75" t="s">
         <v>83</v>
       </c>
       <c r="E33" s="31" t="s">
@@ -6165,7 +6191,9 @@
       <c r="G33" s="35">
         <v>44658</v>
       </c>
-      <c r="H33" s="32"/>
+      <c r="H33" s="32">
+        <v>44656</v>
+      </c>
       <c r="I33" s="35"/>
       <c r="J33" s="34"/>
       <c r="K33" s="35"/>
@@ -6187,7 +6215,7 @@
       </c>
       <c r="Q33" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R33" s="40">
         <f t="shared" si="7"/>
@@ -6295,9 +6323,9 @@
       </c>
     </row>
     <row r="34" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="44" t="s">
+      <c r="B34" s="103"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="75" t="s">
         <v>64</v>
       </c>
       <c r="E34" s="31"/>
@@ -6433,9 +6461,9 @@
       </c>
     </row>
     <row r="35" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="90"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="44" t="s">
+      <c r="B35" s="103"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="75" t="s">
         <v>67</v>
       </c>
       <c r="E35" s="31" t="s">
@@ -6573,9 +6601,9 @@
       </c>
     </row>
     <row r="36" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="90"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="45" t="s">
+      <c r="B36" s="103"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="77" t="s">
         <v>70</v>
       </c>
       <c r="E36" s="31" t="s">
@@ -6584,7 +6612,7 @@
       <c r="F36" s="32">
         <v>44657</v>
       </c>
-      <c r="G36" s="68">
+      <c r="G36" s="67">
         <v>44659</v>
       </c>
       <c r="H36" s="32"/>
@@ -6717,9 +6745,9 @@
       </c>
     </row>
     <row r="37" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="90"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="67" t="s">
+      <c r="B37" s="103"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="76" t="s">
         <v>57</v>
       </c>
       <c r="E37" s="31"/>
@@ -6859,9 +6887,9 @@
       </c>
     </row>
     <row r="38" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="90"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="44" t="s">
+      <c r="B38" s="103"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="75" t="s">
         <v>41</v>
       </c>
       <c r="E38" s="31" t="s">
@@ -7003,9 +7031,9 @@
       </c>
     </row>
     <row r="39" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="91"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="45" t="s">
+      <c r="B39" s="104"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="78" t="s">
         <v>18</v>
       </c>
       <c r="E39" s="31" t="s">
@@ -7147,13 +7175,13 @@
       </c>
     </row>
     <row r="40" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="81" t="s">
+      <c r="B40" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="85" t="s">
+      <c r="C40" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="43" t="s">
+      <c r="D40" s="65" t="s">
         <v>65</v>
       </c>
       <c r="E40" s="31" t="s">
@@ -7291,9 +7319,9 @@
       </c>
     </row>
     <row r="41" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="82"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="66" t="s">
+      <c r="B41" s="106"/>
+      <c r="C41" s="108"/>
+      <c r="D41" s="65" t="s">
         <v>82</v>
       </c>
       <c r="E41" s="31" t="s">
@@ -7431,8 +7459,8 @@
       </c>
     </row>
     <row r="42" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="82"/>
-      <c r="C42" s="85"/>
+      <c r="B42" s="106"/>
+      <c r="C42" s="108"/>
       <c r="D42" s="44" t="s">
         <v>45</v>
       </c>
@@ -7442,7 +7470,7 @@
       <c r="F42" s="32"/>
       <c r="G42" s="35"/>
       <c r="H42" s="32"/>
-      <c r="I42" s="70"/>
+      <c r="I42" s="69"/>
       <c r="J42" s="34"/>
       <c r="K42" s="35"/>
       <c r="M42" s="39">
@@ -7571,8 +7599,8 @@
       </c>
     </row>
     <row r="43" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="82"/>
-      <c r="C43" s="85"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="108"/>
       <c r="D43" s="45" t="s">
         <v>71</v>
       </c>
@@ -7715,9 +7743,9 @@
       </c>
     </row>
     <row r="44" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="82"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="67" t="s">
+      <c r="B44" s="106"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="66" t="s">
         <v>57</v>
       </c>
       <c r="E44" s="31"/>
@@ -7857,8 +7885,8 @@
       </c>
     </row>
     <row r="45" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="82"/>
-      <c r="C45" s="85"/>
+      <c r="B45" s="106"/>
+      <c r="C45" s="108"/>
       <c r="D45" s="47" t="s">
         <v>19</v>
       </c>
@@ -8001,8 +8029,8 @@
       </c>
     </row>
     <row r="46" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="82"/>
-      <c r="C46" s="85"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="108"/>
       <c r="D46" s="47" t="s">
         <v>47</v>
       </c>
@@ -8145,8 +8173,8 @@
       </c>
     </row>
     <row r="47" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="82"/>
-      <c r="C47" s="85"/>
+      <c r="B47" s="106"/>
+      <c r="C47" s="108"/>
       <c r="D47" s="45" t="s">
         <v>47</v>
       </c>
@@ -8289,9 +8317,9 @@
       </c>
     </row>
     <row r="48" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="83"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="65" t="s">
+      <c r="B48" s="107"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="64" t="s">
         <v>49</v>
       </c>
       <c r="E48" s="31"/>
@@ -8431,18 +8459,18 @@
       </c>
     </row>
     <row r="49" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="81" t="s">
+      <c r="B49" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="85"/>
-      <c r="D49" s="66" t="s">
+      <c r="C49" s="108"/>
+      <c r="D49" s="65" t="s">
         <v>39</v>
       </c>
       <c r="E49" s="31" t="s">
         <v>13</v>
       </c>
       <c r="F49" s="32"/>
-      <c r="G49" s="70"/>
+      <c r="G49" s="69"/>
       <c r="H49" s="32"/>
       <c r="I49" s="35"/>
       <c r="J49" s="34"/>
@@ -8573,8 +8601,8 @@
       </c>
     </row>
     <row r="50" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="82"/>
-      <c r="C50" s="85"/>
+      <c r="B50" s="106"/>
+      <c r="C50" s="108"/>
       <c r="D50" s="44" t="s">
         <v>40</v>
       </c>
@@ -8713,8 +8741,8 @@
       </c>
     </row>
     <row r="51" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="82"/>
-      <c r="C51" s="85"/>
+      <c r="B51" s="106"/>
+      <c r="C51" s="108"/>
       <c r="D51" s="44" t="s">
         <v>83</v>
       </c>
@@ -8851,8 +8879,8 @@
       </c>
     </row>
     <row r="52" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="82"/>
-      <c r="C52" s="85"/>
+      <c r="B52" s="106"/>
+      <c r="C52" s="108"/>
       <c r="D52" s="44" t="s">
         <v>46</v>
       </c>
@@ -8991,8 +9019,8 @@
       </c>
     </row>
     <row r="53" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="82"/>
-      <c r="C53" s="85"/>
+      <c r="B53" s="106"/>
+      <c r="C53" s="108"/>
       <c r="D53" s="44" t="s">
         <v>48</v>
       </c>
@@ -9129,8 +9157,8 @@
       </c>
     </row>
     <row r="54" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="82"/>
-      <c r="C54" s="85"/>
+      <c r="B54" s="106"/>
+      <c r="C54" s="108"/>
       <c r="D54" s="45" t="s">
         <v>72</v>
       </c>
@@ -9273,9 +9301,9 @@
       </c>
     </row>
     <row r="55" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="82"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="67" t="s">
+      <c r="B55" s="106"/>
+      <c r="C55" s="108"/>
+      <c r="D55" s="66" t="s">
         <v>57</v>
       </c>
       <c r="E55" s="31"/>
@@ -9415,8 +9443,8 @@
       </c>
     </row>
     <row r="56" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="82"/>
-      <c r="C56" s="85"/>
+      <c r="B56" s="106"/>
+      <c r="C56" s="108"/>
       <c r="D56" s="47" t="s">
         <v>20</v>
       </c>
@@ -9555,8 +9583,8 @@
       </c>
     </row>
     <row r="57" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="82"/>
-      <c r="C57" s="85"/>
+      <c r="B57" s="106"/>
+      <c r="C57" s="108"/>
       <c r="D57" s="47" t="s">
         <v>43</v>
       </c>
@@ -9695,8 +9723,8 @@
       </c>
     </row>
     <row r="58" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="83"/>
-      <c r="C58" s="85"/>
+      <c r="B58" s="107"/>
+      <c r="C58" s="108"/>
       <c r="D58" s="46" t="s">
         <v>43</v>
       </c>
@@ -9706,7 +9734,7 @@
       <c r="F58" s="32">
         <v>44671</v>
       </c>
-      <c r="G58" s="70">
+      <c r="G58" s="69">
         <v>44677</v>
       </c>
       <c r="H58" s="32"/>
@@ -9839,10 +9867,10 @@
       </c>
     </row>
     <row r="59" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="81" t="s">
+      <c r="B59" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="84" t="s">
+      <c r="C59" s="95" t="s">
         <v>33</v>
       </c>
       <c r="D59" s="43" t="s">
@@ -9983,8 +10011,8 @@
       </c>
     </row>
     <row r="60" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="82"/>
-      <c r="C60" s="84"/>
+      <c r="B60" s="106"/>
+      <c r="C60" s="95"/>
       <c r="D60" s="43" t="s">
         <v>78</v>
       </c>
@@ -10121,8 +10149,8 @@
       </c>
     </row>
     <row r="61" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="82"/>
-      <c r="C61" s="84"/>
+      <c r="B61" s="106"/>
+      <c r="C61" s="95"/>
       <c r="D61" s="50" t="s">
         <v>58</v>
       </c>
@@ -10259,8 +10287,8 @@
       </c>
     </row>
     <row r="62" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="82"/>
-      <c r="C62" s="84"/>
+      <c r="B62" s="106"/>
+      <c r="C62" s="95"/>
       <c r="D62" s="51" t="s">
         <v>59</v>
       </c>
@@ -10397,8 +10425,8 @@
       </c>
     </row>
     <row r="63" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="82"/>
-      <c r="C63" s="84"/>
+      <c r="B63" s="106"/>
+      <c r="C63" s="95"/>
       <c r="D63" s="30" t="s">
         <v>42</v>
       </c>
@@ -10535,8 +10563,8 @@
       </c>
     </row>
     <row r="64" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="82"/>
-      <c r="C64" s="84"/>
+      <c r="B64" s="106"/>
+      <c r="C64" s="95"/>
       <c r="D64" s="44" t="s">
         <v>49</v>
       </c>
@@ -10673,8 +10701,8 @@
       </c>
     </row>
     <row r="65" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="82"/>
-      <c r="C65" s="84"/>
+      <c r="B65" s="106"/>
+      <c r="C65" s="95"/>
       <c r="D65" s="44" t="s">
         <v>60</v>
       </c>
@@ -10811,8 +10839,8 @@
       </c>
     </row>
     <row r="66" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="82"/>
-      <c r="C66" s="84"/>
+      <c r="B66" s="106"/>
+      <c r="C66" s="95"/>
       <c r="D66" s="45" t="s">
         <v>73</v>
       </c>
@@ -10955,9 +10983,9 @@
       </c>
     </row>
     <row r="67" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="82"/>
-      <c r="C67" s="84"/>
-      <c r="D67" s="67" t="s">
+      <c r="B67" s="106"/>
+      <c r="C67" s="95"/>
+      <c r="D67" s="66" t="s">
         <v>57</v>
       </c>
       <c r="E67" s="31"/>
@@ -11097,8 +11125,8 @@
       </c>
     </row>
     <row r="68" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="82"/>
-      <c r="C68" s="84"/>
+      <c r="B68" s="106"/>
+      <c r="C68" s="95"/>
       <c r="D68" s="47" t="s">
         <v>21</v>
       </c>
@@ -11237,8 +11265,8 @@
       </c>
     </row>
     <row r="69" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="82"/>
-      <c r="C69" s="84"/>
+      <c r="B69" s="106"/>
+      <c r="C69" s="95"/>
       <c r="D69" s="52" t="s">
         <v>44</v>
       </c>
@@ -11377,8 +11405,8 @@
       </c>
     </row>
     <row r="70" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="82"/>
-      <c r="C70" s="84"/>
+      <c r="B70" s="106"/>
+      <c r="C70" s="95"/>
       <c r="D70" s="53" t="s">
         <v>44</v>
       </c>
@@ -11521,10 +11549,10 @@
       </c>
     </row>
     <row r="71" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="81" t="s">
+      <c r="B71" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="84" t="s">
+      <c r="C71" s="95" t="s">
         <v>34</v>
       </c>
       <c r="D71" s="50" t="s">
@@ -11663,8 +11691,8 @@
       </c>
     </row>
     <row r="72" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="82"/>
-      <c r="C72" s="84"/>
+      <c r="B72" s="106"/>
+      <c r="C72" s="95"/>
       <c r="D72" s="30" t="s">
         <v>34</v>
       </c>
@@ -11802,8 +11830,8 @@
       </c>
     </row>
     <row r="73" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="82"/>
-      <c r="C73" s="84"/>
+      <c r="B73" s="106"/>
+      <c r="C73" s="95"/>
       <c r="D73" s="30" t="s">
         <v>34</v>
       </c>
@@ -11942,8 +11970,8 @@
       </c>
     </row>
     <row r="74" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="82"/>
-      <c r="C74" s="84"/>
+      <c r="B74" s="106"/>
+      <c r="C74" s="95"/>
       <c r="D74" s="30" t="s">
         <v>34</v>
       </c>
@@ -12082,9 +12110,9 @@
       </c>
     </row>
     <row r="75" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="82"/>
-      <c r="C75" s="84"/>
-      <c r="D75" s="69" t="s">
+      <c r="B75" s="106"/>
+      <c r="C75" s="95"/>
+      <c r="D75" s="68" t="s">
         <v>74</v>
       </c>
       <c r="E75" s="31"/>
@@ -12224,16 +12252,16 @@
       </c>
     </row>
     <row r="76" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="82"/>
-      <c r="C76" s="84"/>
+      <c r="B76" s="106"/>
+      <c r="C76" s="95"/>
       <c r="D76" s="30" t="s">
         <v>57</v>
       </c>
       <c r="E76" s="31"/>
-      <c r="F76" s="63">
+      <c r="F76" s="62">
         <v>44687</v>
       </c>
-      <c r="G76" s="64">
+      <c r="G76" s="63">
         <v>44687</v>
       </c>
       <c r="H76" s="32"/>
@@ -12366,8 +12394,8 @@
       </c>
     </row>
     <row r="77" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="83"/>
-      <c r="C77" s="84"/>
+      <c r="B77" s="107"/>
+      <c r="C77" s="95"/>
       <c r="D77" s="54" t="s">
         <v>56</v>
       </c>
@@ -12510,21 +12538,6 @@
   </sheetData>
   <autoFilter ref="D5:E77" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}"/>
   <mergeCells count="22">
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="C9:C39"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="B17:B27"/>
-    <mergeCell ref="B29:B39"/>
     <mergeCell ref="B71:B77"/>
     <mergeCell ref="C71:C77"/>
     <mergeCell ref="B40:B48"/>
@@ -12532,6 +12545,21 @@
     <mergeCell ref="B49:B58"/>
     <mergeCell ref="B59:B70"/>
     <mergeCell ref="C59:C70"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="C9:C39"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="B17:B27"/>
+    <mergeCell ref="B29:B39"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="M6:AQ77">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">

--- a/CMSC495_ProjectPlan.xlsx
+++ b/CMSC495_ProjectPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Git/cmsc495_final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E456D2-B380-F143-BBDD-12E8C9594B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD65CDFE-B8B9-BE47-A83A-8DE2766D2A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26260" xr2:uid="{A3040AE0-0367-2B43-ADDE-84CCD12855DC}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="83">
   <si>
     <t>Year</t>
   </si>
@@ -260,9 +260,6 @@
     <t>GUI</t>
   </si>
   <si>
-    <t>File I/O Formats</t>
-  </si>
-  <si>
     <t>UML Diagram</t>
   </si>
   <si>
@@ -1281,6 +1278,87 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1304,87 +1382,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1745,7 +1742,7 @@
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="10"/>
       <c r="F1" s="2" t="s">
@@ -1781,48 +1778,48 @@
       <c r="D3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="81" t="s">
+      <c r="M3" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="96" t="s">
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
-      <c r="X3" s="96"/>
-      <c r="Y3" s="80" t="s">
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="80"/>
-      <c r="AD3" s="80"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="107"/>
+      <c r="AB3" s="107"/>
+      <c r="AC3" s="107"/>
+      <c r="AD3" s="107"/>
     </row>
     <row r="4" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="88"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="82" t="s">
+      <c r="B4" s="99"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="83"/>
-      <c r="H4" s="84" t="s">
+      <c r="G4" s="110"/>
+      <c r="H4" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="86" t="s">
+      <c r="I4" s="112"/>
+      <c r="J4" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="87"/>
+      <c r="K4" s="114"/>
       <c r="M4" s="12" t="str">
         <f>TEXT(M5,"aaa")</f>
         <v>Fri</v>
@@ -2117,13 +2114,13 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="93" t="s">
+      <c r="D6" s="104" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="31" t="s">
@@ -2274,9 +2271,9 @@
       </c>
     </row>
     <row r="7" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="92"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="94"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="105"/>
       <c r="E7" s="31" t="s">
         <v>13</v>
       </c>
@@ -2425,9 +2422,9 @@
       </c>
     </row>
     <row r="8" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="92"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="94"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="105"/>
       <c r="E8" s="31" t="s">
         <v>15</v>
       </c>
@@ -2573,10 +2570,10 @@
       </c>
     </row>
     <row r="9" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="92" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="70" t="s">
@@ -2729,8 +2726,8 @@
       </c>
     </row>
     <row r="10" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="98"/>
-      <c r="C10" s="100"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="93"/>
       <c r="D10" s="71" t="s">
         <v>61</v>
       </c>
@@ -2881,8 +2878,8 @@
       </c>
     </row>
     <row r="11" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="98"/>
-      <c r="C11" s="100"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="93"/>
       <c r="D11" s="71" t="s">
         <v>61</v>
       </c>
@@ -3033,10 +3030,10 @@
       </c>
     </row>
     <row r="12" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="98"/>
-      <c r="C12" s="100"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="93"/>
       <c r="D12" s="72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>15</v>
@@ -3185,8 +3182,8 @@
       </c>
     </row>
     <row r="13" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="98"/>
-      <c r="C13" s="100"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="93"/>
       <c r="D13" s="73" t="s">
         <v>57</v>
       </c>
@@ -3335,9 +3332,9 @@
       </c>
     </row>
     <row r="14" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="98"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="101" t="s">
+      <c r="B14" s="91"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="95" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="31" t="s">
@@ -3483,9 +3480,9 @@
       </c>
     </row>
     <row r="15" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="98"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="102"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="96"/>
       <c r="E15" s="31" t="s">
         <v>13</v>
       </c>
@@ -3633,9 +3630,9 @@
       </c>
     </row>
     <row r="16" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="98"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="102"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="96"/>
       <c r="E16" s="31" t="s">
         <v>15</v>
       </c>
@@ -3783,12 +3780,12 @@
       </c>
     </row>
     <row r="17" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="97" t="s">
+      <c r="B17" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="100"/>
-      <c r="D17" s="109" t="s">
-        <v>77</v>
+      <c r="C17" s="93"/>
+      <c r="D17" s="80" t="s">
+        <v>76</v>
       </c>
       <c r="E17" s="31" t="s">
         <v>15</v>
@@ -3937,10 +3934,10 @@
       </c>
     </row>
     <row r="18" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="98"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="110" t="s">
-        <v>80</v>
+      <c r="B18" s="91"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="81" t="s">
+        <v>79</v>
       </c>
       <c r="E18" s="31" t="s">
         <v>15</v>
@@ -4089,9 +4086,9 @@
       </c>
     </row>
     <row r="19" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="98"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="111" t="s">
+      <c r="B19" s="91"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="82" t="s">
         <v>53</v>
       </c>
       <c r="E19" s="31" t="s">
@@ -4241,9 +4238,9 @@
       </c>
     </row>
     <row r="20" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="98"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="111" t="s">
+      <c r="B20" s="91"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="82" t="s">
         <v>54</v>
       </c>
       <c r="E20" s="31" t="s">
@@ -4393,10 +4390,10 @@
       </c>
     </row>
     <row r="21" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="98"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="111" t="s">
-        <v>79</v>
+      <c r="B21" s="91"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="82" t="s">
+        <v>78</v>
       </c>
       <c r="E21" s="31" t="s">
         <v>14</v>
@@ -4545,10 +4542,10 @@
       </c>
     </row>
     <row r="22" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="98"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="112" t="s">
-        <v>81</v>
+      <c r="B22" s="91"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="83" t="s">
+        <v>80</v>
       </c>
       <c r="E22" s="31" t="s">
         <v>15</v>
@@ -4697,9 +4694,9 @@
       </c>
     </row>
     <row r="23" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="98"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="112" t="s">
+      <c r="B23" s="91"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="83" t="s">
         <v>62</v>
       </c>
       <c r="E23" s="31" t="s">
@@ -4849,10 +4846,10 @@
       </c>
     </row>
     <row r="24" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="98"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="113" t="s">
-        <v>69</v>
+      <c r="B24" s="91"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="84" t="s">
+        <v>68</v>
       </c>
       <c r="E24" s="31" t="s">
         <v>14</v>
@@ -5001,9 +4998,9 @@
       </c>
     </row>
     <row r="25" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="98"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="112" t="s">
+      <c r="B25" s="91"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="83" t="s">
         <v>57</v>
       </c>
       <c r="E25" s="31"/>
@@ -5143,10 +5140,10 @@
       </c>
     </row>
     <row r="26" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="98"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="112" t="s">
-        <v>75</v>
+      <c r="B26" s="91"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="83" t="s">
+        <v>74</v>
       </c>
       <c r="E26" s="31" t="s">
         <v>15</v>
@@ -5295,9 +5292,9 @@
       </c>
     </row>
     <row r="27" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="98"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="113" t="s">
+      <c r="B27" s="91"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="84" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="31" t="s">
@@ -5448,7 +5445,7 @@
     </row>
     <row r="28" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="79"/>
-      <c r="C28" s="100"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="74" t="s">
         <v>63</v>
       </c>
@@ -5461,7 +5458,9 @@
       <c r="G28" s="35">
         <v>44658</v>
       </c>
-      <c r="H28" s="32"/>
+      <c r="H28" s="32">
+        <v>44656</v>
+      </c>
       <c r="I28" s="35"/>
       <c r="J28" s="34"/>
       <c r="K28" s="35"/>
@@ -5483,7 +5482,7 @@
       </c>
       <c r="Q28" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R28" s="40">
         <f t="shared" si="3"/>
@@ -5591,10 +5590,10 @@
       </c>
     </row>
     <row r="29" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="103" t="s">
+      <c r="B29" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="100"/>
+      <c r="C29" s="93"/>
       <c r="D29" s="75" t="s">
         <v>38</v>
       </c>
@@ -5739,10 +5738,10 @@
       </c>
     </row>
     <row r="30" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="103"/>
-      <c r="C30" s="100"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="93"/>
       <c r="D30" s="75" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="E30" s="31" t="s">
         <v>14</v>
@@ -5885,8 +5884,8 @@
       </c>
     </row>
     <row r="31" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="103"/>
-      <c r="C31" s="100"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="93"/>
       <c r="D31" s="75" t="s">
         <v>39</v>
       </c>
@@ -6031,8 +6030,8 @@
       </c>
     </row>
     <row r="32" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="103"/>
-      <c r="C32" s="100"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="93"/>
       <c r="D32" s="75" t="s">
         <v>40</v>
       </c>
@@ -6177,10 +6176,10 @@
       </c>
     </row>
     <row r="33" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="103"/>
-      <c r="C33" s="100"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="93"/>
       <c r="D33" s="75" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E33" s="31" t="s">
         <v>15</v>
@@ -6323,8 +6322,8 @@
       </c>
     </row>
     <row r="34" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="103"/>
-      <c r="C34" s="100"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="93"/>
       <c r="D34" s="75" t="s">
         <v>64</v>
       </c>
@@ -6461,10 +6460,10 @@
       </c>
     </row>
     <row r="35" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="103"/>
-      <c r="C35" s="100"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="93"/>
       <c r="D35" s="75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E35" s="31" t="s">
         <v>14</v>
@@ -6601,10 +6600,10 @@
       </c>
     </row>
     <row r="36" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="103"/>
-      <c r="C36" s="100"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="93"/>
       <c r="D36" s="77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E36" s="31" t="s">
         <v>13</v>
@@ -6745,8 +6744,8 @@
       </c>
     </row>
     <row r="37" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="103"/>
-      <c r="C37" s="100"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="93"/>
       <c r="D37" s="76" t="s">
         <v>57</v>
       </c>
@@ -6887,8 +6886,8 @@
       </c>
     </row>
     <row r="38" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="103"/>
-      <c r="C38" s="100"/>
+      <c r="B38" s="97"/>
+      <c r="C38" s="93"/>
       <c r="D38" s="75" t="s">
         <v>41</v>
       </c>
@@ -7031,8 +7030,8 @@
       </c>
     </row>
     <row r="39" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="104"/>
-      <c r="C39" s="114"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="94"/>
       <c r="D39" s="78" t="s">
         <v>18</v>
       </c>
@@ -7175,10 +7174,10 @@
       </c>
     </row>
     <row r="40" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="106" t="s">
+      <c r="B40" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="108" t="s">
+      <c r="C40" s="89" t="s">
         <v>32</v>
       </c>
       <c r="D40" s="65" t="s">
@@ -7319,10 +7318,10 @@
       </c>
     </row>
     <row r="41" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="106"/>
-      <c r="C41" s="108"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="89"/>
       <c r="D41" s="65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E41" s="31" t="s">
         <v>14</v>
@@ -7459,8 +7458,8 @@
       </c>
     </row>
     <row r="42" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="106"/>
-      <c r="C42" s="108"/>
+      <c r="B42" s="86"/>
+      <c r="C42" s="89"/>
       <c r="D42" s="44" t="s">
         <v>45</v>
       </c>
@@ -7599,10 +7598,10 @@
       </c>
     </row>
     <row r="43" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="106"/>
-      <c r="C43" s="108"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="89"/>
       <c r="D43" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E43" s="31" t="s">
         <v>15</v>
@@ -7743,8 +7742,8 @@
       </c>
     </row>
     <row r="44" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="106"/>
-      <c r="C44" s="108"/>
+      <c r="B44" s="86"/>
+      <c r="C44" s="89"/>
       <c r="D44" s="66" t="s">
         <v>57</v>
       </c>
@@ -7885,8 +7884,8 @@
       </c>
     </row>
     <row r="45" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="106"/>
-      <c r="C45" s="108"/>
+      <c r="B45" s="86"/>
+      <c r="C45" s="89"/>
       <c r="D45" s="47" t="s">
         <v>19</v>
       </c>
@@ -8029,8 +8028,8 @@
       </c>
     </row>
     <row r="46" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="106"/>
-      <c r="C46" s="108"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="89"/>
       <c r="D46" s="47" t="s">
         <v>47</v>
       </c>
@@ -8173,8 +8172,8 @@
       </c>
     </row>
     <row r="47" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="106"/>
-      <c r="C47" s="108"/>
+      <c r="B47" s="86"/>
+      <c r="C47" s="89"/>
       <c r="D47" s="45" t="s">
         <v>47</v>
       </c>
@@ -8317,8 +8316,8 @@
       </c>
     </row>
     <row r="48" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="107"/>
-      <c r="C48" s="108"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="89"/>
       <c r="D48" s="64" t="s">
         <v>49</v>
       </c>
@@ -8459,10 +8458,10 @@
       </c>
     </row>
     <row r="49" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="105" t="s">
+      <c r="B49" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="108"/>
+      <c r="C49" s="89"/>
       <c r="D49" s="65" t="s">
         <v>39</v>
       </c>
@@ -8601,8 +8600,8 @@
       </c>
     </row>
     <row r="50" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="106"/>
-      <c r="C50" s="108"/>
+      <c r="B50" s="86"/>
+      <c r="C50" s="89"/>
       <c r="D50" s="44" t="s">
         <v>40</v>
       </c>
@@ -8741,10 +8740,10 @@
       </c>
     </row>
     <row r="51" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="106"/>
-      <c r="C51" s="108"/>
+      <c r="B51" s="86"/>
+      <c r="C51" s="89"/>
       <c r="D51" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E51" s="31"/>
       <c r="F51" s="32"/>
@@ -8879,8 +8878,8 @@
       </c>
     </row>
     <row r="52" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="106"/>
-      <c r="C52" s="108"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="89"/>
       <c r="D52" s="44" t="s">
         <v>46</v>
       </c>
@@ -9019,8 +9018,8 @@
       </c>
     </row>
     <row r="53" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="106"/>
-      <c r="C53" s="108"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="89"/>
       <c r="D53" s="44" t="s">
         <v>48</v>
       </c>
@@ -9157,10 +9156,10 @@
       </c>
     </row>
     <row r="54" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="106"/>
-      <c r="C54" s="108"/>
+      <c r="B54" s="86"/>
+      <c r="C54" s="89"/>
       <c r="D54" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E54" s="31" t="s">
         <v>14</v>
@@ -9301,8 +9300,8 @@
       </c>
     </row>
     <row r="55" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="106"/>
-      <c r="C55" s="108"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="89"/>
       <c r="D55" s="66" t="s">
         <v>57</v>
       </c>
@@ -9443,8 +9442,8 @@
       </c>
     </row>
     <row r="56" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="106"/>
-      <c r="C56" s="108"/>
+      <c r="B56" s="86"/>
+      <c r="C56" s="89"/>
       <c r="D56" s="47" t="s">
         <v>20</v>
       </c>
@@ -9583,8 +9582,8 @@
       </c>
     </row>
     <row r="57" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="106"/>
-      <c r="C57" s="108"/>
+      <c r="B57" s="86"/>
+      <c r="C57" s="89"/>
       <c r="D57" s="47" t="s">
         <v>43</v>
       </c>
@@ -9723,8 +9722,8 @@
       </c>
     </row>
     <row r="58" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="107"/>
-      <c r="C58" s="108"/>
+      <c r="B58" s="87"/>
+      <c r="C58" s="89"/>
       <c r="D58" s="46" t="s">
         <v>43</v>
       </c>
@@ -9867,10 +9866,10 @@
       </c>
     </row>
     <row r="59" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="105" t="s">
+      <c r="B59" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="95" t="s">
+      <c r="C59" s="88" t="s">
         <v>33</v>
       </c>
       <c r="D59" s="43" t="s">
@@ -10011,10 +10010,10 @@
       </c>
     </row>
     <row r="60" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="106"/>
-      <c r="C60" s="95"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="88"/>
       <c r="D60" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E60" s="31"/>
       <c r="F60" s="32"/>
@@ -10149,8 +10148,8 @@
       </c>
     </row>
     <row r="61" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="106"/>
-      <c r="C61" s="95"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="88"/>
       <c r="D61" s="50" t="s">
         <v>58</v>
       </c>
@@ -10287,8 +10286,8 @@
       </c>
     </row>
     <row r="62" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="106"/>
-      <c r="C62" s="95"/>
+      <c r="B62" s="86"/>
+      <c r="C62" s="88"/>
       <c r="D62" s="51" t="s">
         <v>59</v>
       </c>
@@ -10425,8 +10424,8 @@
       </c>
     </row>
     <row r="63" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="106"/>
-      <c r="C63" s="95"/>
+      <c r="B63" s="86"/>
+      <c r="C63" s="88"/>
       <c r="D63" s="30" t="s">
         <v>42</v>
       </c>
@@ -10563,8 +10562,8 @@
       </c>
     </row>
     <row r="64" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="106"/>
-      <c r="C64" s="95"/>
+      <c r="B64" s="86"/>
+      <c r="C64" s="88"/>
       <c r="D64" s="44" t="s">
         <v>49</v>
       </c>
@@ -10701,8 +10700,8 @@
       </c>
     </row>
     <row r="65" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="106"/>
-      <c r="C65" s="95"/>
+      <c r="B65" s="86"/>
+      <c r="C65" s="88"/>
       <c r="D65" s="44" t="s">
         <v>60</v>
       </c>
@@ -10839,10 +10838,10 @@
       </c>
     </row>
     <row r="66" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="106"/>
-      <c r="C66" s="95"/>
+      <c r="B66" s="86"/>
+      <c r="C66" s="88"/>
       <c r="D66" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E66" s="31" t="s">
         <v>13</v>
@@ -10983,8 +10982,8 @@
       </c>
     </row>
     <row r="67" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="106"/>
-      <c r="C67" s="95"/>
+      <c r="B67" s="86"/>
+      <c r="C67" s="88"/>
       <c r="D67" s="66" t="s">
         <v>57</v>
       </c>
@@ -11125,8 +11124,8 @@
       </c>
     </row>
     <row r="68" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="106"/>
-      <c r="C68" s="95"/>
+      <c r="B68" s="86"/>
+      <c r="C68" s="88"/>
       <c r="D68" s="47" t="s">
         <v>21</v>
       </c>
@@ -11265,8 +11264,8 @@
       </c>
     </row>
     <row r="69" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="106"/>
-      <c r="C69" s="95"/>
+      <c r="B69" s="86"/>
+      <c r="C69" s="88"/>
       <c r="D69" s="52" t="s">
         <v>44</v>
       </c>
@@ -11405,8 +11404,8 @@
       </c>
     </row>
     <row r="70" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="106"/>
-      <c r="C70" s="95"/>
+      <c r="B70" s="86"/>
+      <c r="C70" s="88"/>
       <c r="D70" s="53" t="s">
         <v>44</v>
       </c>
@@ -11549,10 +11548,10 @@
       </c>
     </row>
     <row r="71" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="105" t="s">
+      <c r="B71" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="95" t="s">
+      <c r="C71" s="88" t="s">
         <v>34</v>
       </c>
       <c r="D71" s="50" t="s">
@@ -11691,8 +11690,8 @@
       </c>
     </row>
     <row r="72" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="106"/>
-      <c r="C72" s="95"/>
+      <c r="B72" s="86"/>
+      <c r="C72" s="88"/>
       <c r="D72" s="30" t="s">
         <v>34</v>
       </c>
@@ -11830,8 +11829,8 @@
       </c>
     </row>
     <row r="73" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="106"/>
-      <c r="C73" s="95"/>
+      <c r="B73" s="86"/>
+      <c r="C73" s="88"/>
       <c r="D73" s="30" t="s">
         <v>34</v>
       </c>
@@ -11970,8 +11969,8 @@
       </c>
     </row>
     <row r="74" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="106"/>
-      <c r="C74" s="95"/>
+      <c r="B74" s="86"/>
+      <c r="C74" s="88"/>
       <c r="D74" s="30" t="s">
         <v>34</v>
       </c>
@@ -12110,10 +12109,10 @@
       </c>
     </row>
     <row r="75" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="106"/>
-      <c r="C75" s="95"/>
+      <c r="B75" s="86"/>
+      <c r="C75" s="88"/>
       <c r="D75" s="68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E75" s="31"/>
       <c r="F75" s="32">
@@ -12252,8 +12251,8 @@
       </c>
     </row>
     <row r="76" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="106"/>
-      <c r="C76" s="95"/>
+      <c r="B76" s="86"/>
+      <c r="C76" s="88"/>
       <c r="D76" s="30" t="s">
         <v>57</v>
       </c>
@@ -12394,8 +12393,8 @@
       </c>
     </row>
     <row r="77" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="107"/>
-      <c r="C77" s="95"/>
+      <c r="B77" s="87"/>
+      <c r="C77" s="88"/>
       <c r="D77" s="54" t="s">
         <v>56</v>
       </c>
@@ -12538,6 +12537,21 @@
   </sheetData>
   <autoFilter ref="D5:E77" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}"/>
   <mergeCells count="22">
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="C9:C39"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="B17:B27"/>
+    <mergeCell ref="B29:B39"/>
     <mergeCell ref="B71:B77"/>
     <mergeCell ref="C71:C77"/>
     <mergeCell ref="B40:B48"/>
@@ -12545,21 +12559,6 @@
     <mergeCell ref="B49:B58"/>
     <mergeCell ref="B59:B70"/>
     <mergeCell ref="C59:C70"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="C9:C39"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="B17:B27"/>
-    <mergeCell ref="B29:B39"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="M6:AQ77">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">

--- a/CMSC495_ProjectPlan.xlsx
+++ b/CMSC495_ProjectPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Git/cmsc495_final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD65CDFE-B8B9-BE47-A83A-8DE2766D2A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02081D3-1D47-DB4C-B42E-263BB577C917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26260" xr2:uid="{A3040AE0-0367-2B43-ADDE-84CCD12855DC}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="83">
   <si>
     <t>Year</t>
   </si>
@@ -254,9 +254,6 @@
     <t>Data Structure &amp; Field</t>
   </si>
   <si>
-    <t xml:space="preserve">Error handler </t>
-  </si>
-  <si>
     <t>GUI</t>
   </si>
   <si>
@@ -309,6 +306,9 @@
   </si>
   <si>
     <t>Reset the Image</t>
+  </si>
+  <si>
+    <t>Error handler Dialog</t>
   </si>
 </sst>
 </file>
@@ -1293,20 +1293,56 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1335,53 +1371,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1742,7 +1742,7 @@
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="10"/>
       <c r="F1" s="2" t="s">
@@ -1778,48 +1778,48 @@
       <c r="D3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="108" t="s">
+      <c r="M3" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="106" t="s">
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="106"/>
-      <c r="U3" s="106"/>
-      <c r="V3" s="106"/>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
-      <c r="Y3" s="107" t="s">
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="107"/>
-      <c r="AB3" s="107"/>
-      <c r="AC3" s="107"/>
-      <c r="AD3" s="107"/>
+      <c r="Z3" s="85"/>
+      <c r="AA3" s="85"/>
+      <c r="AB3" s="85"/>
+      <c r="AC3" s="85"/>
+      <c r="AD3" s="85"/>
     </row>
     <row r="4" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="99"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="109" t="s">
+      <c r="B4" s="93"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="110"/>
-      <c r="H4" s="111" t="s">
+      <c r="G4" s="88"/>
+      <c r="H4" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="112"/>
-      <c r="J4" s="113" t="s">
+      <c r="I4" s="90"/>
+      <c r="J4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="114"/>
+      <c r="K4" s="92"/>
       <c r="M4" s="12" t="str">
         <f>TEXT(M5,"aaa")</f>
         <v>Fri</v>
@@ -2114,13 +2114,13 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="104" t="s">
+      <c r="D6" s="98" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="31" t="s">
@@ -2271,9 +2271,9 @@
       </c>
     </row>
     <row r="7" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="103"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="105"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="99"/>
       <c r="E7" s="31" t="s">
         <v>13</v>
       </c>
@@ -2422,9 +2422,9 @@
       </c>
     </row>
     <row r="8" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="103"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="105"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="99"/>
       <c r="E8" s="31" t="s">
         <v>15</v>
       </c>
@@ -2570,10 +2570,10 @@
       </c>
     </row>
     <row r="9" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="104" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="70" t="s">
@@ -2726,8 +2726,8 @@
       </c>
     </row>
     <row r="10" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="91"/>
-      <c r="C10" s="93"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="105"/>
       <c r="D10" s="71" t="s">
         <v>61</v>
       </c>
@@ -2878,8 +2878,8 @@
       </c>
     </row>
     <row r="11" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="91"/>
-      <c r="C11" s="93"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="105"/>
       <c r="D11" s="71" t="s">
         <v>61</v>
       </c>
@@ -3030,10 +3030,10 @@
       </c>
     </row>
     <row r="12" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="91"/>
-      <c r="C12" s="93"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="105"/>
       <c r="D12" s="72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>15</v>
@@ -3182,8 +3182,8 @@
       </c>
     </row>
     <row r="13" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="91"/>
-      <c r="C13" s="93"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="105"/>
       <c r="D13" s="73" t="s">
         <v>57</v>
       </c>
@@ -3332,9 +3332,9 @@
       </c>
     </row>
     <row r="14" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="91"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="95" t="s">
+      <c r="B14" s="103"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="107" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="31" t="s">
@@ -3480,9 +3480,9 @@
       </c>
     </row>
     <row r="15" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="91"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="96"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="108"/>
       <c r="E15" s="31" t="s">
         <v>13</v>
       </c>
@@ -3630,9 +3630,9 @@
       </c>
     </row>
     <row r="16" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="91"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="96"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="108"/>
       <c r="E16" s="31" t="s">
         <v>15</v>
       </c>
@@ -3780,12 +3780,12 @@
       </c>
     </row>
     <row r="17" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="93"/>
+      <c r="C17" s="105"/>
       <c r="D17" s="80" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="31" t="s">
         <v>15</v>
@@ -3934,10 +3934,10 @@
       </c>
     </row>
     <row r="18" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="91"/>
-      <c r="C18" s="93"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="105"/>
       <c r="D18" s="81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18" s="31" t="s">
         <v>15</v>
@@ -4086,8 +4086,8 @@
       </c>
     </row>
     <row r="19" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="91"/>
-      <c r="C19" s="93"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="105"/>
       <c r="D19" s="82" t="s">
         <v>53</v>
       </c>
@@ -4238,8 +4238,8 @@
       </c>
     </row>
     <row r="20" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="91"/>
-      <c r="C20" s="93"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="105"/>
       <c r="D20" s="82" t="s">
         <v>54</v>
       </c>
@@ -4390,10 +4390,10 @@
       </c>
     </row>
     <row r="21" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="91"/>
-      <c r="C21" s="93"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="105"/>
       <c r="D21" s="82" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E21" s="31" t="s">
         <v>14</v>
@@ -4542,10 +4542,10 @@
       </c>
     </row>
     <row r="22" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="91"/>
-      <c r="C22" s="93"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="105"/>
       <c r="D22" s="83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E22" s="31" t="s">
         <v>15</v>
@@ -4694,8 +4694,8 @@
       </c>
     </row>
     <row r="23" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="91"/>
-      <c r="C23" s="93"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="105"/>
       <c r="D23" s="83" t="s">
         <v>62</v>
       </c>
@@ -4846,10 +4846,10 @@
       </c>
     </row>
     <row r="24" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="91"/>
-      <c r="C24" s="93"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="105"/>
       <c r="D24" s="84" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E24" s="31" t="s">
         <v>14</v>
@@ -4998,8 +4998,8 @@
       </c>
     </row>
     <row r="25" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="91"/>
-      <c r="C25" s="93"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="105"/>
       <c r="D25" s="83" t="s">
         <v>57</v>
       </c>
@@ -5140,10 +5140,10 @@
       </c>
     </row>
     <row r="26" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="91"/>
-      <c r="C26" s="93"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="105"/>
       <c r="D26" s="83" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E26" s="31" t="s">
         <v>15</v>
@@ -5292,8 +5292,8 @@
       </c>
     </row>
     <row r="27" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="91"/>
-      <c r="C27" s="93"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="105"/>
       <c r="D27" s="84" t="s">
         <v>17</v>
       </c>
@@ -5445,7 +5445,7 @@
     </row>
     <row r="28" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="79"/>
-      <c r="C28" s="93"/>
+      <c r="C28" s="105"/>
       <c r="D28" s="74" t="s">
         <v>63</v>
       </c>
@@ -5461,8 +5461,12 @@
       <c r="H28" s="32">
         <v>44656</v>
       </c>
-      <c r="I28" s="35"/>
-      <c r="J28" s="34"/>
+      <c r="I28" s="35">
+        <v>44658</v>
+      </c>
+      <c r="J28" s="34" t="s">
+        <v>15</v>
+      </c>
       <c r="K28" s="35"/>
       <c r="M28" s="39">
         <f t="shared" si="3"/>
@@ -5486,11 +5490,11 @@
       </c>
       <c r="R28" s="40">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S28" s="40">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T28" s="40">
         <f t="shared" si="3"/>
@@ -5590,10 +5594,10 @@
       </c>
     </row>
     <row r="29" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="97" t="s">
+      <c r="B29" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="93"/>
+      <c r="C29" s="105"/>
       <c r="D29" s="75" t="s">
         <v>38</v>
       </c>
@@ -5609,8 +5613,12 @@
       <c r="H29" s="32">
         <v>44656</v>
       </c>
-      <c r="I29" s="35"/>
-      <c r="J29" s="34"/>
+      <c r="I29" s="35">
+        <v>44658</v>
+      </c>
+      <c r="J29" s="34" t="s">
+        <v>13</v>
+      </c>
       <c r="K29" s="35"/>
       <c r="M29" s="39">
         <f t="shared" si="3"/>
@@ -5634,11 +5642,11 @@
       </c>
       <c r="R29" s="40">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S29" s="40">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T29" s="40">
         <f t="shared" si="3"/>
@@ -5738,10 +5746,10 @@
       </c>
     </row>
     <row r="30" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="97"/>
-      <c r="C30" s="93"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="105"/>
       <c r="D30" s="75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E30" s="31" t="s">
         <v>14</v>
@@ -5755,8 +5763,12 @@
       <c r="H30" s="32">
         <v>44656</v>
       </c>
-      <c r="I30" s="35"/>
-      <c r="J30" s="34"/>
+      <c r="I30" s="35">
+        <v>44658</v>
+      </c>
+      <c r="J30" s="34" t="s">
+        <v>13</v>
+      </c>
       <c r="K30" s="35"/>
       <c r="M30" s="39">
         <f t="shared" si="3"/>
@@ -5780,11 +5792,11 @@
       </c>
       <c r="R30" s="40">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S30" s="40">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T30" s="40">
         <f t="shared" ref="T30:AI31" si="5">IF($K30=T$5,3,IF(OR(AND($H30&lt;=T$5,T$5&lt;=$I30),$H30=T$5),2,IF(AND($F30&lt;=T$5,T$5&lt;=$G30),1,0)))</f>
@@ -5884,8 +5896,8 @@
       </c>
     </row>
     <row r="31" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="97"/>
-      <c r="C31" s="93"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="105"/>
       <c r="D31" s="75" t="s">
         <v>39</v>
       </c>
@@ -5901,7 +5913,9 @@
       <c r="H31" s="32">
         <v>44656</v>
       </c>
-      <c r="I31" s="35"/>
+      <c r="I31" s="35">
+        <v>44658</v>
+      </c>
       <c r="J31" s="34"/>
       <c r="K31" s="35"/>
       <c r="M31" s="39">
@@ -5926,11 +5940,11 @@
       </c>
       <c r="R31" s="40">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S31" s="40">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T31" s="40">
         <f t="shared" si="6"/>
@@ -6030,8 +6044,8 @@
       </c>
     </row>
     <row r="32" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="97"/>
-      <c r="C32" s="93"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="105"/>
       <c r="D32" s="75" t="s">
         <v>40</v>
       </c>
@@ -6047,7 +6061,9 @@
       <c r="H32" s="32">
         <v>44656</v>
       </c>
-      <c r="I32" s="35"/>
+      <c r="I32" s="35">
+        <v>44658</v>
+      </c>
       <c r="J32" s="34"/>
       <c r="K32" s="35"/>
       <c r="M32" s="39">
@@ -6072,11 +6088,11 @@
       </c>
       <c r="R32" s="40">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S32" s="40">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T32" s="40">
         <f t="shared" si="7"/>
@@ -6176,10 +6192,10 @@
       </c>
     </row>
     <row r="33" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="97"/>
-      <c r="C33" s="93"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="105"/>
       <c r="D33" s="75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E33" s="31" t="s">
         <v>15</v>
@@ -6193,8 +6209,12 @@
       <c r="H33" s="32">
         <v>44656</v>
       </c>
-      <c r="I33" s="35"/>
-      <c r="J33" s="34"/>
+      <c r="I33" s="35">
+        <v>44658</v>
+      </c>
+      <c r="J33" s="34" t="s">
+        <v>13</v>
+      </c>
       <c r="K33" s="35"/>
       <c r="M33" s="39">
         <f t="shared" si="6"/>
@@ -6218,11 +6238,11 @@
       </c>
       <c r="R33" s="40">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S33" s="40">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T33" s="40">
         <f t="shared" si="7"/>
@@ -6322,16 +6342,26 @@
       </c>
     </row>
     <row r="34" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="97"/>
-      <c r="C34" s="93"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="105"/>
       <c r="D34" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="35"/>
+        <v>82</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="32">
+        <v>44657</v>
+      </c>
+      <c r="G34" s="35">
+        <v>44658</v>
+      </c>
+      <c r="H34" s="32">
+        <v>44656</v>
+      </c>
+      <c r="I34" s="35">
+        <v>44658</v>
+      </c>
       <c r="J34" s="34"/>
       <c r="K34" s="35"/>
       <c r="M34" s="39">
@@ -6352,15 +6382,15 @@
       </c>
       <c r="Q34" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R34" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S34" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T34" s="40">
         <f t="shared" si="7"/>
@@ -6460,10 +6490,10 @@
       </c>
     </row>
     <row r="35" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="97"/>
-      <c r="C35" s="93"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="105"/>
       <c r="D35" s="75" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E35" s="31" t="s">
         <v>14</v>
@@ -6600,10 +6630,10 @@
       </c>
     </row>
     <row r="36" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="97"/>
-      <c r="C36" s="93"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="105"/>
       <c r="D36" s="77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E36" s="31" t="s">
         <v>13</v>
@@ -6744,8 +6774,8 @@
       </c>
     </row>
     <row r="37" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="97"/>
-      <c r="C37" s="93"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="105"/>
       <c r="D37" s="76" t="s">
         <v>57</v>
       </c>
@@ -6886,8 +6916,8 @@
       </c>
     </row>
     <row r="38" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="97"/>
-      <c r="C38" s="93"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="105"/>
       <c r="D38" s="75" t="s">
         <v>41</v>
       </c>
@@ -6900,7 +6930,9 @@
       <c r="G38" s="35">
         <v>44662</v>
       </c>
-      <c r="H38" s="32"/>
+      <c r="H38" s="32">
+        <v>44656</v>
+      </c>
       <c r="I38" s="35"/>
       <c r="J38" s="34"/>
       <c r="K38" s="35"/>
@@ -6922,7 +6954,7 @@
       </c>
       <c r="Q38" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R38" s="40">
         <f t="shared" si="7"/>
@@ -7030,8 +7062,8 @@
       </c>
     </row>
     <row r="39" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="98"/>
-      <c r="C39" s="94"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="106"/>
       <c r="D39" s="78" t="s">
         <v>18</v>
       </c>
@@ -7044,7 +7076,9 @@
       <c r="G39" s="35">
         <v>44663</v>
       </c>
-      <c r="H39" s="32"/>
+      <c r="H39" s="32">
+        <v>44656</v>
+      </c>
       <c r="I39" s="35"/>
       <c r="J39" s="34"/>
       <c r="K39" s="35"/>
@@ -7066,7 +7100,7 @@
       </c>
       <c r="Q39" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R39" s="40">
         <f t="shared" si="7"/>
@@ -7174,14 +7208,14 @@
       </c>
     </row>
     <row r="40" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="86" t="s">
+      <c r="B40" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="89" t="s">
+      <c r="C40" s="114" t="s">
         <v>32</v>
       </c>
       <c r="D40" s="65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E40" s="31" t="s">
         <v>15</v>
@@ -7318,10 +7352,10 @@
       </c>
     </row>
     <row r="41" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="86"/>
-      <c r="C41" s="89"/>
+      <c r="B41" s="112"/>
+      <c r="C41" s="114"/>
       <c r="D41" s="65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E41" s="31" t="s">
         <v>14</v>
@@ -7458,8 +7492,8 @@
       </c>
     </row>
     <row r="42" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="86"/>
-      <c r="C42" s="89"/>
+      <c r="B42" s="112"/>
+      <c r="C42" s="114"/>
       <c r="D42" s="44" t="s">
         <v>45</v>
       </c>
@@ -7598,10 +7632,10 @@
       </c>
     </row>
     <row r="43" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="86"/>
-      <c r="C43" s="89"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="114"/>
       <c r="D43" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E43" s="31" t="s">
         <v>15</v>
@@ -7742,8 +7776,8 @@
       </c>
     </row>
     <row r="44" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="86"/>
-      <c r="C44" s="89"/>
+      <c r="B44" s="112"/>
+      <c r="C44" s="114"/>
       <c r="D44" s="66" t="s">
         <v>57</v>
       </c>
@@ -7884,8 +7918,8 @@
       </c>
     </row>
     <row r="45" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="86"/>
-      <c r="C45" s="89"/>
+      <c r="B45" s="112"/>
+      <c r="C45" s="114"/>
       <c r="D45" s="47" t="s">
         <v>19</v>
       </c>
@@ -8028,8 +8062,8 @@
       </c>
     </row>
     <row r="46" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="86"/>
-      <c r="C46" s="89"/>
+      <c r="B46" s="112"/>
+      <c r="C46" s="114"/>
       <c r="D46" s="47" t="s">
         <v>47</v>
       </c>
@@ -8172,8 +8206,8 @@
       </c>
     </row>
     <row r="47" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="86"/>
-      <c r="C47" s="89"/>
+      <c r="B47" s="112"/>
+      <c r="C47" s="114"/>
       <c r="D47" s="45" t="s">
         <v>47</v>
       </c>
@@ -8316,8 +8350,8 @@
       </c>
     </row>
     <row r="48" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="87"/>
-      <c r="C48" s="89"/>
+      <c r="B48" s="113"/>
+      <c r="C48" s="114"/>
       <c r="D48" s="64" t="s">
         <v>49</v>
       </c>
@@ -8458,10 +8492,10 @@
       </c>
     </row>
     <row r="49" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="85" t="s">
+      <c r="B49" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="89"/>
+      <c r="C49" s="114"/>
       <c r="D49" s="65" t="s">
         <v>39</v>
       </c>
@@ -8600,8 +8634,8 @@
       </c>
     </row>
     <row r="50" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="86"/>
-      <c r="C50" s="89"/>
+      <c r="B50" s="112"/>
+      <c r="C50" s="114"/>
       <c r="D50" s="44" t="s">
         <v>40</v>
       </c>
@@ -8740,10 +8774,10 @@
       </c>
     </row>
     <row r="51" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="86"/>
-      <c r="C51" s="89"/>
+      <c r="B51" s="112"/>
+      <c r="C51" s="114"/>
       <c r="D51" s="44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E51" s="31"/>
       <c r="F51" s="32"/>
@@ -8878,8 +8912,8 @@
       </c>
     </row>
     <row r="52" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="86"/>
-      <c r="C52" s="89"/>
+      <c r="B52" s="112"/>
+      <c r="C52" s="114"/>
       <c r="D52" s="44" t="s">
         <v>46</v>
       </c>
@@ -9018,8 +9052,8 @@
       </c>
     </row>
     <row r="53" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="86"/>
-      <c r="C53" s="89"/>
+      <c r="B53" s="112"/>
+      <c r="C53" s="114"/>
       <c r="D53" s="44" t="s">
         <v>48</v>
       </c>
@@ -9156,10 +9190,10 @@
       </c>
     </row>
     <row r="54" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="86"/>
-      <c r="C54" s="89"/>
+      <c r="B54" s="112"/>
+      <c r="C54" s="114"/>
       <c r="D54" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E54" s="31" t="s">
         <v>14</v>
@@ -9300,8 +9334,8 @@
       </c>
     </row>
     <row r="55" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="86"/>
-      <c r="C55" s="89"/>
+      <c r="B55" s="112"/>
+      <c r="C55" s="114"/>
       <c r="D55" s="66" t="s">
         <v>57</v>
       </c>
@@ -9442,8 +9476,8 @@
       </c>
     </row>
     <row r="56" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="86"/>
-      <c r="C56" s="89"/>
+      <c r="B56" s="112"/>
+      <c r="C56" s="114"/>
       <c r="D56" s="47" t="s">
         <v>20</v>
       </c>
@@ -9582,8 +9616,8 @@
       </c>
     </row>
     <row r="57" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="86"/>
-      <c r="C57" s="89"/>
+      <c r="B57" s="112"/>
+      <c r="C57" s="114"/>
       <c r="D57" s="47" t="s">
         <v>43</v>
       </c>
@@ -9722,8 +9756,8 @@
       </c>
     </row>
     <row r="58" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="87"/>
-      <c r="C58" s="89"/>
+      <c r="B58" s="113"/>
+      <c r="C58" s="114"/>
       <c r="D58" s="46" t="s">
         <v>43</v>
       </c>
@@ -9866,10 +9900,10 @@
       </c>
     </row>
     <row r="59" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="85" t="s">
+      <c r="B59" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="88" t="s">
+      <c r="C59" s="100" t="s">
         <v>33</v>
       </c>
       <c r="D59" s="43" t="s">
@@ -10010,10 +10044,10 @@
       </c>
     </row>
     <row r="60" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="86"/>
-      <c r="C60" s="88"/>
+      <c r="B60" s="112"/>
+      <c r="C60" s="100"/>
       <c r="D60" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E60" s="31"/>
       <c r="F60" s="32"/>
@@ -10148,8 +10182,8 @@
       </c>
     </row>
     <row r="61" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="86"/>
-      <c r="C61" s="88"/>
+      <c r="B61" s="112"/>
+      <c r="C61" s="100"/>
       <c r="D61" s="50" t="s">
         <v>58</v>
       </c>
@@ -10286,8 +10320,8 @@
       </c>
     </row>
     <row r="62" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="86"/>
-      <c r="C62" s="88"/>
+      <c r="B62" s="112"/>
+      <c r="C62" s="100"/>
       <c r="D62" s="51" t="s">
         <v>59</v>
       </c>
@@ -10424,8 +10458,8 @@
       </c>
     </row>
     <row r="63" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="86"/>
-      <c r="C63" s="88"/>
+      <c r="B63" s="112"/>
+      <c r="C63" s="100"/>
       <c r="D63" s="30" t="s">
         <v>42</v>
       </c>
@@ -10562,8 +10596,8 @@
       </c>
     </row>
     <row r="64" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="86"/>
-      <c r="C64" s="88"/>
+      <c r="B64" s="112"/>
+      <c r="C64" s="100"/>
       <c r="D64" s="44" t="s">
         <v>49</v>
       </c>
@@ -10700,8 +10734,8 @@
       </c>
     </row>
     <row r="65" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="86"/>
-      <c r="C65" s="88"/>
+      <c r="B65" s="112"/>
+      <c r="C65" s="100"/>
       <c r="D65" s="44" t="s">
         <v>60</v>
       </c>
@@ -10838,10 +10872,10 @@
       </c>
     </row>
     <row r="66" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="86"/>
-      <c r="C66" s="88"/>
+      <c r="B66" s="112"/>
+      <c r="C66" s="100"/>
       <c r="D66" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E66" s="31" t="s">
         <v>13</v>
@@ -10982,8 +11016,8 @@
       </c>
     </row>
     <row r="67" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="86"/>
-      <c r="C67" s="88"/>
+      <c r="B67" s="112"/>
+      <c r="C67" s="100"/>
       <c r="D67" s="66" t="s">
         <v>57</v>
       </c>
@@ -11124,8 +11158,8 @@
       </c>
     </row>
     <row r="68" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="86"/>
-      <c r="C68" s="88"/>
+      <c r="B68" s="112"/>
+      <c r="C68" s="100"/>
       <c r="D68" s="47" t="s">
         <v>21</v>
       </c>
@@ -11264,8 +11298,8 @@
       </c>
     </row>
     <row r="69" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="86"/>
-      <c r="C69" s="88"/>
+      <c r="B69" s="112"/>
+      <c r="C69" s="100"/>
       <c r="D69" s="52" t="s">
         <v>44</v>
       </c>
@@ -11404,8 +11438,8 @@
       </c>
     </row>
     <row r="70" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="86"/>
-      <c r="C70" s="88"/>
+      <c r="B70" s="112"/>
+      <c r="C70" s="100"/>
       <c r="D70" s="53" t="s">
         <v>44</v>
       </c>
@@ -11548,10 +11582,10 @@
       </c>
     </row>
     <row r="71" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="85" t="s">
+      <c r="B71" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="88" t="s">
+      <c r="C71" s="100" t="s">
         <v>34</v>
       </c>
       <c r="D71" s="50" t="s">
@@ -11690,8 +11724,8 @@
       </c>
     </row>
     <row r="72" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="86"/>
-      <c r="C72" s="88"/>
+      <c r="B72" s="112"/>
+      <c r="C72" s="100"/>
       <c r="D72" s="30" t="s">
         <v>34</v>
       </c>
@@ -11829,8 +11863,8 @@
       </c>
     </row>
     <row r="73" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="86"/>
-      <c r="C73" s="88"/>
+      <c r="B73" s="112"/>
+      <c r="C73" s="100"/>
       <c r="D73" s="30" t="s">
         <v>34</v>
       </c>
@@ -11969,8 +12003,8 @@
       </c>
     </row>
     <row r="74" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="86"/>
-      <c r="C74" s="88"/>
+      <c r="B74" s="112"/>
+      <c r="C74" s="100"/>
       <c r="D74" s="30" t="s">
         <v>34</v>
       </c>
@@ -12109,10 +12143,10 @@
       </c>
     </row>
     <row r="75" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="86"/>
-      <c r="C75" s="88"/>
+      <c r="B75" s="112"/>
+      <c r="C75" s="100"/>
       <c r="D75" s="68" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E75" s="31"/>
       <c r="F75" s="32">
@@ -12251,8 +12285,8 @@
       </c>
     </row>
     <row r="76" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="86"/>
-      <c r="C76" s="88"/>
+      <c r="B76" s="112"/>
+      <c r="C76" s="100"/>
       <c r="D76" s="30" t="s">
         <v>57</v>
       </c>
@@ -12393,8 +12427,8 @@
       </c>
     </row>
     <row r="77" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="87"/>
-      <c r="C77" s="88"/>
+      <c r="B77" s="113"/>
+      <c r="C77" s="100"/>
       <c r="D77" s="54" t="s">
         <v>56</v>
       </c>
@@ -12537,21 +12571,6 @@
   </sheetData>
   <autoFilter ref="D5:E77" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}"/>
   <mergeCells count="22">
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="C9:C39"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="B17:B27"/>
-    <mergeCell ref="B29:B39"/>
     <mergeCell ref="B71:B77"/>
     <mergeCell ref="C71:C77"/>
     <mergeCell ref="B40:B48"/>
@@ -12559,6 +12578,21 @@
     <mergeCell ref="B49:B58"/>
     <mergeCell ref="B59:B70"/>
     <mergeCell ref="C59:C70"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="C9:C39"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="B17:B27"/>
+    <mergeCell ref="B29:B39"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="M6:AQ77">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">

--- a/CMSC495_ProjectPlan.xlsx
+++ b/CMSC495_ProjectPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Git/cmsc495_final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02081D3-1D47-DB4C-B42E-263BB577C917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6423817-9638-0642-A190-8DE9F8E8F2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26260" xr2:uid="{A3040AE0-0367-2B43-ADDE-84CCD12855DC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Project_Plan" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Project_Plan!$D$5:$E$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Project_Plan!$D$5:$E$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="82">
   <si>
     <t>Year</t>
   </si>
@@ -257,9 +257,6 @@
     <t>GUI</t>
   </si>
   <si>
-    <t>UML Diagram</t>
-  </si>
-  <si>
     <t>Week2 Discussion</t>
   </si>
   <si>
@@ -1293,56 +1290,20 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1371,17 +1332,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1719,7 +1716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}">
-  <dimension ref="A1:AV77"/>
+  <dimension ref="A1:AV76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -1742,7 +1739,7 @@
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="10"/>
       <c r="F1" s="2" t="s">
@@ -1778,48 +1775,48 @@
       <c r="D3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="86" t="s">
+      <c r="M3" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="101" t="s">
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="101"/>
-      <c r="U3" s="101"/>
-      <c r="V3" s="101"/>
-      <c r="W3" s="101"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="85" t="s">
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="107"/>
+      <c r="AB3" s="107"/>
+      <c r="AC3" s="107"/>
+      <c r="AD3" s="107"/>
     </row>
     <row r="4" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="93"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="87" t="s">
+      <c r="B4" s="99"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="88"/>
-      <c r="H4" s="89" t="s">
+      <c r="G4" s="110"/>
+      <c r="H4" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="90"/>
-      <c r="J4" s="91" t="s">
+      <c r="I4" s="112"/>
+      <c r="J4" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="92"/>
+      <c r="K4" s="114"/>
       <c r="M4" s="12" t="str">
         <f>TEXT(M5,"aaa")</f>
         <v>Fri</v>
@@ -2114,13 +2111,13 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="100" t="s">
+      <c r="C6" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="98" t="s">
+      <c r="D6" s="104" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="31" t="s">
@@ -2271,9 +2268,9 @@
       </c>
     </row>
     <row r="7" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="97"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="99"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="105"/>
       <c r="E7" s="31" t="s">
         <v>13</v>
       </c>
@@ -2422,9 +2419,9 @@
       </c>
     </row>
     <row r="8" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="97"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="99"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="105"/>
       <c r="E8" s="31" t="s">
         <v>15</v>
       </c>
@@ -2570,10 +2567,10 @@
       </c>
     </row>
     <row r="9" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="92" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="70" t="s">
@@ -2726,8 +2723,8 @@
       </c>
     </row>
     <row r="10" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="103"/>
-      <c r="C10" s="105"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="93"/>
       <c r="D10" s="71" t="s">
         <v>61</v>
       </c>
@@ -2878,8 +2875,8 @@
       </c>
     </row>
     <row r="11" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="103"/>
-      <c r="C11" s="105"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="93"/>
       <c r="D11" s="71" t="s">
         <v>61</v>
       </c>
@@ -3030,10 +3027,10 @@
       </c>
     </row>
     <row r="12" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="103"/>
-      <c r="C12" s="105"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="93"/>
       <c r="D12" s="72" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>15</v>
@@ -3182,8 +3179,8 @@
       </c>
     </row>
     <row r="13" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="103"/>
-      <c r="C13" s="105"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="93"/>
       <c r="D13" s="73" t="s">
         <v>57</v>
       </c>
@@ -3332,9 +3329,9 @@
       </c>
     </row>
     <row r="14" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="103"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="107" t="s">
+      <c r="B14" s="91"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="95" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="31" t="s">
@@ -3480,9 +3477,9 @@
       </c>
     </row>
     <row r="15" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="103"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="108"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="96"/>
       <c r="E15" s="31" t="s">
         <v>13</v>
       </c>
@@ -3630,9 +3627,9 @@
       </c>
     </row>
     <row r="16" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="103"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="108"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="96"/>
       <c r="E16" s="31" t="s">
         <v>15</v>
       </c>
@@ -3780,12 +3777,12 @@
       </c>
     </row>
     <row r="17" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="105"/>
+      <c r="C17" s="93"/>
       <c r="D17" s="80" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" s="31" t="s">
         <v>15</v>
@@ -3934,10 +3931,10 @@
       </c>
     </row>
     <row r="18" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="103"/>
-      <c r="C18" s="105"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="93"/>
       <c r="D18" s="81" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E18" s="31" t="s">
         <v>15</v>
@@ -4086,8 +4083,8 @@
       </c>
     </row>
     <row r="19" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="103"/>
-      <c r="C19" s="105"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="93"/>
       <c r="D19" s="82" t="s">
         <v>53</v>
       </c>
@@ -4238,8 +4235,8 @@
       </c>
     </row>
     <row r="20" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="103"/>
-      <c r="C20" s="105"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="93"/>
       <c r="D20" s="82" t="s">
         <v>54</v>
       </c>
@@ -4390,10 +4387,10 @@
       </c>
     </row>
     <row r="21" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="103"/>
-      <c r="C21" s="105"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="93"/>
       <c r="D21" s="82" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E21" s="31" t="s">
         <v>14</v>
@@ -4542,10 +4539,10 @@
       </c>
     </row>
     <row r="22" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="103"/>
-      <c r="C22" s="105"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="93"/>
       <c r="D22" s="83" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" s="31" t="s">
         <v>15</v>
@@ -4694,8 +4691,8 @@
       </c>
     </row>
     <row r="23" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="103"/>
-      <c r="C23" s="105"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="93"/>
       <c r="D23" s="83" t="s">
         <v>62</v>
       </c>
@@ -4846,10 +4843,10 @@
       </c>
     </row>
     <row r="24" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="103"/>
-      <c r="C24" s="105"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="93"/>
       <c r="D24" s="84" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E24" s="31" t="s">
         <v>14</v>
@@ -4998,8 +4995,8 @@
       </c>
     </row>
     <row r="25" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="103"/>
-      <c r="C25" s="105"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="93"/>
       <c r="D25" s="83" t="s">
         <v>57</v>
       </c>
@@ -5140,10 +5137,10 @@
       </c>
     </row>
     <row r="26" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="103"/>
-      <c r="C26" s="105"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="93"/>
       <c r="D26" s="83" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E26" s="31" t="s">
         <v>15</v>
@@ -5292,8 +5289,8 @@
       </c>
     </row>
     <row r="27" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="103"/>
-      <c r="C27" s="105"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="93"/>
       <c r="D27" s="84" t="s">
         <v>17</v>
       </c>
@@ -5445,7 +5442,7 @@
     </row>
     <row r="28" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="79"/>
-      <c r="C28" s="105"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="74" t="s">
         <v>63</v>
       </c>
@@ -5594,10 +5591,10 @@
       </c>
     </row>
     <row r="29" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="109" t="s">
+      <c r="B29" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="105"/>
+      <c r="C29" s="93"/>
       <c r="D29" s="75" t="s">
         <v>38</v>
       </c>
@@ -5746,10 +5743,10 @@
       </c>
     </row>
     <row r="30" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="109"/>
-      <c r="C30" s="105"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="93"/>
       <c r="D30" s="75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E30" s="31" t="s">
         <v>14</v>
@@ -5896,8 +5893,8 @@
       </c>
     </row>
     <row r="31" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="109"/>
-      <c r="C31" s="105"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="93"/>
       <c r="D31" s="75" t="s">
         <v>39</v>
       </c>
@@ -5919,7 +5916,7 @@
       <c r="J31" s="34"/>
       <c r="K31" s="35"/>
       <c r="M31" s="39">
-        <f t="shared" ref="M31:AB55" si="6">IF($K31=M$5,3,IF(OR(AND($H31&lt;=M$5,M$5&lt;=$I31),$H31=M$5),2,IF(AND($F31&lt;=M$5,M$5&lt;=$G31),1,0)))</f>
+        <f t="shared" ref="M31:AB54" si="6">IF($K31=M$5,3,IF(OR(AND($H31&lt;=M$5,M$5&lt;=$I31),$H31=M$5),2,IF(AND($F31&lt;=M$5,M$5&lt;=$G31),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N31" s="40">
@@ -6039,13 +6036,13 @@
         <v>0</v>
       </c>
       <c r="AQ31" s="41">
-        <f t="shared" ref="N31:AQ40" si="7">IF($K31=AQ$5,3,IF(OR(AND($H31&lt;=AQ$5,AQ$5&lt;=$I31),$H31=AQ$5),2,IF(AND($F31&lt;=AQ$5,AQ$5&lt;=$G31),1,0)))</f>
+        <f t="shared" ref="N31:AQ39" si="7">IF($K31=AQ$5,3,IF(OR(AND($H31&lt;=AQ$5,AQ$5&lt;=$I31),$H31=AQ$5),2,IF(AND($F31&lt;=AQ$5,AQ$5&lt;=$G31),1,0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="109"/>
-      <c r="C32" s="105"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="93"/>
       <c r="D32" s="75" t="s">
         <v>40</v>
       </c>
@@ -6192,10 +6189,10 @@
       </c>
     </row>
     <row r="33" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="109"/>
-      <c r="C33" s="105"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="93"/>
       <c r="D33" s="75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E33" s="31" t="s">
         <v>15</v>
@@ -6342,10 +6339,10 @@
       </c>
     </row>
     <row r="34" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="109"/>
-      <c r="C34" s="105"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="93"/>
       <c r="D34" s="75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E34" s="31" t="s">
         <v>15</v>
@@ -6490,16 +6487,20 @@
       </c>
     </row>
     <row r="35" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="109"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="75" t="s">
-        <v>65</v>
+      <c r="B35" s="97"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="77" t="s">
+        <v>67</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="32"/>
-      <c r="G35" s="35"/>
+        <v>13</v>
+      </c>
+      <c r="F35" s="32">
+        <v>44657</v>
+      </c>
+      <c r="G35" s="67">
+        <v>44659</v>
+      </c>
       <c r="H35" s="32"/>
       <c r="I35" s="35"/>
       <c r="J35" s="34"/>
@@ -6526,15 +6527,15 @@
       </c>
       <c r="R35" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35" s="40">
         <f t="shared" si="7"/>
@@ -6630,19 +6631,17 @@
       </c>
     </row>
     <row r="36" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="109"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" s="31" t="s">
-        <v>13</v>
-      </c>
+      <c r="B36" s="97"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="31"/>
       <c r="F36" s="32">
-        <v>44657</v>
-      </c>
-      <c r="G36" s="67">
-        <v>44659</v>
+        <v>44662</v>
+      </c>
+      <c r="G36" s="33">
+        <v>44662</v>
       </c>
       <c r="H36" s="32"/>
       <c r="I36" s="35"/>
@@ -6670,27 +6669,27 @@
       </c>
       <c r="R36" s="40">
         <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V36" s="40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W36" s="40">
+        <f t="shared" si="7"/>
         <v>1</v>
-      </c>
-      <c r="S36" s="40">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="T36" s="40">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="U36" s="40">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V36" s="40">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W36" s="40">
-        <f t="shared" si="7"/>
-        <v>0</v>
       </c>
       <c r="X36" s="40">
         <f t="shared" si="7"/>
@@ -6774,19 +6773,23 @@
       </c>
     </row>
     <row r="37" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="109"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="76" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" s="31"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>13</v>
+      </c>
       <c r="F37" s="32">
+        <v>44657</v>
+      </c>
+      <c r="G37" s="35">
         <v>44662</v>
       </c>
-      <c r="G37" s="33">
-        <v>44662</v>
-      </c>
-      <c r="H37" s="32"/>
+      <c r="H37" s="32">
+        <v>44656</v>
+      </c>
       <c r="I37" s="35"/>
       <c r="J37" s="34"/>
       <c r="K37" s="35"/>
@@ -6808,27 +6811,27 @@
       </c>
       <c r="Q37" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R37" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V37" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="40">
         <f t="shared" si="7"/>
@@ -6915,11 +6918,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="109"/>
-      <c r="C38" s="105"/>
-      <c r="D38" s="75" t="s">
-        <v>41</v>
+    <row r="38" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="98"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="78" t="s">
+        <v>18</v>
       </c>
       <c r="E38" s="31" t="s">
         <v>13</v>
@@ -6928,7 +6931,7 @@
         <v>44657</v>
       </c>
       <c r="G38" s="35">
-        <v>44662</v>
+        <v>44663</v>
       </c>
       <c r="H38" s="32">
         <v>44656</v>
@@ -6982,7 +6985,7 @@
       </c>
       <c r="X38" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38" s="40">
         <f t="shared" si="7"/>
@@ -7062,23 +7065,21 @@
       </c>
     </row>
     <row r="39" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="110"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="78" t="s">
-        <v>18</v>
+      <c r="B39" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="65" t="s">
+        <v>64</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="32">
-        <v>44657</v>
-      </c>
-      <c r="G39" s="35">
-        <v>44663</v>
-      </c>
-      <c r="H39" s="32">
-        <v>44656</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F39" s="32"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="32"/>
       <c r="I39" s="35"/>
       <c r="J39" s="34"/>
       <c r="K39" s="35"/>
@@ -7100,35 +7101,35 @@
       </c>
       <c r="Q39" s="40">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R39" s="40">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39" s="40">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39" s="40">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39" s="40">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V39" s="40">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W39" s="40">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X39" s="40">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="40">
         <f t="shared" si="7"/>
@@ -7143,82 +7144,78 @@
         <v>0</v>
       </c>
       <c r="AB39" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="AB39:AQ57" si="8">IF($K39=AB$5,3,IF(OR(AND($H39&lt;=AB$5,AB$5&lt;=$I39),$H39=AB$5),2,IF(AND($F39&lt;=AB$5,AB$5&lt;=$G39),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AC39" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD39" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE39" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF39" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG39" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH39" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI39" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AJ39" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK39" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL39" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM39" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN39" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AO39" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP39" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AQ39" s="41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="112" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="114" t="s">
-        <v>32</v>
-      </c>
+      <c r="B40" s="86"/>
+      <c r="C40" s="89"/>
       <c r="D40" s="65" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F40" s="32"/>
       <c r="G40" s="35"/>
@@ -7231,63 +7228,63 @@
         <v>0</v>
       </c>
       <c r="N40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA40" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB40" s="40">
-        <f t="shared" ref="AB40:AQ58" si="8">IF($K40=AB$5,3,IF(OR(AND($H40&lt;=AB$5,AB$5&lt;=$I40),$H40=AB$5),2,IF(AND($F40&lt;=AB$5,AB$5&lt;=$G40),1,0)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC40" s="40">
@@ -7352,10 +7349,10 @@
       </c>
     </row>
     <row r="41" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="112"/>
-      <c r="C41" s="114"/>
-      <c r="D41" s="65" t="s">
-        <v>80</v>
+      <c r="B41" s="86"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="44" t="s">
+        <v>45</v>
       </c>
       <c r="E41" s="31" t="s">
         <v>14</v>
@@ -7363,7 +7360,7 @@
       <c r="F41" s="32"/>
       <c r="G41" s="35"/>
       <c r="H41" s="32"/>
-      <c r="I41" s="35"/>
+      <c r="I41" s="69"/>
       <c r="J41" s="34"/>
       <c r="K41" s="35"/>
       <c r="M41" s="39">
@@ -7492,18 +7489,22 @@
       </c>
     </row>
     <row r="42" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="112"/>
-      <c r="C42" s="114"/>
-      <c r="D42" s="44" t="s">
-        <v>45</v>
+      <c r="B42" s="86"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="45" t="s">
+        <v>68</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="32"/>
-      <c r="G42" s="35"/>
+        <v>15</v>
+      </c>
+      <c r="F42" s="32">
+        <v>44664</v>
+      </c>
+      <c r="G42" s="35">
+        <v>44666</v>
+      </c>
       <c r="H42" s="32"/>
-      <c r="I42" s="69"/>
+      <c r="I42" s="35"/>
       <c r="J42" s="34"/>
       <c r="K42" s="35"/>
       <c r="M42" s="39">
@@ -7556,15 +7557,15 @@
       </c>
       <c r="Y42" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z42" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA42" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB42" s="40">
         <f t="shared" si="6"/>
@@ -7632,19 +7633,17 @@
       </c>
     </row>
     <row r="43" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="112"/>
-      <c r="C43" s="114"/>
-      <c r="D43" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" s="31" t="s">
-        <v>15</v>
-      </c>
+      <c r="B43" s="86"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="31"/>
       <c r="F43" s="32">
-        <v>44664</v>
+        <v>44669</v>
       </c>
       <c r="G43" s="35">
-        <v>44666</v>
+        <v>44669</v>
       </c>
       <c r="H43" s="32"/>
       <c r="I43" s="35"/>
@@ -7700,27 +7699,27 @@
       </c>
       <c r="Y43" s="40">
         <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z43" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA43" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB43" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC43" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AD43" s="40">
+        <f t="shared" si="8"/>
         <v>1</v>
-      </c>
-      <c r="Z43" s="40">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AA43" s="40">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AB43" s="40">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC43" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AD43" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
       </c>
       <c r="AE43" s="40">
         <f t="shared" si="8"/>
@@ -7776,17 +7775,19 @@
       </c>
     </row>
     <row r="44" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="112"/>
-      <c r="C44" s="114"/>
-      <c r="D44" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="E44" s="31"/>
+      <c r="B44" s="86"/>
+      <c r="C44" s="89"/>
+      <c r="D44" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>14</v>
+      </c>
       <c r="F44" s="32">
-        <v>44669</v>
+        <v>44664</v>
       </c>
       <c r="G44" s="35">
-        <v>44669</v>
+        <v>44670</v>
       </c>
       <c r="H44" s="32"/>
       <c r="I44" s="35"/>
@@ -7842,23 +7843,23 @@
       </c>
       <c r="Y44" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z44" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA44" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB44" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC44" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD44" s="40">
         <f t="shared" si="8"/>
@@ -7866,7 +7867,7 @@
       </c>
       <c r="AE44" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF44" s="40">
         <f t="shared" si="8"/>
@@ -7918,13 +7919,13 @@
       </c>
     </row>
     <row r="45" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="112"/>
-      <c r="C45" s="114"/>
+      <c r="B45" s="86"/>
+      <c r="C45" s="89"/>
       <c r="D45" s="47" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F45" s="32">
         <v>44664</v>
@@ -8062,13 +8063,13 @@
       </c>
     </row>
     <row r="46" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="112"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="47" t="s">
+      <c r="B46" s="86"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="45" t="s">
         <v>47</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F46" s="32">
         <v>44664</v>
@@ -8206,14 +8207,12 @@
       </c>
     </row>
     <row r="47" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="112"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="E47" s="31" t="s">
-        <v>13</v>
-      </c>
+      <c r="B47" s="87"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" s="31"/>
       <c r="F47" s="32">
         <v>44664</v>
       </c>
@@ -8350,18 +8349,18 @@
       </c>
     </row>
     <row r="48" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="113"/>
-      <c r="C48" s="114"/>
-      <c r="D48" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="E48" s="31"/>
-      <c r="F48" s="32">
-        <v>44664</v>
-      </c>
-      <c r="G48" s="35">
-        <v>44670</v>
-      </c>
+      <c r="B48" s="85" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="89"/>
+      <c r="D48" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="32"/>
+      <c r="G48" s="69"/>
       <c r="H48" s="32"/>
       <c r="I48" s="35"/>
       <c r="J48" s="34"/>
@@ -8416,31 +8415,31 @@
       </c>
       <c r="Y48" s="40">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="40">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA48" s="40">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB48" s="40">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC48" s="40">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD48" s="40">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE48" s="40">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF48" s="40">
         <f t="shared" si="8"/>
@@ -8492,18 +8491,16 @@
       </c>
     </row>
     <row r="49" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="111" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49" s="114"/>
-      <c r="D49" s="65" t="s">
-        <v>39</v>
+      <c r="B49" s="86"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="44" t="s">
+        <v>40</v>
       </c>
       <c r="E49" s="31" t="s">
         <v>13</v>
       </c>
       <c r="F49" s="32"/>
-      <c r="G49" s="69"/>
+      <c r="G49" s="35"/>
       <c r="H49" s="32"/>
       <c r="I49" s="35"/>
       <c r="J49" s="34"/>
@@ -8634,14 +8631,12 @@
       </c>
     </row>
     <row r="50" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="112"/>
-      <c r="C50" s="114"/>
+      <c r="B50" s="86"/>
+      <c r="C50" s="89"/>
       <c r="D50" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="E50" s="31" t="s">
-        <v>13</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E50" s="31"/>
       <c r="F50" s="32"/>
       <c r="G50" s="35"/>
       <c r="H50" s="32"/>
@@ -8774,12 +8769,14 @@
       </c>
     </row>
     <row r="51" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="112"/>
-      <c r="C51" s="114"/>
+      <c r="B51" s="86"/>
+      <c r="C51" s="89"/>
       <c r="D51" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="E51" s="31"/>
+        <v>46</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>14</v>
+      </c>
       <c r="F51" s="32"/>
       <c r="G51" s="35"/>
       <c r="H51" s="32"/>
@@ -8912,14 +8909,12 @@
       </c>
     </row>
     <row r="52" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="112"/>
-      <c r="C52" s="114"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="89"/>
       <c r="D52" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="E52" s="31" t="s">
-        <v>14</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E52" s="31"/>
       <c r="F52" s="32"/>
       <c r="G52" s="35"/>
       <c r="H52" s="32"/>
@@ -9052,14 +9047,20 @@
       </c>
     </row>
     <row r="53" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="112"/>
-      <c r="C53" s="114"/>
-      <c r="D53" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="E53" s="31"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="35"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="89"/>
+      <c r="D53" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="32">
+        <v>44671</v>
+      </c>
+      <c r="G53" s="35">
+        <v>44673</v>
+      </c>
       <c r="H53" s="32"/>
       <c r="I53" s="35"/>
       <c r="J53" s="34"/>
@@ -9142,15 +9143,15 @@
       </c>
       <c r="AF53" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG53" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH53" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI53" s="40">
         <f t="shared" si="8"/>
@@ -9190,19 +9191,17 @@
       </c>
     </row>
     <row r="54" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="112"/>
-      <c r="C54" s="114"/>
-      <c r="D54" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="E54" s="31" t="s">
-        <v>14</v>
-      </c>
+      <c r="B54" s="86"/>
+      <c r="C54" s="89"/>
+      <c r="D54" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" s="31"/>
       <c r="F54" s="32">
-        <v>44671</v>
+        <v>44676</v>
       </c>
       <c r="G54" s="35">
-        <v>44673</v>
+        <v>44676</v>
       </c>
       <c r="H54" s="32"/>
       <c r="I54" s="35"/>
@@ -9233,80 +9232,80 @@
         <v>0</v>
       </c>
       <c r="S54" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="S54:AH69" si="9">IF($K54=S$5,3,IF(OR(AND($H54&lt;=S$5,S$5&lt;=$I54),$H54=S$5),2,IF(AND($F54&lt;=S$5,S$5&lt;=$G54),1,0)))</f>
         <v>0</v>
       </c>
       <c r="T54" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U54" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V54" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W54" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X54" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y54" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z54" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA54" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AB54" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AF54" s="40">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG54" s="40">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH54" s="40">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AI54" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AJ54" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK54" s="40">
         <f t="shared" si="8"/>
         <v>1</v>
-      </c>
-      <c r="AG54" s="40">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AH54" s="40">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AI54" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ54" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK54" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
       </c>
       <c r="AL54" s="40">
         <f t="shared" si="8"/>
@@ -9334,84 +9333,82 @@
       </c>
     </row>
     <row r="55" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="112"/>
-      <c r="C55" s="114"/>
-      <c r="D55" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="E55" s="31"/>
-      <c r="F55" s="32">
-        <v>44676</v>
-      </c>
-      <c r="G55" s="35">
-        <v>44676</v>
-      </c>
+      <c r="B55" s="86"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="32"/>
+      <c r="G55" s="35"/>
       <c r="H55" s="32"/>
       <c r="I55" s="35"/>
       <c r="J55" s="34"/>
       <c r="K55" s="35"/>
       <c r="M55" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="M55:AB70" si="10">IF($K55=M$5,3,IF(OR(AND($H55&lt;=M$5,M$5&lt;=$I55),$H55=M$5),2,IF(AND($F55&lt;=M$5,M$5&lt;=$G55),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N55" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O55" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P55" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q55" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R55" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S55" s="40">
-        <f t="shared" ref="S55:AH70" si="9">IF($K55=S$5,3,IF(OR(AND($H55&lt;=S$5,S$5&lt;=$I55),$H55=S$5),2,IF(AND($F55&lt;=S$5,S$5&lt;=$G55),1,0)))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC55" s="40">
@@ -9448,7 +9445,7 @@
       </c>
       <c r="AK55" s="40">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL55" s="40">
         <f t="shared" si="8"/>
@@ -9476,13 +9473,13 @@
       </c>
     </row>
     <row r="56" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="112"/>
-      <c r="C56" s="114"/>
+      <c r="B56" s="86"/>
+      <c r="C56" s="89"/>
       <c r="D56" s="47" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F56" s="32"/>
       <c r="G56" s="35"/>
@@ -9491,7 +9488,7 @@
       <c r="J56" s="34"/>
       <c r="K56" s="35"/>
       <c r="M56" s="39">
-        <f t="shared" ref="M56:AB71" si="10">IF($K56=M$5,3,IF(OR(AND($H56&lt;=M$5,M$5&lt;=$I56),$H56=M$5),2,IF(AND($F56&lt;=M$5,M$5&lt;=$G56),1,0)))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N56" s="40">
@@ -9616,16 +9613,20 @@
       </c>
     </row>
     <row r="57" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="112"/>
-      <c r="C57" s="114"/>
-      <c r="D57" s="47" t="s">
+      <c r="B57" s="87"/>
+      <c r="C57" s="89"/>
+      <c r="D57" s="46" t="s">
         <v>43</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="32"/>
-      <c r="G57" s="35"/>
+        <v>13</v>
+      </c>
+      <c r="F57" s="32">
+        <v>44671</v>
+      </c>
+      <c r="G57" s="69">
+        <v>44677</v>
+      </c>
       <c r="H57" s="32"/>
       <c r="I57" s="35"/>
       <c r="J57" s="34"/>
@@ -9708,68 +9709,68 @@
       </c>
       <c r="AF57" s="40">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG57" s="40">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH57" s="40">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI57" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ57" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK57" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ref="AK57:AQ57" si="11">IF($K57=AK$5,3,IF(OR(AND($H57&lt;=AK$5,AK$5&lt;=$I57),$H57=AK$5),2,IF(AND($F57&lt;=AK$5,AK$5&lt;=$G57),1,0)))</f>
+        <v>1</v>
       </c>
       <c r="AL57" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="AM57" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN57" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AO57" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AP57" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AQ57" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="113"/>
-      <c r="C58" s="114"/>
-      <c r="D58" s="46" t="s">
-        <v>43</v>
+      <c r="B58" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="43" t="s">
+        <v>52</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="32">
-        <v>44671</v>
-      </c>
-      <c r="G58" s="69">
-        <v>44677</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F58" s="32"/>
+      <c r="G58" s="35"/>
       <c r="H58" s="32"/>
       <c r="I58" s="35"/>
       <c r="J58" s="34"/>
@@ -9852,66 +9853,60 @@
       </c>
       <c r="AF58" s="40">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG58" s="40">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH58" s="40">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI58" s="40">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" ref="AI58:AQ69" si="12">IF($K58=AI$5,3,IF(OR(AND($H58&lt;=AI$5,AI$5&lt;=$I58),$H58=AI$5),2,IF(AND($F58&lt;=AI$5,AI$5&lt;=$G58),1,0)))</f>
+        <v>0</v>
       </c>
       <c r="AJ58" s="40">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="AK58" s="40">
-        <f t="shared" ref="AK58:AQ58" si="11">IF($K58=AK$5,3,IF(OR(AND($H58&lt;=AK$5,AK$5&lt;=$I58),$H58=AK$5),2,IF(AND($F58&lt;=AK$5,AK$5&lt;=$G58),1,0)))</f>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="AL58" s="40">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="AM58" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN58" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO58" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP58" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ58" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="111" t="s">
-        <v>27</v>
-      </c>
-      <c r="C59" s="100" t="s">
-        <v>33</v>
-      </c>
+      <c r="B59" s="86"/>
+      <c r="C59" s="88"/>
       <c r="D59" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="E59" s="31" t="s">
-        <v>15</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E59" s="31"/>
       <c r="F59" s="32"/>
       <c r="G59" s="35"/>
       <c r="H59" s="32"/>
@@ -10007,7 +10002,7 @@
         <v>0</v>
       </c>
       <c r="AI59" s="40">
-        <f t="shared" ref="AI59:AQ70" si="12">IF($K59=AI$5,3,IF(OR(AND($H59&lt;=AI$5,AI$5&lt;=$I59),$H59=AI$5),2,IF(AND($F59&lt;=AI$5,AI$5&lt;=$G59),1,0)))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AJ59" s="40">
@@ -10044,10 +10039,10 @@
       </c>
     </row>
     <row r="60" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="112"/>
-      <c r="C60" s="100"/>
-      <c r="D60" s="43" t="s">
-        <v>76</v>
+      <c r="B60" s="86"/>
+      <c r="C60" s="88"/>
+      <c r="D60" s="50" t="s">
+        <v>58</v>
       </c>
       <c r="E60" s="31"/>
       <c r="F60" s="32"/>
@@ -10182,10 +10177,10 @@
       </c>
     </row>
     <row r="61" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="112"/>
-      <c r="C61" s="100"/>
-      <c r="D61" s="50" t="s">
-        <v>58</v>
+      <c r="B61" s="86"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="51" t="s">
+        <v>59</v>
       </c>
       <c r="E61" s="31"/>
       <c r="F61" s="32"/>
@@ -10319,11 +10314,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="112"/>
-      <c r="C62" s="100"/>
-      <c r="D62" s="51" t="s">
-        <v>59</v>
+    <row r="62" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="86"/>
+      <c r="C62" s="88"/>
+      <c r="D62" s="30" t="s">
+        <v>42</v>
       </c>
       <c r="E62" s="31"/>
       <c r="F62" s="32"/>
@@ -10458,10 +10453,10 @@
       </c>
     </row>
     <row r="63" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="112"/>
-      <c r="C63" s="100"/>
-      <c r="D63" s="30" t="s">
-        <v>42</v>
+      <c r="B63" s="86"/>
+      <c r="C63" s="88"/>
+      <c r="D63" s="44" t="s">
+        <v>49</v>
       </c>
       <c r="E63" s="31"/>
       <c r="F63" s="32"/>
@@ -10596,10 +10591,10 @@
       </c>
     </row>
     <row r="64" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="112"/>
-      <c r="C64" s="100"/>
+      <c r="B64" s="86"/>
+      <c r="C64" s="88"/>
       <c r="D64" s="44" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E64" s="31"/>
       <c r="F64" s="32"/>
@@ -10734,14 +10729,20 @@
       </c>
     </row>
     <row r="65" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="112"/>
-      <c r="C65" s="100"/>
-      <c r="D65" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="E65" s="31"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="35"/>
+      <c r="B65" s="86"/>
+      <c r="C65" s="88"/>
+      <c r="D65" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="E65" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="32">
+        <v>44678</v>
+      </c>
+      <c r="G65" s="35">
+        <v>44680</v>
+      </c>
       <c r="H65" s="32"/>
       <c r="I65" s="35"/>
       <c r="J65" s="34"/>
@@ -10852,15 +10853,15 @@
       </c>
       <c r="AM65" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN65" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO65" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP65" s="40">
         <f t="shared" si="12"/>
@@ -10872,19 +10873,17 @@
       </c>
     </row>
     <row r="66" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="112"/>
-      <c r="C66" s="100"/>
-      <c r="D66" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="E66" s="31" t="s">
-        <v>13</v>
-      </c>
+      <c r="B66" s="86"/>
+      <c r="C66" s="88"/>
+      <c r="D66" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="E66" s="31"/>
       <c r="F66" s="32">
-        <v>44678</v>
+        <v>44683</v>
       </c>
       <c r="G66" s="35">
-        <v>44680</v>
+        <v>44683</v>
       </c>
       <c r="H66" s="32"/>
       <c r="I66" s="35"/>
@@ -10996,15 +10995,15 @@
       </c>
       <c r="AM66" s="40">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN66" s="40">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO66" s="40">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP66" s="40">
         <f t="shared" si="12"/>
@@ -11016,18 +11015,16 @@
       </c>
     </row>
     <row r="67" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="112"/>
-      <c r="C67" s="100"/>
-      <c r="D67" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="E67" s="31"/>
-      <c r="F67" s="32">
-        <v>44683</v>
-      </c>
-      <c r="G67" s="35">
-        <v>44683</v>
-      </c>
+      <c r="B67" s="86"/>
+      <c r="C67" s="88"/>
+      <c r="D67" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="32"/>
+      <c r="G67" s="35"/>
       <c r="H67" s="32"/>
       <c r="I67" s="35"/>
       <c r="J67" s="34"/>
@@ -11158,13 +11155,13 @@
       </c>
     </row>
     <row r="68" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="112"/>
-      <c r="C68" s="100"/>
-      <c r="D68" s="47" t="s">
-        <v>21</v>
+      <c r="B68" s="86"/>
+      <c r="C68" s="88"/>
+      <c r="D68" s="52" t="s">
+        <v>44</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F68" s="32"/>
       <c r="G68" s="35"/>
@@ -11298,16 +11295,20 @@
       </c>
     </row>
     <row r="69" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="112"/>
-      <c r="C69" s="100"/>
-      <c r="D69" s="52" t="s">
+      <c r="B69" s="86"/>
+      <c r="C69" s="88"/>
+      <c r="D69" s="53" t="s">
         <v>44</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="32"/>
-      <c r="G69" s="35"/>
+        <v>15</v>
+      </c>
+      <c r="F69" s="48">
+        <v>44678</v>
+      </c>
+      <c r="G69" s="49">
+        <v>44684</v>
+      </c>
       <c r="H69" s="32"/>
       <c r="I69" s="35"/>
       <c r="J69" s="34"/>
@@ -11418,40 +11419,38 @@
       </c>
       <c r="AM69" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN69" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO69" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP69" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ69" s="41">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="112"/>
-      <c r="C70" s="100"/>
-      <c r="D70" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="E70" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F70" s="48">
-        <v>44678</v>
-      </c>
-      <c r="G70" s="49">
-        <v>44684</v>
-      </c>
+      <c r="B70" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E70" s="31"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="49"/>
       <c r="H70" s="32"/>
       <c r="I70" s="35"/>
       <c r="J70" s="34"/>
@@ -11517,149 +11516,146 @@
         <v>0</v>
       </c>
       <c r="AB70" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="AB70:AQ76" si="13">IF($K70=AB$5,3,IF(OR(AND($H70&lt;=AB$5,AB$5&lt;=$I70),$H70=AB$5),2,IF(AND($F70&lt;=AB$5,AB$5&lt;=$G70),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AC70" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD70" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE70" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AF70" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AG70" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AH70" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AI70" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AJ70" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AK70" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AL70" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM70" s="40">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="AN70" s="40">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="AO70" s="40">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="AP70" s="40">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="AQ70" s="41">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="111" t="s">
-        <v>28</v>
-      </c>
-      <c r="C71" s="100" t="s">
+      <c r="B71" s="86"/>
+      <c r="C71" s="88"/>
+      <c r="D71" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D71" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="E71" s="31"/>
-      <c r="F71" s="48"/>
-      <c r="G71" s="49"/>
+      <c r="E71" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="32"/>
       <c r="H71" s="32"/>
       <c r="I71" s="35"/>
       <c r="J71" s="34"/>
       <c r="K71" s="35"/>
       <c r="M71" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="M71:AB76" si="14">IF($K71=M$5,3,IF(OR(AND($H71&lt;=M$5,M$5&lt;=$I71),$H71=M$5),2,IF(AND($F71&lt;=M$5,M$5&lt;=$G71),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Z71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AA71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AB71" s="40">
-        <f t="shared" ref="AB71:AQ77" si="13">IF($K71=AB$5,3,IF(OR(AND($H71&lt;=AB$5,AB$5&lt;=$I71),$H71=AB$5),2,IF(AND($F71&lt;=AB$5,AB$5&lt;=$G71),1,0)))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AC71" s="40">
@@ -11724,21 +11720,22 @@
       </c>
     </row>
     <row r="72" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="112"/>
-      <c r="C72" s="100"/>
+      <c r="B72" s="86"/>
+      <c r="C72" s="88"/>
       <c r="D72" s="30" t="s">
         <v>34</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F72" s="32"/>
+      <c r="G72" s="35"/>
       <c r="H72" s="32"/>
       <c r="I72" s="35"/>
       <c r="J72" s="34"/>
       <c r="K72" s="35"/>
       <c r="M72" s="39">
-        <f t="shared" ref="M72:AB77" si="14">IF($K72=M$5,3,IF(OR(AND($H72&lt;=M$5,M$5&lt;=$I72),$H72=M$5),2,IF(AND($F72&lt;=M$5,M$5&lt;=$G72),1,0)))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N72" s="40">
@@ -11863,13 +11860,13 @@
       </c>
     </row>
     <row r="73" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="112"/>
-      <c r="C73" s="100"/>
+      <c r="B73" s="86"/>
+      <c r="C73" s="88"/>
       <c r="D73" s="30" t="s">
         <v>34</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F73" s="32"/>
       <c r="G73" s="35"/>
@@ -12003,16 +12000,18 @@
       </c>
     </row>
     <row r="74" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="112"/>
-      <c r="C74" s="100"/>
-      <c r="D74" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E74" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F74" s="32"/>
-      <c r="G74" s="35"/>
+      <c r="B74" s="86"/>
+      <c r="C74" s="88"/>
+      <c r="D74" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="E74" s="31"/>
+      <c r="F74" s="32">
+        <v>44685</v>
+      </c>
+      <c r="G74" s="35">
+        <v>44687</v>
+      </c>
       <c r="H74" s="32"/>
       <c r="I74" s="35"/>
       <c r="J74" s="34"/>
@@ -12143,16 +12142,16 @@
       </c>
     </row>
     <row r="75" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="112"/>
-      <c r="C75" s="100"/>
-      <c r="D75" s="68" t="s">
-        <v>72</v>
+      <c r="B75" s="86"/>
+      <c r="C75" s="88"/>
+      <c r="D75" s="30" t="s">
+        <v>57</v>
       </c>
       <c r="E75" s="31"/>
-      <c r="F75" s="32">
-        <v>44685</v>
-      </c>
-      <c r="G75" s="35">
+      <c r="F75" s="62">
+        <v>44687</v>
+      </c>
+      <c r="G75" s="63">
         <v>44687</v>
       </c>
       <c r="H75" s="32"/>
@@ -12285,22 +12284,22 @@
       </c>
     </row>
     <row r="76" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="112"/>
-      <c r="C76" s="100"/>
-      <c r="D76" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="E76" s="31"/>
-      <c r="F76" s="62">
-        <v>44687</v>
-      </c>
-      <c r="G76" s="63">
-        <v>44687</v>
-      </c>
-      <c r="H76" s="32"/>
-      <c r="I76" s="35"/>
-      <c r="J76" s="34"/>
-      <c r="K76" s="35"/>
+      <c r="B76" s="87"/>
+      <c r="C76" s="88"/>
+      <c r="D76" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="E76" s="55"/>
+      <c r="F76" s="56">
+        <v>44685</v>
+      </c>
+      <c r="G76" s="57">
+        <v>44691</v>
+      </c>
+      <c r="H76" s="58"/>
+      <c r="I76" s="59"/>
+      <c r="J76" s="60"/>
+      <c r="K76" s="59"/>
       <c r="M76" s="39">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -12426,175 +12425,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="113"/>
-      <c r="C77" s="100"/>
-      <c r="D77" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="E77" s="55"/>
-      <c r="F77" s="56">
-        <v>44685</v>
-      </c>
-      <c r="G77" s="57">
-        <v>44691</v>
-      </c>
-      <c r="H77" s="58"/>
-      <c r="I77" s="59"/>
-      <c r="J77" s="60"/>
-      <c r="K77" s="59"/>
-      <c r="M77" s="39">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="N77" s="40">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O77" s="40">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P77" s="40">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q77" s="40">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R77" s="40">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="S77" s="40">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T77" s="40">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U77" s="40">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="V77" s="40">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="W77" s="40">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="X77" s="40">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Y77" s="40">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Z77" s="40">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AA77" s="40">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AB77" s="40">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AC77" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD77" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AE77" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF77" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG77" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AH77" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AI77" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ77" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK77" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AL77" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AM77" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AN77" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AO77" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AP77" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AQ77" s="41">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="D5:E77" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}"/>
+  <autoFilter ref="D5:E76" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}"/>
   <mergeCells count="22">
-    <mergeCell ref="B71:B77"/>
-    <mergeCell ref="C71:C77"/>
-    <mergeCell ref="B40:B48"/>
-    <mergeCell ref="C40:C58"/>
-    <mergeCell ref="B49:B58"/>
-    <mergeCell ref="B59:B70"/>
-    <mergeCell ref="C59:C70"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="C9:C39"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="B17:B27"/>
-    <mergeCell ref="B29:B39"/>
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="S3:X3"/>
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="C9:C38"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="B17:B27"/>
+    <mergeCell ref="B29:B38"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="C70:C76"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="C39:C57"/>
+    <mergeCell ref="B48:B57"/>
+    <mergeCell ref="B58:B69"/>
+    <mergeCell ref="C58:C69"/>
   </mergeCells>
-  <conditionalFormatting sqref="M6:AQ77">
+  <conditionalFormatting sqref="M6:AQ76">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>3</formula>
     </cfRule>
@@ -12606,7 +12463,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J77 E6:E77" xr:uid="{7799F778-AC45-524F-B3DE-E4EA92284CF2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E76 J6:J76" xr:uid="{7799F778-AC45-524F-B3DE-E4EA92284CF2}">
       <formula1>$AS$5:$AS$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/CMSC495_ProjectPlan.xlsx
+++ b/CMSC495_ProjectPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Git/cmsc495_final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B901CEE5-161D-B34C-AEB5-9F7E4C7B5B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E85E297-65E4-3740-AF07-D1C00A1CCA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19860" yWindow="500" windowWidth="51200" windowHeight="26260" xr2:uid="{A3040AE0-0367-2B43-ADDE-84CCD12855DC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26260" xr2:uid="{A3040AE0-0367-2B43-ADDE-84CCD12855DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Project_Plan" sheetId="1" r:id="rId1"/>
@@ -1353,102 +1353,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1479,6 +1383,102 @@
     </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1817,7 +1817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}">
   <dimension ref="A1:AV94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1874,48 +1874,48 @@
       <c r="D3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="78" t="s">
+      <c r="M3" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="93" t="s">
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="93"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="77" t="s">
+      <c r="T3" s="112"/>
+      <c r="U3" s="112"/>
+      <c r="V3" s="112"/>
+      <c r="W3" s="112"/>
+      <c r="X3" s="112"/>
+      <c r="Y3" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="77"/>
+      <c r="Z3" s="113"/>
+      <c r="AA3" s="113"/>
+      <c r="AB3" s="113"/>
+      <c r="AC3" s="113"/>
+      <c r="AD3" s="113"/>
     </row>
     <row r="4" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="85"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="79" t="s">
+      <c r="B4" s="105"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="80"/>
-      <c r="H4" s="81" t="s">
+      <c r="G4" s="116"/>
+      <c r="H4" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="82"/>
-      <c r="J4" s="83" t="s">
+      <c r="I4" s="118"/>
+      <c r="J4" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="84"/>
+      <c r="K4" s="120"/>
       <c r="M4" s="12" t="str">
         <f>TEXT(M5,"aaa")</f>
         <v>Fri</v>
@@ -2210,13 +2210,13 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="108" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="90" t="s">
+      <c r="D6" s="110" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="31" t="s">
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="37">
-        <f t="shared" ref="N6:AQ14" si="2">IF($K6=N$5,3,IF(OR(AND($H6&lt;=N$5,N$5&lt;=$I6),$H6=N$5),2,IF(AND($F6&lt;=N$5,N$5&lt;=$G6),1,0)))</f>
+        <f t="shared" ref="N6:AQ6" si="2">IF($K6=N$5,3,IF(OR(AND($H6&lt;=N$5,N$5&lt;=$I6),$H6=N$5),2,IF(AND($F6&lt;=N$5,N$5&lt;=$G6),1,0)))</f>
         <v>0</v>
       </c>
       <c r="O6" s="37">
@@ -2367,9 +2367,9 @@
       </c>
     </row>
     <row r="7" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="89"/>
+      <c r="B7" s="109"/>
       <c r="C7" s="92"/>
-      <c r="D7" s="91"/>
+      <c r="D7" s="111"/>
       <c r="E7" s="31" t="s">
         <v>13</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>44636</v>
       </c>
       <c r="M7" s="39">
-        <f t="shared" ref="M7:AB38" si="3">IF($K7=M$5,3,IF(OR(AND($H7&lt;=M$5,M$5&lt;=$I7),$H7=M$5),2,IF(AND($F7&lt;=M$5,M$5&lt;=$G7),1,0)))</f>
+        <f t="shared" ref="M7:AB22" si="3">IF($K7=M$5,3,IF(OR(AND($H7&lt;=M$5,M$5&lt;=$I7),$H7=M$5),2,IF(AND($F7&lt;=M$5,M$5&lt;=$G7),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N7" s="40">
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="40">
-        <f t="shared" ref="AC7:AQ70" si="4">IF($K7=AC$5,3,IF(OR(AND($H7&lt;=AC$5,AC$5&lt;=$I7),$H7=AC$5),2,IF(AND($F7&lt;=AC$5,AC$5&lt;=$G7),1,0)))</f>
+        <f t="shared" ref="AC7:AQ21" si="4">IF($K7=AC$5,3,IF(OR(AND($H7&lt;=AC$5,AC$5&lt;=$I7),$H7=AC$5),2,IF(AND($F7&lt;=AC$5,AC$5&lt;=$G7),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AD7" s="40">
@@ -2518,9 +2518,9 @@
       </c>
     </row>
     <row r="8" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="89"/>
+      <c r="B8" s="109"/>
       <c r="C8" s="92"/>
-      <c r="D8" s="91"/>
+      <c r="D8" s="111"/>
       <c r="E8" s="31" t="s">
         <v>15</v>
       </c>
@@ -2666,10 +2666,10 @@
       </c>
     </row>
     <row r="9" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="100" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="64" t="s">
@@ -2822,8 +2822,8 @@
       </c>
     </row>
     <row r="10" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="95"/>
-      <c r="C10" s="97"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="101"/>
       <c r="D10" s="65" t="s">
         <v>49</v>
       </c>
@@ -2974,8 +2974,8 @@
       </c>
     </row>
     <row r="11" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="95"/>
-      <c r="C11" s="97"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="101"/>
       <c r="D11" s="65" t="s">
         <v>49</v>
       </c>
@@ -3126,8 +3126,8 @@
       </c>
     </row>
     <row r="12" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="95"/>
-      <c r="C12" s="97"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="101"/>
       <c r="D12" s="66" t="s">
         <v>52</v>
       </c>
@@ -3278,8 +3278,8 @@
       </c>
     </row>
     <row r="13" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="95"/>
-      <c r="C13" s="97"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="101"/>
       <c r="D13" s="67" t="s">
         <v>48</v>
       </c>
@@ -3428,9 +3428,9 @@
       </c>
     </row>
     <row r="14" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="95"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="99" t="s">
+      <c r="B14" s="99"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="103" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="31" t="s">
@@ -3576,9 +3576,9 @@
       </c>
     </row>
     <row r="15" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="95"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="100"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="104"/>
       <c r="E15" s="31" t="s">
         <v>13</v>
       </c>
@@ -3726,9 +3726,9 @@
       </c>
     </row>
     <row r="16" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="95"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="100"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="104"/>
       <c r="E16" s="31" t="s">
         <v>15</v>
       </c>
@@ -3876,10 +3876,10 @@
       </c>
     </row>
     <row r="17" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="97"/>
+      <c r="C17" s="101"/>
       <c r="D17" s="72" t="s">
         <v>61</v>
       </c>
@@ -4030,8 +4030,8 @@
       </c>
     </row>
     <row r="18" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="95"/>
-      <c r="C18" s="97"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="101"/>
       <c r="D18" s="73" t="s">
         <v>63</v>
       </c>
@@ -4182,8 +4182,8 @@
       </c>
     </row>
     <row r="19" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="95"/>
-      <c r="C19" s="97"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="101"/>
       <c r="D19" s="74" t="s">
         <v>44</v>
       </c>
@@ -4334,8 +4334,8 @@
       </c>
     </row>
     <row r="20" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="95"/>
-      <c r="C20" s="97"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="101"/>
       <c r="D20" s="74" t="s">
         <v>45</v>
       </c>
@@ -4486,8 +4486,8 @@
       </c>
     </row>
     <row r="21" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="95"/>
-      <c r="C21" s="97"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="101"/>
       <c r="D21" s="74" t="s">
         <v>62</v>
       </c>
@@ -4638,8 +4638,8 @@
       </c>
     </row>
     <row r="22" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="95"/>
-      <c r="C22" s="97"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="101"/>
       <c r="D22" s="75" t="s">
         <v>64</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="AB22" s="40">
-        <f t="shared" ref="AB22:AQ85" si="5">IF($K22=AB$5,3,IF(OR(AND($H22&lt;=AB$5,AB$5&lt;=$I22),$H22=AB$5),2,IF(AND($F22&lt;=AB$5,AB$5&lt;=$G22),1,0)))</f>
+        <f t="shared" ref="AB22:AQ37" si="5">IF($K22=AB$5,3,IF(OR(AND($H22&lt;=AB$5,AB$5&lt;=$I22),$H22=AB$5),2,IF(AND($F22&lt;=AB$5,AB$5&lt;=$G22),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AC22" s="40">
@@ -4790,8 +4790,8 @@
       </c>
     </row>
     <row r="23" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="95"/>
-      <c r="C23" s="97"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="101"/>
       <c r="D23" s="75" t="s">
         <v>50</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>44651</v>
       </c>
       <c r="M23" s="39">
-        <f t="shared" ref="M23:AB54" si="6">IF($K23=M$5,3,IF(OR(AND($H23&lt;=M$5,M$5&lt;=$I23),$H23=M$5),2,IF(AND($F23&lt;=M$5,M$5&lt;=$G23),1,0)))</f>
+        <f t="shared" ref="M23:AB38" si="6">IF($K23=M$5,3,IF(OR(AND($H23&lt;=M$5,M$5&lt;=$I23),$H23=M$5),2,IF(AND($F23&lt;=M$5,M$5&lt;=$G23),1,0)))</f>
         <v>1</v>
       </c>
       <c r="N23" s="40">
@@ -4942,8 +4942,8 @@
       </c>
     </row>
     <row r="24" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="95"/>
-      <c r="C24" s="97"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="101"/>
       <c r="D24" s="76" t="s">
         <v>53</v>
       </c>
@@ -5094,8 +5094,8 @@
       </c>
     </row>
     <row r="25" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="95"/>
-      <c r="C25" s="97"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="101"/>
       <c r="D25" s="75" t="s">
         <v>48</v>
       </c>
@@ -5244,8 +5244,8 @@
       </c>
     </row>
     <row r="26" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="95"/>
-      <c r="C26" s="97"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="101"/>
       <c r="D26" s="75" t="s">
         <v>59</v>
       </c>
@@ -5396,8 +5396,8 @@
       </c>
     </row>
     <row r="27" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="95"/>
-      <c r="C27" s="97"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="101"/>
       <c r="D27" s="76" t="s">
         <v>17</v>
       </c>
@@ -5548,10 +5548,10 @@
       </c>
     </row>
     <row r="28" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="94" t="s">
+      <c r="B28" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="97"/>
+      <c r="C28" s="101"/>
       <c r="D28" s="72" t="s">
         <v>51</v>
       </c>
@@ -5702,8 +5702,8 @@
       </c>
     </row>
     <row r="29" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="95"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="101"/>
       <c r="D29" s="74" t="s">
         <v>38</v>
       </c>
@@ -5854,8 +5854,8 @@
       </c>
     </row>
     <row r="30" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="95"/>
-      <c r="C30" s="97"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="101"/>
       <c r="D30" s="74" t="s">
         <v>65</v>
       </c>
@@ -6006,8 +6006,8 @@
       </c>
     </row>
     <row r="31" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="95"/>
-      <c r="C31" s="97"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="101"/>
       <c r="D31" s="74" t="s">
         <v>39</v>
       </c>
@@ -6158,8 +6158,8 @@
       </c>
     </row>
     <row r="32" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="95"/>
-      <c r="C32" s="97"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="101"/>
       <c r="D32" s="74" t="s">
         <v>40</v>
       </c>
@@ -6310,8 +6310,8 @@
       </c>
     </row>
     <row r="33" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="95"/>
-      <c r="C33" s="97"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="101"/>
       <c r="D33" s="74" t="s">
         <v>66</v>
       </c>
@@ -6462,8 +6462,8 @@
       </c>
     </row>
     <row r="34" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="95"/>
-      <c r="C34" s="97"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="101"/>
       <c r="D34" s="74" t="s">
         <v>67</v>
       </c>
@@ -6614,8 +6614,8 @@
       </c>
     </row>
     <row r="35" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="95"/>
-      <c r="C35" s="97"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="101"/>
       <c r="D35" s="76" t="s">
         <v>54</v>
       </c>
@@ -6766,8 +6766,8 @@
       </c>
     </row>
     <row r="36" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="95"/>
-      <c r="C36" s="97"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="101"/>
       <c r="D36" s="75" t="s">
         <v>48</v>
       </c>
@@ -6916,8 +6916,8 @@
       </c>
     </row>
     <row r="37" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="95"/>
-      <c r="C37" s="97"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="101"/>
       <c r="D37" s="74" t="s">
         <v>41</v>
       </c>
@@ -7068,8 +7068,8 @@
       </c>
     </row>
     <row r="38" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="95"/>
-      <c r="C38" s="98"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="102"/>
       <c r="D38" s="76" t="s">
         <v>18</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>0</v>
       </c>
       <c r="AB38" s="40">
-        <f t="shared" ref="AB38:AQ94" si="7">IF($K38=AB$5,3,IF(OR(AND($H38&lt;=AB$5,AB$5&lt;=$I38),$H38=AB$5),2,IF(AND($F38&lt;=AB$5,AB$5&lt;=$G38),1,0)))</f>
+        <f t="shared" ref="AB38:AQ53" si="7">IF($K38=AB$5,3,IF(OR(AND($H38&lt;=AB$5,AB$5&lt;=$I38),$H38=AB$5),2,IF(AND($F38&lt;=AB$5,AB$5&lt;=$G38),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AC38" s="40">
@@ -7220,10 +7220,10 @@
       </c>
     </row>
     <row r="39" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="105" t="s">
+      <c r="B39" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="108" t="s">
+      <c r="C39" s="96" t="s">
         <v>32</v>
       </c>
       <c r="D39" s="68" t="s">
@@ -7245,7 +7245,7 @@
       </c>
       <c r="K39" s="35"/>
       <c r="M39" s="39">
-        <f t="shared" ref="M39:AB70" si="8">IF($K39=M$5,3,IF(OR(AND($H39&lt;=M$5,M$5&lt;=$I39),$H39=M$5),2,IF(AND($F39&lt;=M$5,M$5&lt;=$G39),1,0)))</f>
+        <f t="shared" ref="M39:AB54" si="8">IF($K39=M$5,3,IF(OR(AND($H39&lt;=M$5,M$5&lt;=$I39),$H39=M$5),2,IF(AND($F39&lt;=M$5,M$5&lt;=$G39),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N39" s="40">
@@ -7370,9 +7370,9 @@
       </c>
     </row>
     <row r="40" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="106"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="109" t="s">
+      <c r="B40" s="94"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="77" t="s">
         <v>73</v>
       </c>
       <c r="E40" s="31" t="s">
@@ -7516,9 +7516,9 @@
       </c>
     </row>
     <row r="41" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="106"/>
-      <c r="C41" s="108"/>
-      <c r="D41" s="109" t="s">
+      <c r="B41" s="94"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="77" t="s">
         <v>69</v>
       </c>
       <c r="E41" s="31" t="s">
@@ -7662,8 +7662,8 @@
       </c>
     </row>
     <row r="42" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="106"/>
-      <c r="C42" s="108"/>
+      <c r="B42" s="94"/>
+      <c r="C42" s="96"/>
       <c r="D42" s="69" t="s">
         <v>70</v>
       </c>
@@ -7808,8 +7808,8 @@
       </c>
     </row>
     <row r="43" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="106"/>
-      <c r="C43" s="108"/>
+      <c r="B43" s="94"/>
+      <c r="C43" s="96"/>
       <c r="D43" s="71" t="s">
         <v>55</v>
       </c>
@@ -7954,8 +7954,8 @@
       </c>
     </row>
     <row r="44" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="106"/>
-      <c r="C44" s="108"/>
+      <c r="B44" s="94"/>
+      <c r="C44" s="96"/>
       <c r="D44" s="70" t="s">
         <v>48</v>
       </c>
@@ -8098,9 +8098,9 @@
       </c>
     </row>
     <row r="45" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="106"/>
-      <c r="C45" s="108"/>
-      <c r="D45" s="110" t="s">
+      <c r="B45" s="94"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="78" t="s">
         <v>19</v>
       </c>
       <c r="E45" s="31" t="s">
@@ -8244,9 +8244,9 @@
       </c>
     </row>
     <row r="46" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="106"/>
-      <c r="C46" s="108"/>
-      <c r="D46" s="112" t="s">
+      <c r="B46" s="94"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="80" t="s">
         <v>72</v>
       </c>
       <c r="E46" s="31" t="s">
@@ -8390,9 +8390,9 @@
       </c>
     </row>
     <row r="47" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="106"/>
-      <c r="C47" s="108"/>
-      <c r="D47" s="113" t="s">
+      <c r="B47" s="94"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="81" t="s">
         <v>72</v>
       </c>
       <c r="E47" s="31" t="s">
@@ -8536,9 +8536,9 @@
       </c>
     </row>
     <row r="48" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="107"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="114" t="s">
+      <c r="B48" s="95"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="82" t="s">
         <v>72</v>
       </c>
       <c r="E48" s="31" t="s">
@@ -8682,10 +8682,10 @@
       </c>
     </row>
     <row r="49" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="102" t="s">
+      <c r="B49" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="104"/>
+      <c r="C49" s="97"/>
       <c r="D49" s="59" t="s">
         <v>75</v>
       </c>
@@ -8830,8 +8830,8 @@
       </c>
     </row>
     <row r="50" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="102"/>
-      <c r="C50" s="104"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="97"/>
       <c r="D50" s="44" t="s">
         <v>74</v>
       </c>
@@ -8976,8 +8976,8 @@
       </c>
     </row>
     <row r="51" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="102"/>
-      <c r="C51" s="104"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="97"/>
       <c r="D51" s="44" t="s">
         <v>76</v>
       </c>
@@ -9122,8 +9122,8 @@
       </c>
     </row>
     <row r="52" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="102"/>
-      <c r="C52" s="104"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="97"/>
       <c r="D52" s="44" t="s">
         <v>78</v>
       </c>
@@ -9268,8 +9268,8 @@
       </c>
     </row>
     <row r="53" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="102"/>
-      <c r="C53" s="104"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="97"/>
       <c r="D53" s="44" t="s">
         <v>79</v>
       </c>
@@ -9414,8 +9414,8 @@
       </c>
     </row>
     <row r="54" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="102"/>
-      <c r="C54" s="104"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="97"/>
       <c r="D54" s="44" t="s">
         <v>80</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="AB54" s="40">
-        <f t="shared" ref="AB54:AQ94" si="9">IF($K54=AB$5,3,IF(OR(AND($H54&lt;=AB$5,AB$5&lt;=$I54),$H54=AB$5),2,IF(AND($F54&lt;=AB$5,AB$5&lt;=$G54),1,0)))</f>
+        <f t="shared" ref="AB54:AQ69" si="9">IF($K54=AB$5,3,IF(OR(AND($H54&lt;=AB$5,AB$5&lt;=$I54),$H54=AB$5),2,IF(AND($F54&lt;=AB$5,AB$5&lt;=$G54),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AC54" s="40">
@@ -9560,8 +9560,8 @@
       </c>
     </row>
     <row r="55" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="102"/>
-      <c r="C55" s="104"/>
+      <c r="B55" s="90"/>
+      <c r="C55" s="97"/>
       <c r="D55" s="44" t="s">
         <v>77</v>
       </c>
@@ -9581,7 +9581,7 @@
       </c>
       <c r="K55" s="35"/>
       <c r="M55" s="39">
-        <f t="shared" ref="M55:AB94" si="10">IF($K55=M$5,3,IF(OR(AND($H55&lt;=M$5,M$5&lt;=$I55),$H55=M$5),2,IF(AND($F55&lt;=M$5,M$5&lt;=$G55),1,0)))</f>
+        <f t="shared" ref="M55:AB70" si="10">IF($K55=M$5,3,IF(OR(AND($H55&lt;=M$5,M$5&lt;=$I55),$H55=M$5),2,IF(AND($F55&lt;=M$5,M$5&lt;=$G55),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N55" s="40">
@@ -9706,8 +9706,8 @@
       </c>
     </row>
     <row r="56" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="102"/>
-      <c r="C56" s="104"/>
+      <c r="B56" s="90"/>
+      <c r="C56" s="97"/>
       <c r="D56" s="44" t="s">
         <v>81</v>
       </c>
@@ -9852,8 +9852,8 @@
       </c>
     </row>
     <row r="57" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="102"/>
-      <c r="C57" s="104"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="97"/>
       <c r="D57" s="60" t="s">
         <v>82</v>
       </c>
@@ -9998,8 +9998,8 @@
       </c>
     </row>
     <row r="58" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="102"/>
-      <c r="C58" s="104"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="97"/>
       <c r="D58" s="45" t="s">
         <v>56</v>
       </c>
@@ -10142,8 +10142,8 @@
       </c>
     </row>
     <row r="59" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="102"/>
-      <c r="C59" s="104"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="97"/>
       <c r="D59" s="60" t="s">
         <v>48</v>
       </c>
@@ -10286,13 +10286,13 @@
       </c>
     </row>
     <row r="60" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="102"/>
-      <c r="C60" s="104"/>
+      <c r="B60" s="90"/>
+      <c r="C60" s="97"/>
       <c r="D60" s="46" t="s">
         <v>20</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F60" s="32"/>
       <c r="G60" s="35"/>
@@ -10426,9 +10426,9 @@
       </c>
     </row>
     <row r="61" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="102"/>
-      <c r="C61" s="104"/>
-      <c r="D61" s="115" t="s">
+      <c r="B61" s="90"/>
+      <c r="C61" s="97"/>
+      <c r="D61" s="83" t="s">
         <v>72</v>
       </c>
       <c r="E61" s="31" t="s">
@@ -10572,9 +10572,9 @@
       </c>
     </row>
     <row r="62" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="102"/>
-      <c r="C62" s="104"/>
-      <c r="D62" s="115" t="s">
+      <c r="B62" s="90"/>
+      <c r="C62" s="97"/>
+      <c r="D62" s="83" t="s">
         <v>72</v>
       </c>
       <c r="E62" s="31" t="s">
@@ -10718,9 +10718,9 @@
       </c>
     </row>
     <row r="63" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="103"/>
-      <c r="C63" s="104"/>
-      <c r="D63" s="116" t="s">
+      <c r="B63" s="91"/>
+      <c r="C63" s="97"/>
+      <c r="D63" s="84" t="s">
         <v>72</v>
       </c>
       <c r="E63" s="31" t="s">
@@ -10864,7 +10864,7 @@
       </c>
     </row>
     <row r="64" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="101" t="s">
+      <c r="B64" s="89" t="s">
         <v>27</v>
       </c>
       <c r="C64" s="92" t="s">
@@ -11008,7 +11008,7 @@
       </c>
     </row>
     <row r="65" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="102"/>
+      <c r="B65" s="90"/>
       <c r="C65" s="92"/>
       <c r="D65" s="44" t="s">
         <v>83</v>
@@ -11148,7 +11148,7 @@
       </c>
     </row>
     <row r="66" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="102"/>
+      <c r="B66" s="90"/>
       <c r="C66" s="92"/>
       <c r="D66" s="44" t="s">
         <v>85</v>
@@ -11288,7 +11288,7 @@
       </c>
     </row>
     <row r="67" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="102"/>
+      <c r="B67" s="90"/>
       <c r="C67" s="92"/>
       <c r="D67" s="44" t="s">
         <v>86</v>
@@ -11428,7 +11428,7 @@
       </c>
     </row>
     <row r="68" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="102"/>
+      <c r="B68" s="90"/>
       <c r="C68" s="92"/>
       <c r="D68" s="44" t="s">
         <v>87</v>
@@ -11568,7 +11568,7 @@
       </c>
     </row>
     <row r="69" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="102"/>
+      <c r="B69" s="90"/>
       <c r="C69" s="92"/>
       <c r="D69" s="44" t="s">
         <v>88</v>
@@ -11706,7 +11706,7 @@
       </c>
     </row>
     <row r="70" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="102"/>
+      <c r="B70" s="90"/>
       <c r="C70" s="92"/>
       <c r="D70" s="44" t="s">
         <v>89</v>
@@ -11779,7 +11779,7 @@
         <v>0</v>
       </c>
       <c r="AB70" s="40">
-        <f t="shared" ref="AB70:AQ94" si="11">IF($K70=AB$5,3,IF(OR(AND($H70&lt;=AB$5,AB$5&lt;=$I70),$H70=AB$5),2,IF(AND($F70&lt;=AB$5,AB$5&lt;=$G70),1,0)))</f>
+        <f t="shared" ref="AB70:AQ85" si="11">IF($K70=AB$5,3,IF(OR(AND($H70&lt;=AB$5,AB$5&lt;=$I70),$H70=AB$5),2,IF(AND($F70&lt;=AB$5,AB$5&lt;=$G70),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AC70" s="40">
@@ -11844,7 +11844,7 @@
       </c>
     </row>
     <row r="71" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="102"/>
+      <c r="B71" s="90"/>
       <c r="C71" s="92"/>
       <c r="D71" s="44" t="s">
         <v>90</v>
@@ -11857,7 +11857,7 @@
       <c r="J71" s="34"/>
       <c r="K71" s="35"/>
       <c r="M71" s="39">
-        <f t="shared" ref="M71:AB94" si="12">IF($K71=M$5,3,IF(OR(AND($H71&lt;=M$5,M$5&lt;=$I71),$H71=M$5),2,IF(AND($F71&lt;=M$5,M$5&lt;=$G71),1,0)))</f>
+        <f t="shared" ref="M71:AB86" si="12">IF($K71=M$5,3,IF(OR(AND($H71&lt;=M$5,M$5&lt;=$I71),$H71=M$5),2,IF(AND($F71&lt;=M$5,M$5&lt;=$G71),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N71" s="40">
@@ -11982,7 +11982,7 @@
       </c>
     </row>
     <row r="72" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="102"/>
+      <c r="B72" s="90"/>
       <c r="C72" s="92"/>
       <c r="D72" s="44" t="s">
         <v>91</v>
@@ -12120,7 +12120,7 @@
       </c>
     </row>
     <row r="73" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="102"/>
+      <c r="B73" s="90"/>
       <c r="C73" s="92"/>
       <c r="D73" s="44" t="s">
         <v>92</v>
@@ -12258,7 +12258,7 @@
       </c>
     </row>
     <row r="74" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="102"/>
+      <c r="B74" s="90"/>
       <c r="C74" s="92"/>
       <c r="D74" s="44" t="s">
         <v>93</v>
@@ -12396,9 +12396,9 @@
       </c>
     </row>
     <row r="75" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="102"/>
+      <c r="B75" s="90"/>
       <c r="C75" s="92"/>
-      <c r="D75" s="111" t="s">
+      <c r="D75" s="79" t="s">
         <v>94</v>
       </c>
       <c r="E75" s="31"/>
@@ -12534,7 +12534,7 @@
       </c>
     </row>
     <row r="76" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="102"/>
+      <c r="B76" s="90"/>
       <c r="C76" s="92"/>
       <c r="D76" s="50" t="s">
         <v>95</v>
@@ -12672,7 +12672,7 @@
       </c>
     </row>
     <row r="77" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="102"/>
+      <c r="B77" s="90"/>
       <c r="C77" s="92"/>
       <c r="D77" s="45" t="s">
         <v>57</v>
@@ -12816,7 +12816,7 @@
       </c>
     </row>
     <row r="78" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="102"/>
+      <c r="B78" s="90"/>
       <c r="C78" s="92"/>
       <c r="D78" s="60" t="s">
         <v>48</v>
@@ -12958,7 +12958,7 @@
       </c>
     </row>
     <row r="79" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="102"/>
+      <c r="B79" s="90"/>
       <c r="C79" s="92"/>
       <c r="D79" s="46" t="s">
         <v>21</v>
@@ -13098,9 +13098,9 @@
       </c>
     </row>
     <row r="80" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="102"/>
+      <c r="B80" s="90"/>
       <c r="C80" s="92"/>
-      <c r="D80" s="118" t="s">
+      <c r="D80" s="86" t="s">
         <v>96</v>
       </c>
       <c r="E80" s="31" t="s">
@@ -13238,9 +13238,9 @@
       </c>
     </row>
     <row r="81" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="102"/>
+      <c r="B81" s="90"/>
       <c r="C81" s="92"/>
-      <c r="D81" s="118" t="s">
+      <c r="D81" s="86" t="s">
         <v>96</v>
       </c>
       <c r="E81" s="31" t="s">
@@ -13378,9 +13378,9 @@
       </c>
     </row>
     <row r="82" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="102"/>
+      <c r="B82" s="90"/>
       <c r="C82" s="92"/>
-      <c r="D82" s="117" t="s">
+      <c r="D82" s="85" t="s">
         <v>96</v>
       </c>
       <c r="E82" s="31" t="s">
@@ -13522,7 +13522,7 @@
       </c>
     </row>
     <row r="83" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="101" t="s">
+      <c r="B83" s="89" t="s">
         <v>28</v>
       </c>
       <c r="C83" s="92" t="s">
@@ -13666,9 +13666,9 @@
       </c>
     </row>
     <row r="84" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="102"/>
+      <c r="B84" s="90"/>
       <c r="C84" s="92"/>
-      <c r="D84" s="111" t="s">
+      <c r="D84" s="79" t="s">
         <v>97</v>
       </c>
       <c r="E84" s="31" t="s">
@@ -13806,9 +13806,9 @@
       </c>
     </row>
     <row r="85" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="102"/>
+      <c r="B85" s="90"/>
       <c r="C85" s="92"/>
-      <c r="D85" s="111" t="s">
+      <c r="D85" s="79" t="s">
         <v>97</v>
       </c>
       <c r="E85" s="31" t="s">
@@ -13946,9 +13946,9 @@
       </c>
     </row>
     <row r="86" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="102"/>
+      <c r="B86" s="90"/>
       <c r="C86" s="92"/>
-      <c r="D86" s="111" t="s">
+      <c r="D86" s="79" t="s">
         <v>68</v>
       </c>
       <c r="E86" s="31" t="s">
@@ -14086,9 +14086,9 @@
       </c>
     </row>
     <row r="87" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="102"/>
+      <c r="B87" s="90"/>
       <c r="C87" s="92"/>
-      <c r="D87" s="111" t="s">
+      <c r="D87" s="79" t="s">
         <v>68</v>
       </c>
       <c r="E87" s="31" t="s">
@@ -14226,9 +14226,9 @@
       </c>
     </row>
     <row r="88" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="102"/>
+      <c r="B88" s="90"/>
       <c r="C88" s="92"/>
-      <c r="D88" s="111" t="s">
+      <c r="D88" s="79" t="s">
         <v>68</v>
       </c>
       <c r="E88" s="31" t="s">
@@ -14366,7 +14366,7 @@
       </c>
     </row>
     <row r="89" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="102"/>
+      <c r="B89" s="90"/>
       <c r="C89" s="92"/>
       <c r="D89" s="30" t="s">
         <v>34</v>
@@ -14506,7 +14506,7 @@
       </c>
     </row>
     <row r="90" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="102"/>
+      <c r="B90" s="90"/>
       <c r="C90" s="92"/>
       <c r="D90" s="30" t="s">
         <v>34</v>
@@ -14646,7 +14646,7 @@
       </c>
     </row>
     <row r="91" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="102"/>
+      <c r="B91" s="90"/>
       <c r="C91" s="92"/>
       <c r="D91" s="30" t="s">
         <v>34</v>
@@ -14786,7 +14786,7 @@
       </c>
     </row>
     <row r="92" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="102"/>
+      <c r="B92" s="90"/>
       <c r="C92" s="92"/>
       <c r="D92" s="62" t="s">
         <v>58</v>
@@ -14928,16 +14928,16 @@
       </c>
     </row>
     <row r="93" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="102"/>
+      <c r="B93" s="90"/>
       <c r="C93" s="92"/>
       <c r="D93" s="30" t="s">
         <v>48</v>
       </c>
       <c r="E93" s="31"/>
-      <c r="F93" s="119">
+      <c r="F93" s="87">
         <v>44687</v>
       </c>
-      <c r="G93" s="120">
+      <c r="G93" s="88">
         <v>44687</v>
       </c>
       <c r="H93" s="32"/>
@@ -15070,7 +15070,7 @@
       </c>
     </row>
     <row r="94" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="103"/>
+      <c r="B94" s="91"/>
       <c r="C94" s="92"/>
       <c r="D94" s="51" t="s">
         <v>47</v>
@@ -15214,6 +15214,21 @@
   </sheetData>
   <autoFilter ref="D5:E94" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}"/>
   <mergeCells count="22">
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="C9:C38"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="B17:B27"/>
+    <mergeCell ref="B28:B38"/>
     <mergeCell ref="B83:B94"/>
     <mergeCell ref="C83:C94"/>
     <mergeCell ref="B39:B48"/>
@@ -15221,21 +15236,6 @@
     <mergeCell ref="B49:B63"/>
     <mergeCell ref="B64:B82"/>
     <mergeCell ref="C64:C82"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="C9:C38"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="B17:B27"/>
-    <mergeCell ref="B28:B38"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="M6:AQ94">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">

--- a/CMSC495_ProjectPlan.xlsx
+++ b/CMSC495_ProjectPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Git/cmsc495_final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E85E297-65E4-3740-AF07-D1C00A1CCA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202E92DF-74F4-8544-98CF-A688E4380147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26260" xr2:uid="{A3040AE0-0367-2B43-ADDE-84CCD12855DC}"/>
   </bookViews>
@@ -265,9 +265,6 @@
     <t>stego.py - complete class</t>
   </si>
   <si>
-    <t>gui.kv - complete class</t>
-  </si>
-  <si>
     <t>models.py - __init()__</t>
   </si>
   <si>
@@ -365,6 +362,9 @@
   </si>
   <si>
     <t>Test &amp; Fix Bugs</t>
+  </si>
+  <si>
+    <t>mainframe.kv - complete class</t>
   </si>
 </sst>
 </file>
@@ -1383,78 +1383,6 @@
     </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1478,6 +1406,78 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1874,48 +1874,48 @@
       <c r="D3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="114" t="s">
+      <c r="M3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="112" t="s">
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="112"/>
-      <c r="U3" s="112"/>
-      <c r="V3" s="112"/>
-      <c r="W3" s="112"/>
-      <c r="X3" s="112"/>
-      <c r="Y3" s="113" t="s">
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105"/>
+      <c r="W3" s="105"/>
+      <c r="X3" s="105"/>
+      <c r="Y3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="113"/>
-      <c r="AA3" s="113"/>
-      <c r="AB3" s="113"/>
-      <c r="AC3" s="113"/>
-      <c r="AD3" s="113"/>
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="89"/>
+      <c r="AD3" s="89"/>
     </row>
     <row r="4" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="105"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="115" t="s">
+      <c r="B4" s="97"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="116"/>
-      <c r="H4" s="117" t="s">
+      <c r="G4" s="92"/>
+      <c r="H4" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="118"/>
-      <c r="J4" s="119" t="s">
+      <c r="I4" s="94"/>
+      <c r="J4" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="120"/>
+      <c r="K4" s="96"/>
       <c r="M4" s="12" t="str">
         <f>TEXT(M5,"aaa")</f>
         <v>Fri</v>
@@ -2210,13 +2210,13 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="110" t="s">
+      <c r="D6" s="102" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="31" t="s">
@@ -2367,9 +2367,9 @@
       </c>
     </row>
     <row r="7" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="109"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="111"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="31" t="s">
         <v>13</v>
       </c>
@@ -2518,9 +2518,9 @@
       </c>
     </row>
     <row r="8" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="109"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="111"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="103"/>
       <c r="E8" s="31" t="s">
         <v>15</v>
       </c>
@@ -2666,10 +2666,10 @@
       </c>
     </row>
     <row r="9" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="108" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="64" t="s">
@@ -2822,8 +2822,8 @@
       </c>
     </row>
     <row r="10" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="99"/>
-      <c r="C10" s="101"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="109"/>
       <c r="D10" s="65" t="s">
         <v>49</v>
       </c>
@@ -2974,8 +2974,8 @@
       </c>
     </row>
     <row r="11" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="99"/>
-      <c r="C11" s="101"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="109"/>
       <c r="D11" s="65" t="s">
         <v>49</v>
       </c>
@@ -3126,8 +3126,8 @@
       </c>
     </row>
     <row r="12" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="99"/>
-      <c r="C12" s="101"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="109"/>
       <c r="D12" s="66" t="s">
         <v>52</v>
       </c>
@@ -3278,8 +3278,8 @@
       </c>
     </row>
     <row r="13" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="99"/>
-      <c r="C13" s="101"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="109"/>
       <c r="D13" s="67" t="s">
         <v>48</v>
       </c>
@@ -3428,9 +3428,9 @@
       </c>
     </row>
     <row r="14" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="99"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="103" t="s">
+      <c r="B14" s="107"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="111" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="31" t="s">
@@ -3576,9 +3576,9 @@
       </c>
     </row>
     <row r="15" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="99"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="104"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="112"/>
       <c r="E15" s="31" t="s">
         <v>13</v>
       </c>
@@ -3726,9 +3726,9 @@
       </c>
     </row>
     <row r="16" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="99"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="104"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="112"/>
       <c r="E16" s="31" t="s">
         <v>15</v>
       </c>
@@ -3876,10 +3876,10 @@
       </c>
     </row>
     <row r="17" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="101"/>
+      <c r="C17" s="109"/>
       <c r="D17" s="72" t="s">
         <v>61</v>
       </c>
@@ -4030,8 +4030,8 @@
       </c>
     </row>
     <row r="18" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="99"/>
-      <c r="C18" s="101"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="109"/>
       <c r="D18" s="73" t="s">
         <v>63</v>
       </c>
@@ -4182,8 +4182,8 @@
       </c>
     </row>
     <row r="19" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="99"/>
-      <c r="C19" s="101"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="109"/>
       <c r="D19" s="74" t="s">
         <v>44</v>
       </c>
@@ -4334,8 +4334,8 @@
       </c>
     </row>
     <row r="20" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="99"/>
-      <c r="C20" s="101"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="109"/>
       <c r="D20" s="74" t="s">
         <v>45</v>
       </c>
@@ -4486,8 +4486,8 @@
       </c>
     </row>
     <row r="21" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="99"/>
-      <c r="C21" s="101"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="109"/>
       <c r="D21" s="74" t="s">
         <v>62</v>
       </c>
@@ -4638,8 +4638,8 @@
       </c>
     </row>
     <row r="22" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="99"/>
-      <c r="C22" s="101"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="109"/>
       <c r="D22" s="75" t="s">
         <v>64</v>
       </c>
@@ -4790,8 +4790,8 @@
       </c>
     </row>
     <row r="23" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="99"/>
-      <c r="C23" s="101"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="109"/>
       <c r="D23" s="75" t="s">
         <v>50</v>
       </c>
@@ -4942,8 +4942,8 @@
       </c>
     </row>
     <row r="24" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="99"/>
-      <c r="C24" s="101"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="109"/>
       <c r="D24" s="76" t="s">
         <v>53</v>
       </c>
@@ -5094,8 +5094,8 @@
       </c>
     </row>
     <row r="25" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="99"/>
-      <c r="C25" s="101"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="109"/>
       <c r="D25" s="75" t="s">
         <v>48</v>
       </c>
@@ -5244,8 +5244,8 @@
       </c>
     </row>
     <row r="26" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="99"/>
-      <c r="C26" s="101"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="109"/>
       <c r="D26" s="75" t="s">
         <v>59</v>
       </c>
@@ -5396,8 +5396,8 @@
       </c>
     </row>
     <row r="27" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="99"/>
-      <c r="C27" s="101"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="109"/>
       <c r="D27" s="76" t="s">
         <v>17</v>
       </c>
@@ -5548,10 +5548,10 @@
       </c>
     </row>
     <row r="28" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="98" t="s">
+      <c r="B28" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="101"/>
+      <c r="C28" s="109"/>
       <c r="D28" s="72" t="s">
         <v>51</v>
       </c>
@@ -5702,8 +5702,8 @@
       </c>
     </row>
     <row r="29" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="99"/>
-      <c r="C29" s="101"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="109"/>
       <c r="D29" s="74" t="s">
         <v>38</v>
       </c>
@@ -5854,8 +5854,8 @@
       </c>
     </row>
     <row r="30" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="99"/>
-      <c r="C30" s="101"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="109"/>
       <c r="D30" s="74" t="s">
         <v>65</v>
       </c>
@@ -6006,8 +6006,8 @@
       </c>
     </row>
     <row r="31" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="99"/>
-      <c r="C31" s="101"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="109"/>
       <c r="D31" s="74" t="s">
         <v>39</v>
       </c>
@@ -6158,8 +6158,8 @@
       </c>
     </row>
     <row r="32" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="99"/>
-      <c r="C32" s="101"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="109"/>
       <c r="D32" s="74" t="s">
         <v>40</v>
       </c>
@@ -6310,8 +6310,8 @@
       </c>
     </row>
     <row r="33" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="99"/>
-      <c r="C33" s="101"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="109"/>
       <c r="D33" s="74" t="s">
         <v>66</v>
       </c>
@@ -6462,8 +6462,8 @@
       </c>
     </row>
     <row r="34" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="99"/>
-      <c r="C34" s="101"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="109"/>
       <c r="D34" s="74" t="s">
         <v>67</v>
       </c>
@@ -6614,8 +6614,8 @@
       </c>
     </row>
     <row r="35" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="99"/>
-      <c r="C35" s="101"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="109"/>
       <c r="D35" s="76" t="s">
         <v>54</v>
       </c>
@@ -6766,8 +6766,8 @@
       </c>
     </row>
     <row r="36" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="99"/>
-      <c r="C36" s="101"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="109"/>
       <c r="D36" s="75" t="s">
         <v>48</v>
       </c>
@@ -6916,8 +6916,8 @@
       </c>
     </row>
     <row r="37" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="99"/>
-      <c r="C37" s="101"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="109"/>
       <c r="D37" s="74" t="s">
         <v>41</v>
       </c>
@@ -7068,8 +7068,8 @@
       </c>
     </row>
     <row r="38" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="99"/>
-      <c r="C38" s="102"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="110"/>
       <c r="D38" s="76" t="s">
         <v>18</v>
       </c>
@@ -7220,10 +7220,10 @@
       </c>
     </row>
     <row r="39" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="93" t="s">
+      <c r="B39" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="96" t="s">
+      <c r="C39" s="119" t="s">
         <v>32</v>
       </c>
       <c r="D39" s="68" t="s">
@@ -7238,7 +7238,9 @@
       <c r="G39" s="35">
         <v>44665</v>
       </c>
-      <c r="H39" s="32"/>
+      <c r="H39" s="32">
+        <v>44662</v>
+      </c>
       <c r="I39" s="35"/>
       <c r="J39" s="34" t="s">
         <v>13</v>
@@ -7286,7 +7288,7 @@
       </c>
       <c r="W39" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X39" s="40">
         <f t="shared" si="8"/>
@@ -7370,8 +7372,8 @@
       </c>
     </row>
     <row r="40" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="94"/>
-      <c r="C40" s="96"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="119"/>
       <c r="D40" s="77" t="s">
         <v>73</v>
       </c>
@@ -7384,7 +7386,9 @@
       <c r="G40" s="35">
         <v>44665</v>
       </c>
-      <c r="H40" s="32"/>
+      <c r="H40" s="32">
+        <v>44662</v>
+      </c>
       <c r="I40" s="35"/>
       <c r="J40" s="34" t="s">
         <v>13</v>
@@ -7432,7 +7436,7 @@
       </c>
       <c r="W40" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X40" s="40">
         <f t="shared" si="8"/>
@@ -7516,8 +7520,8 @@
       </c>
     </row>
     <row r="41" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="94"/>
-      <c r="C41" s="96"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="119"/>
       <c r="D41" s="77" t="s">
         <v>69</v>
       </c>
@@ -7530,7 +7534,9 @@
       <c r="G41" s="35">
         <v>44665</v>
       </c>
-      <c r="H41" s="32"/>
+      <c r="H41" s="32">
+        <v>44662</v>
+      </c>
       <c r="I41" s="35"/>
       <c r="J41" s="34" t="s">
         <v>13</v>
@@ -7578,7 +7584,7 @@
       </c>
       <c r="W41" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X41" s="40">
         <f t="shared" si="8"/>
@@ -7662,8 +7668,8 @@
       </c>
     </row>
     <row r="42" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="94"/>
-      <c r="C42" s="96"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="119"/>
       <c r="D42" s="69" t="s">
         <v>70</v>
       </c>
@@ -7676,7 +7682,9 @@
       <c r="G42" s="35">
         <v>44665</v>
       </c>
-      <c r="H42" s="32"/>
+      <c r="H42" s="32">
+        <v>44662</v>
+      </c>
       <c r="I42" s="63"/>
       <c r="J42" s="34" t="s">
         <v>14</v>
@@ -7724,7 +7732,7 @@
       </c>
       <c r="W42" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X42" s="40">
         <f t="shared" si="8"/>
@@ -7808,8 +7816,8 @@
       </c>
     </row>
     <row r="43" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="94"/>
-      <c r="C43" s="96"/>
+      <c r="B43" s="117"/>
+      <c r="C43" s="119"/>
       <c r="D43" s="71" t="s">
         <v>55</v>
       </c>
@@ -7954,8 +7962,8 @@
       </c>
     </row>
     <row r="44" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="94"/>
-      <c r="C44" s="96"/>
+      <c r="B44" s="117"/>
+      <c r="C44" s="119"/>
       <c r="D44" s="70" t="s">
         <v>48</v>
       </c>
@@ -8098,8 +8106,8 @@
       </c>
     </row>
     <row r="45" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="94"/>
-      <c r="C45" s="96"/>
+      <c r="B45" s="117"/>
+      <c r="C45" s="119"/>
       <c r="D45" s="78" t="s">
         <v>19</v>
       </c>
@@ -8244,8 +8252,8 @@
       </c>
     </row>
     <row r="46" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="94"/>
-      <c r="C46" s="96"/>
+      <c r="B46" s="117"/>
+      <c r="C46" s="119"/>
       <c r="D46" s="80" t="s">
         <v>72</v>
       </c>
@@ -8390,8 +8398,8 @@
       </c>
     </row>
     <row r="47" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="94"/>
-      <c r="C47" s="96"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="119"/>
       <c r="D47" s="81" t="s">
         <v>72</v>
       </c>
@@ -8536,8 +8544,8 @@
       </c>
     </row>
     <row r="48" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="95"/>
-      <c r="C48" s="96"/>
+      <c r="B48" s="118"/>
+      <c r="C48" s="119"/>
       <c r="D48" s="82" t="s">
         <v>72</v>
       </c>
@@ -8682,12 +8690,12 @@
       </c>
     </row>
     <row r="49" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="90" t="s">
+      <c r="B49" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="97"/>
+      <c r="C49" s="120"/>
       <c r="D49" s="59" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E49" s="31" t="s">
         <v>15</v>
@@ -8830,8 +8838,8 @@
       </c>
     </row>
     <row r="50" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="90"/>
-      <c r="C50" s="97"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="120"/>
       <c r="D50" s="44" t="s">
         <v>74</v>
       </c>
@@ -8976,10 +8984,10 @@
       </c>
     </row>
     <row r="51" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="90"/>
-      <c r="C51" s="97"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="120"/>
       <c r="D51" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E51" s="31" t="s">
         <v>13</v>
@@ -9122,10 +9130,10 @@
       </c>
     </row>
     <row r="52" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="90"/>
-      <c r="C52" s="97"/>
+      <c r="B52" s="114"/>
+      <c r="C52" s="120"/>
       <c r="D52" s="44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E52" s="31" t="s">
         <v>13</v>
@@ -9268,10 +9276,10 @@
       </c>
     </row>
     <row r="53" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="90"/>
-      <c r="C53" s="97"/>
+      <c r="B53" s="114"/>
+      <c r="C53" s="120"/>
       <c r="D53" s="44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E53" s="31" t="s">
         <v>13</v>
@@ -9414,10 +9422,10 @@
       </c>
     </row>
     <row r="54" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="90"/>
-      <c r="C54" s="97"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="120"/>
       <c r="D54" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E54" s="31" t="s">
         <v>13</v>
@@ -9560,10 +9568,10 @@
       </c>
     </row>
     <row r="55" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="90"/>
-      <c r="C55" s="97"/>
+      <c r="B55" s="114"/>
+      <c r="C55" s="120"/>
       <c r="D55" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E55" s="31" t="s">
         <v>14</v>
@@ -9706,10 +9714,10 @@
       </c>
     </row>
     <row r="56" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="90"/>
-      <c r="C56" s="97"/>
+      <c r="B56" s="114"/>
+      <c r="C56" s="120"/>
       <c r="D56" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E56" s="31" t="s">
         <v>14</v>
@@ -9852,10 +9860,10 @@
       </c>
     </row>
     <row r="57" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="90"/>
-      <c r="C57" s="97"/>
+      <c r="B57" s="114"/>
+      <c r="C57" s="120"/>
       <c r="D57" s="60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E57" s="31" t="s">
         <v>14</v>
@@ -9998,8 +10006,8 @@
       </c>
     </row>
     <row r="58" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="90"/>
-      <c r="C58" s="97"/>
+      <c r="B58" s="114"/>
+      <c r="C58" s="120"/>
       <c r="D58" s="45" t="s">
         <v>56</v>
       </c>
@@ -10142,8 +10150,8 @@
       </c>
     </row>
     <row r="59" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="90"/>
-      <c r="C59" s="97"/>
+      <c r="B59" s="114"/>
+      <c r="C59" s="120"/>
       <c r="D59" s="60" t="s">
         <v>48</v>
       </c>
@@ -10286,8 +10294,8 @@
       </c>
     </row>
     <row r="60" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="90"/>
-      <c r="C60" s="97"/>
+      <c r="B60" s="114"/>
+      <c r="C60" s="120"/>
       <c r="D60" s="46" t="s">
         <v>20</v>
       </c>
@@ -10426,8 +10434,8 @@
       </c>
     </row>
     <row r="61" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="90"/>
-      <c r="C61" s="97"/>
+      <c r="B61" s="114"/>
+      <c r="C61" s="120"/>
       <c r="D61" s="83" t="s">
         <v>72</v>
       </c>
@@ -10572,8 +10580,8 @@
       </c>
     </row>
     <row r="62" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="90"/>
-      <c r="C62" s="97"/>
+      <c r="B62" s="114"/>
+      <c r="C62" s="120"/>
       <c r="D62" s="83" t="s">
         <v>72</v>
       </c>
@@ -10718,8 +10726,8 @@
       </c>
     </row>
     <row r="63" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="91"/>
-      <c r="C63" s="97"/>
+      <c r="B63" s="115"/>
+      <c r="C63" s="120"/>
       <c r="D63" s="84" t="s">
         <v>72</v>
       </c>
@@ -10864,14 +10872,14 @@
       </c>
     </row>
     <row r="64" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="89" t="s">
+      <c r="B64" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="C64" s="92" t="s">
+      <c r="C64" s="104" t="s">
         <v>33</v>
       </c>
       <c r="D64" s="43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E64" s="31" t="s">
         <v>15</v>
@@ -11008,10 +11016,10 @@
       </c>
     </row>
     <row r="65" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="90"/>
-      <c r="C65" s="92"/>
+      <c r="B65" s="114"/>
+      <c r="C65" s="104"/>
       <c r="D65" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E65" s="31" t="s">
         <v>13</v>
@@ -11148,10 +11156,10 @@
       </c>
     </row>
     <row r="66" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="90"/>
-      <c r="C66" s="92"/>
+      <c r="B66" s="114"/>
+      <c r="C66" s="104"/>
       <c r="D66" s="44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E66" s="31" t="s">
         <v>14</v>
@@ -11288,10 +11296,10 @@
       </c>
     </row>
     <row r="67" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="90"/>
-      <c r="C67" s="92"/>
+      <c r="B67" s="114"/>
+      <c r="C67" s="104"/>
       <c r="D67" s="44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E67" s="31" t="s">
         <v>13</v>
@@ -11428,10 +11436,10 @@
       </c>
     </row>
     <row r="68" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="90"/>
-      <c r="C68" s="92"/>
+      <c r="B68" s="114"/>
+      <c r="C68" s="104"/>
       <c r="D68" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E68" s="31" t="s">
         <v>15</v>
@@ -11568,10 +11576,10 @@
       </c>
     </row>
     <row r="69" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="90"/>
-      <c r="C69" s="92"/>
+      <c r="B69" s="114"/>
+      <c r="C69" s="104"/>
       <c r="D69" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E69" s="31"/>
       <c r="F69" s="32"/>
@@ -11706,10 +11714,10 @@
       </c>
     </row>
     <row r="70" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="90"/>
-      <c r="C70" s="92"/>
+      <c r="B70" s="114"/>
+      <c r="C70" s="104"/>
       <c r="D70" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E70" s="31"/>
       <c r="F70" s="32"/>
@@ -11844,10 +11852,10 @@
       </c>
     </row>
     <row r="71" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="90"/>
-      <c r="C71" s="92"/>
+      <c r="B71" s="114"/>
+      <c r="C71" s="104"/>
       <c r="D71" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E71" s="31"/>
       <c r="F71" s="32"/>
@@ -11982,10 +11990,10 @@
       </c>
     </row>
     <row r="72" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="90"/>
-      <c r="C72" s="92"/>
+      <c r="B72" s="114"/>
+      <c r="C72" s="104"/>
       <c r="D72" s="44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E72" s="31"/>
       <c r="F72" s="32"/>
@@ -12120,10 +12128,10 @@
       </c>
     </row>
     <row r="73" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="90"/>
-      <c r="C73" s="92"/>
+      <c r="B73" s="114"/>
+      <c r="C73" s="104"/>
       <c r="D73" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E73" s="31"/>
       <c r="F73" s="32"/>
@@ -12258,10 +12266,10 @@
       </c>
     </row>
     <row r="74" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="90"/>
-      <c r="C74" s="92"/>
+      <c r="B74" s="114"/>
+      <c r="C74" s="104"/>
       <c r="D74" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="31"/>
       <c r="F74" s="32"/>
@@ -12396,10 +12404,10 @@
       </c>
     </row>
     <row r="75" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="90"/>
-      <c r="C75" s="92"/>
+      <c r="B75" s="114"/>
+      <c r="C75" s="104"/>
       <c r="D75" s="79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E75" s="31"/>
       <c r="F75" s="32"/>
@@ -12534,10 +12542,10 @@
       </c>
     </row>
     <row r="76" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="90"/>
-      <c r="C76" s="92"/>
+      <c r="B76" s="114"/>
+      <c r="C76" s="104"/>
       <c r="D76" s="50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E76" s="31"/>
       <c r="F76" s="32"/>
@@ -12672,8 +12680,8 @@
       </c>
     </row>
     <row r="77" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="90"/>
-      <c r="C77" s="92"/>
+      <c r="B77" s="114"/>
+      <c r="C77" s="104"/>
       <c r="D77" s="45" t="s">
         <v>57</v>
       </c>
@@ -12816,8 +12824,8 @@
       </c>
     </row>
     <row r="78" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="90"/>
-      <c r="C78" s="92"/>
+      <c r="B78" s="114"/>
+      <c r="C78" s="104"/>
       <c r="D78" s="60" t="s">
         <v>48</v>
       </c>
@@ -12958,8 +12966,8 @@
       </c>
     </row>
     <row r="79" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="90"/>
-      <c r="C79" s="92"/>
+      <c r="B79" s="114"/>
+      <c r="C79" s="104"/>
       <c r="D79" s="46" t="s">
         <v>21</v>
       </c>
@@ -13098,10 +13106,10 @@
       </c>
     </row>
     <row r="80" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="90"/>
-      <c r="C80" s="92"/>
+      <c r="B80" s="114"/>
+      <c r="C80" s="104"/>
       <c r="D80" s="86" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E80" s="31" t="s">
         <v>14</v>
@@ -13238,10 +13246,10 @@
       </c>
     </row>
     <row r="81" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="90"/>
-      <c r="C81" s="92"/>
+      <c r="B81" s="114"/>
+      <c r="C81" s="104"/>
       <c r="D81" s="86" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E81" s="31" t="s">
         <v>13</v>
@@ -13378,10 +13386,10 @@
       </c>
     </row>
     <row r="82" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="90"/>
-      <c r="C82" s="92"/>
+      <c r="B82" s="114"/>
+      <c r="C82" s="104"/>
       <c r="D82" s="85" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E82" s="31" t="s">
         <v>15</v>
@@ -13522,14 +13530,14 @@
       </c>
     </row>
     <row r="83" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="89" t="s">
+      <c r="B83" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="C83" s="92" t="s">
+      <c r="C83" s="104" t="s">
         <v>34</v>
       </c>
       <c r="D83" s="49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E83" s="31" t="s">
         <v>14</v>
@@ -13666,10 +13674,10 @@
       </c>
     </row>
     <row r="84" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="90"/>
-      <c r="C84" s="92"/>
+      <c r="B84" s="114"/>
+      <c r="C84" s="104"/>
       <c r="D84" s="79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E84" s="31" t="s">
         <v>13</v>
@@ -13806,10 +13814,10 @@
       </c>
     </row>
     <row r="85" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="90"/>
-      <c r="C85" s="92"/>
+      <c r="B85" s="114"/>
+      <c r="C85" s="104"/>
       <c r="D85" s="79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E85" s="31" t="s">
         <v>15</v>
@@ -13946,8 +13954,8 @@
       </c>
     </row>
     <row r="86" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="90"/>
-      <c r="C86" s="92"/>
+      <c r="B86" s="114"/>
+      <c r="C86" s="104"/>
       <c r="D86" s="79" t="s">
         <v>68</v>
       </c>
@@ -14086,8 +14094,8 @@
       </c>
     </row>
     <row r="87" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="90"/>
-      <c r="C87" s="92"/>
+      <c r="B87" s="114"/>
+      <c r="C87" s="104"/>
       <c r="D87" s="79" t="s">
         <v>68</v>
       </c>
@@ -14226,8 +14234,8 @@
       </c>
     </row>
     <row r="88" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="90"/>
-      <c r="C88" s="92"/>
+      <c r="B88" s="114"/>
+      <c r="C88" s="104"/>
       <c r="D88" s="79" t="s">
         <v>68</v>
       </c>
@@ -14366,8 +14374,8 @@
       </c>
     </row>
     <row r="89" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="90"/>
-      <c r="C89" s="92"/>
+      <c r="B89" s="114"/>
+      <c r="C89" s="104"/>
       <c r="D89" s="30" t="s">
         <v>34</v>
       </c>
@@ -14506,8 +14514,8 @@
       </c>
     </row>
     <row r="90" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="90"/>
-      <c r="C90" s="92"/>
+      <c r="B90" s="114"/>
+      <c r="C90" s="104"/>
       <c r="D90" s="30" t="s">
         <v>34</v>
       </c>
@@ -14646,8 +14654,8 @@
       </c>
     </row>
     <row r="91" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="90"/>
-      <c r="C91" s="92"/>
+      <c r="B91" s="114"/>
+      <c r="C91" s="104"/>
       <c r="D91" s="30" t="s">
         <v>34</v>
       </c>
@@ -14786,8 +14794,8 @@
       </c>
     </row>
     <row r="92" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="90"/>
-      <c r="C92" s="92"/>
+      <c r="B92" s="114"/>
+      <c r="C92" s="104"/>
       <c r="D92" s="62" t="s">
         <v>58</v>
       </c>
@@ -14928,8 +14936,8 @@
       </c>
     </row>
     <row r="93" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="90"/>
-      <c r="C93" s="92"/>
+      <c r="B93" s="114"/>
+      <c r="C93" s="104"/>
       <c r="D93" s="30" t="s">
         <v>48</v>
       </c>
@@ -15070,8 +15078,8 @@
       </c>
     </row>
     <row r="94" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="91"/>
-      <c r="C94" s="92"/>
+      <c r="B94" s="115"/>
+      <c r="C94" s="104"/>
       <c r="D94" s="51" t="s">
         <v>47</v>
       </c>
@@ -15214,21 +15222,6 @@
   </sheetData>
   <autoFilter ref="D5:E94" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}"/>
   <mergeCells count="22">
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="C9:C38"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="B17:B27"/>
-    <mergeCell ref="B28:B38"/>
     <mergeCell ref="B83:B94"/>
     <mergeCell ref="C83:C94"/>
     <mergeCell ref="B39:B48"/>
@@ -15236,6 +15229,21 @@
     <mergeCell ref="B49:B63"/>
     <mergeCell ref="B64:B82"/>
     <mergeCell ref="C64:C82"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="C9:C38"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="B17:B27"/>
+    <mergeCell ref="B28:B38"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="M6:AQ94">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">

--- a/CMSC495_ProjectPlan.xlsx
+++ b/CMSC495_ProjectPlan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Git/cmsc495_final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonmainhart/Documents/College/CMSC495/cmsc495_final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C240452-2481-1643-956C-59CF76AA24F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDF6047-2F24-054B-A0C2-CF359E0DC7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26260" xr2:uid="{A3040AE0-0367-2B43-ADDE-84CCD12855DC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{A3040AE0-0367-2B43-ADDE-84CCD12855DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Project_Plan" sheetId="1" r:id="rId1"/>
@@ -250,9 +250,6 @@
     <t>utils.py - open_image()</t>
   </si>
   <si>
-    <t>utils.py - convert_image()</t>
-  </si>
-  <si>
     <t>dialog.kv - Popup Dialog</t>
   </si>
   <si>
@@ -371,6 +368,9 @@
   </si>
   <si>
     <t>mainframe.kv - &lt;FileChooserPopup&gt;</t>
+  </si>
+  <si>
+    <t>utils.py - convert_message()</t>
   </si>
 </sst>
 </file>
@@ -1383,78 +1383,13 @@
     </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1479,13 +1414,78 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1824,7 +1824,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}">
   <dimension ref="A1:AV93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1881,48 +1883,48 @@
       <c r="D3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="110" t="s">
+      <c r="M3" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="110"/>
-      <c r="S3" s="108" t="s">
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="109" t="s">
+      <c r="T3" s="104"/>
+      <c r="U3" s="104"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="104"/>
+      <c r="X3" s="104"/>
+      <c r="Y3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="109"/>
-      <c r="AA3" s="109"/>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="109"/>
-      <c r="AD3" s="109"/>
+      <c r="Z3" s="88"/>
+      <c r="AA3" s="88"/>
+      <c r="AB3" s="88"/>
+      <c r="AC3" s="88"/>
+      <c r="AD3" s="88"/>
     </row>
     <row r="4" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="101"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="111" t="s">
+      <c r="B4" s="96"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="112"/>
-      <c r="H4" s="113" t="s">
+      <c r="G4" s="91"/>
+      <c r="H4" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="114"/>
-      <c r="J4" s="115" t="s">
+      <c r="I4" s="93"/>
+      <c r="J4" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="116"/>
+      <c r="K4" s="95"/>
       <c r="M4" s="12" t="str">
         <f>TEXT(M5,"aaa")</f>
         <v>Fri</v>
@@ -2217,13 +2219,13 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="106" t="s">
+      <c r="D6" s="101" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="31" t="s">
@@ -2374,9 +2376,9 @@
       </c>
     </row>
     <row r="7" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="105"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="107"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="102"/>
       <c r="E7" s="31" t="s">
         <v>13</v>
       </c>
@@ -2397,7 +2399,7 @@
         <v>44636</v>
       </c>
       <c r="M7" s="39">
-        <f t="shared" ref="M7:AB38" si="3">IF($K7=M$5,3,IF(OR(AND($H7&lt;=M$5,M$5&lt;=$I7),$H7=M$5),2,IF(AND($F7&lt;=M$5,M$5&lt;=$G7),1,0)))</f>
+        <f t="shared" ref="M7:AB30" si="3">IF($K7=M$5,3,IF(OR(AND($H7&lt;=M$5,M$5&lt;=$I7),$H7=M$5),2,IF(AND($F7&lt;=M$5,M$5&lt;=$G7),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N7" s="40">
@@ -2525,9 +2527,9 @@
       </c>
     </row>
     <row r="8" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="105"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="107"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="102"/>
       <c r="E8" s="31" t="s">
         <v>15</v>
       </c>
@@ -2673,10 +2675,10 @@
       </c>
     </row>
     <row r="9" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="107" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="64" t="s">
@@ -2829,8 +2831,8 @@
       </c>
     </row>
     <row r="10" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="95"/>
-      <c r="C10" s="97"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="108"/>
       <c r="D10" s="65" t="s">
         <v>49</v>
       </c>
@@ -2981,8 +2983,8 @@
       </c>
     </row>
     <row r="11" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="95"/>
-      <c r="C11" s="97"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="65" t="s">
         <v>49</v>
       </c>
@@ -3133,8 +3135,8 @@
       </c>
     </row>
     <row r="12" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="95"/>
-      <c r="C12" s="97"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="66" t="s">
         <v>52</v>
       </c>
@@ -3285,8 +3287,8 @@
       </c>
     </row>
     <row r="13" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="95"/>
-      <c r="C13" s="97"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="108"/>
       <c r="D13" s="67" t="s">
         <v>48</v>
       </c>
@@ -3435,9 +3437,9 @@
       </c>
     </row>
     <row r="14" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="95"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="99" t="s">
+      <c r="B14" s="106"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="110" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="31" t="s">
@@ -3522,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="40">
-        <f t="shared" ref="AC14:AQ77" si="4">IF($K14=AC$5,3,IF(OR(AND($H14&lt;=AC$5,AC$5&lt;=$I14),$H14=AC$5),2,IF(AND($F14&lt;=AC$5,AC$5&lt;=$G14),1,0)))</f>
+        <f t="shared" ref="AC14:AQ31" si="4">IF($K14=AC$5,3,IF(OR(AND($H14&lt;=AC$5,AC$5&lt;=$I14),$H14=AC$5),2,IF(AND($F14&lt;=AC$5,AC$5&lt;=$G14),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AD14" s="40">
@@ -3583,9 +3585,9 @@
       </c>
     </row>
     <row r="15" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="95"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="100"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="111"/>
       <c r="E15" s="31" t="s">
         <v>13</v>
       </c>
@@ -3733,9 +3735,9 @@
       </c>
     </row>
     <row r="16" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="95"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="100"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="111"/>
       <c r="E16" s="31" t="s">
         <v>15</v>
       </c>
@@ -3883,10 +3885,10 @@
       </c>
     </row>
     <row r="17" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="97"/>
+      <c r="C17" s="108"/>
       <c r="D17" s="72" t="s">
         <v>61</v>
       </c>
@@ -4037,8 +4039,8 @@
       </c>
     </row>
     <row r="18" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="95"/>
-      <c r="C18" s="97"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="108"/>
       <c r="D18" s="73" t="s">
         <v>63</v>
       </c>
@@ -4189,8 +4191,8 @@
       </c>
     </row>
     <row r="19" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="95"/>
-      <c r="C19" s="97"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="108"/>
       <c r="D19" s="74" t="s">
         <v>44</v>
       </c>
@@ -4341,8 +4343,8 @@
       </c>
     </row>
     <row r="20" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="95"/>
-      <c r="C20" s="97"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="108"/>
       <c r="D20" s="74" t="s">
         <v>45</v>
       </c>
@@ -4493,8 +4495,8 @@
       </c>
     </row>
     <row r="21" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="95"/>
-      <c r="C21" s="97"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="108"/>
       <c r="D21" s="74" t="s">
         <v>62</v>
       </c>
@@ -4645,8 +4647,8 @@
       </c>
     </row>
     <row r="22" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="95"/>
-      <c r="C22" s="97"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="108"/>
       <c r="D22" s="75" t="s">
         <v>64</v>
       </c>
@@ -4797,8 +4799,8 @@
       </c>
     </row>
     <row r="23" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="95"/>
-      <c r="C23" s="97"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="108"/>
       <c r="D23" s="75" t="s">
         <v>50</v>
       </c>
@@ -4949,8 +4951,8 @@
       </c>
     </row>
     <row r="24" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="95"/>
-      <c r="C24" s="97"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="108"/>
       <c r="D24" s="76" t="s">
         <v>53</v>
       </c>
@@ -5101,8 +5103,8 @@
       </c>
     </row>
     <row r="25" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="95"/>
-      <c r="C25" s="97"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="108"/>
       <c r="D25" s="75" t="s">
         <v>48</v>
       </c>
@@ -5251,8 +5253,8 @@
       </c>
     </row>
     <row r="26" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="95"/>
-      <c r="C26" s="97"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="108"/>
       <c r="D26" s="75" t="s">
         <v>59</v>
       </c>
@@ -5403,8 +5405,8 @@
       </c>
     </row>
     <row r="27" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="95"/>
-      <c r="C27" s="97"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="108"/>
       <c r="D27" s="76" t="s">
         <v>17</v>
       </c>
@@ -5555,10 +5557,10 @@
       </c>
     </row>
     <row r="28" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="94" t="s">
+      <c r="B28" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="97"/>
+      <c r="C28" s="108"/>
       <c r="D28" s="72" t="s">
         <v>51</v>
       </c>
@@ -5709,8 +5711,8 @@
       </c>
     </row>
     <row r="29" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="95"/>
-      <c r="C29" s="97"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="108"/>
       <c r="D29" s="74" t="s">
         <v>38</v>
       </c>
@@ -5861,8 +5863,8 @@
       </c>
     </row>
     <row r="30" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="95"/>
-      <c r="C30" s="97"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="108"/>
       <c r="D30" s="74" t="s">
         <v>65</v>
       </c>
@@ -5916,7 +5918,7 @@
         <v>2</v>
       </c>
       <c r="T30" s="40">
-        <f t="shared" ref="T30:AI93" si="5">IF($K30=T$5,3,IF(OR(AND($H30&lt;=T$5,T$5&lt;=$I30),$H30=T$5),2,IF(AND($F30&lt;=T$5,T$5&lt;=$G30),1,0)))</f>
+        <f t="shared" ref="T30:AI31" si="5">IF($K30=T$5,3,IF(OR(AND($H30&lt;=T$5,T$5&lt;=$I30),$H30=T$5),2,IF(AND($F30&lt;=T$5,T$5&lt;=$G30),1,0)))</f>
         <v>3</v>
       </c>
       <c r="U30" s="40">
@@ -6013,8 +6015,8 @@
       </c>
     </row>
     <row r="31" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="95"/>
-      <c r="C31" s="97"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="108"/>
       <c r="D31" s="74" t="s">
         <v>39</v>
       </c>
@@ -6040,7 +6042,7 @@
         <v>44659</v>
       </c>
       <c r="M31" s="39">
-        <f t="shared" ref="M31:AB62" si="6">IF($K31=M$5,3,IF(OR(AND($H31&lt;=M$5,M$5&lt;=$I31),$H31=M$5),2,IF(AND($F31&lt;=M$5,M$5&lt;=$G31),1,0)))</f>
+        <f t="shared" ref="M31:AB55" si="6">IF($K31=M$5,3,IF(OR(AND($H31&lt;=M$5,M$5&lt;=$I31),$H31=M$5),2,IF(AND($F31&lt;=M$5,M$5&lt;=$G31),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N31" s="40">
@@ -6160,13 +6162,13 @@
         <v>0</v>
       </c>
       <c r="AQ31" s="41">
-        <f t="shared" ref="N31:AQ93" si="7">IF($K31=AQ$5,3,IF(OR(AND($H31&lt;=AQ$5,AQ$5&lt;=$I31),$H31=AQ$5),2,IF(AND($F31&lt;=AQ$5,AQ$5&lt;=$G31),1,0)))</f>
+        <f t="shared" ref="N31:AQ40" si="7">IF($K31=AQ$5,3,IF(OR(AND($H31&lt;=AQ$5,AQ$5&lt;=$I31),$H31=AQ$5),2,IF(AND($F31&lt;=AQ$5,AQ$5&lt;=$G31),1,0)))</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="95"/>
-      <c r="C32" s="97"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="108"/>
       <c r="D32" s="74" t="s">
         <v>40</v>
       </c>
@@ -6317,8 +6319,8 @@
       </c>
     </row>
     <row r="33" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="95"/>
-      <c r="C33" s="97"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="108"/>
       <c r="D33" s="74" t="s">
         <v>66</v>
       </c>
@@ -6469,8 +6471,8 @@
       </c>
     </row>
     <row r="34" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="95"/>
-      <c r="C34" s="97"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="108"/>
       <c r="D34" s="74" t="s">
         <v>67</v>
       </c>
@@ -6621,8 +6623,8 @@
       </c>
     </row>
     <row r="35" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="95"/>
-      <c r="C35" s="97"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="108"/>
       <c r="D35" s="76" t="s">
         <v>54</v>
       </c>
@@ -6773,8 +6775,8 @@
       </c>
     </row>
     <row r="36" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="95"/>
-      <c r="C36" s="97"/>
+      <c r="B36" s="106"/>
+      <c r="C36" s="108"/>
       <c r="D36" s="75" t="s">
         <v>48</v>
       </c>
@@ -6923,8 +6925,8 @@
       </c>
     </row>
     <row r="37" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="95"/>
-      <c r="C37" s="97"/>
+      <c r="B37" s="106"/>
+      <c r="C37" s="108"/>
       <c r="D37" s="74" t="s">
         <v>41</v>
       </c>
@@ -7075,8 +7077,8 @@
       </c>
     </row>
     <row r="38" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="95"/>
-      <c r="C38" s="98"/>
+      <c r="B38" s="106"/>
+      <c r="C38" s="109"/>
       <c r="D38" s="76" t="s">
         <v>18</v>
       </c>
@@ -7227,14 +7229,14 @@
       </c>
     </row>
     <row r="39" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="89" t="s">
+      <c r="B39" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="92" t="s">
+      <c r="C39" s="118" t="s">
         <v>32</v>
       </c>
       <c r="D39" s="68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E39" s="31" t="s">
         <v>15</v>
@@ -7381,10 +7383,10 @@
       </c>
     </row>
     <row r="40" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="90"/>
-      <c r="C40" s="92"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="118"/>
       <c r="D40" s="77" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E40" s="31" t="s">
         <v>15</v>
@@ -7466,7 +7468,7 @@
         <v>0</v>
       </c>
       <c r="AB40" s="40">
-        <f t="shared" ref="AB40:AQ93" si="8">IF($K40=AB$5,3,IF(OR(AND($H40&lt;=AB$5,AB$5&lt;=$I40),$H40=AB$5),2,IF(AND($F40&lt;=AB$5,AB$5&lt;=$G40),1,0)))</f>
+        <f t="shared" ref="AB40:AQ58" si="8">IF($K40=AB$5,3,IF(OR(AND($H40&lt;=AB$5,AB$5&lt;=$I40),$H40=AB$5),2,IF(AND($F40&lt;=AB$5,AB$5&lt;=$G40),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AC40" s="40">
@@ -7531,9 +7533,9 @@
       </c>
     </row>
     <row r="41" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="90"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="117" t="s">
+      <c r="B41" s="116"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="85" t="s">
         <v>69</v>
       </c>
       <c r="E41" s="31" t="s">
@@ -7681,10 +7683,10 @@
       </c>
     </row>
     <row r="42" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="90"/>
-      <c r="C42" s="92"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="118"/>
       <c r="D42" s="77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E42" s="31" t="s">
         <v>14</v>
@@ -7831,10 +7833,10 @@
       </c>
     </row>
     <row r="43" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="90"/>
-      <c r="C43" s="92"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="118"/>
       <c r="D43" s="77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E43" s="31" t="s">
         <v>14</v>
@@ -7981,10 +7983,10 @@
       </c>
     </row>
     <row r="44" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="90"/>
-      <c r="C44" s="92"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="118"/>
       <c r="D44" s="69" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="E44" s="31" t="s">
         <v>13</v>
@@ -7998,7 +8000,9 @@
       <c r="H44" s="32">
         <v>44662</v>
       </c>
-      <c r="I44" s="63"/>
+      <c r="I44" s="32">
+        <v>44662</v>
+      </c>
       <c r="J44" s="34" t="s">
         <v>14</v>
       </c>
@@ -8129,8 +8133,8 @@
       </c>
     </row>
     <row r="45" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="90"/>
-      <c r="C45" s="92"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="118"/>
       <c r="D45" s="71" t="s">
         <v>55</v>
       </c>
@@ -8277,8 +8281,8 @@
       </c>
     </row>
     <row r="46" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="90"/>
-      <c r="C46" s="92"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="118"/>
       <c r="D46" s="70" t="s">
         <v>48</v>
       </c>
@@ -8421,9 +8425,9 @@
       </c>
     </row>
     <row r="47" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="91"/>
-      <c r="C47" s="92"/>
-      <c r="D47" s="118" t="s">
+      <c r="B47" s="117"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="86" t="s">
         <v>19</v>
       </c>
       <c r="E47" s="31" t="s">
@@ -8569,12 +8573,12 @@
       </c>
     </row>
     <row r="48" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="86" t="s">
+      <c r="B48" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="93"/>
+      <c r="C48" s="119"/>
       <c r="D48" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E48" s="31" t="s">
         <v>15</v>
@@ -8585,7 +8589,7 @@
       <c r="G48" s="63">
         <v>44672</v>
       </c>
-      <c r="H48" s="119"/>
+      <c r="H48" s="87"/>
       <c r="I48" s="35"/>
       <c r="J48" s="34" t="s">
         <v>13</v>
@@ -8717,10 +8721,10 @@
       </c>
     </row>
     <row r="49" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="86"/>
-      <c r="C49" s="93"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="119"/>
       <c r="D49" s="44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E49" s="31" t="s">
         <v>15</v>
@@ -8863,10 +8867,10 @@
       </c>
     </row>
     <row r="50" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="86"/>
-      <c r="C50" s="93"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="119"/>
       <c r="D50" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E50" s="31" t="s">
         <v>13</v>
@@ -8877,8 +8881,12 @@
       <c r="G50" s="35">
         <v>44672</v>
       </c>
-      <c r="H50" s="32"/>
-      <c r="I50" s="35"/>
+      <c r="H50" s="32">
+        <v>44662</v>
+      </c>
+      <c r="I50" s="32">
+        <v>44662</v>
+      </c>
       <c r="J50" s="34" t="s">
         <v>14</v>
       </c>
@@ -8925,7 +8933,7 @@
       </c>
       <c r="W50" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X50" s="40">
         <f t="shared" si="6"/>
@@ -9009,10 +9017,10 @@
       </c>
     </row>
     <row r="51" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="86"/>
-      <c r="C51" s="93"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="119"/>
       <c r="D51" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E51" s="31" t="s">
         <v>13</v>
@@ -9023,8 +9031,12 @@
       <c r="G51" s="35">
         <v>44672</v>
       </c>
-      <c r="H51" s="32"/>
-      <c r="I51" s="35"/>
+      <c r="H51" s="32">
+        <v>44662</v>
+      </c>
+      <c r="I51" s="32">
+        <v>44662</v>
+      </c>
       <c r="J51" s="34" t="s">
         <v>15</v>
       </c>
@@ -9071,7 +9083,7 @@
       </c>
       <c r="W51" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X51" s="40">
         <f t="shared" si="6"/>
@@ -9155,10 +9167,10 @@
       </c>
     </row>
     <row r="52" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="86"/>
-      <c r="C52" s="93"/>
+      <c r="B52" s="113"/>
+      <c r="C52" s="119"/>
       <c r="D52" s="44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E52" s="31" t="s">
         <v>13</v>
@@ -9169,8 +9181,12 @@
       <c r="G52" s="35">
         <v>44672</v>
       </c>
-      <c r="H52" s="32"/>
-      <c r="I52" s="35"/>
+      <c r="H52" s="32">
+        <v>44662</v>
+      </c>
+      <c r="I52" s="32">
+        <v>44662</v>
+      </c>
       <c r="J52" s="34" t="s">
         <v>14</v>
       </c>
@@ -9217,7 +9233,7 @@
       </c>
       <c r="W52" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X52" s="40">
         <f t="shared" si="6"/>
@@ -9301,10 +9317,10 @@
       </c>
     </row>
     <row r="53" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="86"/>
-      <c r="C53" s="93"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="119"/>
       <c r="D53" s="44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E53" s="31" t="s">
         <v>13</v>
@@ -9316,10 +9332,10 @@
         <v>44672</v>
       </c>
       <c r="H53" s="32">
-        <v>44665</v>
-      </c>
-      <c r="I53" s="35">
-        <v>44665</v>
+        <v>44662</v>
+      </c>
+      <c r="I53" s="32">
+        <v>44662</v>
       </c>
       <c r="J53" s="34" t="s">
         <v>15</v>
@@ -9367,7 +9383,7 @@
       </c>
       <c r="W53" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X53" s="40">
         <f t="shared" si="6"/>
@@ -9379,7 +9395,7 @@
       </c>
       <c r="Z53" s="40">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA53" s="40">
         <f t="shared" si="6"/>
@@ -9451,13 +9467,13 @@
       </c>
     </row>
     <row r="54" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="86"/>
-      <c r="C54" s="93"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="119"/>
       <c r="D54" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F54" s="32">
         <v>44670</v>
@@ -9465,8 +9481,12 @@
       <c r="G54" s="35">
         <v>44672</v>
       </c>
-      <c r="H54" s="32"/>
-      <c r="I54" s="35"/>
+      <c r="H54" s="32">
+        <v>44662</v>
+      </c>
+      <c r="I54" s="32">
+        <v>44662</v>
+      </c>
       <c r="J54" s="34" t="s">
         <v>13</v>
       </c>
@@ -9513,7 +9533,7 @@
       </c>
       <c r="W54" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X54" s="40">
         <f t="shared" si="6"/>
@@ -9597,10 +9617,10 @@
       </c>
     </row>
     <row r="55" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="86"/>
-      <c r="C55" s="93"/>
+      <c r="B55" s="113"/>
+      <c r="C55" s="119"/>
       <c r="D55" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E55" s="31" t="s">
         <v>13</v>
@@ -9612,10 +9632,10 @@
         <v>44672</v>
       </c>
       <c r="H55" s="32">
-        <v>44665</v>
-      </c>
-      <c r="I55" s="35">
-        <v>44665</v>
+        <v>44662</v>
+      </c>
+      <c r="I55" s="32">
+        <v>44662</v>
       </c>
       <c r="J55" s="34" t="s">
         <v>15</v>
@@ -9646,7 +9666,7 @@
         <v>0</v>
       </c>
       <c r="S55" s="40">
-        <f t="shared" ref="S55:AH93" si="9">IF($K55=S$5,3,IF(OR(AND($H55&lt;=S$5,S$5&lt;=$I55),$H55=S$5),2,IF(AND($F55&lt;=S$5,S$5&lt;=$G55),1,0)))</f>
+        <f t="shared" ref="S55:AH70" si="9">IF($K55=S$5,3,IF(OR(AND($H55&lt;=S$5,S$5&lt;=$I55),$H55=S$5),2,IF(AND($F55&lt;=S$5,S$5&lt;=$G55),1,0)))</f>
         <v>0</v>
       </c>
       <c r="T55" s="40">
@@ -9663,7 +9683,7 @@
       </c>
       <c r="W55" s="40">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X55" s="40">
         <f t="shared" si="9"/>
@@ -9675,7 +9695,7 @@
       </c>
       <c r="Z55" s="40">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA55" s="40">
         <f t="shared" si="9"/>
@@ -9747,10 +9767,10 @@
       </c>
     </row>
     <row r="56" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="86"/>
-      <c r="C56" s="93"/>
+      <c r="B56" s="113"/>
+      <c r="C56" s="119"/>
       <c r="D56" s="60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E56" s="31" t="s">
         <v>14</v>
@@ -9768,7 +9788,7 @@
       </c>
       <c r="K56" s="35"/>
       <c r="M56" s="39">
-        <f t="shared" ref="M56:AB93" si="10">IF($K56=M$5,3,IF(OR(AND($H56&lt;=M$5,M$5&lt;=$I56),$H56=M$5),2,IF(AND($F56&lt;=M$5,M$5&lt;=$G56),1,0)))</f>
+        <f t="shared" ref="M56:AB71" si="10">IF($K56=M$5,3,IF(OR(AND($H56&lt;=M$5,M$5&lt;=$I56),$H56=M$5),2,IF(AND($F56&lt;=M$5,M$5&lt;=$G56),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N56" s="40">
@@ -9893,8 +9913,8 @@
       </c>
     </row>
     <row r="57" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="86"/>
-      <c r="C57" s="93"/>
+      <c r="B57" s="113"/>
+      <c r="C57" s="119"/>
       <c r="D57" s="45" t="s">
         <v>56</v>
       </c>
@@ -10037,8 +10057,8 @@
       </c>
     </row>
     <row r="58" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="86"/>
-      <c r="C58" s="93"/>
+      <c r="B58" s="113"/>
+      <c r="C58" s="119"/>
       <c r="D58" s="60" t="s">
         <v>48</v>
       </c>
@@ -10152,7 +10172,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="40">
-        <f t="shared" ref="AK58:AQ93" si="11">IF($K58=AK$5,3,IF(OR(AND($H58&lt;=AK$5,AK$5&lt;=$I58),$H58=AK$5),2,IF(AND($F58&lt;=AK$5,AK$5&lt;=$G58),1,0)))</f>
+        <f t="shared" ref="AK58:AQ58" si="11">IF($K58=AK$5,3,IF(OR(AND($H58&lt;=AK$5,AK$5&lt;=$I58),$H58=AK$5),2,IF(AND($F58&lt;=AK$5,AK$5&lt;=$G58),1,0)))</f>
         <v>1</v>
       </c>
       <c r="AL58" s="40">
@@ -10181,8 +10201,8 @@
       </c>
     </row>
     <row r="59" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="86"/>
-      <c r="C59" s="93"/>
+      <c r="B59" s="113"/>
+      <c r="C59" s="119"/>
       <c r="D59" s="46" t="s">
         <v>20</v>
       </c>
@@ -10284,7 +10304,7 @@
         <v>0</v>
       </c>
       <c r="AI59" s="40">
-        <f t="shared" ref="AI59:AQ93" si="12">IF($K59=AI$5,3,IF(OR(AND($H59&lt;=AI$5,AI$5&lt;=$I59),$H59=AI$5),2,IF(AND($F59&lt;=AI$5,AI$5&lt;=$G59),1,0)))</f>
+        <f t="shared" ref="AI59:AQ70" si="12">IF($K59=AI$5,3,IF(OR(AND($H59&lt;=AI$5,AI$5&lt;=$I59),$H59=AI$5),2,IF(AND($F59&lt;=AI$5,AI$5&lt;=$G59),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AJ59" s="40">
@@ -10321,10 +10341,10 @@
       </c>
     </row>
     <row r="60" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="86"/>
-      <c r="C60" s="93"/>
+      <c r="B60" s="113"/>
+      <c r="C60" s="119"/>
       <c r="D60" s="79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E60" s="31" t="s">
         <v>14</v>
@@ -10467,10 +10487,10 @@
       </c>
     </row>
     <row r="61" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="86"/>
-      <c r="C61" s="93"/>
+      <c r="B61" s="113"/>
+      <c r="C61" s="119"/>
       <c r="D61" s="79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E61" s="31" t="s">
         <v>13</v>
@@ -10613,10 +10633,10 @@
       </c>
     </row>
     <row r="62" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="87"/>
-      <c r="C62" s="93"/>
+      <c r="B62" s="114"/>
+      <c r="C62" s="119"/>
       <c r="D62" s="80" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E62" s="31" t="s">
         <v>15</v>
@@ -10759,14 +10779,14 @@
       </c>
     </row>
     <row r="63" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="85" t="s">
+      <c r="B63" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="88" t="s">
+      <c r="C63" s="103" t="s">
         <v>33</v>
       </c>
       <c r="D63" s="43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E63" s="31" t="s">
         <v>15</v>
@@ -10903,10 +10923,10 @@
       </c>
     </row>
     <row r="64" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="86"/>
-      <c r="C64" s="88"/>
+      <c r="B64" s="113"/>
+      <c r="C64" s="103"/>
       <c r="D64" s="44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E64" s="31" t="s">
         <v>13</v>
@@ -11043,10 +11063,10 @@
       </c>
     </row>
     <row r="65" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="86"/>
-      <c r="C65" s="88"/>
+      <c r="B65" s="113"/>
+      <c r="C65" s="103"/>
       <c r="D65" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E65" s="31" t="s">
         <v>14</v>
@@ -11183,10 +11203,10 @@
       </c>
     </row>
     <row r="66" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="86"/>
-      <c r="C66" s="88"/>
+      <c r="B66" s="113"/>
+      <c r="C66" s="103"/>
       <c r="D66" s="44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E66" s="31" t="s">
         <v>13</v>
@@ -11323,10 +11343,10 @@
       </c>
     </row>
     <row r="67" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="86"/>
-      <c r="C67" s="88"/>
+      <c r="B67" s="113"/>
+      <c r="C67" s="103"/>
       <c r="D67" s="44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E67" s="31" t="s">
         <v>15</v>
@@ -11463,10 +11483,10 @@
       </c>
     </row>
     <row r="68" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="86"/>
-      <c r="C68" s="88"/>
+      <c r="B68" s="113"/>
+      <c r="C68" s="103"/>
       <c r="D68" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E68" s="31"/>
       <c r="F68" s="32"/>
@@ -11601,10 +11621,10 @@
       </c>
     </row>
     <row r="69" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="86"/>
-      <c r="C69" s="88"/>
+      <c r="B69" s="113"/>
+      <c r="C69" s="103"/>
       <c r="D69" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E69" s="31"/>
       <c r="F69" s="32"/>
@@ -11739,10 +11759,10 @@
       </c>
     </row>
     <row r="70" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="86"/>
-      <c r="C70" s="88"/>
+      <c r="B70" s="113"/>
+      <c r="C70" s="103"/>
       <c r="D70" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E70" s="31"/>
       <c r="F70" s="32"/>
@@ -11877,10 +11897,10 @@
       </c>
     </row>
     <row r="71" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="86"/>
-      <c r="C71" s="88"/>
+      <c r="B71" s="113"/>
+      <c r="C71" s="103"/>
       <c r="D71" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E71" s="31"/>
       <c r="F71" s="32"/>
@@ -11950,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="AB71" s="40">
-        <f t="shared" ref="AB71:AQ93" si="13">IF($K71=AB$5,3,IF(OR(AND($H71&lt;=AB$5,AB$5&lt;=$I71),$H71=AB$5),2,IF(AND($F71&lt;=AB$5,AB$5&lt;=$G71),1,0)))</f>
+        <f t="shared" ref="AB71:AQ86" si="13">IF($K71=AB$5,3,IF(OR(AND($H71&lt;=AB$5,AB$5&lt;=$I71),$H71=AB$5),2,IF(AND($F71&lt;=AB$5,AB$5&lt;=$G71),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AC71" s="40">
@@ -12015,10 +12035,10 @@
       </c>
     </row>
     <row r="72" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="86"/>
-      <c r="C72" s="88"/>
+      <c r="B72" s="113"/>
+      <c r="C72" s="103"/>
       <c r="D72" s="44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E72" s="31"/>
       <c r="F72" s="32"/>
@@ -12028,7 +12048,7 @@
       <c r="J72" s="34"/>
       <c r="K72" s="35"/>
       <c r="M72" s="39">
-        <f t="shared" ref="M72:AB93" si="14">IF($K72=M$5,3,IF(OR(AND($H72&lt;=M$5,M$5&lt;=$I72),$H72=M$5),2,IF(AND($F72&lt;=M$5,M$5&lt;=$G72),1,0)))</f>
+        <f t="shared" ref="M72:AB87" si="14">IF($K72=M$5,3,IF(OR(AND($H72&lt;=M$5,M$5&lt;=$I72),$H72=M$5),2,IF(AND($F72&lt;=M$5,M$5&lt;=$G72),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N72" s="40">
@@ -12153,10 +12173,10 @@
       </c>
     </row>
     <row r="73" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="86"/>
-      <c r="C73" s="88"/>
+      <c r="B73" s="113"/>
+      <c r="C73" s="103"/>
       <c r="D73" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E73" s="31"/>
       <c r="F73" s="32"/>
@@ -12291,10 +12311,10 @@
       </c>
     </row>
     <row r="74" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="86"/>
-      <c r="C74" s="88"/>
+      <c r="B74" s="113"/>
+      <c r="C74" s="103"/>
       <c r="D74" s="78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="31"/>
       <c r="F74" s="32"/>
@@ -12429,10 +12449,10 @@
       </c>
     </row>
     <row r="75" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="86"/>
-      <c r="C75" s="88"/>
+      <c r="B75" s="113"/>
+      <c r="C75" s="103"/>
       <c r="D75" s="50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E75" s="31"/>
       <c r="F75" s="32"/>
@@ -12567,8 +12587,8 @@
       </c>
     </row>
     <row r="76" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="86"/>
-      <c r="C76" s="88"/>
+      <c r="B76" s="113"/>
+      <c r="C76" s="103"/>
       <c r="D76" s="45" t="s">
         <v>57</v>
       </c>
@@ -12711,8 +12731,8 @@
       </c>
     </row>
     <row r="77" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="86"/>
-      <c r="C77" s="88"/>
+      <c r="B77" s="113"/>
+      <c r="C77" s="103"/>
       <c r="D77" s="60" t="s">
         <v>48</v>
       </c>
@@ -12853,8 +12873,8 @@
       </c>
     </row>
     <row r="78" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="86"/>
-      <c r="C78" s="88"/>
+      <c r="B78" s="113"/>
+      <c r="C78" s="103"/>
       <c r="D78" s="46" t="s">
         <v>21</v>
       </c>
@@ -12993,10 +13013,10 @@
       </c>
     </row>
     <row r="79" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="86"/>
-      <c r="C79" s="88"/>
+      <c r="B79" s="113"/>
+      <c r="C79" s="103"/>
       <c r="D79" s="82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E79" s="31" t="s">
         <v>14</v>
@@ -13133,10 +13153,10 @@
       </c>
     </row>
     <row r="80" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="86"/>
-      <c r="C80" s="88"/>
+      <c r="B80" s="113"/>
+      <c r="C80" s="103"/>
       <c r="D80" s="82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E80" s="31" t="s">
         <v>13</v>
@@ -13273,10 +13293,10 @@
       </c>
     </row>
     <row r="81" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="86"/>
-      <c r="C81" s="88"/>
+      <c r="B81" s="113"/>
+      <c r="C81" s="103"/>
       <c r="D81" s="81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E81" s="31" t="s">
         <v>15</v>
@@ -13417,14 +13437,14 @@
       </c>
     </row>
     <row r="82" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="85" t="s">
+      <c r="B82" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="C82" s="88" t="s">
+      <c r="C82" s="103" t="s">
         <v>34</v>
       </c>
       <c r="D82" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E82" s="31" t="s">
         <v>14</v>
@@ -13561,10 +13581,10 @@
       </c>
     </row>
     <row r="83" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="86"/>
-      <c r="C83" s="88"/>
+      <c r="B83" s="113"/>
+      <c r="C83" s="103"/>
       <c r="D83" s="78" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E83" s="31" t="s">
         <v>13</v>
@@ -13701,10 +13721,10 @@
       </c>
     </row>
     <row r="84" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="86"/>
-      <c r="C84" s="88"/>
+      <c r="B84" s="113"/>
+      <c r="C84" s="103"/>
       <c r="D84" s="78" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E84" s="31" t="s">
         <v>15</v>
@@ -13841,8 +13861,8 @@
       </c>
     </row>
     <row r="85" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="86"/>
-      <c r="C85" s="88"/>
+      <c r="B85" s="113"/>
+      <c r="C85" s="103"/>
       <c r="D85" s="78" t="s">
         <v>68</v>
       </c>
@@ -13981,8 +14001,8 @@
       </c>
     </row>
     <row r="86" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="86"/>
-      <c r="C86" s="88"/>
+      <c r="B86" s="113"/>
+      <c r="C86" s="103"/>
       <c r="D86" s="78" t="s">
         <v>68</v>
       </c>
@@ -14121,8 +14141,8 @@
       </c>
     </row>
     <row r="87" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="86"/>
-      <c r="C87" s="88"/>
+      <c r="B87" s="113"/>
+      <c r="C87" s="103"/>
       <c r="D87" s="78" t="s">
         <v>68</v>
       </c>
@@ -14261,8 +14281,8 @@
       </c>
     </row>
     <row r="88" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="86"/>
-      <c r="C88" s="88"/>
+      <c r="B88" s="113"/>
+      <c r="C88" s="103"/>
       <c r="D88" s="30" t="s">
         <v>34</v>
       </c>
@@ -14401,8 +14421,8 @@
       </c>
     </row>
     <row r="89" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="86"/>
-      <c r="C89" s="88"/>
+      <c r="B89" s="113"/>
+      <c r="C89" s="103"/>
       <c r="D89" s="30" t="s">
         <v>34</v>
       </c>
@@ -14541,8 +14561,8 @@
       </c>
     </row>
     <row r="90" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="86"/>
-      <c r="C90" s="88"/>
+      <c r="B90" s="113"/>
+      <c r="C90" s="103"/>
       <c r="D90" s="30" t="s">
         <v>34</v>
       </c>
@@ -14681,8 +14701,8 @@
       </c>
     </row>
     <row r="91" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="86"/>
-      <c r="C91" s="88"/>
+      <c r="B91" s="113"/>
+      <c r="C91" s="103"/>
       <c r="D91" s="62" t="s">
         <v>58</v>
       </c>
@@ -14823,8 +14843,8 @@
       </c>
     </row>
     <row r="92" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="86"/>
-      <c r="C92" s="88"/>
+      <c r="B92" s="113"/>
+      <c r="C92" s="103"/>
       <c r="D92" s="30" t="s">
         <v>48</v>
       </c>
@@ -14965,8 +14985,8 @@
       </c>
     </row>
     <row r="93" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="87"/>
-      <c r="C93" s="88"/>
+      <c r="B93" s="114"/>
+      <c r="C93" s="103"/>
       <c r="D93" s="51" t="s">
         <v>47</v>
       </c>
@@ -15109,21 +15129,6 @@
   </sheetData>
   <autoFilter ref="D5:E93" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}"/>
   <mergeCells count="22">
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="C9:C38"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="B17:B27"/>
-    <mergeCell ref="B28:B38"/>
     <mergeCell ref="B82:B93"/>
     <mergeCell ref="C82:C93"/>
     <mergeCell ref="B39:B47"/>
@@ -15131,6 +15136,21 @@
     <mergeCell ref="B48:B62"/>
     <mergeCell ref="B63:B81"/>
     <mergeCell ref="C63:C81"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="C9:C38"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="B17:B27"/>
+    <mergeCell ref="B28:B38"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="M6:AQ93">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">

--- a/CMSC495_ProjectPlan.xlsx
+++ b/CMSC495_ProjectPlan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonmainhart/Documents/College/CMSC495/cmsc495_final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Git/cmsc495_final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDF6047-2F24-054B-A0C2-CF359E0DC7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5366F2-4116-A440-B828-713FDAB5D727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{A3040AE0-0367-2B43-ADDE-84CCD12855DC}"/>
+    <workbookView xWindow="20240" yWindow="1900" windowWidth="28440" windowHeight="24060" xr2:uid="{A3040AE0-0367-2B43-ADDE-84CCD12855DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Project_Plan" sheetId="1" r:id="rId1"/>
@@ -1245,7 +1245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1344,9 +1344,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1390,6 +1387,78 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1414,78 +1483,13 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1824,9 +1828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}">
   <dimension ref="A1:AV93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1883,48 +1885,48 @@
       <c r="D3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="89" t="s">
+      <c r="M3" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="104" t="s">
+      <c r="N3" s="112"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="112"/>
+      <c r="S3" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="104"/>
-      <c r="U3" s="104"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="104"/>
-      <c r="X3" s="104"/>
-      <c r="Y3" s="88" t="s">
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="88"/>
-      <c r="AA3" s="88"/>
-      <c r="AB3" s="88"/>
-      <c r="AC3" s="88"/>
-      <c r="AD3" s="88"/>
+      <c r="Z3" s="111"/>
+      <c r="AA3" s="111"/>
+      <c r="AB3" s="111"/>
+      <c r="AC3" s="111"/>
+      <c r="AD3" s="111"/>
     </row>
     <row r="4" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="96"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="90" t="s">
+      <c r="B4" s="103"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="91"/>
-      <c r="H4" s="92" t="s">
+      <c r="G4" s="114"/>
+      <c r="H4" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="93"/>
-      <c r="J4" s="94" t="s">
+      <c r="I4" s="116"/>
+      <c r="J4" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="95"/>
+      <c r="K4" s="118"/>
       <c r="M4" s="12" t="str">
         <f>TEXT(M5,"aaa")</f>
         <v>Fri</v>
@@ -2219,13 +2221,13 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="101" t="s">
+      <c r="D6" s="108" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="31" t="s">
@@ -2376,9 +2378,9 @@
       </c>
     </row>
     <row r="7" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="100"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="102"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="109"/>
       <c r="E7" s="31" t="s">
         <v>13</v>
       </c>
@@ -2527,9 +2529,9 @@
       </c>
     </row>
     <row r="8" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="100"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="102"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="109"/>
       <c r="E8" s="31" t="s">
         <v>15</v>
       </c>
@@ -2675,10 +2677,10 @@
       </c>
     </row>
     <row r="9" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="98" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="64" t="s">
@@ -2831,8 +2833,8 @@
       </c>
     </row>
     <row r="10" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="106"/>
-      <c r="C10" s="108"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="99"/>
       <c r="D10" s="65" t="s">
         <v>49</v>
       </c>
@@ -2983,8 +2985,8 @@
       </c>
     </row>
     <row r="11" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="106"/>
-      <c r="C11" s="108"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="99"/>
       <c r="D11" s="65" t="s">
         <v>49</v>
       </c>
@@ -3135,8 +3137,8 @@
       </c>
     </row>
     <row r="12" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="106"/>
-      <c r="C12" s="108"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="99"/>
       <c r="D12" s="66" t="s">
         <v>52</v>
       </c>
@@ -3287,8 +3289,8 @@
       </c>
     </row>
     <row r="13" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="106"/>
-      <c r="C13" s="108"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="99"/>
       <c r="D13" s="67" t="s">
         <v>48</v>
       </c>
@@ -3437,9 +3439,9 @@
       </c>
     </row>
     <row r="14" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="106"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="110" t="s">
+      <c r="B14" s="97"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="101" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="31" t="s">
@@ -3585,9 +3587,9 @@
       </c>
     </row>
     <row r="15" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="106"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="111"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="102"/>
       <c r="E15" s="31" t="s">
         <v>13</v>
       </c>
@@ -3735,9 +3737,9 @@
       </c>
     </row>
     <row r="16" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="106"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="111"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="31" t="s">
         <v>15</v>
       </c>
@@ -3885,11 +3887,11 @@
       </c>
     </row>
     <row r="17" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="105" t="s">
+      <c r="B17" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="108"/>
-      <c r="D17" s="72" t="s">
+      <c r="C17" s="99"/>
+      <c r="D17" s="71" t="s">
         <v>61</v>
       </c>
       <c r="E17" s="31" t="s">
@@ -4039,9 +4041,9 @@
       </c>
     </row>
     <row r="18" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="106"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="73" t="s">
+      <c r="B18" s="97"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="72" t="s">
         <v>63</v>
       </c>
       <c r="E18" s="31" t="s">
@@ -4191,9 +4193,9 @@
       </c>
     </row>
     <row r="19" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="106"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="74" t="s">
+      <c r="B19" s="97"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="73" t="s">
         <v>44</v>
       </c>
       <c r="E19" s="31" t="s">
@@ -4343,9 +4345,9 @@
       </c>
     </row>
     <row r="20" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="106"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="74" t="s">
+      <c r="B20" s="97"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="73" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="31" t="s">
@@ -4495,9 +4497,9 @@
       </c>
     </row>
     <row r="21" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="106"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="74" t="s">
+      <c r="B21" s="97"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="73" t="s">
         <v>62</v>
       </c>
       <c r="E21" s="31" t="s">
@@ -4647,9 +4649,9 @@
       </c>
     </row>
     <row r="22" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="106"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="75" t="s">
+      <c r="B22" s="97"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="74" t="s">
         <v>64</v>
       </c>
       <c r="E22" s="31" t="s">
@@ -4799,9 +4801,9 @@
       </c>
     </row>
     <row r="23" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="106"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="75" t="s">
+      <c r="B23" s="97"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="74" t="s">
         <v>50</v>
       </c>
       <c r="E23" s="31" t="s">
@@ -4951,9 +4953,9 @@
       </c>
     </row>
     <row r="24" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="106"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="76" t="s">
+      <c r="B24" s="97"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="75" t="s">
         <v>53</v>
       </c>
       <c r="E24" s="31" t="s">
@@ -5103,9 +5105,9 @@
       </c>
     </row>
     <row r="25" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="106"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="75" t="s">
+      <c r="B25" s="97"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="74" t="s">
         <v>48</v>
       </c>
       <c r="E25" s="31"/>
@@ -5253,9 +5255,9 @@
       </c>
     </row>
     <row r="26" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="106"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="75" t="s">
+      <c r="B26" s="97"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="74" t="s">
         <v>59</v>
       </c>
       <c r="E26" s="31" t="s">
@@ -5405,9 +5407,9 @@
       </c>
     </row>
     <row r="27" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="106"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="76" t="s">
+      <c r="B27" s="97"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="75" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="31" t="s">
@@ -5557,11 +5559,11 @@
       </c>
     </row>
     <row r="28" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="105" t="s">
+      <c r="B28" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="108"/>
-      <c r="D28" s="72" t="s">
+      <c r="C28" s="99"/>
+      <c r="D28" s="71" t="s">
         <v>51</v>
       </c>
       <c r="E28" s="31" t="s">
@@ -5711,9 +5713,9 @@
       </c>
     </row>
     <row r="29" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="106"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="74" t="s">
+      <c r="B29" s="97"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="73" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="31" t="s">
@@ -5863,9 +5865,9 @@
       </c>
     </row>
     <row r="30" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="106"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="74" t="s">
+      <c r="B30" s="97"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="73" t="s">
         <v>65</v>
       </c>
       <c r="E30" s="31" t="s">
@@ -6015,9 +6017,9 @@
       </c>
     </row>
     <row r="31" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="106"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="74" t="s">
+      <c r="B31" s="97"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="73" t="s">
         <v>39</v>
       </c>
       <c r="E31" s="31" t="s">
@@ -6167,9 +6169,9 @@
       </c>
     </row>
     <row r="32" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="106"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="74" t="s">
+      <c r="B32" s="97"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="73" t="s">
         <v>40</v>
       </c>
       <c r="E32" s="31" t="s">
@@ -6319,9 +6321,9 @@
       </c>
     </row>
     <row r="33" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="106"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="74" t="s">
+      <c r="B33" s="97"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="73" t="s">
         <v>66</v>
       </c>
       <c r="E33" s="31" t="s">
@@ -6471,9 +6473,9 @@
       </c>
     </row>
     <row r="34" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="106"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="74" t="s">
+      <c r="B34" s="97"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="73" t="s">
         <v>67</v>
       </c>
       <c r="E34" s="31" t="s">
@@ -6623,9 +6625,9 @@
       </c>
     </row>
     <row r="35" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="106"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="76" t="s">
+      <c r="B35" s="97"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="75" t="s">
         <v>54</v>
       </c>
       <c r="E35" s="31" t="s">
@@ -6775,9 +6777,9 @@
       </c>
     </row>
     <row r="36" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="106"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="75" t="s">
+      <c r="B36" s="97"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="74" t="s">
         <v>48</v>
       </c>
       <c r="E36" s="31"/>
@@ -6925,9 +6927,9 @@
       </c>
     </row>
     <row r="37" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="106"/>
-      <c r="C37" s="108"/>
-      <c r="D37" s="74" t="s">
+      <c r="B37" s="97"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="73" t="s">
         <v>41</v>
       </c>
       <c r="E37" s="31" t="s">
@@ -7077,9 +7079,9 @@
       </c>
     </row>
     <row r="38" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="106"/>
-      <c r="C38" s="109"/>
-      <c r="D38" s="76" t="s">
+      <c r="B38" s="97"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="75" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="31" t="s">
@@ -7229,10 +7231,10 @@
       </c>
     </row>
     <row r="39" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="115" t="s">
+      <c r="B39" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="118" t="s">
+      <c r="C39" s="94" t="s">
         <v>32</v>
       </c>
       <c r="D39" s="68" t="s">
@@ -7383,9 +7385,9 @@
       </c>
     </row>
     <row r="40" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="116"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="77" t="s">
+      <c r="B40" s="92"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="76" t="s">
         <v>72</v>
       </c>
       <c r="E40" s="31" t="s">
@@ -7533,9 +7535,9 @@
       </c>
     </row>
     <row r="41" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="116"/>
-      <c r="C41" s="118"/>
-      <c r="D41" s="85" t="s">
+      <c r="B41" s="92"/>
+      <c r="C41" s="94"/>
+      <c r="D41" s="84" t="s">
         <v>69</v>
       </c>
       <c r="E41" s="31" t="s">
@@ -7683,9 +7685,9 @@
       </c>
     </row>
     <row r="42" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="116"/>
-      <c r="C42" s="118"/>
-      <c r="D42" s="77" t="s">
+      <c r="B42" s="92"/>
+      <c r="C42" s="94"/>
+      <c r="D42" s="76" t="s">
         <v>97</v>
       </c>
       <c r="E42" s="31" t="s">
@@ -7833,9 +7835,9 @@
       </c>
     </row>
     <row r="43" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="116"/>
-      <c r="C43" s="118"/>
-      <c r="D43" s="77" t="s">
+      <c r="B43" s="92"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="76" t="s">
         <v>98</v>
       </c>
       <c r="E43" s="31" t="s">
@@ -7983,8 +7985,8 @@
       </c>
     </row>
     <row r="44" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="116"/>
-      <c r="C44" s="118"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="94"/>
       <c r="D44" s="69" t="s">
         <v>99</v>
       </c>
@@ -8001,7 +8003,7 @@
         <v>44662</v>
       </c>
       <c r="I44" s="32">
-        <v>44662</v>
+        <v>44665</v>
       </c>
       <c r="J44" s="34" t="s">
         <v>14</v>
@@ -8053,15 +8055,15 @@
       </c>
       <c r="X44" s="40">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y44" s="40">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z44" s="40">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA44" s="40">
         <f t="shared" si="6"/>
@@ -8133,9 +8135,9 @@
       </c>
     </row>
     <row r="45" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="116"/>
-      <c r="C45" s="118"/>
-      <c r="D45" s="71" t="s">
+      <c r="B45" s="92"/>
+      <c r="C45" s="94"/>
+      <c r="D45" s="70" t="s">
         <v>55</v>
       </c>
       <c r="E45" s="31" t="s">
@@ -8150,11 +8152,15 @@
       <c r="H45" s="32">
         <v>44665</v>
       </c>
-      <c r="I45" s="35"/>
+      <c r="I45" s="35">
+        <v>44666</v>
+      </c>
       <c r="J45" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K45" s="35"/>
+      <c r="K45" s="35">
+        <v>44666</v>
+      </c>
       <c r="M45" s="39">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -8213,7 +8219,7 @@
       </c>
       <c r="AA45" s="40">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB45" s="40">
         <f t="shared" si="6"/>
@@ -8281,24 +8287,24 @@
       </c>
     </row>
     <row r="46" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="116"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="70" t="s">
+      <c r="B46" s="92"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="E46" s="31"/>
-      <c r="F46" s="32">
+      <c r="E46" s="120"/>
+      <c r="F46" s="121">
         <v>44669</v>
       </c>
-      <c r="G46" s="35">
+      <c r="G46" s="122">
         <v>44669</v>
       </c>
-      <c r="H46" s="32"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="34" t="s">
+      <c r="H46" s="121"/>
+      <c r="I46" s="122"/>
+      <c r="J46" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="K46" s="35"/>
+      <c r="K46" s="122"/>
       <c r="M46" s="39">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -8425,9 +8431,9 @@
       </c>
     </row>
     <row r="47" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="117"/>
-      <c r="C47" s="118"/>
-      <c r="D47" s="86" t="s">
+      <c r="B47" s="93"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="85" t="s">
         <v>19</v>
       </c>
       <c r="E47" s="31" t="s">
@@ -8442,11 +8448,15 @@
       <c r="H47" s="32">
         <v>44665</v>
       </c>
-      <c r="I47" s="35"/>
+      <c r="I47" s="35">
+        <v>44666</v>
+      </c>
       <c r="J47" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K47" s="35"/>
+      <c r="K47" s="35">
+        <v>44666</v>
+      </c>
       <c r="M47" s="39">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -8505,7 +8515,7 @@
       </c>
       <c r="AA47" s="40">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB47" s="40">
         <f t="shared" si="6"/>
@@ -8573,10 +8583,10 @@
       </c>
     </row>
     <row r="48" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="113" t="s">
+      <c r="B48" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="119"/>
+      <c r="C48" s="95"/>
       <c r="D48" s="59" t="s">
         <v>96</v>
       </c>
@@ -8589,7 +8599,7 @@
       <c r="G48" s="63">
         <v>44672</v>
       </c>
-      <c r="H48" s="87"/>
+      <c r="H48" s="86"/>
       <c r="I48" s="35"/>
       <c r="J48" s="34" t="s">
         <v>13</v>
@@ -8721,8 +8731,8 @@
       </c>
     </row>
     <row r="49" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="113"/>
-      <c r="C49" s="119"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="95"/>
       <c r="D49" s="44" t="s">
         <v>73</v>
       </c>
@@ -8867,8 +8877,8 @@
       </c>
     </row>
     <row r="50" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="113"/>
-      <c r="C50" s="119"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="95"/>
       <c r="D50" s="44" t="s">
         <v>74</v>
       </c>
@@ -8885,7 +8895,7 @@
         <v>44662</v>
       </c>
       <c r="I50" s="32">
-        <v>44662</v>
+        <v>44665</v>
       </c>
       <c r="J50" s="34" t="s">
         <v>14</v>
@@ -8937,15 +8947,15 @@
       </c>
       <c r="X50" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y50" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z50" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA50" s="40">
         <f t="shared" si="6"/>
@@ -9017,8 +9027,8 @@
       </c>
     </row>
     <row r="51" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="113"/>
-      <c r="C51" s="119"/>
+      <c r="B51" s="88"/>
+      <c r="C51" s="95"/>
       <c r="D51" s="44" t="s">
         <v>76</v>
       </c>
@@ -9034,9 +9044,7 @@
       <c r="H51" s="32">
         <v>44662</v>
       </c>
-      <c r="I51" s="32">
-        <v>44662</v>
-      </c>
+      <c r="I51" s="32"/>
       <c r="J51" s="34" t="s">
         <v>15</v>
       </c>
@@ -9167,8 +9175,8 @@
       </c>
     </row>
     <row r="52" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="113"/>
-      <c r="C52" s="119"/>
+      <c r="B52" s="88"/>
+      <c r="C52" s="95"/>
       <c r="D52" s="44" t="s">
         <v>77</v>
       </c>
@@ -9184,9 +9192,7 @@
       <c r="H52" s="32">
         <v>44662</v>
       </c>
-      <c r="I52" s="32">
-        <v>44662</v>
-      </c>
+      <c r="I52" s="32"/>
       <c r="J52" s="34" t="s">
         <v>14</v>
       </c>
@@ -9317,8 +9323,8 @@
       </c>
     </row>
     <row r="53" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="113"/>
-      <c r="C53" s="119"/>
+      <c r="B53" s="88"/>
+      <c r="C53" s="95"/>
       <c r="D53" s="44" t="s">
         <v>78</v>
       </c>
@@ -9335,7 +9341,7 @@
         <v>44662</v>
       </c>
       <c r="I53" s="32">
-        <v>44662</v>
+        <v>44665</v>
       </c>
       <c r="J53" s="34" t="s">
         <v>15</v>
@@ -9387,15 +9393,15 @@
       </c>
       <c r="X53" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y53" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z53" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA53" s="40">
         <f t="shared" si="6"/>
@@ -9467,8 +9473,8 @@
       </c>
     </row>
     <row r="54" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="113"/>
-      <c r="C54" s="119"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="95"/>
       <c r="D54" s="44" t="s">
         <v>75</v>
       </c>
@@ -9484,9 +9490,7 @@
       <c r="H54" s="32">
         <v>44662</v>
       </c>
-      <c r="I54" s="32">
-        <v>44662</v>
-      </c>
+      <c r="I54" s="32"/>
       <c r="J54" s="34" t="s">
         <v>13</v>
       </c>
@@ -9617,8 +9621,8 @@
       </c>
     </row>
     <row r="55" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="113"/>
-      <c r="C55" s="119"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="95"/>
       <c r="D55" s="44" t="s">
         <v>79</v>
       </c>
@@ -9634,9 +9638,7 @@
       <c r="H55" s="32">
         <v>44662</v>
       </c>
-      <c r="I55" s="32">
-        <v>44662</v>
-      </c>
+      <c r="I55" s="32"/>
       <c r="J55" s="34" t="s">
         <v>15</v>
       </c>
@@ -9767,8 +9769,8 @@
       </c>
     </row>
     <row r="56" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="113"/>
-      <c r="C56" s="119"/>
+      <c r="B56" s="88"/>
+      <c r="C56" s="95"/>
       <c r="D56" s="60" t="s">
         <v>80</v>
       </c>
@@ -9913,8 +9915,8 @@
       </c>
     </row>
     <row r="57" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="113"/>
-      <c r="C57" s="119"/>
+      <c r="B57" s="88"/>
+      <c r="C57" s="95"/>
       <c r="D57" s="45" t="s">
         <v>56</v>
       </c>
@@ -10057,8 +10059,8 @@
       </c>
     </row>
     <row r="58" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="113"/>
-      <c r="C58" s="119"/>
+      <c r="B58" s="88"/>
+      <c r="C58" s="95"/>
       <c r="D58" s="60" t="s">
         <v>48</v>
       </c>
@@ -10201,8 +10203,8 @@
       </c>
     </row>
     <row r="59" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="113"/>
-      <c r="C59" s="119"/>
+      <c r="B59" s="88"/>
+      <c r="C59" s="95"/>
       <c r="D59" s="46" t="s">
         <v>20</v>
       </c>
@@ -10341,9 +10343,9 @@
       </c>
     </row>
     <row r="60" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="113"/>
-      <c r="C60" s="119"/>
-      <c r="D60" s="79" t="s">
+      <c r="B60" s="88"/>
+      <c r="C60" s="95"/>
+      <c r="D60" s="78" t="s">
         <v>71</v>
       </c>
       <c r="E60" s="31" t="s">
@@ -10487,9 +10489,9 @@
       </c>
     </row>
     <row r="61" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="113"/>
-      <c r="C61" s="119"/>
-      <c r="D61" s="79" t="s">
+      <c r="B61" s="88"/>
+      <c r="C61" s="95"/>
+      <c r="D61" s="78" t="s">
         <v>71</v>
       </c>
       <c r="E61" s="31" t="s">
@@ -10633,9 +10635,9 @@
       </c>
     </row>
     <row r="62" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="114"/>
-      <c r="C62" s="119"/>
-      <c r="D62" s="80" t="s">
+      <c r="B62" s="89"/>
+      <c r="C62" s="95"/>
+      <c r="D62" s="79" t="s">
         <v>71</v>
       </c>
       <c r="E62" s="31" t="s">
@@ -10779,10 +10781,10 @@
       </c>
     </row>
     <row r="63" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="112" t="s">
+      <c r="B63" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="103" t="s">
+      <c r="C63" s="90" t="s">
         <v>33</v>
       </c>
       <c r="D63" s="43" t="s">
@@ -10923,8 +10925,8 @@
       </c>
     </row>
     <row r="64" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="113"/>
-      <c r="C64" s="103"/>
+      <c r="B64" s="88"/>
+      <c r="C64" s="90"/>
       <c r="D64" s="44" t="s">
         <v>81</v>
       </c>
@@ -11063,8 +11065,8 @@
       </c>
     </row>
     <row r="65" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="113"/>
-      <c r="C65" s="103"/>
+      <c r="B65" s="88"/>
+      <c r="C65" s="90"/>
       <c r="D65" s="44" t="s">
         <v>83</v>
       </c>
@@ -11203,8 +11205,8 @@
       </c>
     </row>
     <row r="66" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="113"/>
-      <c r="C66" s="103"/>
+      <c r="B66" s="88"/>
+      <c r="C66" s="90"/>
       <c r="D66" s="44" t="s">
         <v>84</v>
       </c>
@@ -11343,8 +11345,8 @@
       </c>
     </row>
     <row r="67" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="113"/>
-      <c r="C67" s="103"/>
+      <c r="B67" s="88"/>
+      <c r="C67" s="90"/>
       <c r="D67" s="44" t="s">
         <v>85</v>
       </c>
@@ -11483,8 +11485,8 @@
       </c>
     </row>
     <row r="68" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="113"/>
-      <c r="C68" s="103"/>
+      <c r="B68" s="88"/>
+      <c r="C68" s="90"/>
       <c r="D68" s="44" t="s">
         <v>86</v>
       </c>
@@ -11621,8 +11623,8 @@
       </c>
     </row>
     <row r="69" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="113"/>
-      <c r="C69" s="103"/>
+      <c r="B69" s="88"/>
+      <c r="C69" s="90"/>
       <c r="D69" s="44" t="s">
         <v>87</v>
       </c>
@@ -11759,8 +11761,8 @@
       </c>
     </row>
     <row r="70" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="113"/>
-      <c r="C70" s="103"/>
+      <c r="B70" s="88"/>
+      <c r="C70" s="90"/>
       <c r="D70" s="44" t="s">
         <v>88</v>
       </c>
@@ -11897,8 +11899,8 @@
       </c>
     </row>
     <row r="71" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="113"/>
-      <c r="C71" s="103"/>
+      <c r="B71" s="88"/>
+      <c r="C71" s="90"/>
       <c r="D71" s="44" t="s">
         <v>89</v>
       </c>
@@ -12035,8 +12037,8 @@
       </c>
     </row>
     <row r="72" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="113"/>
-      <c r="C72" s="103"/>
+      <c r="B72" s="88"/>
+      <c r="C72" s="90"/>
       <c r="D72" s="44" t="s">
         <v>90</v>
       </c>
@@ -12173,8 +12175,8 @@
       </c>
     </row>
     <row r="73" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="113"/>
-      <c r="C73" s="103"/>
+      <c r="B73" s="88"/>
+      <c r="C73" s="90"/>
       <c r="D73" s="44" t="s">
         <v>91</v>
       </c>
@@ -12311,9 +12313,9 @@
       </c>
     </row>
     <row r="74" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="113"/>
-      <c r="C74" s="103"/>
-      <c r="D74" s="78" t="s">
+      <c r="B74" s="88"/>
+      <c r="C74" s="90"/>
+      <c r="D74" s="77" t="s">
         <v>92</v>
       </c>
       <c r="E74" s="31"/>
@@ -12449,8 +12451,8 @@
       </c>
     </row>
     <row r="75" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="113"/>
-      <c r="C75" s="103"/>
+      <c r="B75" s="88"/>
+      <c r="C75" s="90"/>
       <c r="D75" s="50" t="s">
         <v>93</v>
       </c>
@@ -12587,8 +12589,8 @@
       </c>
     </row>
     <row r="76" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="113"/>
-      <c r="C76" s="103"/>
+      <c r="B76" s="88"/>
+      <c r="C76" s="90"/>
       <c r="D76" s="45" t="s">
         <v>57</v>
       </c>
@@ -12731,8 +12733,8 @@
       </c>
     </row>
     <row r="77" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="113"/>
-      <c r="C77" s="103"/>
+      <c r="B77" s="88"/>
+      <c r="C77" s="90"/>
       <c r="D77" s="60" t="s">
         <v>48</v>
       </c>
@@ -12873,8 +12875,8 @@
       </c>
     </row>
     <row r="78" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="113"/>
-      <c r="C78" s="103"/>
+      <c r="B78" s="88"/>
+      <c r="C78" s="90"/>
       <c r="D78" s="46" t="s">
         <v>21</v>
       </c>
@@ -13013,9 +13015,9 @@
       </c>
     </row>
     <row r="79" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="113"/>
-      <c r="C79" s="103"/>
-      <c r="D79" s="82" t="s">
+      <c r="B79" s="88"/>
+      <c r="C79" s="90"/>
+      <c r="D79" s="81" t="s">
         <v>94</v>
       </c>
       <c r="E79" s="31" t="s">
@@ -13153,9 +13155,9 @@
       </c>
     </row>
     <row r="80" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="113"/>
-      <c r="C80" s="103"/>
-      <c r="D80" s="82" t="s">
+      <c r="B80" s="88"/>
+      <c r="C80" s="90"/>
+      <c r="D80" s="81" t="s">
         <v>94</v>
       </c>
       <c r="E80" s="31" t="s">
@@ -13293,9 +13295,9 @@
       </c>
     </row>
     <row r="81" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="113"/>
-      <c r="C81" s="103"/>
-      <c r="D81" s="81" t="s">
+      <c r="B81" s="88"/>
+      <c r="C81" s="90"/>
+      <c r="D81" s="80" t="s">
         <v>94</v>
       </c>
       <c r="E81" s="31" t="s">
@@ -13437,10 +13439,10 @@
       </c>
     </row>
     <row r="82" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="112" t="s">
+      <c r="B82" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C82" s="103" t="s">
+      <c r="C82" s="90" t="s">
         <v>34</v>
       </c>
       <c r="D82" s="49" t="s">
@@ -13581,9 +13583,9 @@
       </c>
     </row>
     <row r="83" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="113"/>
-      <c r="C83" s="103"/>
-      <c r="D83" s="78" t="s">
+      <c r="B83" s="88"/>
+      <c r="C83" s="90"/>
+      <c r="D83" s="77" t="s">
         <v>95</v>
       </c>
       <c r="E83" s="31" t="s">
@@ -13721,9 +13723,9 @@
       </c>
     </row>
     <row r="84" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="113"/>
-      <c r="C84" s="103"/>
-      <c r="D84" s="78" t="s">
+      <c r="B84" s="88"/>
+      <c r="C84" s="90"/>
+      <c r="D84" s="77" t="s">
         <v>95</v>
       </c>
       <c r="E84" s="31" t="s">
@@ -13861,9 +13863,9 @@
       </c>
     </row>
     <row r="85" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="113"/>
-      <c r="C85" s="103"/>
-      <c r="D85" s="78" t="s">
+      <c r="B85" s="88"/>
+      <c r="C85" s="90"/>
+      <c r="D85" s="77" t="s">
         <v>68</v>
       </c>
       <c r="E85" s="31" t="s">
@@ -14001,9 +14003,9 @@
       </c>
     </row>
     <row r="86" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="113"/>
-      <c r="C86" s="103"/>
-      <c r="D86" s="78" t="s">
+      <c r="B86" s="88"/>
+      <c r="C86" s="90"/>
+      <c r="D86" s="77" t="s">
         <v>68</v>
       </c>
       <c r="E86" s="31" t="s">
@@ -14141,9 +14143,9 @@
       </c>
     </row>
     <row r="87" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="113"/>
-      <c r="C87" s="103"/>
-      <c r="D87" s="78" t="s">
+      <c r="B87" s="88"/>
+      <c r="C87" s="90"/>
+      <c r="D87" s="77" t="s">
         <v>68</v>
       </c>
       <c r="E87" s="31" t="s">
@@ -14281,8 +14283,8 @@
       </c>
     </row>
     <row r="88" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="113"/>
-      <c r="C88" s="103"/>
+      <c r="B88" s="88"/>
+      <c r="C88" s="90"/>
       <c r="D88" s="30" t="s">
         <v>34</v>
       </c>
@@ -14421,8 +14423,8 @@
       </c>
     </row>
     <row r="89" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="113"/>
-      <c r="C89" s="103"/>
+      <c r="B89" s="88"/>
+      <c r="C89" s="90"/>
       <c r="D89" s="30" t="s">
         <v>34</v>
       </c>
@@ -14561,8 +14563,8 @@
       </c>
     </row>
     <row r="90" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="113"/>
-      <c r="C90" s="103"/>
+      <c r="B90" s="88"/>
+      <c r="C90" s="90"/>
       <c r="D90" s="30" t="s">
         <v>34</v>
       </c>
@@ -14701,8 +14703,8 @@
       </c>
     </row>
     <row r="91" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="113"/>
-      <c r="C91" s="103"/>
+      <c r="B91" s="88"/>
+      <c r="C91" s="90"/>
       <c r="D91" s="62" t="s">
         <v>58</v>
       </c>
@@ -14843,16 +14845,16 @@
       </c>
     </row>
     <row r="92" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="113"/>
-      <c r="C92" s="103"/>
+      <c r="B92" s="88"/>
+      <c r="C92" s="90"/>
       <c r="D92" s="30" t="s">
         <v>48</v>
       </c>
       <c r="E92" s="31"/>
-      <c r="F92" s="83">
+      <c r="F92" s="82">
         <v>44687</v>
       </c>
-      <c r="G92" s="84">
+      <c r="G92" s="83">
         <v>44687</v>
       </c>
       <c r="H92" s="32"/>
@@ -14985,8 +14987,8 @@
       </c>
     </row>
     <row r="93" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="114"/>
-      <c r="C93" s="103"/>
+      <c r="B93" s="89"/>
+      <c r="C93" s="90"/>
       <c r="D93" s="51" t="s">
         <v>47</v>
       </c>
@@ -15129,6 +15131,21 @@
   </sheetData>
   <autoFilter ref="D5:E93" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}"/>
   <mergeCells count="22">
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="C9:C38"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="B17:B27"/>
+    <mergeCell ref="B28:B38"/>
     <mergeCell ref="B82:B93"/>
     <mergeCell ref="C82:C93"/>
     <mergeCell ref="B39:B47"/>
@@ -15136,21 +15153,6 @@
     <mergeCell ref="B48:B62"/>
     <mergeCell ref="B63:B81"/>
     <mergeCell ref="C63:C81"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="C9:C38"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="B17:B27"/>
-    <mergeCell ref="B28:B38"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="M6:AQ93">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">

--- a/CMSC495_ProjectPlan.xlsx
+++ b/CMSC495_ProjectPlan.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Git/cmsc495_final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5366F2-4116-A440-B828-713FDAB5D727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5584837-1BC0-9243-934E-CC94921912DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20240" yWindow="1900" windowWidth="28440" windowHeight="24060" xr2:uid="{A3040AE0-0367-2B43-ADDE-84CCD12855DC}"/>
+    <workbookView xWindow="8200" yWindow="2320" windowWidth="28440" windowHeight="24060" xr2:uid="{A3040AE0-0367-2B43-ADDE-84CCD12855DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Project_Plan" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Project_Plan!$D$5:$E$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Project_Plan!$D$5:$E$89</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="98">
   <si>
     <t>Year</t>
   </si>
@@ -247,13 +247,7 @@
     <t>Documentation Revision</t>
   </si>
   <si>
-    <t>utils.py - open_image()</t>
-  </si>
-  <si>
     <t>dialog.kv - Popup Dialog</t>
-  </si>
-  <si>
-    <t>Peer Review source code</t>
   </si>
   <si>
     <t>stego.py - popup_user_notification()</t>
@@ -416,7 +410,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,14 +477,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="56">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -1228,24 +1216,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1289,9 +1264,6 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1362,16 +1334,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1380,85 +1343,10 @@
     </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1483,13 +1371,91 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1826,7 +1792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}">
-  <dimension ref="A1:AV93"/>
+  <dimension ref="A1:AV89"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -1885,48 +1851,48 @@
       <c r="D3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="112" t="s">
+      <c r="M3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="112"/>
-      <c r="O3" s="112"/>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="110" t="s">
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="110"/>
-      <c r="U3" s="110"/>
-      <c r="V3" s="110"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="110"/>
-      <c r="Y3" s="111" t="s">
+      <c r="T3" s="98"/>
+      <c r="U3" s="98"/>
+      <c r="V3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="98"/>
+      <c r="Y3" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="111"/>
-      <c r="AA3" s="111"/>
-      <c r="AB3" s="111"/>
-      <c r="AC3" s="111"/>
-      <c r="AD3" s="111"/>
+      <c r="Z3" s="82"/>
+      <c r="AA3" s="82"/>
+      <c r="AB3" s="82"/>
+      <c r="AC3" s="82"/>
+      <c r="AD3" s="82"/>
     </row>
     <row r="4" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="103"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="113" t="s">
+      <c r="B4" s="90"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="114"/>
-      <c r="H4" s="115" t="s">
+      <c r="G4" s="85"/>
+      <c r="H4" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="116"/>
-      <c r="J4" s="117" t="s">
+      <c r="I4" s="87"/>
+      <c r="J4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="118"/>
+      <c r="K4" s="89"/>
       <c r="M4" s="12" t="str">
         <f>TEXT(M5,"aaa")</f>
         <v>Fri</v>
@@ -2221,13 +2187,13 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="108" t="s">
+      <c r="D6" s="95" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="31" t="s">
@@ -2378,9 +2344,9 @@
       </c>
     </row>
     <row r="7" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="107"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="109"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="96"/>
       <c r="E7" s="31" t="s">
         <v>13</v>
       </c>
@@ -2529,9 +2495,9 @@
       </c>
     </row>
     <row r="8" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="107"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="109"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="96"/>
       <c r="E8" s="31" t="s">
         <v>15</v>
       </c>
@@ -2677,13 +2643,13 @@
       </c>
     </row>
     <row r="9" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="98" t="s">
+      <c r="C9" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="63" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="31" t="s">
@@ -2833,9 +2799,9 @@
       </c>
     </row>
     <row r="10" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="97"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="65" t="s">
+      <c r="B10" s="100"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="64" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="31" t="s">
@@ -2985,9 +2951,9 @@
       </c>
     </row>
     <row r="11" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="97"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="65" t="s">
+      <c r="B11" s="100"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="64" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="31" t="s">
@@ -3137,9 +3103,9 @@
       </c>
     </row>
     <row r="12" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="97"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="66" t="s">
+      <c r="B12" s="100"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="65" t="s">
         <v>52</v>
       </c>
       <c r="E12" s="31" t="s">
@@ -3289,12 +3255,12 @@
       </c>
     </row>
     <row r="13" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="97"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="67" t="s">
+      <c r="B13" s="100"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="58"/>
+      <c r="E13" s="57"/>
       <c r="F13" s="32">
         <v>44648</v>
       </c>
@@ -3439,9 +3405,9 @@
       </c>
     </row>
     <row r="14" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="97"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="101" t="s">
+      <c r="B14" s="100"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="104" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="31" t="s">
@@ -3587,9 +3553,9 @@
       </c>
     </row>
     <row r="15" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="97"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="102"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="105"/>
       <c r="E15" s="31" t="s">
         <v>13</v>
       </c>
@@ -3737,9 +3703,9 @@
       </c>
     </row>
     <row r="16" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="97"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="102"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="105"/>
       <c r="E16" s="31" t="s">
         <v>15</v>
       </c>
@@ -3887,11 +3853,11 @@
       </c>
     </row>
     <row r="17" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="99"/>
-      <c r="D17" s="71" t="s">
+      <c r="C17" s="102"/>
+      <c r="D17" s="70" t="s">
         <v>61</v>
       </c>
       <c r="E17" s="31" t="s">
@@ -4041,9 +4007,9 @@
       </c>
     </row>
     <row r="18" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="97"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="72" t="s">
+      <c r="B18" s="100"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="71" t="s">
         <v>63</v>
       </c>
       <c r="E18" s="31" t="s">
@@ -4193,9 +4159,9 @@
       </c>
     </row>
     <row r="19" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="97"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="73" t="s">
+      <c r="B19" s="100"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="72" t="s">
         <v>44</v>
       </c>
       <c r="E19" s="31" t="s">
@@ -4345,9 +4311,9 @@
       </c>
     </row>
     <row r="20" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="97"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="73" t="s">
+      <c r="B20" s="100"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="72" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="31" t="s">
@@ -4497,9 +4463,9 @@
       </c>
     </row>
     <row r="21" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="97"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="73" t="s">
+      <c r="B21" s="100"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="72" t="s">
         <v>62</v>
       </c>
       <c r="E21" s="31" t="s">
@@ -4649,9 +4615,9 @@
       </c>
     </row>
     <row r="22" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="97"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="74" t="s">
+      <c r="B22" s="100"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="73" t="s">
         <v>64</v>
       </c>
       <c r="E22" s="31" t="s">
@@ -4801,9 +4767,9 @@
       </c>
     </row>
     <row r="23" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="97"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="74" t="s">
+      <c r="B23" s="100"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="73" t="s">
         <v>50</v>
       </c>
       <c r="E23" s="31" t="s">
@@ -4953,9 +4919,9 @@
       </c>
     </row>
     <row r="24" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="97"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="75" t="s">
+      <c r="B24" s="100"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="74" t="s">
         <v>53</v>
       </c>
       <c r="E24" s="31" t="s">
@@ -5105,9 +5071,9 @@
       </c>
     </row>
     <row r="25" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="97"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="74" t="s">
+      <c r="B25" s="100"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="73" t="s">
         <v>48</v>
       </c>
       <c r="E25" s="31"/>
@@ -5255,9 +5221,9 @@
       </c>
     </row>
     <row r="26" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="97"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="74" t="s">
+      <c r="B26" s="100"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="73" t="s">
         <v>59</v>
       </c>
       <c r="E26" s="31" t="s">
@@ -5407,9 +5373,9 @@
       </c>
     </row>
     <row r="27" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="97"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="75" t="s">
+      <c r="B27" s="100"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="74" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="31" t="s">
@@ -5559,11 +5525,11 @@
       </c>
     </row>
     <row r="28" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="96" t="s">
+      <c r="B28" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="99"/>
-      <c r="D28" s="71" t="s">
+      <c r="C28" s="102"/>
+      <c r="D28" s="70" t="s">
         <v>51</v>
       </c>
       <c r="E28" s="31" t="s">
@@ -5713,9 +5679,9 @@
       </c>
     </row>
     <row r="29" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="97"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="73" t="s">
+      <c r="B29" s="100"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="72" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="31" t="s">
@@ -5865,9 +5831,9 @@
       </c>
     </row>
     <row r="30" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="97"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="73" t="s">
+      <c r="B30" s="100"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="72" t="s">
         <v>65</v>
       </c>
       <c r="E30" s="31" t="s">
@@ -6017,9 +5983,9 @@
       </c>
     </row>
     <row r="31" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="97"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="73" t="s">
+      <c r="B31" s="100"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="72" t="s">
         <v>39</v>
       </c>
       <c r="E31" s="31" t="s">
@@ -6044,7 +6010,7 @@
         <v>44659</v>
       </c>
       <c r="M31" s="39">
-        <f t="shared" ref="M31:AB55" si="6">IF($K31=M$5,3,IF(OR(AND($H31&lt;=M$5,M$5&lt;=$I31),$H31=M$5),2,IF(AND($F31&lt;=M$5,M$5&lt;=$G31),1,0)))</f>
+        <f t="shared" ref="M31:AB54" si="6">IF($K31=M$5,3,IF(OR(AND($H31&lt;=M$5,M$5&lt;=$I31),$H31=M$5),2,IF(AND($F31&lt;=M$5,M$5&lt;=$G31),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N31" s="40">
@@ -6169,9 +6135,9 @@
       </c>
     </row>
     <row r="32" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="97"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="73" t="s">
+      <c r="B32" s="100"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="72" t="s">
         <v>40</v>
       </c>
       <c r="E32" s="31" t="s">
@@ -6321,9 +6287,9 @@
       </c>
     </row>
     <row r="33" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="97"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="73" t="s">
+      <c r="B33" s="100"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="72" t="s">
         <v>66</v>
       </c>
       <c r="E33" s="31" t="s">
@@ -6473,9 +6439,9 @@
       </c>
     </row>
     <row r="34" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="97"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="73" t="s">
+      <c r="B34" s="100"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="72" t="s">
         <v>67</v>
       </c>
       <c r="E34" s="31" t="s">
@@ -6625,9 +6591,9 @@
       </c>
     </row>
     <row r="35" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="97"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="75" t="s">
+      <c r="B35" s="100"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="74" t="s">
         <v>54</v>
       </c>
       <c r="E35" s="31" t="s">
@@ -6636,7 +6602,7 @@
       <c r="F35" s="32">
         <v>44657</v>
       </c>
-      <c r="G35" s="61">
+      <c r="G35" s="60">
         <v>44659</v>
       </c>
       <c r="H35" s="32">
@@ -6777,9 +6743,9 @@
       </c>
     </row>
     <row r="36" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="97"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="74" t="s">
+      <c r="B36" s="100"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="73" t="s">
         <v>48</v>
       </c>
       <c r="E36" s="31"/>
@@ -6927,9 +6893,9 @@
       </c>
     </row>
     <row r="37" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="97"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="73" t="s">
+      <c r="B37" s="100"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="72" t="s">
         <v>41</v>
       </c>
       <c r="E37" s="31" t="s">
@@ -7079,9 +7045,9 @@
       </c>
     </row>
     <row r="38" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="97"/>
-      <c r="C38" s="100"/>
-      <c r="D38" s="75" t="s">
+      <c r="B38" s="100"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="74" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="31" t="s">
@@ -7231,14 +7197,14 @@
       </c>
     </row>
     <row r="39" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="91" t="s">
+      <c r="B39" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="94" t="s">
+      <c r="C39" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="68" t="s">
-        <v>70</v>
+      <c r="D39" s="70" t="s">
+        <v>69</v>
       </c>
       <c r="E39" s="31" t="s">
         <v>15</v>
@@ -7385,10 +7351,10 @@
       </c>
     </row>
     <row r="40" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="92"/>
-      <c r="C40" s="94"/>
-      <c r="D40" s="76" t="s">
-        <v>72</v>
+      <c r="B40" s="118"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="71" t="s">
+        <v>70</v>
       </c>
       <c r="E40" s="31" t="s">
         <v>15</v>
@@ -7470,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="AB40" s="40">
-        <f t="shared" ref="AB40:AQ58" si="8">IF($K40=AB$5,3,IF(OR(AND($H40&lt;=AB$5,AB$5&lt;=$I40),$H40=AB$5),2,IF(AND($F40&lt;=AB$5,AB$5&lt;=$G40),1,0)))</f>
+        <f t="shared" ref="AB40:AQ57" si="8">IF($K40=AB$5,3,IF(OR(AND($H40&lt;=AB$5,AB$5&lt;=$I40),$H40=AB$5),2,IF(AND($F40&lt;=AB$5,AB$5&lt;=$G40),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AC40" s="40">
@@ -7535,10 +7501,10 @@
       </c>
     </row>
     <row r="41" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="92"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="84" t="s">
-        <v>69</v>
+      <c r="B41" s="118"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="71" t="s">
+        <v>95</v>
       </c>
       <c r="E41" s="31" t="s">
         <v>14</v>
@@ -7552,11 +7518,11 @@
       <c r="H41" s="32">
         <v>44662</v>
       </c>
-      <c r="I41" s="35">
+      <c r="I41" s="62">
         <v>44665</v>
       </c>
       <c r="J41" s="34" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K41" s="35"/>
       <c r="M41" s="39">
@@ -7685,10 +7651,10 @@
       </c>
     </row>
     <row r="42" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="92"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="76" t="s">
-        <v>97</v>
+      <c r="B42" s="118"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="71" t="s">
+        <v>96</v>
       </c>
       <c r="E42" s="31" t="s">
         <v>14</v>
@@ -7702,7 +7668,7 @@
       <c r="H42" s="32">
         <v>44662</v>
       </c>
-      <c r="I42" s="63">
+      <c r="I42" s="62">
         <v>44665</v>
       </c>
       <c r="J42" s="34" t="s">
@@ -7835,13 +7801,13 @@
       </c>
     </row>
     <row r="43" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="92"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="76" t="s">
-        <v>98</v>
+      <c r="B43" s="118"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="72" t="s">
+        <v>97</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F43" s="32">
         <v>44663</v>
@@ -7852,11 +7818,11 @@
       <c r="H43" s="32">
         <v>44662</v>
       </c>
-      <c r="I43" s="63">
+      <c r="I43" s="32">
         <v>44665</v>
       </c>
       <c r="J43" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K43" s="35"/>
       <c r="M43" s="39">
@@ -7985,30 +7951,32 @@
       </c>
     </row>
     <row r="44" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="92"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="69" t="s">
-        <v>99</v>
+      <c r="B44" s="118"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="74" t="s">
+        <v>55</v>
       </c>
       <c r="E44" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="32">
+        <v>44664</v>
+      </c>
+      <c r="G44" s="35">
+        <v>44666</v>
+      </c>
+      <c r="H44" s="32">
+        <v>44665</v>
+      </c>
+      <c r="I44" s="35">
+        <v>44666</v>
+      </c>
+      <c r="J44" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="32">
-        <v>44663</v>
-      </c>
-      <c r="G44" s="35">
-        <v>44665</v>
-      </c>
-      <c r="H44" s="32">
-        <v>44662</v>
-      </c>
-      <c r="I44" s="32">
-        <v>44665</v>
-      </c>
-      <c r="J44" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="K44" s="35"/>
+      <c r="K44" s="35">
+        <v>44666</v>
+      </c>
       <c r="M44" s="39">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -8051,23 +8019,23 @@
       </c>
       <c r="W44" s="40">
         <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X44" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y44" s="40">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Z44" s="40">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="X44" s="40">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="Y44" s="40">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="Z44" s="40">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
       <c r="AA44" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB44" s="40">
         <f t="shared" si="6"/>
@@ -8135,31 +8103,25 @@
       </c>
     </row>
     <row r="45" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="92"/>
-      <c r="C45" s="94"/>
-      <c r="D45" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45" s="31" t="s">
+      <c r="B45" s="118"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="119" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="113"/>
+      <c r="F45" s="114">
+        <v>44669</v>
+      </c>
+      <c r="G45" s="115">
+        <v>44669</v>
+      </c>
+      <c r="H45" s="114"/>
+      <c r="I45" s="115"/>
+      <c r="J45" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="32">
-        <v>44664</v>
-      </c>
-      <c r="G45" s="35">
-        <v>44666</v>
-      </c>
-      <c r="H45" s="32">
-        <v>44665</v>
-      </c>
-      <c r="I45" s="35">
-        <v>44666</v>
-      </c>
-      <c r="J45" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="K45" s="35">
-        <v>44666</v>
+      <c r="K45" s="115">
+        <v>44669</v>
       </c>
       <c r="M45" s="39">
         <f t="shared" si="6"/>
@@ -8211,27 +8173,27 @@
       </c>
       <c r="Y45" s="40">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="40">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="40">
         <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB45" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC45" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AD45" s="40">
+        <f t="shared" si="8"/>
         <v>3</v>
-      </c>
-      <c r="AB45" s="40">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC45" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AD45" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
       </c>
       <c r="AE45" s="40">
         <f t="shared" si="8"/>
@@ -8287,24 +8249,32 @@
       </c>
     </row>
     <row r="46" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="92"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="119" t="s">
-        <v>48</v>
-      </c>
-      <c r="E46" s="120"/>
-      <c r="F46" s="121">
-        <v>44669</v>
-      </c>
-      <c r="G46" s="122">
-        <v>44669</v>
-      </c>
-      <c r="H46" s="121"/>
-      <c r="I46" s="122"/>
-      <c r="J46" s="123" t="s">
+      <c r="B46" s="118"/>
+      <c r="C46" s="112"/>
+      <c r="D46" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="K46" s="122"/>
+      <c r="F46" s="32">
+        <v>44664</v>
+      </c>
+      <c r="G46" s="35">
+        <v>44666</v>
+      </c>
+      <c r="H46" s="32">
+        <v>44665</v>
+      </c>
+      <c r="I46" s="35">
+        <v>44666</v>
+      </c>
+      <c r="J46" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" s="35">
+        <v>44666</v>
+      </c>
       <c r="M46" s="39">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -8355,15 +8325,15 @@
       </c>
       <c r="Y46" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z46" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA46" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB46" s="40">
         <f t="shared" si="6"/>
@@ -8375,7 +8345,7 @@
       </c>
       <c r="AD46" s="40">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE46" s="40">
         <f t="shared" si="8"/>
@@ -8431,32 +8401,28 @@
       </c>
     </row>
     <row r="47" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="93"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="85" t="s">
-        <v>19</v>
+      <c r="B47" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="112"/>
+      <c r="D47" s="67" t="s">
+        <v>94</v>
       </c>
       <c r="E47" s="31" t="s">
         <v>15</v>
       </c>
       <c r="F47" s="32">
-        <v>44664</v>
-      </c>
-      <c r="G47" s="35">
-        <v>44666</v>
-      </c>
-      <c r="H47" s="32">
-        <v>44665</v>
-      </c>
-      <c r="I47" s="35">
-        <v>44666</v>
-      </c>
+        <v>44670</v>
+      </c>
+      <c r="G47" s="62">
+        <v>44672</v>
+      </c>
+      <c r="H47" s="81"/>
+      <c r="I47" s="35"/>
       <c r="J47" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K47" s="35">
-        <v>44666</v>
-      </c>
+      <c r="K47" s="35"/>
       <c r="M47" s="39">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -8507,39 +8473,39 @@
       </c>
       <c r="Y47" s="40">
         <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z47" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA47" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB47" s="40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC47" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AD47" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE47" s="40">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="Z47" s="40">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AA47" s="40">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="AB47" s="40">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC47" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AD47" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE47" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
       <c r="AF47" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG47" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH47" s="40">
         <f t="shared" si="8"/>
@@ -8583,12 +8549,10 @@
       </c>
     </row>
     <row r="48" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="88" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48" s="95"/>
-      <c r="D48" s="59" t="s">
-        <v>96</v>
+      <c r="B48" s="110"/>
+      <c r="C48" s="112"/>
+      <c r="D48" s="68" t="s">
+        <v>71</v>
       </c>
       <c r="E48" s="31" t="s">
         <v>15</v>
@@ -8596,10 +8560,10 @@
       <c r="F48" s="32">
         <v>44670</v>
       </c>
-      <c r="G48" s="63">
+      <c r="G48" s="35">
         <v>44672</v>
       </c>
-      <c r="H48" s="86"/>
+      <c r="H48" s="32"/>
       <c r="I48" s="35"/>
       <c r="J48" s="34" t="s">
         <v>13</v>
@@ -8731,13 +8695,13 @@
       </c>
     </row>
     <row r="49" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="88"/>
-      <c r="C49" s="95"/>
-      <c r="D49" s="44" t="s">
-        <v>73</v>
+      <c r="B49" s="110"/>
+      <c r="C49" s="112"/>
+      <c r="D49" s="68" t="s">
+        <v>72</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F49" s="32">
         <v>44670</v>
@@ -8745,10 +8709,14 @@
       <c r="G49" s="35">
         <v>44672</v>
       </c>
-      <c r="H49" s="32"/>
-      <c r="I49" s="35"/>
+      <c r="H49" s="32">
+        <v>44662</v>
+      </c>
+      <c r="I49" s="32">
+        <v>44665</v>
+      </c>
       <c r="J49" s="34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K49" s="35"/>
       <c r="M49" s="39">
@@ -8793,19 +8761,19 @@
       </c>
       <c r="W49" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X49" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y49" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z49" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA49" s="40">
         <f t="shared" si="6"/>
@@ -8877,9 +8845,9 @@
       </c>
     </row>
     <row r="50" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="88"/>
-      <c r="C50" s="95"/>
-      <c r="D50" s="44" t="s">
+      <c r="B50" s="110"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="68" t="s">
         <v>74</v>
       </c>
       <c r="E50" s="31" t="s">
@@ -8894,11 +8862,9 @@
       <c r="H50" s="32">
         <v>44662</v>
       </c>
-      <c r="I50" s="32">
-        <v>44665</v>
-      </c>
+      <c r="I50" s="32"/>
       <c r="J50" s="34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K50" s="35"/>
       <c r="M50" s="39">
@@ -8947,15 +8913,15 @@
       </c>
       <c r="X50" s="40">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y50" s="40">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="40">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA50" s="40">
         <f t="shared" si="6"/>
@@ -9027,10 +8993,10 @@
       </c>
     </row>
     <row r="51" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="88"/>
-      <c r="C51" s="95"/>
-      <c r="D51" s="44" t="s">
-        <v>76</v>
+      <c r="B51" s="110"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="68" t="s">
+        <v>75</v>
       </c>
       <c r="E51" s="31" t="s">
         <v>13</v>
@@ -9046,7 +9012,7 @@
       </c>
       <c r="I51" s="32"/>
       <c r="J51" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K51" s="35"/>
       <c r="M51" s="39">
@@ -9175,10 +9141,10 @@
       </c>
     </row>
     <row r="52" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="88"/>
-      <c r="C52" s="95"/>
-      <c r="D52" s="44" t="s">
-        <v>77</v>
+      <c r="B52" s="110"/>
+      <c r="C52" s="112"/>
+      <c r="D52" s="68" t="s">
+        <v>76</v>
       </c>
       <c r="E52" s="31" t="s">
         <v>13</v>
@@ -9192,9 +9158,11 @@
       <c r="H52" s="32">
         <v>44662</v>
       </c>
-      <c r="I52" s="32"/>
+      <c r="I52" s="32">
+        <v>44665</v>
+      </c>
       <c r="J52" s="34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K52" s="35"/>
       <c r="M52" s="39">
@@ -9243,15 +9211,15 @@
       </c>
       <c r="X52" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y52" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z52" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA52" s="40">
         <f t="shared" si="6"/>
@@ -9323,10 +9291,10 @@
       </c>
     </row>
     <row r="53" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="88"/>
-      <c r="C53" s="95"/>
-      <c r="D53" s="44" t="s">
-        <v>78</v>
+      <c r="B53" s="110"/>
+      <c r="C53" s="112"/>
+      <c r="D53" s="68" t="s">
+        <v>73</v>
       </c>
       <c r="E53" s="31" t="s">
         <v>13</v>
@@ -9340,11 +9308,9 @@
       <c r="H53" s="32">
         <v>44662</v>
       </c>
-      <c r="I53" s="32">
-        <v>44665</v>
-      </c>
+      <c r="I53" s="32"/>
       <c r="J53" s="34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K53" s="35"/>
       <c r="M53" s="39">
@@ -9393,15 +9359,15 @@
       </c>
       <c r="X53" s="40">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="40">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z53" s="40">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA53" s="40">
         <f t="shared" si="6"/>
@@ -9473,10 +9439,10 @@
       </c>
     </row>
     <row r="54" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="88"/>
-      <c r="C54" s="95"/>
-      <c r="D54" s="44" t="s">
-        <v>75</v>
+      <c r="B54" s="110"/>
+      <c r="C54" s="112"/>
+      <c r="D54" s="68" t="s">
+        <v>77</v>
       </c>
       <c r="E54" s="31" t="s">
         <v>13</v>
@@ -9492,7 +9458,7 @@
       </c>
       <c r="I54" s="32"/>
       <c r="J54" s="34" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K54" s="35"/>
       <c r="M54" s="39">
@@ -9520,67 +9486,67 @@
         <v>0</v>
       </c>
       <c r="S54" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="S54:AH66" si="9">IF($K54=S$5,3,IF(OR(AND($H54&lt;=S$5,S$5&lt;=$I54),$H54=S$5),2,IF(AND($F54&lt;=S$5,S$5&lt;=$G54),1,0)))</f>
         <v>0</v>
       </c>
       <c r="T54" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U54" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V54" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W54" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="X54" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y54" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z54" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA54" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AB54" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AF54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AG54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AH54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI54" s="40">
@@ -9621,13 +9587,13 @@
       </c>
     </row>
     <row r="55" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="88"/>
-      <c r="C55" s="95"/>
-      <c r="D55" s="44" t="s">
-        <v>79</v>
+      <c r="B55" s="110"/>
+      <c r="C55" s="112"/>
+      <c r="D55" s="120" t="s">
+        <v>78</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F55" s="32">
         <v>44670</v>
@@ -9635,76 +9601,74 @@
       <c r="G55" s="35">
         <v>44672</v>
       </c>
-      <c r="H55" s="32">
-        <v>44662</v>
-      </c>
-      <c r="I55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="35"/>
       <c r="J55" s="34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K55" s="35"/>
       <c r="M55" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="M55:AB67" si="10">IF($K55=M$5,3,IF(OR(AND($H55&lt;=M$5,M$5&lt;=$I55),$H55=M$5),2,IF(AND($F55&lt;=M$5,M$5&lt;=$G55),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N55" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O55" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P55" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q55" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R55" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S55" s="40">
-        <f t="shared" ref="S55:AH70" si="9">IF($K55=S$5,3,IF(OR(AND($H55&lt;=S$5,S$5&lt;=$I55),$H55=S$5),2,IF(AND($F55&lt;=S$5,S$5&lt;=$G55),1,0)))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W55" s="40">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="X55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB55" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC55" s="40">
@@ -9769,19 +9733,19 @@
       </c>
     </row>
     <row r="56" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="88"/>
-      <c r="C56" s="95"/>
-      <c r="D56" s="60" t="s">
-        <v>80</v>
+      <c r="B56" s="110"/>
+      <c r="C56" s="112"/>
+      <c r="D56" s="69" t="s">
+        <v>56</v>
       </c>
       <c r="E56" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F56" s="32">
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="G56" s="35">
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="H56" s="32"/>
       <c r="I56" s="35"/>
@@ -9790,7 +9754,7 @@
       </c>
       <c r="K56" s="35"/>
       <c r="M56" s="39">
-        <f t="shared" ref="M56:AB71" si="10">IF($K56=M$5,3,IF(OR(AND($H56&lt;=M$5,M$5&lt;=$I56),$H56=M$5),2,IF(AND($F56&lt;=M$5,M$5&lt;=$G56),1,0)))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N56" s="40">
@@ -9863,7 +9827,7 @@
       </c>
       <c r="AE56" s="40">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF56" s="40">
         <f t="shared" si="9"/>
@@ -9875,7 +9839,7 @@
       </c>
       <c r="AH56" s="40">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI56" s="40">
         <f t="shared" si="8"/>
@@ -9915,23 +9879,23 @@
       </c>
     </row>
     <row r="57" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="88"/>
-      <c r="C57" s="95"/>
-      <c r="D57" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="E57" s="31" t="s">
-        <v>14</v>
-      </c>
+      <c r="B57" s="110"/>
+      <c r="C57" s="112"/>
+      <c r="D57" s="120" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57" s="31"/>
       <c r="F57" s="32">
-        <v>44671</v>
+        <v>44676</v>
       </c>
       <c r="G57" s="35">
-        <v>44673</v>
+        <v>44676</v>
       </c>
       <c r="H57" s="32"/>
       <c r="I57" s="35"/>
-      <c r="J57" s="34"/>
+      <c r="J57" s="34" t="s">
+        <v>15</v>
+      </c>
       <c r="K57" s="35"/>
       <c r="M57" s="39">
         <f t="shared" si="10"/>
@@ -10011,65 +9975,67 @@
       </c>
       <c r="AF57" s="40">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG57" s="40">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH57" s="40">
         <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AI57" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AJ57" s="40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK57" s="40">
+        <f t="shared" ref="AK57:AQ57" si="11">IF($K57=AK$5,3,IF(OR(AND($H57&lt;=AK$5,AK$5&lt;=$I57),$H57=AK$5),2,IF(AND($F57&lt;=AK$5,AK$5&lt;=$G57),1,0)))</f>
         <v>1</v>
       </c>
-      <c r="AI57" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ57" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AK57" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
       <c r="AL57" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AM57" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN57" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AO57" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AP57" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AQ57" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="88"/>
-      <c r="C58" s="95"/>
-      <c r="D58" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="E58" s="31"/>
+      <c r="B58" s="111"/>
+      <c r="C58" s="112"/>
+      <c r="D58" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="31" t="s">
+        <v>14</v>
+      </c>
       <c r="F58" s="32">
-        <v>44676</v>
+        <v>44671</v>
       </c>
       <c r="G58" s="35">
-        <v>44676</v>
+        <v>44677</v>
       </c>
       <c r="H58" s="32"/>
       <c r="I58" s="35"/>
@@ -10155,61 +10121,65 @@
       </c>
       <c r="AF58" s="40">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG58" s="40">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH58" s="40">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI58" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" ref="AI58:AQ66" si="12">IF($K58=AI$5,3,IF(OR(AND($H58&lt;=AI$5,AI$5&lt;=$I58),$H58=AI$5),2,IF(AND($F58&lt;=AI$5,AI$5&lt;=$G58),1,0)))</f>
+        <v>1</v>
       </c>
       <c r="AJ58" s="40">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="AK58" s="40">
-        <f t="shared" ref="AK58:AQ58" si="11">IF($K58=AK$5,3,IF(OR(AND($H58&lt;=AK$5,AK$5&lt;=$I58),$H58=AK$5),2,IF(AND($F58&lt;=AK$5,AK$5&lt;=$G58),1,0)))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AL58" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="AM58" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN58" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO58" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP58" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ58" s="41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="88"/>
-      <c r="C59" s="95"/>
-      <c r="D59" s="46" t="s">
-        <v>20</v>
+      <c r="B59" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="58" t="s">
+        <v>80</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F59" s="32"/>
       <c r="G59" s="35"/>
@@ -10306,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="AI59" s="40">
-        <f t="shared" ref="AI59:AQ70" si="12">IF($K59=AI$5,3,IF(OR(AND($H59&lt;=AI$5,AI$5&lt;=$I59),$H59=AI$5),2,IF(AND($F59&lt;=AI$5,AI$5&lt;=$G59),1,0)))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AJ59" s="40">
@@ -10343,25 +10313,19 @@
       </c>
     </row>
     <row r="60" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="88"/>
-      <c r="C60" s="95"/>
-      <c r="D60" s="78" t="s">
-        <v>71</v>
+      <c r="B60" s="107"/>
+      <c r="C60" s="97"/>
+      <c r="D60" s="43" t="s">
+        <v>79</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="32">
-        <v>44671</v>
-      </c>
-      <c r="G60" s="35">
-        <v>44677</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F60" s="32"/>
+      <c r="G60" s="35"/>
       <c r="H60" s="32"/>
       <c r="I60" s="35"/>
-      <c r="J60" s="34" t="s">
-        <v>13</v>
-      </c>
+      <c r="J60" s="34"/>
       <c r="K60" s="35"/>
       <c r="M60" s="39">
         <f t="shared" si="10"/>
@@ -10441,31 +10405,31 @@
       </c>
       <c r="AF60" s="40">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG60" s="40">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH60" s="40">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI60" s="40">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ60" s="40">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK60" s="40">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60" s="40">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM60" s="40">
         <f t="shared" si="12"/>
@@ -10489,25 +10453,19 @@
       </c>
     </row>
     <row r="61" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="88"/>
-      <c r="C61" s="95"/>
-      <c r="D61" s="78" t="s">
-        <v>71</v>
+      <c r="B61" s="107"/>
+      <c r="C61" s="97"/>
+      <c r="D61" s="43" t="s">
+        <v>81</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" s="32">
-        <v>44671</v>
-      </c>
-      <c r="G61" s="35">
-        <v>44677</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F61" s="32"/>
+      <c r="G61" s="35"/>
       <c r="H61" s="32"/>
       <c r="I61" s="35"/>
-      <c r="J61" s="34" t="s">
-        <v>15</v>
-      </c>
+      <c r="J61" s="34"/>
       <c r="K61" s="35"/>
       <c r="M61" s="39">
         <f t="shared" si="10"/>
@@ -10587,31 +10545,31 @@
       </c>
       <c r="AF61" s="40">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG61" s="40">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH61" s="40">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI61" s="40">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ61" s="40">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK61" s="40">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61" s="40">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM61" s="40">
         <f t="shared" si="12"/>
@@ -10635,25 +10593,19 @@
       </c>
     </row>
     <row r="62" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="89"/>
-      <c r="C62" s="95"/>
-      <c r="D62" s="79" t="s">
-        <v>71</v>
+      <c r="B62" s="107"/>
+      <c r="C62" s="97"/>
+      <c r="D62" s="43" t="s">
+        <v>82</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F62" s="32">
-        <v>44671</v>
-      </c>
-      <c r="G62" s="63">
-        <v>44677</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F62" s="32"/>
+      <c r="G62" s="35"/>
       <c r="H62" s="32"/>
       <c r="I62" s="35"/>
-      <c r="J62" s="34" t="s">
-        <v>13</v>
-      </c>
+      <c r="J62" s="34"/>
       <c r="K62" s="35"/>
       <c r="M62" s="39">
         <f t="shared" si="10"/>
@@ -10733,31 +10685,31 @@
       </c>
       <c r="AF62" s="40">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG62" s="40">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH62" s="40">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI62" s="40">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ62" s="40">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK62" s="40">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62" s="40">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM62" s="40">
         <f t="shared" si="12"/>
@@ -10781,14 +10733,10 @@
       </c>
     </row>
     <row r="63" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="C63" s="90" t="s">
-        <v>33</v>
-      </c>
+      <c r="B63" s="107"/>
+      <c r="C63" s="97"/>
       <c r="D63" s="43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E63" s="31" t="s">
         <v>15</v>
@@ -10925,14 +10873,12 @@
       </c>
     </row>
     <row r="64" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="88"/>
-      <c r="C64" s="90"/>
-      <c r="D64" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="E64" s="31" t="s">
-        <v>13</v>
-      </c>
+      <c r="B64" s="107"/>
+      <c r="C64" s="97"/>
+      <c r="D64" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="E64" s="31"/>
       <c r="F64" s="32"/>
       <c r="G64" s="35"/>
       <c r="H64" s="32"/>
@@ -11065,14 +11011,12 @@
       </c>
     </row>
     <row r="65" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="88"/>
-      <c r="C65" s="90"/>
-      <c r="D65" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="E65" s="31" t="s">
-        <v>14</v>
-      </c>
+      <c r="B65" s="107"/>
+      <c r="C65" s="97"/>
+      <c r="D65" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E65" s="31"/>
       <c r="F65" s="32"/>
       <c r="G65" s="35"/>
       <c r="H65" s="32"/>
@@ -11205,14 +11149,12 @@
       </c>
     </row>
     <row r="66" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="88"/>
-      <c r="C66" s="90"/>
-      <c r="D66" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="E66" s="31" t="s">
-        <v>13</v>
-      </c>
+      <c r="B66" s="107"/>
+      <c r="C66" s="97"/>
+      <c r="D66" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="E66" s="31"/>
       <c r="F66" s="32"/>
       <c r="G66" s="35"/>
       <c r="H66" s="32"/>
@@ -11345,14 +11287,12 @@
       </c>
     </row>
     <row r="67" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="88"/>
-      <c r="C67" s="90"/>
-      <c r="D67" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="E67" s="31" t="s">
-        <v>15</v>
-      </c>
+      <c r="B67" s="107"/>
+      <c r="C67" s="97"/>
+      <c r="D67" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E67" s="31"/>
       <c r="F67" s="32"/>
       <c r="G67" s="35"/>
       <c r="H67" s="32"/>
@@ -11420,75 +11360,75 @@
         <v>0</v>
       </c>
       <c r="AB67" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="AB67:AQ82" si="13">IF($K67=AB$5,3,IF(OR(AND($H67&lt;=AB$5,AB$5&lt;=$I67),$H67=AB$5),2,IF(AND($F67&lt;=AB$5,AB$5&lt;=$G67),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AC67" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD67" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE67" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AF67" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AG67" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AH67" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AI67" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AJ67" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AK67" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AL67" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM67" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AN67" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AO67" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AP67" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AQ67" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="88"/>
-      <c r="C68" s="90"/>
-      <c r="D68" s="44" t="s">
-        <v>86</v>
+      <c r="B68" s="107"/>
+      <c r="C68" s="97"/>
+      <c r="D68" s="43" t="s">
+        <v>88</v>
       </c>
       <c r="E68" s="31"/>
       <c r="F68" s="32"/>
@@ -11498,135 +11438,135 @@
       <c r="J68" s="34"/>
       <c r="K68" s="35"/>
       <c r="M68" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="M68:AB83" si="14">IF($K68=M$5,3,IF(OR(AND($H68&lt;=M$5,M$5&lt;=$I68),$H68=M$5),2,IF(AND($F68&lt;=M$5,M$5&lt;=$G68),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N68" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O68" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P68" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q68" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R68" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S68" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T68" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U68" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V68" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W68" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X68" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y68" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Z68" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AA68" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AB68" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AC68" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD68" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE68" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AF68" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AG68" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AH68" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AI68" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AJ68" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AK68" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AL68" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM68" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AN68" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AO68" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AP68" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AQ68" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="88"/>
-      <c r="C69" s="90"/>
-      <c r="D69" s="44" t="s">
-        <v>87</v>
+      <c r="B69" s="107"/>
+      <c r="C69" s="97"/>
+      <c r="D69" s="43" t="s">
+        <v>89</v>
       </c>
       <c r="E69" s="31"/>
       <c r="F69" s="32"/>
@@ -11636,135 +11576,135 @@
       <c r="J69" s="34"/>
       <c r="K69" s="35"/>
       <c r="M69" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N69" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O69" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P69" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q69" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R69" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S69" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T69" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U69" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V69" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W69" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X69" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y69" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Z69" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AA69" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AB69" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AC69" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD69" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE69" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AF69" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AG69" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AH69" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AI69" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AJ69" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AK69" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AL69" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM69" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AN69" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AO69" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AP69" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AQ69" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="88"/>
-      <c r="C70" s="90"/>
-      <c r="D70" s="44" t="s">
-        <v>88</v>
+      <c r="B70" s="107"/>
+      <c r="C70" s="97"/>
+      <c r="D70" s="75" t="s">
+        <v>90</v>
       </c>
       <c r="E70" s="31"/>
       <c r="F70" s="32"/>
@@ -11774,135 +11714,135 @@
       <c r="J70" s="34"/>
       <c r="K70" s="35"/>
       <c r="M70" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N70" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O70" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P70" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q70" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R70" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S70" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T70" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U70" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V70" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W70" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X70" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y70" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Z70" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AA70" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AB70" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AC70" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD70" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE70" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AF70" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AG70" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AH70" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AI70" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AJ70" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AK70" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AL70" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM70" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AN70" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AO70" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AP70" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AQ70" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="88"/>
-      <c r="C71" s="90"/>
-      <c r="D71" s="44" t="s">
-        <v>89</v>
+      <c r="B71" s="107"/>
+      <c r="C71" s="97"/>
+      <c r="D71" s="49" t="s">
+        <v>91</v>
       </c>
       <c r="E71" s="31"/>
       <c r="F71" s="32"/>
@@ -11912,67 +11852,67 @@
       <c r="J71" s="34"/>
       <c r="K71" s="35"/>
       <c r="M71" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Z71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AA71" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AB71" s="40">
-        <f t="shared" ref="AB71:AQ86" si="13">IF($K71=AB$5,3,IF(OR(AND($H71&lt;=AB$5,AB$5&lt;=$I71),$H71=AB$5),2,IF(AND($F71&lt;=AB$5,AB$5&lt;=$G71),1,0)))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AC71" s="40">
@@ -12036,21 +11976,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="88"/>
-      <c r="C72" s="90"/>
+    <row r="72" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="107"/>
+      <c r="C72" s="97"/>
       <c r="D72" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="E72" s="31"/>
-      <c r="F72" s="32"/>
-      <c r="G72" s="35"/>
+        <v>57</v>
+      </c>
+      <c r="E72" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="32">
+        <v>44678</v>
+      </c>
+      <c r="G72" s="35">
+        <v>44680</v>
+      </c>
       <c r="H72" s="32"/>
       <c r="I72" s="35"/>
       <c r="J72" s="34"/>
       <c r="K72" s="35"/>
       <c r="M72" s="39">
-        <f t="shared" ref="M72:AB87" si="14">IF($K72=M$5,3,IF(OR(AND($H72&lt;=M$5,M$5&lt;=$I72),$H72=M$5),2,IF(AND($F72&lt;=M$5,M$5&lt;=$G72),1,0)))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N72" s="40">
@@ -12155,15 +12101,15 @@
       </c>
       <c r="AM72" s="40">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN72" s="40">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO72" s="40">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP72" s="40">
         <f t="shared" si="13"/>
@@ -12174,15 +12120,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="88"/>
-      <c r="C73" s="90"/>
-      <c r="D73" s="44" t="s">
-        <v>91</v>
+    <row r="73" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="107"/>
+      <c r="C73" s="97"/>
+      <c r="D73" s="59" t="s">
+        <v>48</v>
       </c>
       <c r="E73" s="31"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="35"/>
+      <c r="F73" s="32">
+        <v>44683</v>
+      </c>
+      <c r="G73" s="35">
+        <v>44683</v>
+      </c>
       <c r="H73" s="32"/>
       <c r="I73" s="35"/>
       <c r="J73" s="34"/>
@@ -12312,13 +12262,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="88"/>
-      <c r="C74" s="90"/>
-      <c r="D74" s="77" t="s">
-        <v>92</v>
-      </c>
-      <c r="E74" s="31"/>
+    <row r="74" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="107"/>
+      <c r="C74" s="97"/>
+      <c r="D74" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" s="31" t="s">
+        <v>13</v>
+      </c>
       <c r="F74" s="32"/>
       <c r="G74" s="35"/>
       <c r="H74" s="32"/>
@@ -12450,13 +12402,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="88"/>
-      <c r="C75" s="90"/>
-      <c r="D75" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="E75" s="31"/>
+    <row r="75" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="107"/>
+      <c r="C75" s="97"/>
+      <c r="D75" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="E75" s="31" t="s">
+        <v>14</v>
+      </c>
       <c r="F75" s="32"/>
       <c r="G75" s="35"/>
       <c r="H75" s="32"/>
@@ -12589,20 +12543,16 @@
       </c>
     </row>
     <row r="76" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="88"/>
-      <c r="C76" s="90"/>
-      <c r="D76" s="45" t="s">
-        <v>57</v>
+      <c r="B76" s="107"/>
+      <c r="C76" s="97"/>
+      <c r="D76" s="77" t="s">
+        <v>92</v>
       </c>
       <c r="E76" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F76" s="32">
-        <v>44678</v>
-      </c>
-      <c r="G76" s="35">
-        <v>44680</v>
-      </c>
+      <c r="F76" s="32"/>
+      <c r="G76" s="35"/>
       <c r="H76" s="32"/>
       <c r="I76" s="35"/>
       <c r="J76" s="34"/>
@@ -12713,15 +12663,15 @@
       </c>
       <c r="AM76" s="40">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN76" s="40">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO76" s="40">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP76" s="40">
         <f t="shared" si="13"/>
@@ -12733,17 +12683,19 @@
       </c>
     </row>
     <row r="77" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="88"/>
-      <c r="C77" s="90"/>
-      <c r="D77" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="E77" s="31"/>
-      <c r="F77" s="32">
-        <v>44683</v>
-      </c>
-      <c r="G77" s="35">
-        <v>44683</v>
+      <c r="B77" s="107"/>
+      <c r="C77" s="97"/>
+      <c r="D77" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="E77" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" s="46">
+        <v>44678</v>
+      </c>
+      <c r="G77" s="47">
+        <v>44684</v>
       </c>
       <c r="H77" s="32"/>
       <c r="I77" s="35"/>
@@ -12855,36 +12807,40 @@
       </c>
       <c r="AM77" s="40">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN77" s="40">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO77" s="40">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP77" s="40">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ77" s="41">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="88"/>
-      <c r="C78" s="90"/>
-      <c r="D78" s="46" t="s">
-        <v>21</v>
+      <c r="B78" s="106" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" s="97" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" s="48" t="s">
+        <v>93</v>
       </c>
       <c r="E78" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="32"/>
-      <c r="G78" s="35"/>
+        <v>14</v>
+      </c>
+      <c r="F78" s="46"/>
+      <c r="G78" s="47"/>
       <c r="H78" s="32"/>
       <c r="I78" s="35"/>
       <c r="J78" s="34"/>
@@ -13015,16 +12971,16 @@
       </c>
     </row>
     <row r="79" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="88"/>
-      <c r="C79" s="90"/>
-      <c r="D79" s="81" t="s">
-        <v>94</v>
+      <c r="B79" s="107"/>
+      <c r="C79" s="97"/>
+      <c r="D79" s="75" t="s">
+        <v>93</v>
       </c>
       <c r="E79" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" s="32"/>
-      <c r="G79" s="35"/>
+        <v>13</v>
+      </c>
+      <c r="F79" s="46"/>
+      <c r="G79" s="47"/>
       <c r="H79" s="32"/>
       <c r="I79" s="35"/>
       <c r="J79" s="34"/>
@@ -13155,16 +13111,16 @@
       </c>
     </row>
     <row r="80" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="88"/>
-      <c r="C80" s="90"/>
-      <c r="D80" s="81" t="s">
-        <v>94</v>
+      <c r="B80" s="107"/>
+      <c r="C80" s="97"/>
+      <c r="D80" s="75" t="s">
+        <v>93</v>
       </c>
       <c r="E80" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="32"/>
-      <c r="G80" s="35"/>
+        <v>15</v>
+      </c>
+      <c r="F80" s="46"/>
+      <c r="G80" s="47"/>
       <c r="H80" s="32"/>
       <c r="I80" s="35"/>
       <c r="J80" s="34"/>
@@ -13295,20 +13251,16 @@
       </c>
     </row>
     <row r="81" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="88"/>
-      <c r="C81" s="90"/>
-      <c r="D81" s="80" t="s">
-        <v>94</v>
+      <c r="B81" s="107"/>
+      <c r="C81" s="97"/>
+      <c r="D81" s="75" t="s">
+        <v>68</v>
       </c>
       <c r="E81" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F81" s="47">
-        <v>44678</v>
-      </c>
-      <c r="G81" s="48">
-        <v>44684</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F81" s="46"/>
+      <c r="G81" s="47"/>
       <c r="H81" s="32"/>
       <c r="I81" s="35"/>
       <c r="J81" s="34"/>
@@ -13419,40 +13371,36 @@
       </c>
       <c r="AM81" s="40">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN81" s="40">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO81" s="40">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP81" s="40">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ81" s="41">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="87" t="s">
-        <v>28</v>
-      </c>
-      <c r="C82" s="90" t="s">
-        <v>34</v>
-      </c>
-      <c r="D82" s="49" t="s">
-        <v>95</v>
+      <c r="B82" s="107"/>
+      <c r="C82" s="97"/>
+      <c r="D82" s="75" t="s">
+        <v>68</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="47"/>
-      <c r="G82" s="48"/>
+        <v>13</v>
+      </c>
+      <c r="F82" s="46"/>
+      <c r="G82" s="47"/>
       <c r="H82" s="32"/>
       <c r="I82" s="35"/>
       <c r="J82" s="34"/>
@@ -13583,16 +13531,16 @@
       </c>
     </row>
     <row r="83" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="88"/>
-      <c r="C83" s="90"/>
-      <c r="D83" s="77" t="s">
-        <v>95</v>
+      <c r="B83" s="107"/>
+      <c r="C83" s="97"/>
+      <c r="D83" s="75" t="s">
+        <v>68</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="47"/>
-      <c r="G83" s="48"/>
+        <v>15</v>
+      </c>
+      <c r="F83" s="46"/>
+      <c r="G83" s="47"/>
       <c r="H83" s="32"/>
       <c r="I83" s="35"/>
       <c r="J83" s="34"/>
@@ -13658,567 +13606,569 @@
         <v>0</v>
       </c>
       <c r="AB83" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="AB83:AQ89" si="15">IF($K83=AB$5,3,IF(OR(AND($H83&lt;=AB$5,AB$5&lt;=$I83),$H83=AB$5),2,IF(AND($F83&lt;=AB$5,AB$5&lt;=$G83),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AC83" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AD83" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE83" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF83" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AG83" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AH83" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AI83" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AJ83" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AK83" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AL83" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AM83" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN83" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AO83" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP83" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AQ83" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="88"/>
-      <c r="C84" s="90"/>
-      <c r="D84" s="77" t="s">
-        <v>95</v>
+      <c r="B84" s="107"/>
+      <c r="C84" s="97"/>
+      <c r="D84" s="30" t="s">
+        <v>34</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F84" s="47"/>
-      <c r="G84" s="48"/>
+        <v>14</v>
+      </c>
+      <c r="F84" s="32"/>
+      <c r="G84" s="47"/>
       <c r="H84" s="32"/>
       <c r="I84" s="35"/>
       <c r="J84" s="34"/>
       <c r="K84" s="35"/>
       <c r="M84" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="M84:AB89" si="16">IF($K84=M$5,3,IF(OR(AND($H84&lt;=M$5,M$5&lt;=$I84),$H84=M$5),2,IF(AND($F84&lt;=M$5,M$5&lt;=$G84),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N84" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O84" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P84" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q84" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R84" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S84" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T84" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U84" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V84" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W84" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X84" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y84" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Z84" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AA84" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB84" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AC84" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AD84" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE84" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF84" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AG84" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AH84" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AI84" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AJ84" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AK84" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AL84" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AM84" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN84" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AO84" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP84" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AQ84" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="88"/>
-      <c r="C85" s="90"/>
-      <c r="D85" s="77" t="s">
-        <v>68</v>
+      <c r="B85" s="107"/>
+      <c r="C85" s="97"/>
+      <c r="D85" s="30" t="s">
+        <v>34</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="47"/>
-      <c r="G85" s="48"/>
+        <v>13</v>
+      </c>
+      <c r="F85" s="32"/>
+      <c r="G85" s="35"/>
       <c r="H85" s="32"/>
       <c r="I85" s="35"/>
       <c r="J85" s="34"/>
       <c r="K85" s="35"/>
       <c r="M85" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N85" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O85" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P85" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q85" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R85" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S85" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T85" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U85" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V85" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W85" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X85" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y85" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Z85" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AA85" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB85" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AC85" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AD85" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE85" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF85" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AG85" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AH85" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AI85" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AJ85" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AK85" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AL85" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AM85" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN85" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AO85" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP85" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AQ85" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="88"/>
-      <c r="C86" s="90"/>
-      <c r="D86" s="77" t="s">
-        <v>68</v>
+      <c r="B86" s="107"/>
+      <c r="C86" s="97"/>
+      <c r="D86" s="30" t="s">
+        <v>34</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="47"/>
-      <c r="G86" s="48"/>
+        <v>15</v>
+      </c>
+      <c r="F86" s="32"/>
+      <c r="G86" s="35"/>
       <c r="H86" s="32"/>
       <c r="I86" s="35"/>
       <c r="J86" s="34"/>
       <c r="K86" s="35"/>
       <c r="M86" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N86" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O86" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P86" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q86" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R86" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S86" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T86" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U86" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V86" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W86" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X86" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y86" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Z86" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AA86" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB86" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AC86" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AD86" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE86" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF86" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AG86" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AH86" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AI86" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AJ86" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AK86" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AL86" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AM86" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN86" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AO86" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP86" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AQ86" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="88"/>
-      <c r="C87" s="90"/>
-      <c r="D87" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="E87" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F87" s="47"/>
-      <c r="G87" s="48"/>
+      <c r="B87" s="107"/>
+      <c r="C87" s="97"/>
+      <c r="D87" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="E87" s="31"/>
+      <c r="F87" s="32">
+        <v>44685</v>
+      </c>
+      <c r="G87" s="35">
+        <v>44687</v>
+      </c>
       <c r="H87" s="32"/>
       <c r="I87" s="35"/>
       <c r="J87" s="34"/>
       <c r="K87" s="35"/>
       <c r="M87" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N87" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O87" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P87" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q87" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R87" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S87" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T87" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U87" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V87" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W87" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X87" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y87" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Z87" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AA87" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB87" s="40">
-        <f t="shared" ref="AB87:AQ93" si="15">IF($K87=AB$5,3,IF(OR(AND($H87&lt;=AB$5,AB$5&lt;=$I87),$H87=AB$5),2,IF(AND($F87&lt;=AB$5,AB$5&lt;=$G87),1,0)))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AC87" s="40">
@@ -14283,22 +14233,24 @@
       </c>
     </row>
     <row r="88" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="88"/>
-      <c r="C88" s="90"/>
+      <c r="B88" s="107"/>
+      <c r="C88" s="97"/>
       <c r="D88" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E88" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F88" s="32"/>
-      <c r="G88" s="48"/>
+        <v>48</v>
+      </c>
+      <c r="E88" s="31"/>
+      <c r="F88" s="78">
+        <v>44687</v>
+      </c>
+      <c r="G88" s="79">
+        <v>44687</v>
+      </c>
       <c r="H88" s="32"/>
       <c r="I88" s="35"/>
       <c r="J88" s="34"/>
       <c r="K88" s="35"/>
       <c r="M88" s="39">
-        <f t="shared" ref="M88:AB93" si="16">IF($K88=M$5,3,IF(OR(AND($H88&lt;=M$5,M$5&lt;=$I88),$H88=M$5),2,IF(AND($F88&lt;=M$5,M$5&lt;=$G88),1,0)))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N88" s="40">
@@ -14423,20 +14375,22 @@
       </c>
     </row>
     <row r="89" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="88"/>
-      <c r="C89" s="90"/>
-      <c r="D89" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E89" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F89" s="32"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="32"/>
-      <c r="I89" s="35"/>
-      <c r="J89" s="34"/>
-      <c r="K89" s="35"/>
+      <c r="B89" s="108"/>
+      <c r="C89" s="97"/>
+      <c r="D89" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E89" s="51"/>
+      <c r="F89" s="52">
+        <v>44685</v>
+      </c>
+      <c r="G89" s="53">
+        <v>44691</v>
+      </c>
+      <c r="H89" s="54"/>
+      <c r="I89" s="55"/>
+      <c r="J89" s="56"/>
+      <c r="K89" s="55"/>
       <c r="M89" s="39">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -14562,599 +14516,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="88"/>
-      <c r="C90" s="90"/>
-      <c r="D90" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E90" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F90" s="32"/>
-      <c r="G90" s="35"/>
-      <c r="H90" s="32"/>
-      <c r="I90" s="35"/>
-      <c r="J90" s="34"/>
-      <c r="K90" s="35"/>
-      <c r="M90" s="39">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N90" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="O90" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P90" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q90" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R90" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S90" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T90" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U90" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V90" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W90" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="X90" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Y90" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Z90" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA90" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AB90" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AC90" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AD90" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AE90" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AF90" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AG90" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AH90" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AI90" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AJ90" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AK90" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AL90" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AM90" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AN90" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AO90" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AP90" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ90" s="41">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="88"/>
-      <c r="C91" s="90"/>
-      <c r="D91" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="E91" s="31"/>
-      <c r="F91" s="32">
-        <v>44685</v>
-      </c>
-      <c r="G91" s="35">
-        <v>44687</v>
-      </c>
-      <c r="H91" s="32"/>
-      <c r="I91" s="35"/>
-      <c r="J91" s="34"/>
-      <c r="K91" s="35"/>
-      <c r="M91" s="39">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N91" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="O91" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P91" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q91" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R91" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S91" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T91" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U91" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V91" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W91" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="X91" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Y91" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Z91" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA91" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AB91" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AC91" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AD91" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AE91" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AF91" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AG91" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AH91" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AI91" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AJ91" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AK91" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AL91" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AM91" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AN91" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AO91" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AP91" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ91" s="41">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="88"/>
-      <c r="C92" s="90"/>
-      <c r="D92" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E92" s="31"/>
-      <c r="F92" s="82">
-        <v>44687</v>
-      </c>
-      <c r="G92" s="83">
-        <v>44687</v>
-      </c>
-      <c r="H92" s="32"/>
-      <c r="I92" s="35"/>
-      <c r="J92" s="34"/>
-      <c r="K92" s="35"/>
-      <c r="M92" s="39">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N92" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="O92" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P92" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q92" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R92" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S92" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T92" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U92" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V92" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W92" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="X92" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Y92" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Z92" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA92" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AB92" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AC92" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AD92" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AE92" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AF92" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AG92" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AH92" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AI92" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AJ92" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AK92" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AL92" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AM92" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AN92" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AO92" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AP92" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ92" s="41">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="89"/>
-      <c r="C93" s="90"/>
-      <c r="D93" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="E93" s="52"/>
-      <c r="F93" s="53">
-        <v>44685</v>
-      </c>
-      <c r="G93" s="54">
-        <v>44691</v>
-      </c>
-      <c r="H93" s="55"/>
-      <c r="I93" s="56"/>
-      <c r="J93" s="57"/>
-      <c r="K93" s="56"/>
-      <c r="M93" s="39">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N93" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="O93" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P93" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q93" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R93" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S93" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T93" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U93" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V93" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W93" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="X93" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Y93" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Z93" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA93" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AB93" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AC93" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AD93" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AE93" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AF93" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AG93" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AH93" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AI93" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AJ93" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AK93" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AL93" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AM93" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AN93" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AO93" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AP93" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ93" s="41">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="D5:E93" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}"/>
+  <autoFilter ref="D5:E89" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}"/>
   <mergeCells count="22">
+    <mergeCell ref="B78:B89"/>
+    <mergeCell ref="C78:C89"/>
+    <mergeCell ref="B39:B46"/>
+    <mergeCell ref="C39:C58"/>
+    <mergeCell ref="B47:B58"/>
+    <mergeCell ref="B59:B77"/>
+    <mergeCell ref="C59:C77"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="C9:C38"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="B17:B27"/>
+    <mergeCell ref="B28:B38"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="S3:X3"/>
     <mergeCell ref="Y3:AD3"/>
     <mergeCell ref="M3:R3"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="C9:C38"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="B17:B27"/>
-    <mergeCell ref="B28:B38"/>
-    <mergeCell ref="B82:B93"/>
-    <mergeCell ref="C82:C93"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="C39:C62"/>
-    <mergeCell ref="B48:B62"/>
-    <mergeCell ref="B63:B81"/>
-    <mergeCell ref="C63:C81"/>
   </mergeCells>
-  <conditionalFormatting sqref="M6:AQ93">
+  <conditionalFormatting sqref="M6:AQ89">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>3</formula>
     </cfRule>
@@ -15166,7 +14554,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E93 J6:J93" xr:uid="{7799F778-AC45-524F-B3DE-E4EA92284CF2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E89 J6:J89" xr:uid="{7799F778-AC45-524F-B3DE-E4EA92284CF2}">
       <formula1>$AS$5:$AS$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/CMSC495_ProjectPlan.xlsx
+++ b/CMSC495_ProjectPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Git/cmsc495_final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5584837-1BC0-9243-934E-CC94921912DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B8241F-A50B-5D46-81BC-18EEAB7063C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8200" yWindow="2320" windowWidth="28440" windowHeight="24060" xr2:uid="{A3040AE0-0367-2B43-ADDE-84CCD12855DC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Project_Plan" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Project_Plan!$D$5:$E$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Project_Plan!$D$5:$E$85</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="91">
   <si>
     <t>Year</t>
   </si>
@@ -277,78 +277,6 @@
     <t>utils.py - save_image()</t>
   </si>
   <si>
-    <t>Update Test Cases - Table2</t>
-  </si>
-  <si>
-    <t>Update Test Cases - Table1</t>
-  </si>
-  <si>
-    <t>Update Test Cases - Table3</t>
-  </si>
-  <si>
-    <t>Update Test Cases - Table4</t>
-  </si>
-  <si>
-    <t>Update Test Cases - Table5</t>
-  </si>
-  <si>
-    <t>Test - Table1</t>
-  </si>
-  <si>
-    <t>Test - Table2</t>
-  </si>
-  <si>
-    <t>Test - Table3</t>
-  </si>
-  <si>
-    <t>Test - Table4</t>
-  </si>
-  <si>
-    <t>Test - Table5</t>
-  </si>
-  <si>
-    <r>
-      <t>Unit Test - stego.py</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Unit Test - models.py</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Unit Test - utils.py</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
     <t>Peer Review Test Doc</t>
   </si>
   <si>
@@ -365,6 +293,24 @@
   </si>
   <si>
     <t>utils.py - convert_message()</t>
+  </si>
+  <si>
+    <t>Unit Test - models.py</t>
+  </si>
+  <si>
+    <t>Unit Test - utils.py</t>
+  </si>
+  <si>
+    <t>Unit Test - stego.py</t>
+  </si>
+  <si>
+    <t>Update Test Cases - Unit Test</t>
+  </si>
+  <si>
+    <t>Update Test Cases - Manuel</t>
+  </si>
+  <si>
+    <t>Test - Manuel</t>
   </si>
 </sst>
 </file>
@@ -478,7 +424,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -920,13 +866,52 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -940,58 +925,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1006,86 +939,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1170,12 +1023,173 @@
     </border>
     <border>
       <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="medium">
         <color rgb="FFFF0000"/>
       </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -1185,34 +1199,14 @@
     </border>
     <border>
       <left style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FFFF0000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1220,7 +1214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1233,9 +1227,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1252,7 +1246,7 @@
     <xf numFmtId="164" fontId="1" fillId="7" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1264,89 +1258,121 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1371,89 +1397,54 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1792,7 +1783,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}">
-  <dimension ref="A1:AV89"/>
+  <dimension ref="A1:AV85"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -1851,48 +1842,48 @@
       <c r="D3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="98" t="s">
+      <c r="M3" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="82" t="s">
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="82"/>
-      <c r="AA3" s="82"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="82"/>
-      <c r="AD3" s="82"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
     </row>
     <row r="4" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="90"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="84" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="85"/>
-      <c r="H4" s="86" t="s">
+      <c r="B4" s="86"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="97"/>
+      <c r="H4" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="88" t="s">
+      <c r="I4" s="99"/>
+      <c r="J4" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="89"/>
+      <c r="K4" s="101"/>
       <c r="M4" s="12" t="str">
         <f>TEXT(M5,"aaa")</f>
         <v>Fri</v>
@@ -2187,13 +2178,13 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="95" t="s">
+      <c r="D6" s="91" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="31" t="s">
@@ -2344,9 +2335,9 @@
       </c>
     </row>
     <row r="7" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="94"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="96"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="92"/>
       <c r="E7" s="31" t="s">
         <v>13</v>
       </c>
@@ -2495,9 +2486,9 @@
       </c>
     </row>
     <row r="8" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="94"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="96"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="92"/>
       <c r="E8" s="31" t="s">
         <v>15</v>
       </c>
@@ -2643,13 +2634,13 @@
       </c>
     </row>
     <row r="9" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="56" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="31" t="s">
@@ -2799,9 +2790,9 @@
       </c>
     </row>
     <row r="10" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="100"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="64" t="s">
+      <c r="B10" s="80"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="57" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="31" t="s">
@@ -2951,9 +2942,9 @@
       </c>
     </row>
     <row r="11" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="100"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="64" t="s">
+      <c r="B11" s="80"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="57" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="31" t="s">
@@ -3103,9 +3094,9 @@
       </c>
     </row>
     <row r="12" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="100"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="65" t="s">
+      <c r="B12" s="80"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="58" t="s">
         <v>52</v>
       </c>
       <c r="E12" s="31" t="s">
@@ -3255,12 +3246,12 @@
       </c>
     </row>
     <row r="13" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="100"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="66" t="s">
+      <c r="B13" s="80"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="57"/>
+      <c r="E13" s="52"/>
       <c r="F13" s="32">
         <v>44648</v>
       </c>
@@ -3405,9 +3396,9 @@
       </c>
     </row>
     <row r="14" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="100"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="104" t="s">
+      <c r="B14" s="80"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="84" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="31" t="s">
@@ -3553,9 +3544,9 @@
       </c>
     </row>
     <row r="15" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="100"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="105"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="85"/>
       <c r="E15" s="31" t="s">
         <v>13</v>
       </c>
@@ -3569,7 +3560,7 @@
         <v>44639</v>
       </c>
       <c r="I15" s="35">
-        <v>44645</v>
+        <v>44672</v>
       </c>
       <c r="J15" s="34" t="s">
         <v>13</v>
@@ -3579,87 +3570,87 @@
       </c>
       <c r="M15" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O15" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P15" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q15" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R15" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S15" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T15" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U15" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V15" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W15" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X15" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y15" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z15" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA15" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB15" s="40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC15" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD15" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE15" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF15" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG15" s="40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH15" s="40">
         <f t="shared" si="4"/>
@@ -3703,9 +3694,9 @@
       </c>
     </row>
     <row r="16" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="100"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="105"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="85"/>
       <c r="E16" s="31" t="s">
         <v>15</v>
       </c>
@@ -3853,11 +3844,11 @@
       </c>
     </row>
     <row r="17" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="99" t="s">
+      <c r="B17" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="102"/>
-      <c r="D17" s="70" t="s">
+      <c r="C17" s="82"/>
+      <c r="D17" s="60" t="s">
         <v>61</v>
       </c>
       <c r="E17" s="31" t="s">
@@ -4007,9 +3998,9 @@
       </c>
     </row>
     <row r="18" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="100"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="71" t="s">
+      <c r="B18" s="80"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="61" t="s">
         <v>63</v>
       </c>
       <c r="E18" s="31" t="s">
@@ -4159,9 +4150,9 @@
       </c>
     </row>
     <row r="19" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="100"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="72" t="s">
+      <c r="B19" s="80"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="62" t="s">
         <v>44</v>
       </c>
       <c r="E19" s="31" t="s">
@@ -4311,9 +4302,9 @@
       </c>
     </row>
     <row r="20" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="100"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="72" t="s">
+      <c r="B20" s="80"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="62" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="31" t="s">
@@ -4463,9 +4454,9 @@
       </c>
     </row>
     <row r="21" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="100"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="72" t="s">
+      <c r="B21" s="80"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="62" t="s">
         <v>62</v>
       </c>
       <c r="E21" s="31" t="s">
@@ -4615,9 +4606,9 @@
       </c>
     </row>
     <row r="22" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="100"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="73" t="s">
+      <c r="B22" s="80"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="63" t="s">
         <v>64</v>
       </c>
       <c r="E22" s="31" t="s">
@@ -4767,9 +4758,9 @@
       </c>
     </row>
     <row r="23" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="100"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="73" t="s">
+      <c r="B23" s="80"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="63" t="s">
         <v>50</v>
       </c>
       <c r="E23" s="31" t="s">
@@ -4919,9 +4910,9 @@
       </c>
     </row>
     <row r="24" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="100"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="74" t="s">
+      <c r="B24" s="80"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="64" t="s">
         <v>53</v>
       </c>
       <c r="E24" s="31" t="s">
@@ -5071,9 +5062,9 @@
       </c>
     </row>
     <row r="25" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="100"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="73" t="s">
+      <c r="B25" s="80"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="63" t="s">
         <v>48</v>
       </c>
       <c r="E25" s="31"/>
@@ -5221,9 +5212,9 @@
       </c>
     </row>
     <row r="26" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="100"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="73" t="s">
+      <c r="B26" s="80"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="63" t="s">
         <v>59</v>
       </c>
       <c r="E26" s="31" t="s">
@@ -5373,9 +5364,9 @@
       </c>
     </row>
     <row r="27" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="100"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="74" t="s">
+      <c r="B27" s="80"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="64" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="31" t="s">
@@ -5525,11 +5516,11 @@
       </c>
     </row>
     <row r="28" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="99" t="s">
+      <c r="B28" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="102"/>
-      <c r="D28" s="70" t="s">
+      <c r="C28" s="82"/>
+      <c r="D28" s="60" t="s">
         <v>51</v>
       </c>
       <c r="E28" s="31" t="s">
@@ -5679,9 +5670,9 @@
       </c>
     </row>
     <row r="29" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="100"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="72" t="s">
+      <c r="B29" s="80"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="62" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="31" t="s">
@@ -5831,9 +5822,9 @@
       </c>
     </row>
     <row r="30" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="100"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="72" t="s">
+      <c r="B30" s="80"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="62" t="s">
         <v>65</v>
       </c>
       <c r="E30" s="31" t="s">
@@ -5983,9 +5974,9 @@
       </c>
     </row>
     <row r="31" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="100"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="72" t="s">
+      <c r="B31" s="80"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="62" t="s">
         <v>39</v>
       </c>
       <c r="E31" s="31" t="s">
@@ -6135,9 +6126,9 @@
       </c>
     </row>
     <row r="32" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="100"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="72" t="s">
+      <c r="B32" s="80"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="62" t="s">
         <v>40</v>
       </c>
       <c r="E32" s="31" t="s">
@@ -6287,9 +6278,9 @@
       </c>
     </row>
     <row r="33" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="100"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="72" t="s">
+      <c r="B33" s="80"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="62" t="s">
         <v>66</v>
       </c>
       <c r="E33" s="31" t="s">
@@ -6439,9 +6430,9 @@
       </c>
     </row>
     <row r="34" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="100"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="72" t="s">
+      <c r="B34" s="80"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="62" t="s">
         <v>67</v>
       </c>
       <c r="E34" s="31" t="s">
@@ -6591,9 +6582,9 @@
       </c>
     </row>
     <row r="35" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="100"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="74" t="s">
+      <c r="B35" s="80"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="64" t="s">
         <v>54</v>
       </c>
       <c r="E35" s="31" t="s">
@@ -6602,7 +6593,7 @@
       <c r="F35" s="32">
         <v>44657</v>
       </c>
-      <c r="G35" s="60">
+      <c r="G35" s="53">
         <v>44659</v>
       </c>
       <c r="H35" s="32">
@@ -6743,9 +6734,9 @@
       </c>
     </row>
     <row r="36" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="100"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="73" t="s">
+      <c r="B36" s="80"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="63" t="s">
         <v>48</v>
       </c>
       <c r="E36" s="31"/>
@@ -6893,9 +6884,9 @@
       </c>
     </row>
     <row r="37" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="100"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="72" t="s">
+      <c r="B37" s="80"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="62" t="s">
         <v>41</v>
       </c>
       <c r="E37" s="31" t="s">
@@ -7045,9 +7036,9 @@
       </c>
     </row>
     <row r="38" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="100"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="74" t="s">
+      <c r="B38" s="80"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="64" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="31" t="s">
@@ -7197,13 +7188,13 @@
       </c>
     </row>
     <row r="39" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="117" t="s">
+      <c r="B39" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="112" t="s">
+      <c r="C39" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="70" t="s">
+      <c r="D39" s="60" t="s">
         <v>69</v>
       </c>
       <c r="E39" s="31" t="s">
@@ -7224,7 +7215,9 @@
       <c r="J39" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K39" s="35"/>
+      <c r="K39" s="35">
+        <v>44665</v>
+      </c>
       <c r="M39" s="39">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -7279,7 +7272,7 @@
       </c>
       <c r="Z39" s="40">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA39" s="40">
         <f t="shared" si="7"/>
@@ -7351,9 +7344,9 @@
       </c>
     </row>
     <row r="40" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="118"/>
-      <c r="C40" s="112"/>
-      <c r="D40" s="71" t="s">
+      <c r="B40" s="77"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="61" t="s">
         <v>70</v>
       </c>
       <c r="E40" s="31" t="s">
@@ -7374,7 +7367,9 @@
       <c r="J40" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K40" s="35"/>
+      <c r="K40" s="35">
+        <v>44665</v>
+      </c>
       <c r="M40" s="39">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -7429,7 +7424,7 @@
       </c>
       <c r="Z40" s="40">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA40" s="40">
         <f t="shared" si="7"/>
@@ -7501,10 +7496,10 @@
       </c>
     </row>
     <row r="41" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="118"/>
-      <c r="C41" s="112"/>
-      <c r="D41" s="71" t="s">
-        <v>95</v>
+      <c r="B41" s="77"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="61" t="s">
+        <v>82</v>
       </c>
       <c r="E41" s="31" t="s">
         <v>14</v>
@@ -7518,13 +7513,15 @@
       <c r="H41" s="32">
         <v>44662</v>
       </c>
-      <c r="I41" s="62">
+      <c r="I41" s="55">
         <v>44665</v>
       </c>
       <c r="J41" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="K41" s="35"/>
+      <c r="K41" s="35">
+        <v>44673</v>
+      </c>
       <c r="M41" s="39">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -7611,7 +7608,7 @@
       </c>
       <c r="AH41" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI41" s="40">
         <f t="shared" si="8"/>
@@ -7651,10 +7648,10 @@
       </c>
     </row>
     <row r="42" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="118"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="71" t="s">
-        <v>96</v>
+      <c r="B42" s="77"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="61" t="s">
+        <v>83</v>
       </c>
       <c r="E42" s="31" t="s">
         <v>14</v>
@@ -7668,13 +7665,15 @@
       <c r="H42" s="32">
         <v>44662</v>
       </c>
-      <c r="I42" s="62">
+      <c r="I42" s="55">
         <v>44665</v>
       </c>
       <c r="J42" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="35"/>
+      <c r="K42" s="35">
+        <v>44673</v>
+      </c>
       <c r="M42" s="39">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -7761,7 +7760,7 @@
       </c>
       <c r="AH42" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI42" s="40">
         <f t="shared" si="8"/>
@@ -7801,10 +7800,10 @@
       </c>
     </row>
     <row r="43" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="118"/>
-      <c r="C43" s="112"/>
-      <c r="D43" s="72" t="s">
-        <v>97</v>
+      <c r="B43" s="77"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="62" t="s">
+        <v>84</v>
       </c>
       <c r="E43" s="31" t="s">
         <v>13</v>
@@ -7818,13 +7817,15 @@
       <c r="H43" s="32">
         <v>44662</v>
       </c>
-      <c r="I43" s="32">
+      <c r="I43" s="33">
         <v>44665</v>
       </c>
       <c r="J43" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="K43" s="35"/>
+        <v>15</v>
+      </c>
+      <c r="K43" s="35">
+        <v>44665</v>
+      </c>
       <c r="M43" s="39">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -7879,7 +7880,7 @@
       </c>
       <c r="Z43" s="40">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA43" s="40">
         <f t="shared" si="6"/>
@@ -7951,9 +7952,9 @@
       </c>
     </row>
     <row r="44" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="118"/>
-      <c r="C44" s="112"/>
-      <c r="D44" s="74" t="s">
+      <c r="B44" s="77"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="64" t="s">
         <v>55</v>
       </c>
       <c r="E44" s="31" t="s">
@@ -7968,7 +7969,7 @@
       <c r="H44" s="32">
         <v>44665</v>
       </c>
-      <c r="I44" s="35">
+      <c r="I44" s="55">
         <v>44666</v>
       </c>
       <c r="J44" s="34" t="s">
@@ -8103,24 +8104,28 @@
       </c>
     </row>
     <row r="45" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="118"/>
-      <c r="C45" s="112"/>
-      <c r="D45" s="119" t="s">
+      <c r="B45" s="77"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="E45" s="113"/>
-      <c r="F45" s="114">
+      <c r="E45" s="68"/>
+      <c r="F45" s="69">
         <v>44669</v>
       </c>
-      <c r="G45" s="115">
+      <c r="G45" s="70">
         <v>44669</v>
       </c>
-      <c r="H45" s="114"/>
-      <c r="I45" s="115"/>
-      <c r="J45" s="116" t="s">
+      <c r="H45" s="69">
+        <v>44669</v>
+      </c>
+      <c r="I45" s="102">
+        <v>44669</v>
+      </c>
+      <c r="J45" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="K45" s="115">
+      <c r="K45" s="70">
         <v>44669</v>
       </c>
       <c r="M45" s="39">
@@ -8249,9 +8254,9 @@
       </c>
     </row>
     <row r="46" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="118"/>
-      <c r="C46" s="112"/>
-      <c r="D46" s="74" t="s">
+      <c r="B46" s="77"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="64" t="s">
         <v>19</v>
       </c>
       <c r="E46" s="31" t="s">
@@ -8266,7 +8271,7 @@
       <c r="H46" s="32">
         <v>44665</v>
       </c>
-      <c r="I46" s="35">
+      <c r="I46" s="55">
         <v>44666</v>
       </c>
       <c r="J46" s="34" t="s">
@@ -8401,12 +8406,12 @@
       </c>
     </row>
     <row r="47" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="109" t="s">
+      <c r="B47" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="112"/>
-      <c r="D47" s="67" t="s">
-        <v>94</v>
+      <c r="C47" s="78"/>
+      <c r="D47" s="60" t="s">
+        <v>81</v>
       </c>
       <c r="E47" s="31" t="s">
         <v>15</v>
@@ -8414,15 +8419,21 @@
       <c r="F47" s="32">
         <v>44670</v>
       </c>
-      <c r="G47" s="62">
+      <c r="G47" s="55">
         <v>44672</v>
       </c>
-      <c r="H47" s="81"/>
-      <c r="I47" s="35"/>
+      <c r="H47" s="32">
+        <v>44670</v>
+      </c>
+      <c r="I47" s="55">
+        <v>44676</v>
+      </c>
       <c r="J47" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K47" s="35"/>
+      <c r="K47" s="35">
+        <v>44676</v>
+      </c>
       <c r="M47" s="39">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -8497,31 +8508,31 @@
       </c>
       <c r="AE47" s="40">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF47" s="40">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG47" s="40">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH47" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI47" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ47" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK47" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL47" s="40">
         <f t="shared" si="8"/>
@@ -8549,9 +8560,9 @@
       </c>
     </row>
     <row r="48" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="110"/>
-      <c r="C48" s="112"/>
-      <c r="D48" s="68" t="s">
+      <c r="B48" s="77"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="62" t="s">
         <v>71</v>
       </c>
       <c r="E48" s="31" t="s">
@@ -8563,12 +8574,18 @@
       <c r="G48" s="35">
         <v>44672</v>
       </c>
-      <c r="H48" s="32"/>
-      <c r="I48" s="35"/>
+      <c r="H48" s="32">
+        <v>44670</v>
+      </c>
+      <c r="I48" s="55">
+        <v>44676</v>
+      </c>
       <c r="J48" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K48" s="35"/>
+      <c r="K48" s="35">
+        <v>44676</v>
+      </c>
       <c r="M48" s="39">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -8643,31 +8660,31 @@
       </c>
       <c r="AE48" s="40">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF48" s="40">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG48" s="40">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH48" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI48" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ48" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK48" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL48" s="40">
         <f t="shared" si="8"/>
@@ -8695,9 +8712,9 @@
       </c>
     </row>
     <row r="49" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="110"/>
-      <c r="C49" s="112"/>
-      <c r="D49" s="68" t="s">
+      <c r="B49" s="77"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="62" t="s">
         <v>72</v>
       </c>
       <c r="E49" s="31" t="s">
@@ -8712,13 +8729,15 @@
       <c r="H49" s="32">
         <v>44662</v>
       </c>
-      <c r="I49" s="32">
+      <c r="I49" s="33">
         <v>44665</v>
       </c>
       <c r="J49" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="K49" s="35"/>
+        <v>15</v>
+      </c>
+      <c r="K49" s="35">
+        <v>44672</v>
+      </c>
       <c r="M49" s="39">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -8801,7 +8820,7 @@
       </c>
       <c r="AG49" s="40">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH49" s="40">
         <f t="shared" si="8"/>
@@ -8845,9 +8864,9 @@
       </c>
     </row>
     <row r="50" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="110"/>
-      <c r="C50" s="112"/>
-      <c r="D50" s="68" t="s">
+      <c r="B50" s="77"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="62" t="s">
         <v>74</v>
       </c>
       <c r="E50" s="31" t="s">
@@ -8862,11 +8881,15 @@
       <c r="H50" s="32">
         <v>44662</v>
       </c>
-      <c r="I50" s="32"/>
+      <c r="I50" s="33">
+        <v>44672</v>
+      </c>
       <c r="J50" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="K50" s="35"/>
+      <c r="K50" s="35">
+        <v>44672</v>
+      </c>
       <c r="M50" s="39">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -8913,43 +8936,43 @@
       </c>
       <c r="X50" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y50" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z50" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA50" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB50" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC50" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD50" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE50" s="40">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF50" s="40">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG50" s="40">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH50" s="40">
         <f t="shared" si="8"/>
@@ -8993,9 +9016,9 @@
       </c>
     </row>
     <row r="51" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="110"/>
-      <c r="C51" s="112"/>
-      <c r="D51" s="68" t="s">
+      <c r="B51" s="77"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="62" t="s">
         <v>75</v>
       </c>
       <c r="E51" s="31" t="s">
@@ -9010,11 +9033,15 @@
       <c r="H51" s="32">
         <v>44662</v>
       </c>
-      <c r="I51" s="32"/>
+      <c r="I51" s="33">
+        <v>44672</v>
+      </c>
       <c r="J51" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="K51" s="35"/>
+        <v>15</v>
+      </c>
+      <c r="K51" s="35">
+        <v>44672</v>
+      </c>
       <c r="M51" s="39">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -9061,43 +9088,43 @@
       </c>
       <c r="X51" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y51" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z51" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA51" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB51" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC51" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD51" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE51" s="40">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF51" s="40">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG51" s="40">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH51" s="40">
         <f t="shared" si="8"/>
@@ -9141,9 +9168,9 @@
       </c>
     </row>
     <row r="52" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="110"/>
-      <c r="C52" s="112"/>
-      <c r="D52" s="68" t="s">
+      <c r="B52" s="77"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="62" t="s">
         <v>76</v>
       </c>
       <c r="E52" s="31" t="s">
@@ -9158,13 +9185,15 @@
       <c r="H52" s="32">
         <v>44662</v>
       </c>
-      <c r="I52" s="32">
+      <c r="I52" s="33">
         <v>44665</v>
       </c>
       <c r="J52" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="K52" s="35"/>
+      <c r="K52" s="35">
+        <v>44672</v>
+      </c>
       <c r="M52" s="39">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -9247,7 +9276,7 @@
       </c>
       <c r="AG52" s="40">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH52" s="40">
         <f t="shared" si="8"/>
@@ -9291,9 +9320,9 @@
       </c>
     </row>
     <row r="53" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="110"/>
-      <c r="C53" s="112"/>
-      <c r="D53" s="68" t="s">
+      <c r="B53" s="77"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="62" t="s">
         <v>73</v>
       </c>
       <c r="E53" s="31" t="s">
@@ -9308,11 +9337,15 @@
       <c r="H53" s="32">
         <v>44662</v>
       </c>
-      <c r="I53" s="32"/>
+      <c r="I53" s="33">
+        <v>44672</v>
+      </c>
       <c r="J53" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="K53" s="35"/>
+        <v>15</v>
+      </c>
+      <c r="K53" s="35">
+        <v>44672</v>
+      </c>
       <c r="M53" s="39">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -9359,43 +9392,43 @@
       </c>
       <c r="X53" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y53" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z53" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA53" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB53" s="40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC53" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD53" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE53" s="40">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF53" s="40">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG53" s="40">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH53" s="40">
         <f t="shared" si="8"/>
@@ -9439,9 +9472,9 @@
       </c>
     </row>
     <row r="54" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="110"/>
-      <c r="C54" s="112"/>
-      <c r="D54" s="68" t="s">
+      <c r="B54" s="77"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="62" t="s">
         <v>77</v>
       </c>
       <c r="E54" s="31" t="s">
@@ -9456,11 +9489,15 @@
       <c r="H54" s="32">
         <v>44662</v>
       </c>
-      <c r="I54" s="32"/>
+      <c r="I54" s="33">
+        <v>44672</v>
+      </c>
       <c r="J54" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="K54" s="35"/>
+      <c r="K54" s="35">
+        <v>44672</v>
+      </c>
       <c r="M54" s="39">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -9486,7 +9523,7 @@
         <v>0</v>
       </c>
       <c r="S54" s="40">
-        <f t="shared" ref="S54:AH66" si="9">IF($K54=S$5,3,IF(OR(AND($H54&lt;=S$5,S$5&lt;=$I54),$H54=S$5),2,IF(AND($F54&lt;=S$5,S$5&lt;=$G54),1,0)))</f>
+        <f t="shared" ref="S54:AH64" si="9">IF($K54=S$5,3,IF(OR(AND($H54&lt;=S$5,S$5&lt;=$I54),$H54=S$5),2,IF(AND($F54&lt;=S$5,S$5&lt;=$G54),1,0)))</f>
         <v>0</v>
       </c>
       <c r="T54" s="40">
@@ -9507,43 +9544,43 @@
       </c>
       <c r="X54" s="40">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y54" s="40">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z54" s="40">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA54" s="40">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB54" s="40">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC54" s="40">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD54" s="40">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE54" s="40">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF54" s="40">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG54" s="40">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH54" s="40">
         <f t="shared" si="9"/>
@@ -9587,9 +9624,9 @@
       </c>
     </row>
     <row r="55" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="110"/>
-      <c r="C55" s="112"/>
-      <c r="D55" s="120" t="s">
+      <c r="B55" s="77"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="63" t="s">
         <v>78</v>
       </c>
       <c r="E55" s="31" t="s">
@@ -9601,14 +9638,20 @@
       <c r="G55" s="35">
         <v>44672</v>
       </c>
-      <c r="H55" s="32"/>
-      <c r="I55" s="35"/>
+      <c r="H55" s="32">
+        <v>44670</v>
+      </c>
+      <c r="I55" s="35">
+        <v>44672</v>
+      </c>
       <c r="J55" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="K55" s="35"/>
+        <v>15</v>
+      </c>
+      <c r="K55" s="35">
+        <v>44672</v>
+      </c>
       <c r="M55" s="39">
-        <f t="shared" ref="M55:AB67" si="10">IF($K55=M$5,3,IF(OR(AND($H55&lt;=M$5,M$5&lt;=$I55),$H55=M$5),2,IF(AND($F55&lt;=M$5,M$5&lt;=$G55),1,0)))</f>
+        <f t="shared" ref="M55:AB64" si="10">IF($K55=M$5,3,IF(OR(AND($H55&lt;=M$5,M$5&lt;=$I55),$H55=M$5),2,IF(AND($F55&lt;=M$5,M$5&lt;=$G55),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N55" s="40">
@@ -9681,15 +9724,15 @@
       </c>
       <c r="AE55" s="40">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF55" s="40">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG55" s="40">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH55" s="40">
         <f t="shared" si="9"/>
@@ -9733,9 +9776,9 @@
       </c>
     </row>
     <row r="56" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="110"/>
-      <c r="C56" s="112"/>
-      <c r="D56" s="69" t="s">
+      <c r="B56" s="77"/>
+      <c r="C56" s="78"/>
+      <c r="D56" s="64" t="s">
         <v>56</v>
       </c>
       <c r="E56" s="31" t="s">
@@ -9747,12 +9790,18 @@
       <c r="G56" s="35">
         <v>44673</v>
       </c>
-      <c r="H56" s="32"/>
-      <c r="I56" s="35"/>
+      <c r="H56" s="32">
+        <v>44672</v>
+      </c>
+      <c r="I56" s="35">
+        <v>44672</v>
+      </c>
       <c r="J56" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="K56" s="35"/>
+        <v>15</v>
+      </c>
+      <c r="K56" s="35">
+        <v>44672</v>
+      </c>
       <c r="M56" s="39">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -9835,7 +9884,7 @@
       </c>
       <c r="AG56" s="40">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH56" s="40">
         <f t="shared" si="9"/>
@@ -9879,9 +9928,9 @@
       </c>
     </row>
     <row r="57" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="110"/>
-      <c r="C57" s="112"/>
-      <c r="D57" s="120" t="s">
+      <c r="B57" s="77"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="63" t="s">
         <v>48</v>
       </c>
       <c r="E57" s="31"/>
@@ -9891,12 +9940,18 @@
       <c r="G57" s="35">
         <v>44676</v>
       </c>
-      <c r="H57" s="32"/>
-      <c r="I57" s="35"/>
+      <c r="H57" s="32">
+        <v>44676</v>
+      </c>
+      <c r="I57" s="35">
+        <v>44676</v>
+      </c>
       <c r="J57" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="K57" s="35"/>
+      <c r="K57" s="35">
+        <v>44672</v>
+      </c>
       <c r="M57" s="39">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -9979,7 +10034,7 @@
       </c>
       <c r="AG57" s="40">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH57" s="40">
         <f t="shared" si="9"/>
@@ -9995,7 +10050,7 @@
       </c>
       <c r="AK57" s="40">
         <f t="shared" ref="AK57:AQ57" si="11">IF($K57=AK$5,3,IF(OR(AND($H57&lt;=AK$5,AK$5&lt;=$I57),$H57=AK$5),2,IF(AND($F57&lt;=AK$5,AK$5&lt;=$G57),1,0)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL57" s="40">
         <f t="shared" si="11"/>
@@ -10023,9 +10078,9 @@
       </c>
     </row>
     <row r="58" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="111"/>
-      <c r="C58" s="112"/>
-      <c r="D58" s="80" t="s">
+      <c r="B58" s="77"/>
+      <c r="C58" s="104"/>
+      <c r="D58" s="64" t="s">
         <v>20</v>
       </c>
       <c r="E58" s="31" t="s">
@@ -10037,12 +10092,18 @@
       <c r="G58" s="35">
         <v>44677</v>
       </c>
-      <c r="H58" s="32"/>
-      <c r="I58" s="35"/>
+      <c r="H58" s="32">
+        <v>44672</v>
+      </c>
+      <c r="I58" s="35">
+        <v>44672</v>
+      </c>
       <c r="J58" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="K58" s="35"/>
+      <c r="K58" s="35">
+        <v>44672</v>
+      </c>
       <c r="M58" s="39">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -10125,14 +10186,14 @@
       </c>
       <c r="AG58" s="40">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH58" s="40">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AI58" s="40">
-        <f t="shared" ref="AI58:AQ66" si="12">IF($K58=AI$5,3,IF(OR(AND($H58&lt;=AI$5,AI$5&lt;=$I58),$H58=AI$5),2,IF(AND($F58&lt;=AI$5,AI$5&lt;=$G58),1,0)))</f>
+        <f t="shared" ref="AI58:AQ64" si="12">IF($K58=AI$5,3,IF(OR(AND($H58&lt;=AI$5,AI$5&lt;=$I58),$H58=AI$5),2,IF(AND($F58&lt;=AI$5,AI$5&lt;=$G58),1,0)))</f>
         <v>1</v>
       </c>
       <c r="AJ58" s="40">
@@ -10169,23 +10230,29 @@
       </c>
     </row>
     <row r="59" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="107" t="s">
+      <c r="B59" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="97" t="s">
+      <c r="C59" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="58" t="s">
-        <v>80</v>
+      <c r="D59" s="108" t="s">
+        <v>88</v>
       </c>
       <c r="E59" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F59" s="32"/>
-      <c r="G59" s="35"/>
+      <c r="F59" s="32">
+        <v>44678</v>
+      </c>
+      <c r="G59" s="35">
+        <v>44680</v>
+      </c>
       <c r="H59" s="32"/>
       <c r="I59" s="35"/>
-      <c r="J59" s="34"/>
+      <c r="J59" s="34" t="s">
+        <v>13</v>
+      </c>
       <c r="K59" s="35"/>
       <c r="M59" s="39">
         <f t="shared" si="10"/>
@@ -10293,15 +10360,15 @@
       </c>
       <c r="AM59" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN59" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO59" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP59" s="40">
         <f t="shared" si="12"/>
@@ -10313,19 +10380,27 @@
       </c>
     </row>
     <row r="60" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="107"/>
-      <c r="C60" s="97"/>
-      <c r="D60" s="43" t="s">
-        <v>79</v>
+      <c r="B60" s="109"/>
+      <c r="C60" s="103"/>
+      <c r="D60" s="110" t="s">
+        <v>88</v>
       </c>
       <c r="E60" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F60" s="32"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="32"/>
+      <c r="F60" s="32">
+        <v>44678</v>
+      </c>
+      <c r="G60" s="35">
+        <v>44680</v>
+      </c>
+      <c r="H60" s="32">
+        <v>44676</v>
+      </c>
       <c r="I60" s="35"/>
-      <c r="J60" s="34"/>
+      <c r="J60" s="34" t="s">
+        <v>15</v>
+      </c>
       <c r="K60" s="35"/>
       <c r="M60" s="39">
         <f t="shared" si="10"/>
@@ -10425,7 +10500,7 @@
       </c>
       <c r="AK60" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL60" s="40">
         <f t="shared" si="12"/>
@@ -10433,15 +10508,15 @@
       </c>
       <c r="AM60" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN60" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO60" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP60" s="40">
         <f t="shared" si="12"/>
@@ -10453,19 +10528,27 @@
       </c>
     </row>
     <row r="61" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="107"/>
-      <c r="C61" s="97"/>
-      <c r="D61" s="43" t="s">
-        <v>81</v>
+      <c r="B61" s="109"/>
+      <c r="C61" s="103"/>
+      <c r="D61" s="110" t="s">
+        <v>89</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" s="32"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="32"/>
+        <v>15</v>
+      </c>
+      <c r="F61" s="32">
+        <v>44678</v>
+      </c>
+      <c r="G61" s="35">
+        <v>44680</v>
+      </c>
+      <c r="H61" s="32">
+        <v>44676</v>
+      </c>
       <c r="I61" s="35"/>
-      <c r="J61" s="34"/>
+      <c r="J61" s="34" t="s">
+        <v>13</v>
+      </c>
       <c r="K61" s="35"/>
       <c r="M61" s="39">
         <f t="shared" si="10"/>
@@ -10565,7 +10648,7 @@
       </c>
       <c r="AK61" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL61" s="40">
         <f t="shared" si="12"/>
@@ -10573,15 +10656,15 @@
       </c>
       <c r="AM61" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN61" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO61" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP61" s="40">
         <f t="shared" si="12"/>
@@ -10593,19 +10676,27 @@
       </c>
     </row>
     <row r="62" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="107"/>
-      <c r="C62" s="97"/>
-      <c r="D62" s="43" t="s">
-        <v>82</v>
+      <c r="B62" s="109"/>
+      <c r="C62" s="103"/>
+      <c r="D62" s="110" t="s">
+        <v>89</v>
       </c>
       <c r="E62" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F62" s="32"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="32"/>
+      <c r="F62" s="32">
+        <v>44678</v>
+      </c>
+      <c r="G62" s="35">
+        <v>44680</v>
+      </c>
+      <c r="H62" s="32">
+        <v>44676</v>
+      </c>
       <c r="I62" s="35"/>
-      <c r="J62" s="34"/>
+      <c r="J62" s="34" t="s">
+        <v>15</v>
+      </c>
       <c r="K62" s="35"/>
       <c r="M62" s="39">
         <f t="shared" si="10"/>
@@ -10705,7 +10796,7 @@
       </c>
       <c r="AK62" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL62" s="40">
         <f t="shared" si="12"/>
@@ -10713,15 +10804,15 @@
       </c>
       <c r="AM62" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN62" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO62" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP62" s="40">
         <f t="shared" si="12"/>
@@ -10733,19 +10824,25 @@
       </c>
     </row>
     <row r="63" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="107"/>
-      <c r="C63" s="97"/>
-      <c r="D63" s="43" t="s">
-        <v>83</v>
+      <c r="B63" s="109"/>
+      <c r="C63" s="103"/>
+      <c r="D63" s="110" t="s">
+        <v>90</v>
       </c>
       <c r="E63" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F63" s="32"/>
-      <c r="G63" s="35"/>
+      <c r="F63" s="32">
+        <v>44678</v>
+      </c>
+      <c r="G63" s="35">
+        <v>44680</v>
+      </c>
       <c r="H63" s="32"/>
       <c r="I63" s="35"/>
-      <c r="J63" s="34"/>
+      <c r="J63" s="34" t="s">
+        <v>13</v>
+      </c>
       <c r="K63" s="35"/>
       <c r="M63" s="39">
         <f t="shared" si="10"/>
@@ -10853,15 +10950,15 @@
       </c>
       <c r="AM63" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN63" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO63" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP63" s="40">
         <f t="shared" si="12"/>
@@ -10873,17 +10970,25 @@
       </c>
     </row>
     <row r="64" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="107"/>
-      <c r="C64" s="97"/>
-      <c r="D64" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="E64" s="31"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="35"/>
+      <c r="B64" s="109"/>
+      <c r="C64" s="103"/>
+      <c r="D64" s="110" t="s">
+        <v>90</v>
+      </c>
+      <c r="E64" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="32">
+        <v>44678</v>
+      </c>
+      <c r="G64" s="35">
+        <v>44680</v>
+      </c>
       <c r="H64" s="32"/>
       <c r="I64" s="35"/>
-      <c r="J64" s="34"/>
+      <c r="J64" s="34" t="s">
+        <v>15</v>
+      </c>
       <c r="K64" s="35"/>
       <c r="M64" s="39">
         <f t="shared" si="10"/>
@@ -10991,15 +11096,15 @@
       </c>
       <c r="AM64" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN64" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO64" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP64" s="40">
         <f t="shared" si="12"/>
@@ -11011,2602 +11116,2668 @@
       </c>
     </row>
     <row r="65" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="107"/>
-      <c r="C65" s="97"/>
-      <c r="D65" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="E65" s="31"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="32"/>
+      <c r="B65" s="109"/>
+      <c r="C65" s="103"/>
+      <c r="D65" s="110" t="s">
+        <v>87</v>
+      </c>
+      <c r="E65" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" s="32">
+        <v>44676</v>
+      </c>
+      <c r="G65" s="35">
+        <v>44677</v>
+      </c>
+      <c r="H65" s="32">
+        <v>44676</v>
+      </c>
       <c r="I65" s="35"/>
-      <c r="J65" s="34"/>
+      <c r="J65" s="34" t="s">
+        <v>13</v>
+      </c>
       <c r="K65" s="35"/>
       <c r="M65" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="M65:AB79" si="13">IF($K65=M$5,3,IF(OR(AND($H65&lt;=M$5,M$5&lt;=$I65),$H65=M$5),2,IF(AND($F65&lt;=M$5,M$5&lt;=$G65),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N65" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O65" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P65" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q65" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R65" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S65" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T65" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U65" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V65" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W65" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X65" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y65" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z65" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA65" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB65" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC65" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="AC65:AQ78" si="14">IF($K65=AC$5,3,IF(OR(AND($H65&lt;=AC$5,AC$5&lt;=$I65),$H65=AC$5),2,IF(AND($F65&lt;=AC$5,AC$5&lt;=$G65),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AD65" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AE65" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF65" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AG65" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AH65" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AI65" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AJ65" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK65" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="AL65" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="AM65" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN65" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AO65" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AP65" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AQ65" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="107"/>
-      <c r="C66" s="97"/>
-      <c r="D66" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="E66" s="31"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="35"/>
+      <c r="B66" s="109"/>
+      <c r="C66" s="103"/>
+      <c r="D66" s="111" t="s">
+        <v>85</v>
+      </c>
+      <c r="E66" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="32">
+        <v>44676</v>
+      </c>
+      <c r="G66" s="35">
+        <v>44677</v>
+      </c>
+      <c r="H66" s="32">
+        <v>44669</v>
+      </c>
+      <c r="I66" s="35">
+        <v>44672</v>
+      </c>
+      <c r="J66" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="K66" s="35">
+        <v>44676</v>
+      </c>
       <c r="M66" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N66" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O66" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P66" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q66" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R66" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S66" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T66" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U66" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V66" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W66" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X66" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y66" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z66" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA66" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB66" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC66" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD66" s="40">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="AE66" s="40">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="AF66" s="40">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="AG66" s="40">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="AH66" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AI66" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AJ66" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK66" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>3</v>
       </c>
       <c r="AL66" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="AM66" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN66" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AO66" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AP66" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AQ66" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="107"/>
-      <c r="C67" s="97"/>
-      <c r="D67" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E67" s="31"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="35"/>
+      <c r="B67" s="109"/>
+      <c r="C67" s="103"/>
+      <c r="D67" s="112" t="s">
+        <v>86</v>
+      </c>
+      <c r="E67" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="32">
+        <v>44676</v>
+      </c>
+      <c r="G67" s="35">
+        <v>44677</v>
+      </c>
+      <c r="H67" s="32">
+        <v>44669</v>
+      </c>
+      <c r="I67" s="35">
+        <v>44672</v>
+      </c>
+      <c r="J67" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="K67" s="35">
+        <v>44676</v>
+      </c>
       <c r="M67" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N67" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O67" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P67" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q67" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R67" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S67" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T67" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U67" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V67" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W67" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X67" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y67" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z67" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA67" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB67" s="40">
-        <f t="shared" ref="AB67:AQ82" si="13">IF($K67=AB$5,3,IF(OR(AND($H67&lt;=AB$5,AB$5&lt;=$I67),$H67=AB$5),2,IF(AND($F67&lt;=AB$5,AB$5&lt;=$G67),1,0)))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC67" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD67" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="AE67" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="AF67" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="AG67" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="AH67" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AI67" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AJ67" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK67" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>3</v>
       </c>
       <c r="AL67" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="AM67" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN67" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AO67" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AP67" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AQ67" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="107"/>
-      <c r="C68" s="97"/>
-      <c r="D68" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="E68" s="31"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="35"/>
+    <row r="68" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="109"/>
+      <c r="C68" s="103"/>
+      <c r="D68" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E68" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="32">
+        <v>44678</v>
+      </c>
+      <c r="G68" s="35">
+        <v>44680</v>
+      </c>
       <c r="H68" s="32"/>
       <c r="I68" s="35"/>
-      <c r="J68" s="34"/>
+      <c r="J68" s="34" t="s">
+        <v>14</v>
+      </c>
       <c r="K68" s="35"/>
       <c r="M68" s="39">
-        <f t="shared" ref="M68:AB83" si="14">IF($K68=M$5,3,IF(OR(AND($H68&lt;=M$5,M$5&lt;=$I68),$H68=M$5),2,IF(AND($F68&lt;=M$5,M$5&lt;=$G68),1,0)))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N68" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O68" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P68" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q68" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R68" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S68" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T68" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U68" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V68" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W68" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X68" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y68" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z68" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA68" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB68" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC68" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD68" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AE68" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF68" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AG68" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AH68" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AI68" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AJ68" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK68" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AL68" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AM68" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="AN68" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="AO68" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="AP68" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AQ68" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="107"/>
-      <c r="C69" s="97"/>
-      <c r="D69" s="43" t="s">
-        <v>89</v>
+    <row r="69" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="109"/>
+      <c r="C69" s="103"/>
+      <c r="D69" s="114" t="s">
+        <v>48</v>
       </c>
       <c r="E69" s="31"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="35"/>
+      <c r="F69" s="32">
+        <v>44683</v>
+      </c>
+      <c r="G69" s="35">
+        <v>44683</v>
+      </c>
       <c r="H69" s="32"/>
       <c r="I69" s="35"/>
-      <c r="J69" s="34"/>
+      <c r="J69" s="34" t="s">
+        <v>15</v>
+      </c>
       <c r="K69" s="35"/>
       <c r="M69" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N69" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O69" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P69" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q69" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R69" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S69" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T69" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U69" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V69" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W69" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X69" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y69" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z69" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA69" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB69" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC69" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD69" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AE69" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF69" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AG69" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AH69" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AI69" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AJ69" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK69" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AL69" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AM69" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN69" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AO69" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AP69" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AQ69" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="107"/>
-      <c r="C70" s="97"/>
-      <c r="D70" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E70" s="31"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="35"/>
+    <row r="70" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="109"/>
+      <c r="C70" s="103"/>
+      <c r="D70" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="32">
+        <v>44678</v>
+      </c>
+      <c r="G70" s="35">
+        <v>44680</v>
+      </c>
       <c r="H70" s="32"/>
       <c r="I70" s="35"/>
-      <c r="J70" s="34"/>
+      <c r="J70" s="34" t="s">
+        <v>15</v>
+      </c>
       <c r="K70" s="35"/>
       <c r="M70" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N70" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O70" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P70" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q70" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R70" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S70" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T70" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U70" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V70" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W70" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X70" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y70" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z70" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA70" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB70" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC70" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD70" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AE70" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF70" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AG70" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AH70" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AI70" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AJ70" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK70" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AL70" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AM70" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="AN70" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="AO70" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="AP70" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AQ70" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="107"/>
-      <c r="C71" s="97"/>
-      <c r="D71" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="E71" s="31"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="35"/>
+    <row r="71" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="109"/>
+      <c r="C71" s="103"/>
+      <c r="D71" s="116" t="s">
+        <v>79</v>
+      </c>
+      <c r="E71" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="43">
+        <v>44678</v>
+      </c>
+      <c r="G71" s="44">
+        <v>44684</v>
+      </c>
       <c r="H71" s="32"/>
       <c r="I71" s="35"/>
       <c r="J71" s="34"/>
       <c r="K71" s="35"/>
       <c r="M71" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N71" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O71" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P71" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q71" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R71" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S71" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T71" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U71" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V71" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W71" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X71" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y71" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z71" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA71" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB71" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC71" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD71" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AE71" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF71" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AG71" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AH71" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AI71" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AJ71" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK71" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AL71" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AM71" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="AN71" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="AO71" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="AP71" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="AQ71" s="41">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="107"/>
-      <c r="C72" s="97"/>
-      <c r="D72" s="44" t="s">
-        <v>57</v>
+      <c r="B72" s="109"/>
+      <c r="C72" s="103"/>
+      <c r="D72" s="116" t="s">
+        <v>79</v>
       </c>
       <c r="E72" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F72" s="32">
+      <c r="F72" s="43">
         <v>44678</v>
       </c>
-      <c r="G72" s="35">
-        <v>44680</v>
+      <c r="G72" s="44">
+        <v>44684</v>
       </c>
       <c r="H72" s="32"/>
       <c r="I72" s="35"/>
       <c r="J72" s="34"/>
       <c r="K72" s="35"/>
       <c r="M72" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N72" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O72" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P72" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q72" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R72" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S72" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T72" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U72" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V72" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W72" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X72" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y72" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z72" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA72" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB72" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC72" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD72" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AE72" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF72" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AG72" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AH72" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AI72" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AJ72" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK72" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AL72" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AM72" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AN72" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AO72" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AP72" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="AQ72" s="41">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="107"/>
-      <c r="C73" s="97"/>
-      <c r="D73" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="E73" s="31"/>
-      <c r="F73" s="32">
-        <v>44683</v>
-      </c>
-      <c r="G73" s="35">
-        <v>44683</v>
+      <c r="B73" s="117"/>
+      <c r="C73" s="118"/>
+      <c r="D73" s="119" t="s">
+        <v>79</v>
+      </c>
+      <c r="E73" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" s="43">
+        <v>44678</v>
+      </c>
+      <c r="G73" s="44">
+        <v>44684</v>
       </c>
       <c r="H73" s="32"/>
       <c r="I73" s="35"/>
       <c r="J73" s="34"/>
       <c r="K73" s="35"/>
       <c r="M73" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N73" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O73" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P73" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q73" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R73" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S73" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T73" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U73" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V73" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W73" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X73" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y73" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z73" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA73" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB73" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC73" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD73" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AE73" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF73" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AG73" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AH73" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AI73" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AJ73" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK73" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AL73" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AM73" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="AN73" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="AO73" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="AP73" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="AQ73" s="41">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="107"/>
-      <c r="C74" s="97"/>
-      <c r="D74" s="45" t="s">
-        <v>21</v>
+      <c r="B74" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" s="105" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" s="65" t="s">
+        <v>80</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" s="32"/>
-      <c r="G74" s="35"/>
+        <v>14</v>
+      </c>
+      <c r="F74" s="43"/>
+      <c r="G74" s="44"/>
       <c r="H74" s="32"/>
       <c r="I74" s="35"/>
       <c r="J74" s="34"/>
       <c r="K74" s="35"/>
       <c r="M74" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N74" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O74" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P74" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q74" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R74" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S74" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T74" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U74" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V74" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W74" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X74" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y74" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z74" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA74" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB74" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC74" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD74" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AE74" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF74" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AG74" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AH74" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AI74" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AJ74" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK74" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AL74" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AM74" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN74" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AO74" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AP74" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AQ74" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="107"/>
-      <c r="C75" s="97"/>
-      <c r="D75" s="77" t="s">
-        <v>92</v>
+      <c r="B75" s="73"/>
+      <c r="C75" s="75"/>
+      <c r="D75" s="65" t="s">
+        <v>80</v>
       </c>
       <c r="E75" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="32"/>
-      <c r="G75" s="35"/>
+        <v>13</v>
+      </c>
+      <c r="F75" s="43"/>
+      <c r="G75" s="44"/>
       <c r="H75" s="32"/>
       <c r="I75" s="35"/>
       <c r="J75" s="34"/>
       <c r="K75" s="35"/>
       <c r="M75" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N75" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O75" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P75" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q75" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R75" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S75" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T75" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U75" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V75" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W75" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X75" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y75" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z75" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA75" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB75" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC75" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD75" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AE75" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF75" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AG75" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AH75" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AI75" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AJ75" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK75" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AL75" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AM75" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN75" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AO75" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AP75" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AQ75" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="107"/>
-      <c r="C76" s="97"/>
-      <c r="D76" s="77" t="s">
-        <v>92</v>
+      <c r="B76" s="73"/>
+      <c r="C76" s="75"/>
+      <c r="D76" s="65" t="s">
+        <v>80</v>
       </c>
       <c r="E76" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="32"/>
-      <c r="G76" s="35"/>
+        <v>15</v>
+      </c>
+      <c r="F76" s="43"/>
+      <c r="G76" s="44"/>
       <c r="H76" s="32"/>
       <c r="I76" s="35"/>
       <c r="J76" s="34"/>
       <c r="K76" s="35"/>
       <c r="M76" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N76" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O76" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P76" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q76" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R76" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S76" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T76" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U76" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V76" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W76" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X76" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y76" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z76" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA76" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB76" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC76" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD76" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AE76" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF76" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AG76" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AH76" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AI76" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AJ76" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK76" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AL76" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AM76" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN76" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AO76" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AP76" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AQ76" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="107"/>
-      <c r="C77" s="97"/>
-      <c r="D77" s="76" t="s">
-        <v>92</v>
+      <c r="B77" s="73"/>
+      <c r="C77" s="75"/>
+      <c r="D77" s="65" t="s">
+        <v>68</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F77" s="46">
-        <v>44678</v>
-      </c>
-      <c r="G77" s="47">
-        <v>44684</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F77" s="43"/>
+      <c r="G77" s="44"/>
       <c r="H77" s="32"/>
       <c r="I77" s="35"/>
       <c r="J77" s="34"/>
       <c r="K77" s="35"/>
       <c r="M77" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N77" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O77" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P77" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q77" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R77" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S77" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T77" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U77" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V77" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W77" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X77" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y77" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z77" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA77" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB77" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC77" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD77" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AE77" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF77" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AG77" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AH77" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AI77" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AJ77" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK77" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AL77" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AM77" s="40">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="AN77" s="40">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="AO77" s="40">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="AP77" s="40">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="AQ77" s="41">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="C78" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="D78" s="48" t="s">
-        <v>93</v>
+      <c r="B78" s="73"/>
+      <c r="C78" s="75"/>
+      <c r="D78" s="65" t="s">
+        <v>68</v>
       </c>
       <c r="E78" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" s="46"/>
-      <c r="G78" s="47"/>
+        <v>13</v>
+      </c>
+      <c r="F78" s="43"/>
+      <c r="G78" s="44"/>
       <c r="H78" s="32"/>
       <c r="I78" s="35"/>
       <c r="J78" s="34"/>
       <c r="K78" s="35"/>
       <c r="M78" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N78" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O78" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P78" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q78" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R78" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S78" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T78" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U78" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V78" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W78" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X78" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y78" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z78" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA78" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB78" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC78" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD78" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AE78" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF78" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AG78" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AH78" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AI78" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AJ78" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AK78" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AL78" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AM78" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AN78" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AO78" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AP78" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AQ78" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="107"/>
-      <c r="C79" s="97"/>
-      <c r="D79" s="75" t="s">
-        <v>93</v>
+      <c r="B79" s="73"/>
+      <c r="C79" s="75"/>
+      <c r="D79" s="65" t="s">
+        <v>68</v>
       </c>
       <c r="E79" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="46"/>
-      <c r="G79" s="47"/>
+        <v>15</v>
+      </c>
+      <c r="F79" s="43"/>
+      <c r="G79" s="44"/>
       <c r="H79" s="32"/>
       <c r="I79" s="35"/>
       <c r="J79" s="34"/>
       <c r="K79" s="35"/>
       <c r="M79" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N79" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O79" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P79" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q79" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R79" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S79" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T79" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U79" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V79" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W79" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X79" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y79" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z79" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA79" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB79" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="AB79:AQ85" si="15">IF($K79=AB$5,3,IF(OR(AND($H79&lt;=AB$5,AB$5&lt;=$I79),$H79=AB$5),2,IF(AND($F79&lt;=AB$5,AB$5&lt;=$G79),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AC79" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AD79" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE79" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF79" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AG79" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AH79" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AI79" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AJ79" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AK79" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AL79" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AM79" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN79" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AO79" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP79" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AQ79" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="107"/>
-      <c r="C80" s="97"/>
-      <c r="D80" s="75" t="s">
-        <v>93</v>
+      <c r="B80" s="73"/>
+      <c r="C80" s="75"/>
+      <c r="D80" s="30" t="s">
+        <v>34</v>
       </c>
       <c r="E80" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F80" s="46"/>
-      <c r="G80" s="47"/>
+        <v>14</v>
+      </c>
+      <c r="F80" s="32"/>
+      <c r="G80" s="44"/>
       <c r="H80" s="32"/>
       <c r="I80" s="35"/>
       <c r="J80" s="34"/>
       <c r="K80" s="35"/>
       <c r="M80" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="M80:AB85" si="16">IF($K80=M$5,3,IF(OR(AND($H80&lt;=M$5,M$5&lt;=$I80),$H80=M$5),2,IF(AND($F80&lt;=M$5,M$5&lt;=$G80),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N80" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O80" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P80" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q80" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R80" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S80" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T80" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U80" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V80" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W80" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X80" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y80" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Z80" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AA80" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB80" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AC80" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AD80" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE80" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF80" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AG80" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AH80" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AI80" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AJ80" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AK80" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AL80" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AM80" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN80" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AO80" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP80" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AQ80" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="107"/>
-      <c r="C81" s="97"/>
-      <c r="D81" s="75" t="s">
-        <v>68</v>
+      <c r="B81" s="73"/>
+      <c r="C81" s="75"/>
+      <c r="D81" s="30" t="s">
+        <v>34</v>
       </c>
       <c r="E81" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="46"/>
-      <c r="G81" s="47"/>
+        <v>13</v>
+      </c>
+      <c r="F81" s="32"/>
+      <c r="G81" s="35"/>
       <c r="H81" s="32"/>
       <c r="I81" s="35"/>
       <c r="J81" s="34"/>
       <c r="K81" s="35"/>
       <c r="M81" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N81" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O81" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P81" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q81" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R81" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S81" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T81" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U81" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V81" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W81" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X81" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y81" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Z81" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AA81" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB81" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AC81" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AD81" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE81" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF81" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AG81" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AH81" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AI81" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AJ81" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AK81" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AL81" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AM81" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN81" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AO81" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP81" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AQ81" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="107"/>
-      <c r="C82" s="97"/>
-      <c r="D82" s="75" t="s">
-        <v>68</v>
+      <c r="B82" s="73"/>
+      <c r="C82" s="75"/>
+      <c r="D82" s="30" t="s">
+        <v>34</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" s="46"/>
-      <c r="G82" s="47"/>
+        <v>15</v>
+      </c>
+      <c r="F82" s="32"/>
+      <c r="G82" s="35"/>
       <c r="H82" s="32"/>
       <c r="I82" s="35"/>
       <c r="J82" s="34"/>
       <c r="K82" s="35"/>
       <c r="M82" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N82" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O82" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P82" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q82" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R82" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S82" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T82" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U82" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V82" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W82" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X82" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y82" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Z82" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AA82" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB82" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AC82" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AD82" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE82" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF82" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AG82" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AH82" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AI82" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AJ82" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AK82" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AL82" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AM82" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AN82" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AO82" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AP82" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AQ82" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="107"/>
-      <c r="C83" s="97"/>
-      <c r="D83" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="E83" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F83" s="46"/>
-      <c r="G83" s="47"/>
+      <c r="B83" s="73"/>
+      <c r="C83" s="75"/>
+      <c r="D83" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="E83" s="31"/>
+      <c r="F83" s="32">
+        <v>44685</v>
+      </c>
+      <c r="G83" s="35">
+        <v>44687</v>
+      </c>
       <c r="H83" s="32"/>
       <c r="I83" s="35"/>
       <c r="J83" s="34"/>
       <c r="K83" s="35"/>
       <c r="M83" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N83" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O83" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P83" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q83" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R83" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S83" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T83" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U83" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V83" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W83" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X83" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y83" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Z83" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AA83" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB83" s="40">
-        <f t="shared" ref="AB83:AQ89" si="15">IF($K83=AB$5,3,IF(OR(AND($H83&lt;=AB$5,AB$5&lt;=$I83),$H83=AB$5),2,IF(AND($F83&lt;=AB$5,AB$5&lt;=$G83),1,0)))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AC83" s="40">
@@ -13671,22 +13842,24 @@
       </c>
     </row>
     <row r="84" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="107"/>
-      <c r="C84" s="97"/>
+      <c r="B84" s="73"/>
+      <c r="C84" s="75"/>
       <c r="D84" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E84" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="32"/>
-      <c r="G84" s="47"/>
+        <v>48</v>
+      </c>
+      <c r="E84" s="31"/>
+      <c r="F84" s="66">
+        <v>44687</v>
+      </c>
+      <c r="G84" s="67">
+        <v>44687</v>
+      </c>
       <c r="H84" s="32"/>
       <c r="I84" s="35"/>
       <c r="J84" s="34"/>
       <c r="K84" s="35"/>
       <c r="M84" s="39">
-        <f t="shared" ref="M84:AB89" si="16">IF($K84=M$5,3,IF(OR(AND($H84&lt;=M$5,M$5&lt;=$I84),$H84=M$5),2,IF(AND($F84&lt;=M$5,M$5&lt;=$G84),1,0)))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N84" s="40">
@@ -13811,20 +13984,22 @@
       </c>
     </row>
     <row r="85" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="107"/>
-      <c r="C85" s="97"/>
-      <c r="D85" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E85" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="32"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="32"/>
-      <c r="I85" s="35"/>
-      <c r="J85" s="34"/>
-      <c r="K85" s="35"/>
+      <c r="B85" s="74"/>
+      <c r="C85" s="75"/>
+      <c r="D85" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E85" s="46"/>
+      <c r="F85" s="47">
+        <v>44685</v>
+      </c>
+      <c r="G85" s="48">
+        <v>44691</v>
+      </c>
+      <c r="H85" s="49"/>
+      <c r="I85" s="50"/>
+      <c r="J85" s="51"/>
+      <c r="K85" s="50"/>
       <c r="M85" s="39">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -13950,599 +14125,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="107"/>
-      <c r="C86" s="97"/>
-      <c r="D86" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E86" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F86" s="32"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="32"/>
-      <c r="I86" s="35"/>
-      <c r="J86" s="34"/>
-      <c r="K86" s="35"/>
-      <c r="M86" s="39">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N86" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="O86" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P86" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q86" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R86" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S86" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T86" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U86" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V86" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W86" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="X86" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Y86" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Z86" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA86" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AB86" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AC86" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AD86" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AE86" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AF86" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AG86" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AH86" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AI86" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AJ86" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AK86" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AL86" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AM86" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AN86" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AO86" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AP86" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ86" s="41">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="107"/>
-      <c r="C87" s="97"/>
-      <c r="D87" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="E87" s="31"/>
-      <c r="F87" s="32">
-        <v>44685</v>
-      </c>
-      <c r="G87" s="35">
-        <v>44687</v>
-      </c>
-      <c r="H87" s="32"/>
-      <c r="I87" s="35"/>
-      <c r="J87" s="34"/>
-      <c r="K87" s="35"/>
-      <c r="M87" s="39">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N87" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="O87" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P87" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q87" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R87" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S87" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T87" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U87" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V87" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W87" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="X87" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Y87" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Z87" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA87" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AB87" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AC87" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AD87" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AE87" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AF87" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AG87" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AH87" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AI87" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AJ87" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AK87" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AL87" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AM87" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AN87" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AO87" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AP87" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ87" s="41">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="107"/>
-      <c r="C88" s="97"/>
-      <c r="D88" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E88" s="31"/>
-      <c r="F88" s="78">
-        <v>44687</v>
-      </c>
-      <c r="G88" s="79">
-        <v>44687</v>
-      </c>
-      <c r="H88" s="32"/>
-      <c r="I88" s="35"/>
-      <c r="J88" s="34"/>
-      <c r="K88" s="35"/>
-      <c r="M88" s="39">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N88" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="O88" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P88" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q88" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R88" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S88" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T88" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U88" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V88" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W88" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="X88" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Y88" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Z88" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA88" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AB88" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AC88" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AD88" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AE88" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AF88" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AG88" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AH88" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AI88" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AJ88" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AK88" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AL88" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AM88" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AN88" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AO88" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AP88" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ88" s="41">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="108"/>
-      <c r="C89" s="97"/>
-      <c r="D89" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="E89" s="51"/>
-      <c r="F89" s="52">
-        <v>44685</v>
-      </c>
-      <c r="G89" s="53">
-        <v>44691</v>
-      </c>
-      <c r="H89" s="54"/>
-      <c r="I89" s="55"/>
-      <c r="J89" s="56"/>
-      <c r="K89" s="55"/>
-      <c r="M89" s="39">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N89" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="O89" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P89" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q89" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R89" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S89" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T89" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U89" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V89" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W89" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="X89" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Y89" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Z89" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA89" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AB89" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AC89" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AD89" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AE89" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AF89" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AG89" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AH89" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AI89" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AJ89" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AK89" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AL89" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AM89" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AN89" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AO89" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AP89" s="40">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ89" s="41">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="D5:E89" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}"/>
+  <autoFilter ref="D5:E85" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}"/>
   <mergeCells count="22">
-    <mergeCell ref="B78:B89"/>
-    <mergeCell ref="C78:C89"/>
-    <mergeCell ref="B39:B46"/>
-    <mergeCell ref="C39:C58"/>
-    <mergeCell ref="B47:B58"/>
-    <mergeCell ref="B59:B77"/>
-    <mergeCell ref="C59:C77"/>
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="S3:X3"/>
     <mergeCell ref="B9:B16"/>
     <mergeCell ref="C9:C38"/>
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="B17:B27"/>
     <mergeCell ref="B28:B38"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B74:B85"/>
+    <mergeCell ref="C74:C85"/>
+    <mergeCell ref="B39:B46"/>
+    <mergeCell ref="C39:C58"/>
+    <mergeCell ref="B47:B58"/>
+    <mergeCell ref="B59:B73"/>
+    <mergeCell ref="C59:C73"/>
   </mergeCells>
-  <conditionalFormatting sqref="M6:AQ89">
+  <conditionalFormatting sqref="M6:AQ85">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>3</formula>
     </cfRule>
@@ -14554,7 +14163,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E89 J6:J89" xr:uid="{7799F778-AC45-524F-B3DE-E4EA92284CF2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J85 E6:E85" xr:uid="{7799F778-AC45-524F-B3DE-E4EA92284CF2}">
       <formula1>$AS$5:$AS$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/CMSC495_ProjectPlan.xlsx
+++ b/CMSC495_ProjectPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Git/cmsc495_final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B8241F-A50B-5D46-81BC-18EEAB7063C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01F56D1-48ED-9943-AF3A-6DB58982A353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8200" yWindow="2320" windowWidth="28440" windowHeight="24060" xr2:uid="{A3040AE0-0367-2B43-ADDE-84CCD12855DC}"/>
   </bookViews>
@@ -1310,68 +1310,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1397,55 +1360,92 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1842,48 +1842,48 @@
       <c r="D3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="95" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="93" t="s">
+      <c r="M3" s="84" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="93"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="94" t="s">
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="99"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="83"/>
     </row>
     <row r="4" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="86"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="96" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="97"/>
-      <c r="H4" s="98" t="s">
+      <c r="B4" s="91"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="86"/>
+      <c r="H4" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="99"/>
-      <c r="J4" s="100" t="s">
+      <c r="I4" s="88"/>
+      <c r="J4" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="101"/>
+      <c r="K4" s="90"/>
       <c r="M4" s="12" t="str">
         <f>TEXT(M5,"aaa")</f>
         <v>Fri</v>
@@ -2178,13 +2178,13 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="91" t="s">
+      <c r="D6" s="96" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="31" t="s">
@@ -2335,9 +2335,9 @@
       </c>
     </row>
     <row r="7" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="90"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="92"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="97"/>
       <c r="E7" s="31" t="s">
         <v>13</v>
       </c>
@@ -2486,9 +2486,9 @@
       </c>
     </row>
     <row r="8" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="90"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="92"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="97"/>
       <c r="E8" s="31" t="s">
         <v>15</v>
       </c>
@@ -2634,10 +2634,10 @@
       </c>
     </row>
     <row r="9" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="102" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="56" t="s">
@@ -2790,8 +2790,8 @@
       </c>
     </row>
     <row r="10" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="80"/>
-      <c r="C10" s="82"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="103"/>
       <c r="D10" s="57" t="s">
         <v>49</v>
       </c>
@@ -2942,8 +2942,8 @@
       </c>
     </row>
     <row r="11" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="80"/>
-      <c r="C11" s="82"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="103"/>
       <c r="D11" s="57" t="s">
         <v>49</v>
       </c>
@@ -3094,8 +3094,8 @@
       </c>
     </row>
     <row r="12" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="80"/>
-      <c r="C12" s="82"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="58" t="s">
         <v>52</v>
       </c>
@@ -3246,8 +3246,8 @@
       </c>
     </row>
     <row r="13" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="80"/>
-      <c r="C13" s="82"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="59" t="s">
         <v>48</v>
       </c>
@@ -3396,9 +3396,9 @@
       </c>
     </row>
     <row r="14" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="80"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="84" t="s">
+      <c r="B14" s="101"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="105" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="31" t="s">
@@ -3544,9 +3544,9 @@
       </c>
     </row>
     <row r="15" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="80"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="85"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="106"/>
       <c r="E15" s="31" t="s">
         <v>13</v>
       </c>
@@ -3694,9 +3694,9 @@
       </c>
     </row>
     <row r="16" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="80"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="85"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="106"/>
       <c r="E16" s="31" t="s">
         <v>15</v>
       </c>
@@ -3844,10 +3844,10 @@
       </c>
     </row>
     <row r="17" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="82"/>
+      <c r="C17" s="103"/>
       <c r="D17" s="60" t="s">
         <v>61</v>
       </c>
@@ -3998,8 +3998,8 @@
       </c>
     </row>
     <row r="18" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="80"/>
-      <c r="C18" s="82"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="61" t="s">
         <v>63</v>
       </c>
@@ -4150,8 +4150,8 @@
       </c>
     </row>
     <row r="19" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="80"/>
-      <c r="C19" s="82"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="103"/>
       <c r="D19" s="62" t="s">
         <v>44</v>
       </c>
@@ -4302,8 +4302,8 @@
       </c>
     </row>
     <row r="20" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="80"/>
-      <c r="C20" s="82"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="103"/>
       <c r="D20" s="62" t="s">
         <v>45</v>
       </c>
@@ -4454,8 +4454,8 @@
       </c>
     </row>
     <row r="21" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="80"/>
-      <c r="C21" s="82"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="103"/>
       <c r="D21" s="62" t="s">
         <v>62</v>
       </c>
@@ -4606,8 +4606,8 @@
       </c>
     </row>
     <row r="22" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="80"/>
-      <c r="C22" s="82"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="103"/>
       <c r="D22" s="63" t="s">
         <v>64</v>
       </c>
@@ -4758,8 +4758,8 @@
       </c>
     </row>
     <row r="23" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="80"/>
-      <c r="C23" s="82"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="103"/>
       <c r="D23" s="63" t="s">
         <v>50</v>
       </c>
@@ -4910,8 +4910,8 @@
       </c>
     </row>
     <row r="24" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="80"/>
-      <c r="C24" s="82"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="103"/>
       <c r="D24" s="64" t="s">
         <v>53</v>
       </c>
@@ -5062,8 +5062,8 @@
       </c>
     </row>
     <row r="25" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="80"/>
-      <c r="C25" s="82"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="103"/>
       <c r="D25" s="63" t="s">
         <v>48</v>
       </c>
@@ -5212,8 +5212,8 @@
       </c>
     </row>
     <row r="26" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="80"/>
-      <c r="C26" s="82"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="103"/>
       <c r="D26" s="63" t="s">
         <v>59</v>
       </c>
@@ -5364,8 +5364,8 @@
       </c>
     </row>
     <row r="27" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="80"/>
-      <c r="C27" s="82"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="103"/>
       <c r="D27" s="64" t="s">
         <v>17</v>
       </c>
@@ -5516,10 +5516,10 @@
       </c>
     </row>
     <row r="28" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="79" t="s">
+      <c r="B28" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="82"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="60" t="s">
         <v>51</v>
       </c>
@@ -5670,8 +5670,8 @@
       </c>
     </row>
     <row r="29" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="80"/>
-      <c r="C29" s="82"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="103"/>
       <c r="D29" s="62" t="s">
         <v>38</v>
       </c>
@@ -5822,8 +5822,8 @@
       </c>
     </row>
     <row r="30" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="80"/>
-      <c r="C30" s="82"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="103"/>
       <c r="D30" s="62" t="s">
         <v>65</v>
       </c>
@@ -5974,8 +5974,8 @@
       </c>
     </row>
     <row r="31" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="80"/>
-      <c r="C31" s="82"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="103"/>
       <c r="D31" s="62" t="s">
         <v>39</v>
       </c>
@@ -6126,8 +6126,8 @@
       </c>
     </row>
     <row r="32" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="80"/>
-      <c r="C32" s="82"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="103"/>
       <c r="D32" s="62" t="s">
         <v>40</v>
       </c>
@@ -6278,8 +6278,8 @@
       </c>
     </row>
     <row r="33" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="80"/>
-      <c r="C33" s="82"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="103"/>
       <c r="D33" s="62" t="s">
         <v>66</v>
       </c>
@@ -6430,8 +6430,8 @@
       </c>
     </row>
     <row r="34" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="80"/>
-      <c r="C34" s="82"/>
+      <c r="B34" s="101"/>
+      <c r="C34" s="103"/>
       <c r="D34" s="62" t="s">
         <v>67</v>
       </c>
@@ -6582,8 +6582,8 @@
       </c>
     </row>
     <row r="35" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="80"/>
-      <c r="C35" s="82"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="103"/>
       <c r="D35" s="64" t="s">
         <v>54</v>
       </c>
@@ -6734,8 +6734,8 @@
       </c>
     </row>
     <row r="36" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="80"/>
-      <c r="C36" s="82"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="103"/>
       <c r="D36" s="63" t="s">
         <v>48</v>
       </c>
@@ -6884,8 +6884,8 @@
       </c>
     </row>
     <row r="37" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="80"/>
-      <c r="C37" s="82"/>
+      <c r="B37" s="101"/>
+      <c r="C37" s="103"/>
       <c r="D37" s="62" t="s">
         <v>41</v>
       </c>
@@ -7036,8 +7036,8 @@
       </c>
     </row>
     <row r="38" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="80"/>
-      <c r="C38" s="83"/>
+      <c r="B38" s="101"/>
+      <c r="C38" s="104"/>
       <c r="D38" s="64" t="s">
         <v>18</v>
       </c>
@@ -7188,10 +7188,10 @@
       </c>
     </row>
     <row r="39" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="78" t="s">
+      <c r="C39" s="112" t="s">
         <v>32</v>
       </c>
       <c r="D39" s="60" t="s">
@@ -7344,8 +7344,8 @@
       </c>
     </row>
     <row r="40" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="77"/>
-      <c r="C40" s="78"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="112"/>
       <c r="D40" s="61" t="s">
         <v>70</v>
       </c>
@@ -7496,8 +7496,8 @@
       </c>
     </row>
     <row r="41" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="77"/>
-      <c r="C41" s="78"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="112"/>
       <c r="D41" s="61" t="s">
         <v>82</v>
       </c>
@@ -7648,8 +7648,8 @@
       </c>
     </row>
     <row r="42" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="77"/>
-      <c r="C42" s="78"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="112"/>
       <c r="D42" s="61" t="s">
         <v>83</v>
       </c>
@@ -7800,8 +7800,8 @@
       </c>
     </row>
     <row r="43" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="77"/>
-      <c r="C43" s="78"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="112"/>
       <c r="D43" s="62" t="s">
         <v>84</v>
       </c>
@@ -7952,8 +7952,8 @@
       </c>
     </row>
     <row r="44" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="77"/>
-      <c r="C44" s="78"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="112"/>
       <c r="D44" s="64" t="s">
         <v>55</v>
       </c>
@@ -8104,8 +8104,8 @@
       </c>
     </row>
     <row r="45" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="77"/>
-      <c r="C45" s="78"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="112"/>
       <c r="D45" s="72" t="s">
         <v>48</v>
       </c>
@@ -8119,7 +8119,7 @@
       <c r="H45" s="69">
         <v>44669</v>
       </c>
-      <c r="I45" s="102">
+      <c r="I45" s="73">
         <v>44669</v>
       </c>
       <c r="J45" s="71" t="s">
@@ -8254,8 +8254,8 @@
       </c>
     </row>
     <row r="46" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="77"/>
-      <c r="C46" s="78"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="112"/>
       <c r="D46" s="64" t="s">
         <v>19</v>
       </c>
@@ -8406,10 +8406,10 @@
       </c>
     </row>
     <row r="47" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="76" t="s">
+      <c r="B47" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="78"/>
+      <c r="C47" s="112"/>
       <c r="D47" s="60" t="s">
         <v>81</v>
       </c>
@@ -8560,8 +8560,8 @@
       </c>
     </row>
     <row r="48" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="77"/>
-      <c r="C48" s="78"/>
+      <c r="B48" s="111"/>
+      <c r="C48" s="112"/>
       <c r="D48" s="62" t="s">
         <v>71</v>
       </c>
@@ -8712,8 +8712,8 @@
       </c>
     </row>
     <row r="49" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="77"/>
-      <c r="C49" s="78"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="112"/>
       <c r="D49" s="62" t="s">
         <v>72</v>
       </c>
@@ -8864,8 +8864,8 @@
       </c>
     </row>
     <row r="50" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="77"/>
-      <c r="C50" s="78"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="112"/>
       <c r="D50" s="62" t="s">
         <v>74</v>
       </c>
@@ -9016,8 +9016,8 @@
       </c>
     </row>
     <row r="51" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="77"/>
-      <c r="C51" s="78"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="112"/>
       <c r="D51" s="62" t="s">
         <v>75</v>
       </c>
@@ -9168,8 +9168,8 @@
       </c>
     </row>
     <row r="52" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="77"/>
-      <c r="C52" s="78"/>
+      <c r="B52" s="111"/>
+      <c r="C52" s="112"/>
       <c r="D52" s="62" t="s">
         <v>76</v>
       </c>
@@ -9320,8 +9320,8 @@
       </c>
     </row>
     <row r="53" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="77"/>
-      <c r="C53" s="78"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="112"/>
       <c r="D53" s="62" t="s">
         <v>73</v>
       </c>
@@ -9472,8 +9472,8 @@
       </c>
     </row>
     <row r="54" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="77"/>
-      <c r="C54" s="78"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="112"/>
       <c r="D54" s="62" t="s">
         <v>77</v>
       </c>
@@ -9624,8 +9624,8 @@
       </c>
     </row>
     <row r="55" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="77"/>
-      <c r="C55" s="78"/>
+      <c r="B55" s="111"/>
+      <c r="C55" s="112"/>
       <c r="D55" s="63" t="s">
         <v>78</v>
       </c>
@@ -9776,8 +9776,8 @@
       </c>
     </row>
     <row r="56" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="77"/>
-      <c r="C56" s="78"/>
+      <c r="B56" s="111"/>
+      <c r="C56" s="112"/>
       <c r="D56" s="64" t="s">
         <v>56</v>
       </c>
@@ -9928,8 +9928,8 @@
       </c>
     </row>
     <row r="57" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="77"/>
-      <c r="C57" s="78"/>
+      <c r="B57" s="111"/>
+      <c r="C57" s="112"/>
       <c r="D57" s="63" t="s">
         <v>48</v>
       </c>
@@ -10078,8 +10078,8 @@
       </c>
     </row>
     <row r="58" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="77"/>
-      <c r="C58" s="104"/>
+      <c r="B58" s="111"/>
+      <c r="C58" s="113"/>
       <c r="D58" s="64" t="s">
         <v>20</v>
       </c>
@@ -10230,13 +10230,13 @@
       </c>
     </row>
     <row r="59" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="106" t="s">
+      <c r="B59" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="107" t="s">
+      <c r="C59" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="108" t="s">
+      <c r="D59" s="74" t="s">
         <v>88</v>
       </c>
       <c r="E59" s="31" t="s">
@@ -10248,7 +10248,9 @@
       <c r="G59" s="35">
         <v>44680</v>
       </c>
-      <c r="H59" s="32"/>
+      <c r="H59" s="32">
+        <v>44676</v>
+      </c>
       <c r="I59" s="35"/>
       <c r="J59" s="34" t="s">
         <v>13</v>
@@ -10352,7 +10354,7 @@
       </c>
       <c r="AK59" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL59" s="40">
         <f t="shared" si="12"/>
@@ -10380,9 +10382,9 @@
       </c>
     </row>
     <row r="60" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="109"/>
-      <c r="C60" s="103"/>
-      <c r="D60" s="110" t="s">
+      <c r="B60" s="115"/>
+      <c r="C60" s="118"/>
+      <c r="D60" s="75" t="s">
         <v>88</v>
       </c>
       <c r="E60" s="31" t="s">
@@ -10401,7 +10403,9 @@
       <c r="J60" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="K60" s="35"/>
+      <c r="K60" s="35">
+        <v>44677</v>
+      </c>
       <c r="M60" s="39">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -10504,7 +10508,7 @@
       </c>
       <c r="AL60" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM60" s="40">
         <f t="shared" si="12"/>
@@ -10528,9 +10532,9 @@
       </c>
     </row>
     <row r="61" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="109"/>
-      <c r="C61" s="103"/>
-      <c r="D61" s="110" t="s">
+      <c r="B61" s="115"/>
+      <c r="C61" s="118"/>
+      <c r="D61" s="75" t="s">
         <v>89</v>
       </c>
       <c r="E61" s="31" t="s">
@@ -10676,9 +10680,9 @@
       </c>
     </row>
     <row r="62" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="109"/>
-      <c r="C62" s="103"/>
-      <c r="D62" s="110" t="s">
+      <c r="B62" s="115"/>
+      <c r="C62" s="118"/>
+      <c r="D62" s="75" t="s">
         <v>89</v>
       </c>
       <c r="E62" s="31" t="s">
@@ -10824,9 +10828,9 @@
       </c>
     </row>
     <row r="63" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="109"/>
-      <c r="C63" s="103"/>
-      <c r="D63" s="110" t="s">
+      <c r="B63" s="115"/>
+      <c r="C63" s="118"/>
+      <c r="D63" s="75" t="s">
         <v>90</v>
       </c>
       <c r="E63" s="31" t="s">
@@ -10970,9 +10974,9 @@
       </c>
     </row>
     <row r="64" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="109"/>
-      <c r="C64" s="103"/>
-      <c r="D64" s="110" t="s">
+      <c r="B64" s="115"/>
+      <c r="C64" s="118"/>
+      <c r="D64" s="75" t="s">
         <v>90</v>
       </c>
       <c r="E64" s="31" t="s">
@@ -11116,9 +11120,9 @@
       </c>
     </row>
     <row r="65" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="109"/>
-      <c r="C65" s="103"/>
-      <c r="D65" s="110" t="s">
+      <c r="B65" s="115"/>
+      <c r="C65" s="118"/>
+      <c r="D65" s="75" t="s">
         <v>87</v>
       </c>
       <c r="E65" s="31" t="s">
@@ -11133,7 +11137,9 @@
       <c r="H65" s="32">
         <v>44676</v>
       </c>
-      <c r="I65" s="35"/>
+      <c r="I65" s="35">
+        <v>44678</v>
+      </c>
       <c r="J65" s="34" t="s">
         <v>13</v>
       </c>
@@ -11240,11 +11246,11 @@
       </c>
       <c r="AL65" s="40">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM65" s="40">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN65" s="40">
         <f t="shared" si="14"/>
@@ -11264,9 +11270,9 @@
       </c>
     </row>
     <row r="66" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="109"/>
-      <c r="C66" s="103"/>
-      <c r="D66" s="111" t="s">
+      <c r="B66" s="115"/>
+      <c r="C66" s="118"/>
+      <c r="D66" s="76" t="s">
         <v>85</v>
       </c>
       <c r="E66" s="31" t="s">
@@ -11416,9 +11422,9 @@
       </c>
     </row>
     <row r="67" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="109"/>
-      <c r="C67" s="103"/>
-      <c r="D67" s="112" t="s">
+      <c r="B67" s="115"/>
+      <c r="C67" s="118"/>
+      <c r="D67" s="77" t="s">
         <v>86</v>
       </c>
       <c r="E67" s="31" t="s">
@@ -11568,9 +11574,9 @@
       </c>
     </row>
     <row r="68" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="109"/>
-      <c r="C68" s="103"/>
-      <c r="D68" s="113" t="s">
+      <c r="B68" s="115"/>
+      <c r="C68" s="118"/>
+      <c r="D68" s="78" t="s">
         <v>57</v>
       </c>
       <c r="E68" s="31" t="s">
@@ -11714,9 +11720,9 @@
       </c>
     </row>
     <row r="69" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="109"/>
-      <c r="C69" s="103"/>
-      <c r="D69" s="114" t="s">
+      <c r="B69" s="115"/>
+      <c r="C69" s="118"/>
+      <c r="D69" s="79" t="s">
         <v>48</v>
       </c>
       <c r="E69" s="31"/>
@@ -11858,9 +11864,9 @@
       </c>
     </row>
     <row r="70" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="109"/>
-      <c r="C70" s="103"/>
-      <c r="D70" s="115" t="s">
+      <c r="B70" s="115"/>
+      <c r="C70" s="118"/>
+      <c r="D70" s="80" t="s">
         <v>21</v>
       </c>
       <c r="E70" s="31" t="s">
@@ -12004,9 +12010,9 @@
       </c>
     </row>
     <row r="71" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="109"/>
-      <c r="C71" s="103"/>
-      <c r="D71" s="116" t="s">
+      <c r="B71" s="115"/>
+      <c r="C71" s="118"/>
+      <c r="D71" s="81" t="s">
         <v>79</v>
       </c>
       <c r="E71" s="31" t="s">
@@ -12148,9 +12154,9 @@
       </c>
     </row>
     <row r="72" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="109"/>
-      <c r="C72" s="103"/>
-      <c r="D72" s="116" t="s">
+      <c r="B72" s="115"/>
+      <c r="C72" s="118"/>
+      <c r="D72" s="81" t="s">
         <v>79</v>
       </c>
       <c r="E72" s="31" t="s">
@@ -12292,9 +12298,9 @@
       </c>
     </row>
     <row r="73" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="117"/>
-      <c r="C73" s="118"/>
-      <c r="D73" s="119" t="s">
+      <c r="B73" s="116"/>
+      <c r="C73" s="119"/>
+      <c r="D73" s="82" t="s">
         <v>79</v>
       </c>
       <c r="E73" s="31" t="s">
@@ -12436,10 +12442,10 @@
       </c>
     </row>
     <row r="74" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="73" t="s">
+      <c r="B74" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="105" t="s">
+      <c r="C74" s="109" t="s">
         <v>34</v>
       </c>
       <c r="D74" s="65" t="s">
@@ -12580,8 +12586,8 @@
       </c>
     </row>
     <row r="75" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="73"/>
-      <c r="C75" s="75"/>
+      <c r="B75" s="107"/>
+      <c r="C75" s="98"/>
       <c r="D75" s="65" t="s">
         <v>80</v>
       </c>
@@ -12720,8 +12726,8 @@
       </c>
     </row>
     <row r="76" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="73"/>
-      <c r="C76" s="75"/>
+      <c r="B76" s="107"/>
+      <c r="C76" s="98"/>
       <c r="D76" s="65" t="s">
         <v>80</v>
       </c>
@@ -12860,8 +12866,8 @@
       </c>
     </row>
     <row r="77" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="73"/>
-      <c r="C77" s="75"/>
+      <c r="B77" s="107"/>
+      <c r="C77" s="98"/>
       <c r="D77" s="65" t="s">
         <v>68</v>
       </c>
@@ -13000,8 +13006,8 @@
       </c>
     </row>
     <row r="78" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="73"/>
-      <c r="C78" s="75"/>
+      <c r="B78" s="107"/>
+      <c r="C78" s="98"/>
       <c r="D78" s="65" t="s">
         <v>68</v>
       </c>
@@ -13140,8 +13146,8 @@
       </c>
     </row>
     <row r="79" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="73"/>
-      <c r="C79" s="75"/>
+      <c r="B79" s="107"/>
+      <c r="C79" s="98"/>
       <c r="D79" s="65" t="s">
         <v>68</v>
       </c>
@@ -13280,8 +13286,8 @@
       </c>
     </row>
     <row r="80" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="73"/>
-      <c r="C80" s="75"/>
+      <c r="B80" s="107"/>
+      <c r="C80" s="98"/>
       <c r="D80" s="30" t="s">
         <v>34</v>
       </c>
@@ -13420,8 +13426,8 @@
       </c>
     </row>
     <row r="81" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="73"/>
-      <c r="C81" s="75"/>
+      <c r="B81" s="107"/>
+      <c r="C81" s="98"/>
       <c r="D81" s="30" t="s">
         <v>34</v>
       </c>
@@ -13560,8 +13566,8 @@
       </c>
     </row>
     <row r="82" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="73"/>
-      <c r="C82" s="75"/>
+      <c r="B82" s="107"/>
+      <c r="C82" s="98"/>
       <c r="D82" s="30" t="s">
         <v>34</v>
       </c>
@@ -13700,8 +13706,8 @@
       </c>
     </row>
     <row r="83" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="73"/>
-      <c r="C83" s="75"/>
+      <c r="B83" s="107"/>
+      <c r="C83" s="98"/>
       <c r="D83" s="54" t="s">
         <v>58</v>
       </c>
@@ -13842,8 +13848,8 @@
       </c>
     </row>
     <row r="84" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="73"/>
-      <c r="C84" s="75"/>
+      <c r="B84" s="107"/>
+      <c r="C84" s="98"/>
       <c r="D84" s="30" t="s">
         <v>48</v>
       </c>
@@ -13984,8 +13990,8 @@
       </c>
     </row>
     <row r="85" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="74"/>
-      <c r="C85" s="75"/>
+      <c r="B85" s="108"/>
+      <c r="C85" s="98"/>
       <c r="D85" s="45" t="s">
         <v>47</v>
       </c>
@@ -14128,21 +14134,6 @@
   </sheetData>
   <autoFilter ref="D5:E85" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}"/>
   <mergeCells count="22">
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="C9:C38"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="B17:B27"/>
-    <mergeCell ref="B28:B38"/>
     <mergeCell ref="B74:B85"/>
     <mergeCell ref="C74:C85"/>
     <mergeCell ref="B39:B46"/>
@@ -14150,6 +14141,21 @@
     <mergeCell ref="B47:B58"/>
     <mergeCell ref="B59:B73"/>
     <mergeCell ref="C59:C73"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="C9:C38"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="B17:B27"/>
+    <mergeCell ref="B28:B38"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="M6:AQ85">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">

--- a/CMSC495_ProjectPlan.xlsx
+++ b/CMSC495_ProjectPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Git/cmsc495_final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAA1928-BB37-D749-A663-9BD8869F428A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194349A8-4D7D-B941-9F56-25A1631D3693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22280" yWindow="500" windowWidth="28440" windowHeight="24060" xr2:uid="{A3040AE0-0367-2B43-ADDE-84CCD12855DC}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
   <si>
     <t>Year</t>
   </si>
@@ -1348,68 +1348,34 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1435,55 +1401,89 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1880,48 +1880,48 @@
       <c r="D3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="92" t="s">
+      <c r="M3" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="90" t="s">
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="91" t="s">
+      <c r="T3" s="103"/>
+      <c r="U3" s="103"/>
+      <c r="V3" s="103"/>
+      <c r="W3" s="103"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="91"/>
+      <c r="Z3" s="87"/>
+      <c r="AA3" s="87"/>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="87"/>
+      <c r="AD3" s="87"/>
     </row>
     <row r="4" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="83"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="93" t="s">
+      <c r="B4" s="95"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="94"/>
-      <c r="H4" s="95" t="s">
+      <c r="G4" s="90"/>
+      <c r="H4" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="96"/>
-      <c r="J4" s="97" t="s">
+      <c r="I4" s="92"/>
+      <c r="J4" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="98"/>
+      <c r="K4" s="94"/>
       <c r="M4" s="12" t="str">
         <f>TEXT(M5,"aaa")</f>
         <v>Sun</v>
@@ -2216,13 +2216,13 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="100" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="31" t="s">
@@ -2375,9 +2375,9 @@
       </c>
     </row>
     <row r="7" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="87"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="89"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="101"/>
       <c r="E7" s="31" t="s">
         <v>13</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>44636</v>
       </c>
       <c r="M7" s="39">
-        <f t="shared" ref="M7:AB38" si="3">IF($K7=M$5,3,IF(OR(AND($H7&lt;=M$5,M$5&lt;=$I7),$H7=M$5),2,IF(AND($F7&lt;=M$5,M$5&lt;=$G7),1,0)))</f>
+        <f t="shared" ref="M7:AB22" si="3">IF($K7=M$5,3,IF(OR(AND($H7&lt;=M$5,M$5&lt;=$I7),$H7=M$5),2,IF(AND($F7&lt;=M$5,M$5&lt;=$G7),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N7" s="40">
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="40">
-        <f t="shared" ref="AC7:AQ70" si="4">IF($K7=AC$5,3,IF(OR(AND($H7&lt;=AC$5,AC$5&lt;=$I7),$H7=AC$5),2,IF(AND($F7&lt;=AC$5,AC$5&lt;=$G7),1,0)))</f>
+        <f t="shared" ref="AC7:AQ21" si="4">IF($K7=AC$5,3,IF(OR(AND($H7&lt;=AC$5,AC$5&lt;=$I7),$H7=AC$5),2,IF(AND($F7&lt;=AC$5,AC$5&lt;=$G7),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AD7" s="40">
@@ -2528,9 +2528,9 @@
       </c>
     </row>
     <row r="8" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="87"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="89"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="101"/>
       <c r="E8" s="31" t="s">
         <v>15</v>
       </c>
@@ -2678,10 +2678,10 @@
       </c>
     </row>
     <row r="9" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="106" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="54" t="s">
@@ -2834,8 +2834,8 @@
       </c>
     </row>
     <row r="10" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="77"/>
-      <c r="C10" s="79"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="55" t="s">
         <v>48</v>
       </c>
@@ -2986,8 +2986,8 @@
       </c>
     </row>
     <row r="11" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="77"/>
-      <c r="C11" s="79"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="107"/>
       <c r="D11" s="55" t="s">
         <v>48</v>
       </c>
@@ -3138,8 +3138,8 @@
       </c>
     </row>
     <row r="12" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="77"/>
-      <c r="C12" s="79"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="107"/>
       <c r="D12" s="56" t="s">
         <v>51</v>
       </c>
@@ -3290,8 +3290,8 @@
       </c>
     </row>
     <row r="13" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="77"/>
-      <c r="C13" s="79"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="107"/>
       <c r="D13" s="57" t="s">
         <v>47</v>
       </c>
@@ -3440,9 +3440,9 @@
       </c>
     </row>
     <row r="14" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="77"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="81" t="s">
+      <c r="B14" s="105"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="109" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="31" t="s">
@@ -3588,9 +3588,9 @@
       </c>
     </row>
     <row r="15" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="77"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="82"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="110"/>
       <c r="E15" s="31" t="s">
         <v>13</v>
       </c>
@@ -3738,9 +3738,9 @@
       </c>
     </row>
     <row r="16" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="77"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="82"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="110"/>
       <c r="E16" s="31" t="s">
         <v>15</v>
       </c>
@@ -3888,10 +3888,10 @@
       </c>
     </row>
     <row r="17" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="79"/>
+      <c r="C17" s="107"/>
       <c r="D17" s="58" t="s">
         <v>60</v>
       </c>
@@ -4042,8 +4042,8 @@
       </c>
     </row>
     <row r="18" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="77"/>
-      <c r="C18" s="79"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="107"/>
       <c r="D18" s="59" t="s">
         <v>62</v>
       </c>
@@ -4194,8 +4194,8 @@
       </c>
     </row>
     <row r="19" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="77"/>
-      <c r="C19" s="79"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="107"/>
       <c r="D19" s="60" t="s">
         <v>44</v>
       </c>
@@ -4346,8 +4346,8 @@
       </c>
     </row>
     <row r="20" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="77"/>
-      <c r="C20" s="79"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="107"/>
       <c r="D20" s="60" t="s">
         <v>45</v>
       </c>
@@ -4498,8 +4498,8 @@
       </c>
     </row>
     <row r="21" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="77"/>
-      <c r="C21" s="79"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="107"/>
       <c r="D21" s="60" t="s">
         <v>61</v>
       </c>
@@ -4650,8 +4650,8 @@
       </c>
     </row>
     <row r="22" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="77"/>
-      <c r="C22" s="79"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="107"/>
       <c r="D22" s="61" t="s">
         <v>63</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>0</v>
       </c>
       <c r="AB22" s="40">
-        <f t="shared" ref="AB22:AQ84" si="5">IF($K22=AB$5,3,IF(OR(AND($H22&lt;=AB$5,AB$5&lt;=$I22),$H22=AB$5),2,IF(AND($F22&lt;=AB$5,AB$5&lt;=$G22),1,0)))</f>
+        <f t="shared" ref="AB22:AQ37" si="5">IF($K22=AB$5,3,IF(OR(AND($H22&lt;=AB$5,AB$5&lt;=$I22),$H22=AB$5),2,IF(AND($F22&lt;=AB$5,AB$5&lt;=$G22),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AC22" s="40">
@@ -4802,8 +4802,8 @@
       </c>
     </row>
     <row r="23" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="77"/>
-      <c r="C23" s="79"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="107"/>
       <c r="D23" s="61" t="s">
         <v>49</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>44651</v>
       </c>
       <c r="M23" s="39">
-        <f t="shared" ref="M23:AB54" si="6">IF($K23=M$5,3,IF(OR(AND($H23&lt;=M$5,M$5&lt;=$I23),$H23=M$5),2,IF(AND($F23&lt;=M$5,M$5&lt;=$G23),1,0)))</f>
+        <f t="shared" ref="M23:AB38" si="6">IF($K23=M$5,3,IF(OR(AND($H23&lt;=M$5,M$5&lt;=$I23),$H23=M$5),2,IF(AND($F23&lt;=M$5,M$5&lt;=$G23),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N23" s="40">
@@ -4954,8 +4954,8 @@
       </c>
     </row>
     <row r="24" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="77"/>
-      <c r="C24" s="79"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="107"/>
       <c r="D24" s="62" t="s">
         <v>52</v>
       </c>
@@ -5106,8 +5106,8 @@
       </c>
     </row>
     <row r="25" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="77"/>
-      <c r="C25" s="79"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="107"/>
       <c r="D25" s="61" t="s">
         <v>47</v>
       </c>
@@ -5256,8 +5256,8 @@
       </c>
     </row>
     <row r="26" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="77"/>
-      <c r="C26" s="79"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="107"/>
       <c r="D26" s="61" t="s">
         <v>58</v>
       </c>
@@ -5408,8 +5408,8 @@
       </c>
     </row>
     <row r="27" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="77"/>
-      <c r="C27" s="79"/>
+      <c r="B27" s="105"/>
+      <c r="C27" s="107"/>
       <c r="D27" s="62" t="s">
         <v>17</v>
       </c>
@@ -5560,10 +5560,10 @@
       </c>
     </row>
     <row r="28" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="79"/>
+      <c r="C28" s="107"/>
       <c r="D28" s="58" t="s">
         <v>50</v>
       </c>
@@ -5714,8 +5714,8 @@
       </c>
     </row>
     <row r="29" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="77"/>
-      <c r="C29" s="79"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="60" t="s">
         <v>38</v>
       </c>
@@ -5866,8 +5866,8 @@
       </c>
     </row>
     <row r="30" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="77"/>
-      <c r="C30" s="79"/>
+      <c r="B30" s="105"/>
+      <c r="C30" s="107"/>
       <c r="D30" s="60" t="s">
         <v>64</v>
       </c>
@@ -6018,8 +6018,8 @@
       </c>
     </row>
     <row r="31" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="77"/>
-      <c r="C31" s="79"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="107"/>
       <c r="D31" s="60" t="s">
         <v>39</v>
       </c>
@@ -6170,8 +6170,8 @@
       </c>
     </row>
     <row r="32" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="77"/>
-      <c r="C32" s="79"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="107"/>
       <c r="D32" s="60" t="s">
         <v>40</v>
       </c>
@@ -6322,8 +6322,8 @@
       </c>
     </row>
     <row r="33" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="77"/>
-      <c r="C33" s="79"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="107"/>
       <c r="D33" s="60" t="s">
         <v>65</v>
       </c>
@@ -6474,8 +6474,8 @@
       </c>
     </row>
     <row r="34" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="77"/>
-      <c r="C34" s="79"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="107"/>
       <c r="D34" s="60" t="s">
         <v>66</v>
       </c>
@@ -6626,8 +6626,8 @@
       </c>
     </row>
     <row r="35" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="77"/>
-      <c r="C35" s="79"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="107"/>
       <c r="D35" s="62" t="s">
         <v>53</v>
       </c>
@@ -6778,8 +6778,8 @@
       </c>
     </row>
     <row r="36" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="77"/>
-      <c r="C36" s="79"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="107"/>
       <c r="D36" s="61" t="s">
         <v>47</v>
       </c>
@@ -6928,8 +6928,8 @@
       </c>
     </row>
     <row r="37" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="77"/>
-      <c r="C37" s="79"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="107"/>
       <c r="D37" s="60" t="s">
         <v>41</v>
       </c>
@@ -7080,8 +7080,8 @@
       </c>
     </row>
     <row r="38" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="77"/>
-      <c r="C38" s="80"/>
+      <c r="B38" s="105"/>
+      <c r="C38" s="108"/>
       <c r="D38" s="62" t="s">
         <v>18</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>0</v>
       </c>
       <c r="AB38" s="40">
-        <f t="shared" ref="AB38:AQ84" si="7">IF($K38=AB$5,3,IF(OR(AND($H38&lt;=AB$5,AB$5&lt;=$I38),$H38=AB$5),2,IF(AND($F38&lt;=AB$5,AB$5&lt;=$G38),1,0)))</f>
+        <f t="shared" ref="AB38:AQ53" si="7">IF($K38=AB$5,3,IF(OR(AND($H38&lt;=AB$5,AB$5&lt;=$I38),$H38=AB$5),2,IF(AND($F38&lt;=AB$5,AB$5&lt;=$G38),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AC38" s="40">
@@ -7232,10 +7232,10 @@
       </c>
     </row>
     <row r="39" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="71" t="s">
+      <c r="B39" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="73" t="s">
+      <c r="C39" s="118" t="s">
         <v>32</v>
       </c>
       <c r="D39" s="58" t="s">
@@ -7263,7 +7263,7 @@
         <v>44665</v>
       </c>
       <c r="M39" s="39">
-        <f t="shared" ref="M39:AB84" si="8">IF($K39=M$5,3,IF(OR(AND($H39&lt;=M$5,M$5&lt;=$I39),$H39=M$5),2,IF(AND($F39&lt;=M$5,M$5&lt;=$G39),1,0)))</f>
+        <f t="shared" ref="M39:AB54" si="8">IF($K39=M$5,3,IF(OR(AND($H39&lt;=M$5,M$5&lt;=$I39),$H39=M$5),2,IF(AND($F39&lt;=M$5,M$5&lt;=$G39),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N39" s="40">
@@ -7388,8 +7388,8 @@
       </c>
     </row>
     <row r="40" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="72"/>
-      <c r="C40" s="73"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="118"/>
       <c r="D40" s="59" t="s">
         <v>68</v>
       </c>
@@ -7540,8 +7540,8 @@
       </c>
     </row>
     <row r="41" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="72"/>
-      <c r="C41" s="73"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="118"/>
       <c r="D41" s="59" t="s">
         <v>78</v>
       </c>
@@ -7692,8 +7692,8 @@
       </c>
     </row>
     <row r="42" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="72"/>
-      <c r="C42" s="73"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="118"/>
       <c r="D42" s="59" t="s">
         <v>79</v>
       </c>
@@ -7844,8 +7844,8 @@
       </c>
     </row>
     <row r="43" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="72"/>
-      <c r="C43" s="73"/>
+      <c r="B43" s="117"/>
+      <c r="C43" s="118"/>
       <c r="D43" s="60" t="s">
         <v>80</v>
       </c>
@@ -7996,8 +7996,8 @@
       </c>
     </row>
     <row r="44" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="72"/>
-      <c r="C44" s="73"/>
+      <c r="B44" s="117"/>
+      <c r="C44" s="118"/>
       <c r="D44" s="62" t="s">
         <v>54</v>
       </c>
@@ -8148,8 +8148,8 @@
       </c>
     </row>
     <row r="45" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="72"/>
-      <c r="C45" s="73"/>
+      <c r="B45" s="117"/>
+      <c r="C45" s="118"/>
       <c r="D45" s="67" t="s">
         <v>47</v>
       </c>
@@ -8298,8 +8298,8 @@
       </c>
     </row>
     <row r="46" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="72"/>
-      <c r="C46" s="73"/>
+      <c r="B46" s="117"/>
+      <c r="C46" s="118"/>
       <c r="D46" s="62" t="s">
         <v>19</v>
       </c>
@@ -8450,10 +8450,10 @@
       </c>
     </row>
     <row r="47" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="71" t="s">
+      <c r="B47" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="73"/>
+      <c r="C47" s="118"/>
       <c r="D47" s="58" t="s">
         <v>77</v>
       </c>
@@ -8604,8 +8604,8 @@
       </c>
     </row>
     <row r="48" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="72"/>
-      <c r="C48" s="73"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="118"/>
       <c r="D48" s="60" t="s">
         <v>69</v>
       </c>
@@ -8756,8 +8756,8 @@
       </c>
     </row>
     <row r="49" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="72"/>
-      <c r="C49" s="73"/>
+      <c r="B49" s="117"/>
+      <c r="C49" s="118"/>
       <c r="D49" s="60" t="s">
         <v>70</v>
       </c>
@@ -8908,8 +8908,8 @@
       </c>
     </row>
     <row r="50" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="72"/>
-      <c r="C50" s="73"/>
+      <c r="B50" s="117"/>
+      <c r="C50" s="118"/>
       <c r="D50" s="60" t="s">
         <v>72</v>
       </c>
@@ -9060,8 +9060,8 @@
       </c>
     </row>
     <row r="51" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="72"/>
-      <c r="C51" s="73"/>
+      <c r="B51" s="117"/>
+      <c r="C51" s="118"/>
       <c r="D51" s="60" t="s">
         <v>73</v>
       </c>
@@ -9212,8 +9212,8 @@
       </c>
     </row>
     <row r="52" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="72"/>
-      <c r="C52" s="73"/>
+      <c r="B52" s="117"/>
+      <c r="C52" s="118"/>
       <c r="D52" s="60" t="s">
         <v>74</v>
       </c>
@@ -9364,8 +9364,8 @@
       </c>
     </row>
     <row r="53" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="72"/>
-      <c r="C53" s="73"/>
+      <c r="B53" s="117"/>
+      <c r="C53" s="118"/>
       <c r="D53" s="60" t="s">
         <v>71</v>
       </c>
@@ -9516,8 +9516,8 @@
       </c>
     </row>
     <row r="54" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="72"/>
-      <c r="C54" s="73"/>
+      <c r="B54" s="117"/>
+      <c r="C54" s="118"/>
       <c r="D54" s="60" t="s">
         <v>75</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>0</v>
       </c>
       <c r="AB54" s="40">
-        <f t="shared" ref="AB54:AQ84" si="9">IF($K54=AB$5,3,IF(OR(AND($H54&lt;=AB$5,AB$5&lt;=$I54),$H54=AB$5),2,IF(AND($F54&lt;=AB$5,AB$5&lt;=$G54),1,0)))</f>
+        <f t="shared" ref="AB54:AQ69" si="9">IF($K54=AB$5,3,IF(OR(AND($H54&lt;=AB$5,AB$5&lt;=$I54),$H54=AB$5),2,IF(AND($F54&lt;=AB$5,AB$5&lt;=$G54),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AC54" s="40">
@@ -9668,8 +9668,8 @@
       </c>
     </row>
     <row r="55" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="72"/>
-      <c r="C55" s="73"/>
+      <c r="B55" s="117"/>
+      <c r="C55" s="118"/>
       <c r="D55" s="61" t="s">
         <v>76</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>44672</v>
       </c>
       <c r="M55" s="39">
-        <f t="shared" ref="M55:AB84" si="10">IF($K55=M$5,3,IF(OR(AND($H55&lt;=M$5,M$5&lt;=$I55),$H55=M$5),2,IF(AND($F55&lt;=M$5,M$5&lt;=$G55),1,0)))</f>
+        <f t="shared" ref="M55:AB70" si="10">IF($K55=M$5,3,IF(OR(AND($H55&lt;=M$5,M$5&lt;=$I55),$H55=M$5),2,IF(AND($F55&lt;=M$5,M$5&lt;=$G55),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N55" s="40">
@@ -9820,8 +9820,8 @@
       </c>
     </row>
     <row r="56" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="72"/>
-      <c r="C56" s="73"/>
+      <c r="B56" s="117"/>
+      <c r="C56" s="118"/>
       <c r="D56" s="62" t="s">
         <v>55</v>
       </c>
@@ -9972,8 +9972,8 @@
       </c>
     </row>
     <row r="57" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="72"/>
-      <c r="C57" s="73"/>
+      <c r="B57" s="117"/>
+      <c r="C57" s="118"/>
       <c r="D57" s="61" t="s">
         <v>47</v>
       </c>
@@ -10122,8 +10122,8 @@
       </c>
     </row>
     <row r="58" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="72"/>
-      <c r="C58" s="74"/>
+      <c r="B58" s="117"/>
+      <c r="C58" s="119"/>
       <c r="D58" s="62" t="s">
         <v>20</v>
       </c>
@@ -10274,13 +10274,13 @@
       </c>
     </row>
     <row r="59" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="71" t="s">
+      <c r="B59" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="99" t="s">
+      <c r="C59" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="100" t="s">
+      <c r="D59" s="70" t="s">
         <v>84</v>
       </c>
       <c r="E59" s="31" t="s">
@@ -10430,9 +10430,9 @@
       </c>
     </row>
     <row r="60" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="72"/>
-      <c r="C60" s="75"/>
-      <c r="D60" s="101" t="s">
+      <c r="B60" s="117"/>
+      <c r="C60" s="121"/>
+      <c r="D60" s="71" t="s">
         <v>84</v>
       </c>
       <c r="E60" s="31" t="s">
@@ -10582,9 +10582,9 @@
       </c>
     </row>
     <row r="61" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="72"/>
-      <c r="C61" s="75"/>
-      <c r="D61" s="101" t="s">
+      <c r="B61" s="117"/>
+      <c r="C61" s="121"/>
+      <c r="D61" s="71" t="s">
         <v>85</v>
       </c>
       <c r="E61" s="31" t="s">
@@ -10734,9 +10734,9 @@
       </c>
     </row>
     <row r="62" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="72"/>
-      <c r="C62" s="75"/>
-      <c r="D62" s="101" t="s">
+      <c r="B62" s="117"/>
+      <c r="C62" s="121"/>
+      <c r="D62" s="71" t="s">
         <v>85</v>
       </c>
       <c r="E62" s="31" t="s">
@@ -10886,9 +10886,9 @@
       </c>
     </row>
     <row r="63" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="72"/>
-      <c r="C63" s="75"/>
-      <c r="D63" s="101" t="s">
+      <c r="B63" s="117"/>
+      <c r="C63" s="121"/>
+      <c r="D63" s="71" t="s">
         <v>86</v>
       </c>
       <c r="E63" s="31" t="s">
@@ -11038,9 +11038,9 @@
       </c>
     </row>
     <row r="64" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="72"/>
-      <c r="C64" s="75"/>
-      <c r="D64" s="101" t="s">
+      <c r="B64" s="117"/>
+      <c r="C64" s="121"/>
+      <c r="D64" s="71" t="s">
         <v>86</v>
       </c>
       <c r="E64" s="31" t="s">
@@ -11190,9 +11190,9 @@
       </c>
     </row>
     <row r="65" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="72"/>
-      <c r="C65" s="75"/>
-      <c r="D65" s="101" t="s">
+      <c r="B65" s="117"/>
+      <c r="C65" s="121"/>
+      <c r="D65" s="71" t="s">
         <v>86</v>
       </c>
       <c r="E65" s="31" t="s">
@@ -11342,9 +11342,9 @@
       </c>
     </row>
     <row r="66" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="72"/>
-      <c r="C66" s="75"/>
-      <c r="D66" s="101" t="s">
+      <c r="B66" s="117"/>
+      <c r="C66" s="121"/>
+      <c r="D66" s="71" t="s">
         <v>83</v>
       </c>
       <c r="E66" s="31" t="s">
@@ -11494,9 +11494,9 @@
       </c>
     </row>
     <row r="67" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="72"/>
-      <c r="C67" s="75"/>
-      <c r="D67" s="102" t="s">
+      <c r="B67" s="117"/>
+      <c r="C67" s="121"/>
+      <c r="D67" s="72" t="s">
         <v>81</v>
       </c>
       <c r="E67" s="31" t="s">
@@ -11646,9 +11646,9 @@
       </c>
     </row>
     <row r="68" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="72"/>
-      <c r="C68" s="75"/>
-      <c r="D68" s="103" t="s">
+      <c r="B68" s="117"/>
+      <c r="C68" s="121"/>
+      <c r="D68" s="73" t="s">
         <v>82</v>
       </c>
       <c r="E68" s="31" t="s">
@@ -11798,9 +11798,9 @@
       </c>
     </row>
     <row r="69" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="72"/>
-      <c r="C69" s="75"/>
-      <c r="D69" s="104" t="s">
+      <c r="B69" s="117"/>
+      <c r="C69" s="121"/>
+      <c r="D69" s="74" t="s">
         <v>56</v>
       </c>
       <c r="E69" s="31" t="s">
@@ -11950,9 +11950,9 @@
       </c>
     </row>
     <row r="70" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="72"/>
-      <c r="C70" s="75"/>
-      <c r="D70" s="105" t="s">
+      <c r="B70" s="117"/>
+      <c r="C70" s="121"/>
+      <c r="D70" s="75" t="s">
         <v>47</v>
       </c>
       <c r="E70" s="31"/>
@@ -12100,9 +12100,9 @@
       </c>
     </row>
     <row r="71" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="72"/>
-      <c r="C71" s="112"/>
-      <c r="D71" s="104" t="s">
+      <c r="B71" s="117"/>
+      <c r="C71" s="122"/>
+      <c r="D71" s="74" t="s">
         <v>21</v>
       </c>
       <c r="E71" s="31" t="s">
@@ -12252,13 +12252,13 @@
       </c>
     </row>
     <row r="72" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="113" t="s">
+      <c r="B72" s="111" t="s">
         <v>28</v>
       </c>
       <c r="C72" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="D72" s="115" t="s">
+      <c r="D72" s="82" t="s">
         <v>91</v>
       </c>
       <c r="E72" s="31" t="s">
@@ -12274,7 +12274,9 @@
         <v>44683</v>
       </c>
       <c r="I72" s="35"/>
-      <c r="J72" s="34"/>
+      <c r="J72" s="34" t="s">
+        <v>13</v>
+      </c>
       <c r="K72" s="35"/>
       <c r="M72" s="39">
         <f t="shared" si="12"/>
@@ -12402,8 +12404,8 @@
       </c>
     </row>
     <row r="73" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="116"/>
-      <c r="C73" s="70"/>
+      <c r="B73" s="112"/>
+      <c r="C73" s="102"/>
       <c r="D73" s="69" t="s">
         <v>91</v>
       </c>
@@ -12420,7 +12422,9 @@
         <v>44683</v>
       </c>
       <c r="I73" s="35"/>
-      <c r="J73" s="34"/>
+      <c r="J73" s="34" t="s">
+        <v>15</v>
+      </c>
       <c r="K73" s="35"/>
       <c r="M73" s="39">
         <f t="shared" si="12"/>
@@ -12548,8 +12552,8 @@
       </c>
     </row>
     <row r="74" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="116"/>
-      <c r="C74" s="70"/>
+      <c r="B74" s="112"/>
+      <c r="C74" s="102"/>
       <c r="D74" s="69" t="s">
         <v>91</v>
       </c>
@@ -12565,8 +12569,12 @@
       <c r="H74" s="32">
         <v>44683</v>
       </c>
-      <c r="I74" s="35"/>
-      <c r="J74" s="34"/>
+      <c r="I74" s="35">
+        <v>44683</v>
+      </c>
+      <c r="J74" s="34" t="s">
+        <v>13</v>
+      </c>
       <c r="K74" s="35"/>
       <c r="M74" s="39">
         <f t="shared" si="12"/>
@@ -12694,8 +12702,8 @@
       </c>
     </row>
     <row r="75" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="116"/>
-      <c r="C75" s="70"/>
+      <c r="B75" s="112"/>
+      <c r="C75" s="102"/>
       <c r="D75" s="69" t="s">
         <v>90</v>
       </c>
@@ -12711,8 +12719,12 @@
       <c r="H75" s="32">
         <v>44683</v>
       </c>
-      <c r="I75" s="35"/>
-      <c r="J75" s="34"/>
+      <c r="I75" s="35">
+        <v>44683</v>
+      </c>
+      <c r="J75" s="34" t="s">
+        <v>13</v>
+      </c>
       <c r="K75" s="35"/>
       <c r="M75" s="39">
         <f t="shared" si="12"/>
@@ -12840,8 +12852,8 @@
       </c>
     </row>
     <row r="76" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="116"/>
-      <c r="C76" s="70"/>
+      <c r="B76" s="112"/>
+      <c r="C76" s="102"/>
       <c r="D76" s="69" t="s">
         <v>90</v>
       </c>
@@ -12858,7 +12870,9 @@
         <v>44683</v>
       </c>
       <c r="I76" s="35"/>
-      <c r="J76" s="34"/>
+      <c r="J76" s="34" t="s">
+        <v>14</v>
+      </c>
       <c r="K76" s="35"/>
       <c r="M76" s="39">
         <f t="shared" si="12"/>
@@ -12986,8 +13000,8 @@
       </c>
     </row>
     <row r="77" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="116"/>
-      <c r="C77" s="70"/>
+      <c r="B77" s="112"/>
+      <c r="C77" s="102"/>
       <c r="D77" s="69" t="s">
         <v>90</v>
       </c>
@@ -13004,7 +13018,9 @@
         <v>44683</v>
       </c>
       <c r="I77" s="35"/>
-      <c r="J77" s="34"/>
+      <c r="J77" s="34" t="s">
+        <v>13</v>
+      </c>
       <c r="K77" s="35"/>
       <c r="M77" s="39">
         <f t="shared" si="12"/>
@@ -13132,8 +13148,8 @@
       </c>
     </row>
     <row r="78" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="116"/>
-      <c r="C78" s="70"/>
+      <c r="B78" s="112"/>
+      <c r="C78" s="102"/>
       <c r="D78" s="69" t="s">
         <v>89</v>
       </c>
@@ -13148,7 +13164,9 @@
       </c>
       <c r="H78" s="32"/>
       <c r="I78" s="35"/>
-      <c r="J78" s="34"/>
+      <c r="J78" s="34" t="s">
+        <v>15</v>
+      </c>
       <c r="K78" s="35"/>
       <c r="M78" s="39">
         <f t="shared" si="12"/>
@@ -13276,9 +13294,9 @@
       </c>
     </row>
     <row r="79" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="116"/>
-      <c r="C79" s="70"/>
-      <c r="D79" s="117" t="s">
+      <c r="B79" s="112"/>
+      <c r="C79" s="102"/>
+      <c r="D79" s="83" t="s">
         <v>87</v>
       </c>
       <c r="E79" s="31" t="s">
@@ -13292,7 +13310,9 @@
       </c>
       <c r="H79" s="32"/>
       <c r="I79" s="35"/>
-      <c r="J79" s="34"/>
+      <c r="J79" s="34" t="s">
+        <v>14</v>
+      </c>
       <c r="K79" s="35"/>
       <c r="M79" s="39">
         <f t="shared" si="12"/>
@@ -13420,9 +13440,9 @@
       </c>
     </row>
     <row r="80" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="116"/>
-      <c r="C80" s="70"/>
-      <c r="D80" s="117" t="s">
+      <c r="B80" s="112"/>
+      <c r="C80" s="102"/>
+      <c r="D80" s="83" t="s">
         <v>87</v>
       </c>
       <c r="E80" s="31" t="s">
@@ -13436,7 +13456,9 @@
       </c>
       <c r="H80" s="32"/>
       <c r="I80" s="35"/>
-      <c r="J80" s="34"/>
+      <c r="J80" s="34" t="s">
+        <v>13</v>
+      </c>
       <c r="K80" s="35"/>
       <c r="M80" s="39">
         <f t="shared" si="12"/>
@@ -13564,9 +13586,9 @@
       </c>
     </row>
     <row r="81" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="116"/>
-      <c r="C81" s="70"/>
-      <c r="D81" s="117" t="s">
+      <c r="B81" s="112"/>
+      <c r="C81" s="102"/>
+      <c r="D81" s="83" t="s">
         <v>87</v>
       </c>
       <c r="E81" s="31" t="s">
@@ -13580,7 +13602,9 @@
       </c>
       <c r="H81" s="32"/>
       <c r="I81" s="35"/>
-      <c r="J81" s="34"/>
+      <c r="J81" s="34" t="s">
+        <v>15</v>
+      </c>
       <c r="K81" s="35"/>
       <c r="M81" s="39">
         <f t="shared" si="12"/>
@@ -13708,9 +13732,9 @@
       </c>
     </row>
     <row r="82" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="116"/>
-      <c r="C82" s="70"/>
-      <c r="D82" s="118" t="s">
+      <c r="B82" s="112"/>
+      <c r="C82" s="102"/>
+      <c r="D82" s="84" t="s">
         <v>57</v>
       </c>
       <c r="E82" s="31" t="s">
@@ -13724,7 +13748,9 @@
       </c>
       <c r="H82" s="32"/>
       <c r="I82" s="35"/>
-      <c r="J82" s="34"/>
+      <c r="J82" s="34" t="s">
+        <v>14</v>
+      </c>
       <c r="K82" s="35"/>
       <c r="M82" s="39">
         <f t="shared" si="12"/>
@@ -13852,22 +13878,22 @@
       </c>
     </row>
     <row r="83" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="116"/>
-      <c r="C83" s="70"/>
-      <c r="D83" s="119" t="s">
+      <c r="B83" s="112"/>
+      <c r="C83" s="102"/>
+      <c r="D83" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="E83" s="106"/>
-      <c r="F83" s="107">
+      <c r="E83" s="76"/>
+      <c r="F83" s="77">
         <v>44687</v>
       </c>
-      <c r="G83" s="108">
+      <c r="G83" s="78">
         <v>44687</v>
       </c>
-      <c r="H83" s="109"/>
-      <c r="I83" s="110"/>
-      <c r="J83" s="111"/>
-      <c r="K83" s="110"/>
+      <c r="H83" s="79"/>
+      <c r="I83" s="80"/>
+      <c r="J83" s="81"/>
+      <c r="K83" s="80"/>
       <c r="M83" s="39">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -13994,9 +14020,9 @@
       </c>
     </row>
     <row r="84" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="120"/>
-      <c r="C84" s="121"/>
-      <c r="D84" s="122" t="s">
+      <c r="B84" s="113"/>
+      <c r="C84" s="115"/>
+      <c r="D84" s="86" t="s">
         <v>88</v>
       </c>
       <c r="E84" s="45" t="s">
@@ -14010,7 +14036,9 @@
       </c>
       <c r="H84" s="48"/>
       <c r="I84" s="49"/>
-      <c r="J84" s="50"/>
+      <c r="J84" s="50" t="s">
+        <v>13</v>
+      </c>
       <c r="K84" s="49"/>
       <c r="M84" s="39">
         <f t="shared" si="12"/>
@@ -14140,21 +14168,6 @@
   </sheetData>
   <autoFilter ref="D5:E84" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}"/>
   <mergeCells count="22">
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="C9:C38"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="B17:B27"/>
-    <mergeCell ref="B28:B38"/>
     <mergeCell ref="B72:B84"/>
     <mergeCell ref="C72:C84"/>
     <mergeCell ref="B39:B46"/>
@@ -14162,6 +14175,21 @@
     <mergeCell ref="B47:B58"/>
     <mergeCell ref="B59:B71"/>
     <mergeCell ref="C59:C71"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="C9:C38"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="B17:B27"/>
+    <mergeCell ref="B28:B38"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="M6:AQ84">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">

--- a/CMSC495_ProjectPlan.xlsx
+++ b/CMSC495_ProjectPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Git/cmsc495_final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194349A8-4D7D-B941-9F56-25A1631D3693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF6DE7C-99B8-0A48-871A-142B80A2A9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22280" yWindow="500" windowWidth="28440" windowHeight="24060" xr2:uid="{A3040AE0-0367-2B43-ADDE-84CCD12855DC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Project_Plan" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Project_Plan!$D$5:$E$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Project_Plan!$D$5:$E$83</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
   <si>
     <t>Year</t>
   </si>
@@ -359,7 +359,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,14 +426,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="61">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -1051,62 +1045,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -1188,13 +1126,13 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1207,7 +1145,7 @@
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
@@ -1216,7 +1154,7 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
@@ -1227,14 +1165,14 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1249,7 +1187,20 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1257,7 +1208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1347,35 +1298,90 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1401,89 +1407,26 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1821,7 +1764,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}">
-  <dimension ref="A1:AV84"/>
+  <dimension ref="A1:AV83"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -1880,48 +1823,48 @@
       <c r="D3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="88" t="s">
+      <c r="M3" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="103" t="s">
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="103"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="87" t="s">
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="87"/>
-      <c r="AA3" s="87"/>
-      <c r="AB3" s="87"/>
-      <c r="AC3" s="87"/>
-      <c r="AD3" s="87"/>
+      <c r="Z3" s="98"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="98"/>
+      <c r="AC3" s="98"/>
+      <c r="AD3" s="98"/>
     </row>
     <row r="4" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="95"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="89" t="s">
+      <c r="B4" s="90"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="91" t="s">
+      <c r="G4" s="101"/>
+      <c r="H4" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="92"/>
-      <c r="J4" s="93" t="s">
+      <c r="I4" s="103"/>
+      <c r="J4" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="94"/>
+      <c r="K4" s="105"/>
       <c r="M4" s="12" t="str">
         <f>TEXT(M5,"aaa")</f>
         <v>Sun</v>
@@ -2216,13 +2159,13 @@
       </c>
     </row>
     <row r="6" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="100" t="s">
+      <c r="D6" s="95" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="31" t="s">
@@ -2375,9 +2318,9 @@
       </c>
     </row>
     <row r="7" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="99"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="101"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="96"/>
       <c r="E7" s="31" t="s">
         <v>13</v>
       </c>
@@ -2528,9 +2471,9 @@
       </c>
     </row>
     <row r="8" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="99"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="101"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="96"/>
       <c r="E8" s="31" t="s">
         <v>15</v>
       </c>
@@ -2678,10 +2621,10 @@
       </c>
     </row>
     <row r="9" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="85" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="54" t="s">
@@ -2834,8 +2777,8 @@
       </c>
     </row>
     <row r="10" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="105"/>
-      <c r="C10" s="107"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="86"/>
       <c r="D10" s="55" t="s">
         <v>48</v>
       </c>
@@ -2986,8 +2929,8 @@
       </c>
     </row>
     <row r="11" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="105"/>
-      <c r="C11" s="107"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="86"/>
       <c r="D11" s="55" t="s">
         <v>48</v>
       </c>
@@ -3138,8 +3081,8 @@
       </c>
     </row>
     <row r="12" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="105"/>
-      <c r="C12" s="107"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="86"/>
       <c r="D12" s="56" t="s">
         <v>51</v>
       </c>
@@ -3290,8 +3233,8 @@
       </c>
     </row>
     <row r="13" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="105"/>
-      <c r="C13" s="107"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="86"/>
       <c r="D13" s="57" t="s">
         <v>47</v>
       </c>
@@ -3440,9 +3383,9 @@
       </c>
     </row>
     <row r="14" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="105"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="109" t="s">
+      <c r="B14" s="84"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="88" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="31" t="s">
@@ -3588,9 +3531,9 @@
       </c>
     </row>
     <row r="15" spans="1:48" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="105"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="110"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="89"/>
       <c r="E15" s="31" t="s">
         <v>13</v>
       </c>
@@ -3738,9 +3681,9 @@
       </c>
     </row>
     <row r="16" spans="1:48" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="105"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="110"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="89"/>
       <c r="E16" s="31" t="s">
         <v>15</v>
       </c>
@@ -3888,10 +3831,10 @@
       </c>
     </row>
     <row r="17" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="104" t="s">
+      <c r="B17" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="107"/>
+      <c r="C17" s="86"/>
       <c r="D17" s="58" t="s">
         <v>60</v>
       </c>
@@ -4042,8 +3985,8 @@
       </c>
     </row>
     <row r="18" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="105"/>
-      <c r="C18" s="107"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="86"/>
       <c r="D18" s="59" t="s">
         <v>62</v>
       </c>
@@ -4194,8 +4137,8 @@
       </c>
     </row>
     <row r="19" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="105"/>
-      <c r="C19" s="107"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="86"/>
       <c r="D19" s="60" t="s">
         <v>44</v>
       </c>
@@ -4346,8 +4289,8 @@
       </c>
     </row>
     <row r="20" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="105"/>
-      <c r="C20" s="107"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="86"/>
       <c r="D20" s="60" t="s">
         <v>45</v>
       </c>
@@ -4498,8 +4441,8 @@
       </c>
     </row>
     <row r="21" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="105"/>
-      <c r="C21" s="107"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="86"/>
       <c r="D21" s="60" t="s">
         <v>61</v>
       </c>
@@ -4650,8 +4593,8 @@
       </c>
     </row>
     <row r="22" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="105"/>
-      <c r="C22" s="107"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="86"/>
       <c r="D22" s="61" t="s">
         <v>63</v>
       </c>
@@ -4802,8 +4745,8 @@
       </c>
     </row>
     <row r="23" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="105"/>
-      <c r="C23" s="107"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="86"/>
       <c r="D23" s="61" t="s">
         <v>49</v>
       </c>
@@ -4954,8 +4897,8 @@
       </c>
     </row>
     <row r="24" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="105"/>
-      <c r="C24" s="107"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="86"/>
       <c r="D24" s="62" t="s">
         <v>52</v>
       </c>
@@ -5106,8 +5049,8 @@
       </c>
     </row>
     <row r="25" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="105"/>
-      <c r="C25" s="107"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="86"/>
       <c r="D25" s="61" t="s">
         <v>47</v>
       </c>
@@ -5256,8 +5199,8 @@
       </c>
     </row>
     <row r="26" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="105"/>
-      <c r="C26" s="107"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="86"/>
       <c r="D26" s="61" t="s">
         <v>58</v>
       </c>
@@ -5408,8 +5351,8 @@
       </c>
     </row>
     <row r="27" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="105"/>
-      <c r="C27" s="107"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="86"/>
       <c r="D27" s="62" t="s">
         <v>17</v>
       </c>
@@ -5560,10 +5503,10 @@
       </c>
     </row>
     <row r="28" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="104" t="s">
+      <c r="B28" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="107"/>
+      <c r="C28" s="86"/>
       <c r="D28" s="58" t="s">
         <v>50</v>
       </c>
@@ -5714,8 +5657,8 @@
       </c>
     </row>
     <row r="29" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="105"/>
-      <c r="C29" s="107"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="86"/>
       <c r="D29" s="60" t="s">
         <v>38</v>
       </c>
@@ -5866,8 +5809,8 @@
       </c>
     </row>
     <row r="30" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="105"/>
-      <c r="C30" s="107"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="86"/>
       <c r="D30" s="60" t="s">
         <v>64</v>
       </c>
@@ -6018,8 +5961,8 @@
       </c>
     </row>
     <row r="31" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="105"/>
-      <c r="C31" s="107"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="86"/>
       <c r="D31" s="60" t="s">
         <v>39</v>
       </c>
@@ -6170,8 +6113,8 @@
       </c>
     </row>
     <row r="32" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="105"/>
-      <c r="C32" s="107"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="86"/>
       <c r="D32" s="60" t="s">
         <v>40</v>
       </c>
@@ -6322,8 +6265,8 @@
       </c>
     </row>
     <row r="33" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="105"/>
-      <c r="C33" s="107"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="86"/>
       <c r="D33" s="60" t="s">
         <v>65</v>
       </c>
@@ -6474,8 +6417,8 @@
       </c>
     </row>
     <row r="34" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="105"/>
-      <c r="C34" s="107"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="86"/>
       <c r="D34" s="60" t="s">
         <v>66</v>
       </c>
@@ -6626,8 +6569,8 @@
       </c>
     </row>
     <row r="35" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="105"/>
-      <c r="C35" s="107"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="86"/>
       <c r="D35" s="62" t="s">
         <v>53</v>
       </c>
@@ -6778,8 +6721,8 @@
       </c>
     </row>
     <row r="36" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="105"/>
-      <c r="C36" s="107"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="86"/>
       <c r="D36" s="61" t="s">
         <v>47</v>
       </c>
@@ -6928,8 +6871,8 @@
       </c>
     </row>
     <row r="37" spans="2:43" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="105"/>
-      <c r="C37" s="107"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="86"/>
       <c r="D37" s="60" t="s">
         <v>41</v>
       </c>
@@ -7080,8 +7023,8 @@
       </c>
     </row>
     <row r="38" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="105"/>
-      <c r="C38" s="108"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="87"/>
       <c r="D38" s="62" t="s">
         <v>18</v>
       </c>
@@ -7232,10 +7175,10 @@
       </c>
     </row>
     <row r="39" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="116" t="s">
+      <c r="B39" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="118" t="s">
+      <c r="C39" s="78" t="s">
         <v>32</v>
       </c>
       <c r="D39" s="58" t="s">
@@ -7388,8 +7331,8 @@
       </c>
     </row>
     <row r="40" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="117"/>
-      <c r="C40" s="118"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="78"/>
       <c r="D40" s="59" t="s">
         <v>68</v>
       </c>
@@ -7540,8 +7483,8 @@
       </c>
     </row>
     <row r="41" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="117"/>
-      <c r="C41" s="118"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="78"/>
       <c r="D41" s="59" t="s">
         <v>78</v>
       </c>
@@ -7692,8 +7635,8 @@
       </c>
     </row>
     <row r="42" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="117"/>
-      <c r="C42" s="118"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="78"/>
       <c r="D42" s="59" t="s">
         <v>79</v>
       </c>
@@ -7844,8 +7787,8 @@
       </c>
     </row>
     <row r="43" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="117"/>
-      <c r="C43" s="118"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="78"/>
       <c r="D43" s="60" t="s">
         <v>80</v>
       </c>
@@ -7996,8 +7939,8 @@
       </c>
     </row>
     <row r="44" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="117"/>
-      <c r="C44" s="118"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="78"/>
       <c r="D44" s="62" t="s">
         <v>54</v>
       </c>
@@ -8148,8 +8091,8 @@
       </c>
     </row>
     <row r="45" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="117"/>
-      <c r="C45" s="118"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="78"/>
       <c r="D45" s="67" t="s">
         <v>47</v>
       </c>
@@ -8298,8 +8241,8 @@
       </c>
     </row>
     <row r="46" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="117"/>
-      <c r="C46" s="118"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="62" t="s">
         <v>19</v>
       </c>
@@ -8450,10 +8393,10 @@
       </c>
     </row>
     <row r="47" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="116" t="s">
+      <c r="B47" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="118"/>
+      <c r="C47" s="78"/>
       <c r="D47" s="58" t="s">
         <v>77</v>
       </c>
@@ -8604,8 +8547,8 @@
       </c>
     </row>
     <row r="48" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="117"/>
-      <c r="C48" s="118"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="78"/>
       <c r="D48" s="60" t="s">
         <v>69</v>
       </c>
@@ -8756,8 +8699,8 @@
       </c>
     </row>
     <row r="49" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="117"/>
-      <c r="C49" s="118"/>
+      <c r="B49" s="77"/>
+      <c r="C49" s="78"/>
       <c r="D49" s="60" t="s">
         <v>70</v>
       </c>
@@ -8908,8 +8851,8 @@
       </c>
     </row>
     <row r="50" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="117"/>
-      <c r="C50" s="118"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="78"/>
       <c r="D50" s="60" t="s">
         <v>72</v>
       </c>
@@ -9060,8 +9003,8 @@
       </c>
     </row>
     <row r="51" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="117"/>
-      <c r="C51" s="118"/>
+      <c r="B51" s="77"/>
+      <c r="C51" s="78"/>
       <c r="D51" s="60" t="s">
         <v>73</v>
       </c>
@@ -9212,8 +9155,8 @@
       </c>
     </row>
     <row r="52" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="117"/>
-      <c r="C52" s="118"/>
+      <c r="B52" s="77"/>
+      <c r="C52" s="78"/>
       <c r="D52" s="60" t="s">
         <v>74</v>
       </c>
@@ -9364,8 +9307,8 @@
       </c>
     </row>
     <row r="53" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="117"/>
-      <c r="C53" s="118"/>
+      <c r="B53" s="77"/>
+      <c r="C53" s="78"/>
       <c r="D53" s="60" t="s">
         <v>71</v>
       </c>
@@ -9516,8 +9459,8 @@
       </c>
     </row>
     <row r="54" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="117"/>
-      <c r="C54" s="118"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="78"/>
       <c r="D54" s="60" t="s">
         <v>75</v>
       </c>
@@ -9668,8 +9611,8 @@
       </c>
     </row>
     <row r="55" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="117"/>
-      <c r="C55" s="118"/>
+      <c r="B55" s="77"/>
+      <c r="C55" s="78"/>
       <c r="D55" s="61" t="s">
         <v>76</v>
       </c>
@@ -9820,8 +9763,8 @@
       </c>
     </row>
     <row r="56" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="117"/>
-      <c r="C56" s="118"/>
+      <c r="B56" s="77"/>
+      <c r="C56" s="78"/>
       <c r="D56" s="62" t="s">
         <v>55</v>
       </c>
@@ -9972,8 +9915,8 @@
       </c>
     </row>
     <row r="57" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="117"/>
-      <c r="C57" s="118"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="78"/>
       <c r="D57" s="61" t="s">
         <v>47</v>
       </c>
@@ -10122,8 +10065,8 @@
       </c>
     </row>
     <row r="58" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="117"/>
-      <c r="C58" s="119"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="79"/>
       <c r="D58" s="62" t="s">
         <v>20</v>
       </c>
@@ -10274,13 +10217,13 @@
       </c>
     </row>
     <row r="59" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="116" t="s">
+      <c r="B59" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="120" t="s">
+      <c r="C59" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="70" t="s">
+      <c r="D59" s="69" t="s">
         <v>84</v>
       </c>
       <c r="E59" s="31" t="s">
@@ -10430,9 +10373,9 @@
       </c>
     </row>
     <row r="60" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="117"/>
-      <c r="C60" s="121"/>
-      <c r="D60" s="71" t="s">
+      <c r="B60" s="77"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="70" t="s">
         <v>84</v>
       </c>
       <c r="E60" s="31" t="s">
@@ -10582,9 +10525,9 @@
       </c>
     </row>
     <row r="61" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="117"/>
-      <c r="C61" s="121"/>
-      <c r="D61" s="71" t="s">
+      <c r="B61" s="77"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="70" t="s">
         <v>85</v>
       </c>
       <c r="E61" s="31" t="s">
@@ -10734,9 +10677,9 @@
       </c>
     </row>
     <row r="62" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="117"/>
-      <c r="C62" s="121"/>
-      <c r="D62" s="71" t="s">
+      <c r="B62" s="77"/>
+      <c r="C62" s="81"/>
+      <c r="D62" s="70" t="s">
         <v>85</v>
       </c>
       <c r="E62" s="31" t="s">
@@ -10886,9 +10829,9 @@
       </c>
     </row>
     <row r="63" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="117"/>
-      <c r="C63" s="121"/>
-      <c r="D63" s="71" t="s">
+      <c r="B63" s="77"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="70" t="s">
         <v>86</v>
       </c>
       <c r="E63" s="31" t="s">
@@ -11038,9 +10981,9 @@
       </c>
     </row>
     <row r="64" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="117"/>
-      <c r="C64" s="121"/>
-      <c r="D64" s="71" t="s">
+      <c r="B64" s="77"/>
+      <c r="C64" s="81"/>
+      <c r="D64" s="70" t="s">
         <v>86</v>
       </c>
       <c r="E64" s="31" t="s">
@@ -11190,9 +11133,9 @@
       </c>
     </row>
     <row r="65" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="117"/>
-      <c r="C65" s="121"/>
-      <c r="D65" s="71" t="s">
+      <c r="B65" s="77"/>
+      <c r="C65" s="81"/>
+      <c r="D65" s="70" t="s">
         <v>86</v>
       </c>
       <c r="E65" s="31" t="s">
@@ -11342,9 +11285,9 @@
       </c>
     </row>
     <row r="66" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="117"/>
-      <c r="C66" s="121"/>
-      <c r="D66" s="71" t="s">
+      <c r="B66" s="77"/>
+      <c r="C66" s="81"/>
+      <c r="D66" s="70" t="s">
         <v>83</v>
       </c>
       <c r="E66" s="31" t="s">
@@ -11494,9 +11437,9 @@
       </c>
     </row>
     <row r="67" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="117"/>
-      <c r="C67" s="121"/>
-      <c r="D67" s="72" t="s">
+      <c r="B67" s="77"/>
+      <c r="C67" s="81"/>
+      <c r="D67" s="71" t="s">
         <v>81</v>
       </c>
       <c r="E67" s="31" t="s">
@@ -11646,9 +11589,9 @@
       </c>
     </row>
     <row r="68" spans="2:43" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="117"/>
-      <c r="C68" s="121"/>
-      <c r="D68" s="73" t="s">
+      <c r="B68" s="77"/>
+      <c r="C68" s="81"/>
+      <c r="D68" s="72" t="s">
         <v>82</v>
       </c>
       <c r="E68" s="31" t="s">
@@ -11798,9 +11741,9 @@
       </c>
     </row>
     <row r="69" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="117"/>
-      <c r="C69" s="121"/>
-      <c r="D69" s="74" t="s">
+      <c r="B69" s="77"/>
+      <c r="C69" s="81"/>
+      <c r="D69" s="73" t="s">
         <v>56</v>
       </c>
       <c r="E69" s="31" t="s">
@@ -11950,9 +11893,9 @@
       </c>
     </row>
     <row r="70" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="117"/>
-      <c r="C70" s="121"/>
-      <c r="D70" s="75" t="s">
+      <c r="B70" s="77"/>
+      <c r="C70" s="81"/>
+      <c r="D70" s="74" t="s">
         <v>47</v>
       </c>
       <c r="E70" s="31"/>
@@ -12035,7 +11978,7 @@
         <v>0</v>
       </c>
       <c r="AB70" s="40">
-        <f t="shared" ref="AB70:AQ84" si="11">IF($K70=AB$5,3,IF(OR(AND($H70&lt;=AB$5,AB$5&lt;=$I70),$H70=AB$5),2,IF(AND($F70&lt;=AB$5,AB$5&lt;=$G70),1,0)))</f>
+        <f t="shared" ref="AB70:AQ83" si="11">IF($K70=AB$5,3,IF(OR(AND($H70&lt;=AB$5,AB$5&lt;=$I70),$H70=AB$5),2,IF(AND($F70&lt;=AB$5,AB$5&lt;=$G70),1,0)))</f>
         <v>0</v>
       </c>
       <c r="AC70" s="40">
@@ -12100,9 +12043,9 @@
       </c>
     </row>
     <row r="71" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="117"/>
-      <c r="C71" s="122"/>
-      <c r="D71" s="74" t="s">
+      <c r="B71" s="77"/>
+      <c r="C71" s="82"/>
+      <c r="D71" s="73" t="s">
         <v>21</v>
       </c>
       <c r="E71" s="31" t="s">
@@ -12127,7 +12070,7 @@
         <v>44679</v>
       </c>
       <c r="M71" s="39">
-        <f t="shared" ref="M71:AB84" si="12">IF($K71=M$5,3,IF(OR(AND($H71&lt;=M$5,M$5&lt;=$I71),$H71=M$5),2,IF(AND($F71&lt;=M$5,M$5&lt;=$G71),1,0)))</f>
+        <f t="shared" ref="M71:AB83" si="12">IF($K71=M$5,3,IF(OR(AND($H71&lt;=M$5,M$5&lt;=$I71),$H71=M$5),2,IF(AND($F71&lt;=M$5,M$5&lt;=$G71),1,0)))</f>
         <v>0</v>
       </c>
       <c r="N71" s="40">
@@ -12252,13 +12195,13 @@
       </c>
     </row>
     <row r="72" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="111" t="s">
+      <c r="B72" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="C72" s="114" t="s">
+      <c r="C72" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="D72" s="82" t="s">
+      <c r="D72" s="108" t="s">
         <v>91</v>
       </c>
       <c r="E72" s="31" t="s">
@@ -12273,11 +12216,15 @@
       <c r="H72" s="32">
         <v>44683</v>
       </c>
-      <c r="I72" s="35"/>
+      <c r="I72" s="35">
+        <v>44685</v>
+      </c>
       <c r="J72" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K72" s="35"/>
+      <c r="K72" s="35">
+        <v>44684</v>
+      </c>
       <c r="M72" s="39">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -12288,11 +12235,11 @@
       </c>
       <c r="O72" s="40">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P72" s="40">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q72" s="40">
         <f t="shared" si="12"/>
@@ -12404,9 +12351,9 @@
       </c>
     </row>
     <row r="73" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="112"/>
-      <c r="C73" s="102"/>
-      <c r="D73" s="69" t="s">
+      <c r="B73" s="109"/>
+      <c r="C73" s="75"/>
+      <c r="D73" s="71" t="s">
         <v>91</v>
       </c>
       <c r="E73" s="31" t="s">
@@ -12421,11 +12368,15 @@
       <c r="H73" s="32">
         <v>44683</v>
       </c>
-      <c r="I73" s="35"/>
+      <c r="I73" s="35">
+        <v>44685</v>
+      </c>
       <c r="J73" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="K73" s="35"/>
+      <c r="K73" s="35">
+        <v>44684</v>
+      </c>
       <c r="M73" s="39">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -12436,11 +12387,11 @@
       </c>
       <c r="O73" s="40">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P73" s="40">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q73" s="40">
         <f t="shared" si="12"/>
@@ -12552,9 +12503,9 @@
       </c>
     </row>
     <row r="74" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="112"/>
-      <c r="C74" s="102"/>
-      <c r="D74" s="69" t="s">
+      <c r="B74" s="109"/>
+      <c r="C74" s="75"/>
+      <c r="D74" s="71" t="s">
         <v>91</v>
       </c>
       <c r="E74" s="31" t="s">
@@ -12575,7 +12526,9 @@
       <c r="J74" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K74" s="35"/>
+      <c r="K74" s="35">
+        <v>44684</v>
+      </c>
       <c r="M74" s="39">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -12586,7 +12539,7 @@
       </c>
       <c r="O74" s="40">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P74" s="40">
         <f t="shared" si="12"/>
@@ -12702,9 +12655,9 @@
       </c>
     </row>
     <row r="75" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="112"/>
-      <c r="C75" s="102"/>
-      <c r="D75" s="69" t="s">
+      <c r="B75" s="109"/>
+      <c r="C75" s="75"/>
+      <c r="D75" s="71" t="s">
         <v>90</v>
       </c>
       <c r="E75" s="31" t="s">
@@ -12725,7 +12678,9 @@
       <c r="J75" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K75" s="35"/>
+      <c r="K75" s="35">
+        <v>44685</v>
+      </c>
       <c r="M75" s="39">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -12740,7 +12695,7 @@
       </c>
       <c r="P75" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q75" s="40">
         <f t="shared" si="12"/>
@@ -12852,9 +12807,9 @@
       </c>
     </row>
     <row r="76" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="112"/>
-      <c r="C76" s="102"/>
-      <c r="D76" s="69" t="s">
+      <c r="B76" s="109"/>
+      <c r="C76" s="75"/>
+      <c r="D76" s="71" t="s">
         <v>90</v>
       </c>
       <c r="E76" s="31" t="s">
@@ -12867,24 +12822,28 @@
         <v>44684</v>
       </c>
       <c r="H76" s="32">
-        <v>44683</v>
-      </c>
-      <c r="I76" s="35"/>
+        <v>44684</v>
+      </c>
+      <c r="I76" s="35">
+        <v>44684</v>
+      </c>
       <c r="J76" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="K76" s="35"/>
+      <c r="K76" s="35">
+        <v>44684</v>
+      </c>
       <c r="M76" s="39">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N76" s="40">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O76" s="40">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P76" s="40">
         <f t="shared" si="12"/>
@@ -13000,9 +12959,9 @@
       </c>
     </row>
     <row r="77" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="112"/>
-      <c r="C77" s="102"/>
-      <c r="D77" s="69" t="s">
+      <c r="B77" s="109"/>
+      <c r="C77" s="75"/>
+      <c r="D77" s="71" t="s">
         <v>90</v>
       </c>
       <c r="E77" s="31" t="s">
@@ -13017,11 +12976,15 @@
       <c r="H77" s="32">
         <v>44683</v>
       </c>
-      <c r="I77" s="35"/>
+      <c r="I77" s="35">
+        <v>44684</v>
+      </c>
       <c r="J77" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K77" s="35"/>
+      <c r="K77" s="35">
+        <v>44684</v>
+      </c>
       <c r="M77" s="39">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -13032,7 +12995,7 @@
       </c>
       <c r="O77" s="40">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P77" s="40">
         <f t="shared" si="12"/>
@@ -13148,9 +13111,9 @@
       </c>
     </row>
     <row r="78" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="112"/>
-      <c r="C78" s="102"/>
-      <c r="D78" s="69" t="s">
+      <c r="B78" s="109"/>
+      <c r="C78" s="75"/>
+      <c r="D78" s="71" t="s">
         <v>89</v>
       </c>
       <c r="E78" s="31" t="s">
@@ -13162,12 +13125,18 @@
       <c r="G78" s="44">
         <v>44685</v>
       </c>
-      <c r="H78" s="32"/>
-      <c r="I78" s="35"/>
+      <c r="H78" s="32">
+        <v>44684</v>
+      </c>
+      <c r="I78" s="35">
+        <v>44684</v>
+      </c>
       <c r="J78" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="K78" s="35"/>
+      <c r="K78" s="35">
+        <v>44684</v>
+      </c>
       <c r="M78" s="39">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -13178,7 +13147,7 @@
       </c>
       <c r="O78" s="40">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P78" s="40">
         <f t="shared" si="12"/>
@@ -13294,9 +13263,9 @@
       </c>
     </row>
     <row r="79" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="112"/>
-      <c r="C79" s="102"/>
-      <c r="D79" s="83" t="s">
+      <c r="B79" s="109"/>
+      <c r="C79" s="75"/>
+      <c r="D79" s="110" t="s">
         <v>87</v>
       </c>
       <c r="E79" s="31" t="s">
@@ -13308,12 +13277,18 @@
       <c r="G79" s="44">
         <v>44685</v>
       </c>
-      <c r="H79" s="32"/>
-      <c r="I79" s="35"/>
+      <c r="H79" s="32">
+        <v>44685</v>
+      </c>
+      <c r="I79" s="35">
+        <v>44685</v>
+      </c>
       <c r="J79" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="K79" s="35"/>
+      <c r="K79" s="35">
+        <v>44685</v>
+      </c>
       <c r="M79" s="39">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -13328,7 +13303,7 @@
       </c>
       <c r="P79" s="40">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q79" s="40">
         <f t="shared" si="12"/>
@@ -13440,9 +13415,9 @@
       </c>
     </row>
     <row r="80" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="112"/>
-      <c r="C80" s="102"/>
-      <c r="D80" s="83" t="s">
+      <c r="B80" s="109"/>
+      <c r="C80" s="75"/>
+      <c r="D80" s="110" t="s">
         <v>87</v>
       </c>
       <c r="E80" s="31" t="s">
@@ -13454,12 +13429,18 @@
       <c r="G80" s="35">
         <v>44685</v>
       </c>
-      <c r="H80" s="32"/>
-      <c r="I80" s="35"/>
+      <c r="H80" s="32">
+        <v>44684</v>
+      </c>
+      <c r="I80" s="35">
+        <v>44684</v>
+      </c>
       <c r="J80" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K80" s="35"/>
+      <c r="K80" s="35">
+        <v>44684</v>
+      </c>
       <c r="M80" s="39">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -13470,7 +13451,7 @@
       </c>
       <c r="O80" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P80" s="40">
         <f t="shared" si="12"/>
@@ -13586,9 +13567,9 @@
       </c>
     </row>
     <row r="81" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="112"/>
-      <c r="C81" s="102"/>
-      <c r="D81" s="83" t="s">
+      <c r="B81" s="109"/>
+      <c r="C81" s="75"/>
+      <c r="D81" s="110" t="s">
         <v>87</v>
       </c>
       <c r="E81" s="31" t="s">
@@ -13600,12 +13581,18 @@
       <c r="G81" s="35">
         <v>44685</v>
       </c>
-      <c r="H81" s="32"/>
-      <c r="I81" s="35"/>
+      <c r="H81" s="32">
+        <v>44684</v>
+      </c>
+      <c r="I81" s="35">
+        <v>44684</v>
+      </c>
       <c r="J81" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="K81" s="35"/>
+      <c r="K81" s="35">
+        <v>44684</v>
+      </c>
       <c r="M81" s="39">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -13616,7 +13603,7 @@
       </c>
       <c r="O81" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P81" s="40">
         <f t="shared" si="12"/>
@@ -13732,9 +13719,9 @@
       </c>
     </row>
     <row r="82" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="112"/>
-      <c r="C82" s="102"/>
-      <c r="D82" s="84" t="s">
+      <c r="B82" s="109"/>
+      <c r="C82" s="75"/>
+      <c r="D82" s="111" t="s">
         <v>57</v>
       </c>
       <c r="E82" s="31" t="s">
@@ -13746,12 +13733,18 @@
       <c r="G82" s="35">
         <v>44687</v>
       </c>
-      <c r="H82" s="32"/>
-      <c r="I82" s="35"/>
+      <c r="H82" s="32">
+        <v>44685</v>
+      </c>
+      <c r="I82" s="35">
+        <v>44685</v>
+      </c>
       <c r="J82" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="K82" s="35"/>
+      <c r="K82" s="35">
+        <v>44685</v>
+      </c>
       <c r="M82" s="39">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -13766,7 +13759,7 @@
       </c>
       <c r="P82" s="40">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q82" s="40">
         <f t="shared" si="12"/>
@@ -13879,21 +13872,31 @@
     </row>
     <row r="83" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B83" s="112"/>
-      <c r="C83" s="102"/>
-      <c r="D83" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="E83" s="76"/>
-      <c r="F83" s="77">
+      <c r="C83" s="113"/>
+      <c r="D83" s="114" t="s">
+        <v>88</v>
+      </c>
+      <c r="E83" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" s="46">
+        <v>44685</v>
+      </c>
+      <c r="G83" s="47">
         <v>44687</v>
       </c>
-      <c r="G83" s="78">
-        <v>44687</v>
-      </c>
-      <c r="H83" s="79"/>
-      <c r="I83" s="80"/>
-      <c r="J83" s="81"/>
-      <c r="K83" s="80"/>
+      <c r="H83" s="48">
+        <v>44685</v>
+      </c>
+      <c r="I83" s="49">
+        <v>44685</v>
+      </c>
+      <c r="J83" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="K83" s="49">
+        <v>44685</v>
+      </c>
       <c r="M83" s="39">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -13908,11 +13911,11 @@
       </c>
       <c r="P83" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q83" s="40">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R83" s="40">
         <f t="shared" si="12"/>
@@ -14015,183 +14018,37 @@
         <v>0</v>
       </c>
       <c r="AQ83" s="41">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="113"/>
-      <c r="C84" s="115"/>
-      <c r="D84" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="E84" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="F84" s="46">
-        <v>44685</v>
-      </c>
-      <c r="G84" s="47">
-        <v>44687</v>
-      </c>
-      <c r="H84" s="48"/>
-      <c r="I84" s="49"/>
-      <c r="J84" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="K84" s="49"/>
-      <c r="M84" s="39">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N84" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O84" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P84" s="40">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="Q84" s="40">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="R84" s="40">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="S84" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="T84" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="U84" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="V84" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W84" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X84" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y84" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z84" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AA84" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AB84" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AC84" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD84" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE84" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AF84" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AG84" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AH84" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI84" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AJ84" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AK84" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL84" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AM84" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AN84" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AO84" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AP84" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AQ84" s="41">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D5:E84" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}"/>
+  <autoFilter ref="D5:E83" xr:uid="{7FDA5272-6E9B-DE4C-84C9-EA24423944AD}"/>
   <mergeCells count="22">
-    <mergeCell ref="B72:B84"/>
-    <mergeCell ref="C72:C84"/>
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="C9:C38"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="B17:B27"/>
+    <mergeCell ref="B28:B38"/>
+    <mergeCell ref="B72:B83"/>
+    <mergeCell ref="C72:C83"/>
     <mergeCell ref="B39:B46"/>
     <mergeCell ref="C39:C58"/>
     <mergeCell ref="B47:B58"/>
     <mergeCell ref="B59:B71"/>
     <mergeCell ref="C59:C71"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="C9:C38"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="B17:B27"/>
-    <mergeCell ref="B28:B38"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
-  <conditionalFormatting sqref="M6:AQ84">
+  <conditionalFormatting sqref="M6:AQ83">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>3</formula>
     </cfRule>
@@ -14203,7 +14060,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E84 J6:J84" xr:uid="{7799F778-AC45-524F-B3DE-E4EA92284CF2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J83 E6:E83" xr:uid="{7799F778-AC45-524F-B3DE-E4EA92284CF2}">
       <formula1>$AS$5:$AS$7</formula1>
     </dataValidation>
   </dataValidations>
